--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -43,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -54,156 +55,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="513">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010003</t>
-  </si>
-  <si>
-    <t>Convenience Big</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="514">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience Big</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -234,308 +235,308 @@
 30</t>
   </si>
   <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000234179, 5449000213693</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000241412, 5449000241429</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000234155, 5449000172235</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>32
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234179, 5449000213693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000241412, 5449000241429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234155, 5449000172235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32
 33
 34
 35
 36</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.33L PET</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.33л ПЭТ</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>38
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.33L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.33л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38
 39
 40
 41</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>43
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43
 44
 45
 46
@@ -544,55 +545,55 @@
 49</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>51
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51
 52
 53
 54
@@ -629,265 +630,265 @@
 85</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Цитрус микс - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>88
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88
 89
 90
 91
@@ -896,584 +897,587 @@
 94</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>97
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97
 98
 99
 100
 101</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>107
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107
 108</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>111
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111
 112
 113</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>115
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115
 116
 117</t>
   </si>
   <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>119
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119
 120
 121</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Bakery</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola 0.9L/1L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>123
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 0.9L/1L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123
 124</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>126
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126
 127
 128</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>129
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129
 130</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Diaplsy 1st</t>
-  </si>
-  <si>
-    <t>132
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Diaplsy 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132
 133
 134
 135</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Displays</t>
-  </si>
-  <si>
-    <t>137
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137
 138
 139</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>140
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140
 141</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Lemon/Berry - 1L</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>143
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Lemon/Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143
 144</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>148
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148
 149
 150
 151
@@ -1491,229 +1495,229 @@
 163</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>168
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168
 169
 170
 171</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Number of Doors</t>
-  </si>
-  <si>
-    <t>Facings Target</t>
-  </si>
-  <si>
-    <t>Facing Fact</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Share of TCCC product</t>
-  </si>
-  <si>
-    <t>Target per Door</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facing Fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of TCCC product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target per Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1725,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -1963,7 +1967,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2244,7 +2248,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2411,28 +2423,22 @@
   </sheetPr>
   <dimension ref="A1:AP172"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="AC148" activeCellId="0" sqref="AC148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="36" min="18" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.93522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.95546558704453"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="23.2591093117409"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14788,7 +14794,7 @@
       </c>
       <c r="AO147" s="11"/>
     </row>
-    <row r="148" customFormat="false" ht="260.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="221.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="n">
         <v>147</v>
       </c>
@@ -14841,14 +14847,18 @@
       <c r="AB148" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC148" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD148" s="25" t="n">
+      <c r="AC148" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD148" s="71" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE148" s="70"/>
-      <c r="AF148" s="15"/>
+      <c r="AE148" s="72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF148" s="55" t="n">
+        <v>1</v>
+      </c>
       <c r="AG148" s="15" t="s">
         <v>417</v>
       </c>
@@ -14864,7 +14874,7 @@
         <v>147</v>
       </c>
       <c r="AM148" s="46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN148" s="68" t="s">
         <v>432</v>
@@ -14888,10 +14898,10 @@
         <v>246</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H149" s="15" t="s">
         <v>52</v>
@@ -14975,10 +14985,10 @@
         <v>246</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H150" s="15" t="s">
         <v>52</v>
@@ -15062,10 +15072,10 @@
         <v>246</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H151" s="15" t="s">
         <v>52</v>
@@ -15149,10 +15159,10 @@
         <v>246</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>52</v>
@@ -15236,10 +15246,10 @@
         <v>246</v>
       </c>
       <c r="F153" s="63" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>52</v>
@@ -15252,7 +15262,7 @@
       <c r="L153" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="M153" s="71" t="s">
+      <c r="M153" s="73" t="s">
         <v>60</v>
       </c>
       <c r="N153" s="37"/>
@@ -15323,10 +15333,10 @@
         <v>246</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H154" s="15" t="s">
         <v>52</v>
@@ -15410,10 +15420,10 @@
         <v>246</v>
       </c>
       <c r="F155" s="63" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H155" s="15" t="s">
         <v>52</v>
@@ -15426,7 +15436,7 @@
       <c r="L155" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="M155" s="71" t="s">
+      <c r="M155" s="73" t="s">
         <v>69</v>
       </c>
       <c r="N155" s="37"/>
@@ -15497,10 +15507,10 @@
         <v>246</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H156" s="15" t="s">
         <v>52</v>
@@ -15584,10 +15594,10 @@
         <v>246</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H157" s="15" t="s">
         <v>52</v>
@@ -15671,10 +15681,10 @@
         <v>246</v>
       </c>
       <c r="F158" s="63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H158" s="15" t="s">
         <v>52</v>
@@ -15687,7 +15697,7 @@
       <c r="L158" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="M158" s="71" t="s">
+      <c r="M158" s="73" t="s">
         <v>72</v>
       </c>
       <c r="N158" s="37"/>
@@ -15758,10 +15768,10 @@
         <v>246</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H159" s="15" t="s">
         <v>52</v>
@@ -15772,10 +15782,10 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
       <c r="L159" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M159" s="24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N159" s="37"/>
       <c r="O159" s="37"/>
@@ -15845,10 +15855,10 @@
         <v>246</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H160" s="15" t="s">
         <v>52</v>
@@ -15859,10 +15869,10 @@
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
       <c r="L160" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M160" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N160" s="37"/>
       <c r="O160" s="37"/>
@@ -15932,10 +15942,10 @@
         <v>246</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>52</v>
@@ -16019,10 +16029,10 @@
         <v>246</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>52</v>
@@ -16106,10 +16116,10 @@
         <v>246</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H163" s="15" t="s">
         <v>52</v>
@@ -16193,10 +16203,10 @@
         <v>246</v>
       </c>
       <c r="F164" s="63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G164" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>52</v>
@@ -16209,7 +16219,7 @@
       <c r="L164" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="M164" s="71" t="s">
+      <c r="M164" s="73" t="s">
         <v>75</v>
       </c>
       <c r="N164" s="37"/>
@@ -16280,13 +16290,13 @@
         <v>246</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H165" s="39" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -16359,14 +16369,14 @@
       <c r="D166" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E166" s="72" t="s">
+      <c r="E166" s="74" t="s">
         <v>246</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>413</v>
@@ -16389,7 +16399,7 @@
       <c r="T166" s="15"/>
       <c r="U166" s="15"/>
       <c r="V166" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W166" s="15"/>
       <c r="X166" s="15"/>
@@ -16417,11 +16427,11 @@
       <c r="AL166" s="18" t="n">
         <v>165</v>
       </c>
-      <c r="AM166" s="73" t="s">
-        <v>480</v>
+      <c r="AM166" s="75" t="s">
+        <v>481</v>
       </c>
       <c r="AN166" s="68" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO166" s="11"/>
     </row>
@@ -16438,17 +16448,17 @@
       <c r="D167" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E167" s="72" t="s">
+      <c r="E167" s="74" t="s">
         <v>246</v>
       </c>
       <c r="F167" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H167" s="66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I167" s="66" t="n">
         <v>1</v>
@@ -16476,7 +16486,7 @@
       <c r="T167" s="15"/>
       <c r="U167" s="15"/>
       <c r="V167" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W167" s="15"/>
       <c r="X167" s="15"/>
@@ -16487,7 +16497,7 @@
         <v>48</v>
       </c>
       <c r="AC167" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AD167" s="25" t="n">
         <v>1</v>
@@ -16495,8 +16505,8 @@
       <c r="AE167" s="15"/>
       <c r="AF167" s="15"/>
       <c r="AG167" s="15"/>
-      <c r="AH167" s="74" t="s">
-        <v>486</v>
+      <c r="AH167" s="76" t="s">
+        <v>487</v>
       </c>
       <c r="AI167" s="15"/>
       <c r="AJ167" s="15"/>
@@ -16507,8 +16517,8 @@
         <v>166</v>
       </c>
       <c r="AM167" s="11"/>
-      <c r="AN167" s="75" t="s">
-        <v>478</v>
+      <c r="AN167" s="77" t="s">
+        <v>479</v>
       </c>
       <c r="AO167" s="11"/>
     </row>
@@ -16529,10 +16539,10 @@
         <v>246</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H168" s="15" t="s">
         <v>249</v>
@@ -16582,10 +16592,10 @@
         <v>167</v>
       </c>
       <c r="AM168" s="46" t="s">
-        <v>489</v>
-      </c>
-      <c r="AN168" s="76" t="s">
         <v>490</v>
+      </c>
+      <c r="AN168" s="78" t="s">
+        <v>491</v>
       </c>
       <c r="AO168" s="11"/>
     </row>
@@ -16606,10 +16616,10 @@
         <v>246</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H169" s="11" t="s">
         <v>323</v>
@@ -16634,8 +16644,8 @@
       <c r="T169" s="15"/>
       <c r="U169" s="15"/>
       <c r="V169" s="15"/>
-      <c r="W169" s="77" t="s">
-        <v>493</v>
+      <c r="W169" s="79" t="s">
+        <v>494</v>
       </c>
       <c r="X169" s="15"/>
       <c r="Y169" s="16"/>
@@ -16664,7 +16674,7 @@
       </c>
       <c r="AM169" s="15"/>
       <c r="AN169" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO169" s="11"/>
     </row>
@@ -16685,10 +16695,10 @@
         <v>246</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H170" s="11" t="s">
         <v>323</v>
@@ -16714,7 +16724,7 @@
       <c r="U170" s="15"/>
       <c r="V170" s="15"/>
       <c r="W170" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="X170" s="15"/>
       <c r="Y170" s="16"/>
@@ -16743,7 +16753,7 @@
       </c>
       <c r="AM170" s="15"/>
       <c r="AN170" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO170" s="11"/>
     </row>
@@ -16764,10 +16774,10 @@
         <v>246</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H171" s="11" t="s">
         <v>323</v>
@@ -16793,7 +16803,7 @@
       <c r="U171" s="15"/>
       <c r="V171" s="15"/>
       <c r="W171" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="X171" s="15"/>
       <c r="Y171" s="16"/>
@@ -16822,7 +16832,7 @@
       </c>
       <c r="AM171" s="15"/>
       <c r="AN171" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO171" s="11"/>
     </row>
@@ -16843,10 +16853,10 @@
         <v>246</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H172" s="11" t="s">
         <v>323</v>
@@ -16872,7 +16882,7 @@
       <c r="U172" s="15"/>
       <c r="V172" s="15"/>
       <c r="W172" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="X172" s="15"/>
       <c r="Y172" s="16"/>
@@ -16901,7 +16911,7 @@
       </c>
       <c r="AM172" s="15"/>
       <c r="AN172" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO172" s="11"/>
     </row>
@@ -16935,17 +16945,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
-        <v>493</v>
+      <c r="A1" s="80" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>431</v>
       </c>
     </row>
@@ -16972,41 +16979,38 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="82" t="s">
         <v>417</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="J1" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -17014,19 +17018,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="81" t="n">
+      <c r="E2" s="83" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="82" t="n">
+      <c r="J2" s="84" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="80"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -17034,19 +17038,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="83" t="n">
+      <c r="E3" s="85" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="84" t="n">
+      <c r="J3" s="86" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="80"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -17054,28 +17058,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="83" t="n">
+      <c r="E4" s="85" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="85" t="n">
+      <c r="F4" s="87" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="82" t="n">
+      <c r="J4" s="84" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="86" t="n">
+      <c r="K4" s="88" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -17104,54 +17108,51 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="88" t="s">
-        <v>509</v>
-      </c>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="H1" s="90" t="s">
+        <v>511</v>
+      </c>
+      <c r="I1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="88" t="s">
-        <v>511</v>
-      </c>
-      <c r="L1" s="88" t="s">
+      <c r="K1" s="90" t="s">
+        <v>512</v>
+      </c>
+      <c r="L1" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="90" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="89" t="s">
-        <v>512</v>
+      <c r="B4" s="91" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AO$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -385,10 +386,10 @@
     <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
@@ -424,10 +425,10 @@
     <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.9л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L/1L</t>
@@ -1731,7 +1732,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1753,6 +1754,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1796,18 +1804,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3838"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1839,7 +1868,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1850,6 +1879,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1907,7 +1942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1920,6 +1955,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1937,7 +1987,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1963,11 +2013,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1980,48 +2037,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2029,18 +2074,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2048,15 +2105,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2064,75 +2121,103 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2140,39 +2225,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2180,35 +2265,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2216,11 +2301,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2228,7 +2313,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2236,83 +2321,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2324,27 +2405,29 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Input" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf/>
@@ -2405,8 +2488,8 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF3B3838"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2423,22 +2506,28 @@
   </sheetPr>
   <dimension ref="A1:AP172"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AC148" activeCellId="0" sqref="AC148"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F29" activeCellId="0" sqref="F29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.93522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.5263157894737"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.8744939271255"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.668016194332"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.95546558704453"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.1174089068826"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="36" min="18" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.20647773279352"/>
+    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="23.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,7 +4424,7 @@
       </c>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="52.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="n">
         <v>22</v>
       </c>
@@ -4351,25 +4440,25 @@
       <c r="E23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="30" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="M23" s="23" t="n">
-        <v>4607042431029</v>
+      <c r="M23" s="35" t="n">
+        <v>5449000214744</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
@@ -4845,7 +4934,7 @@
       </c>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="52.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="n">
         <v>28</v>
       </c>
@@ -4861,25 +4950,25 @@
       <c r="E29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="31" t="s">
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="M29" s="23" t="n">
-        <v>4607042430909</v>
+      <c r="M29" s="35" t="n">
+        <v>5449000251626</v>
       </c>
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
@@ -4960,7 +5049,7 @@
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="39" t="s">
         <v>115</v>
       </c>
       <c r="M30" s="28" t="s">
@@ -5119,44 +5208,44 @@
       <c r="F32" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
       <c r="Y32" s="16"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="33" t="s">
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AC32" s="33" t="s">
+      <c r="AC32" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
       <c r="AK32" s="16" t="n">
         <v>2</v>
       </c>
@@ -5167,7 +5256,7 @@
         <v>124</v>
       </c>
       <c r="AN32" s="17"/>
-      <c r="AO32" s="36"/>
+      <c r="AO32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="n">
@@ -5375,8 +5464,8 @@
       <c r="M35" s="23" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
       <c r="P35" s="15" t="s">
         <v>53</v>
       </c>
@@ -5613,44 +5702,44 @@
       <c r="F38" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
       <c r="Y38" s="16"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="33" t="s">
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AC38" s="33" t="s">
+      <c r="AC38" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
       <c r="AK38" s="16" t="n">
         <v>2</v>
       </c>
@@ -5661,7 +5750,7 @@
         <v>137</v>
       </c>
       <c r="AN38" s="17"/>
-      <c r="AO38" s="36"/>
+      <c r="AO38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="n">
@@ -6022,44 +6111,44 @@
       <c r="F43" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
       <c r="Y43" s="16"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="33" t="s">
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AC43" s="33" t="s">
+      <c r="AC43" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
       <c r="AK43" s="16" t="n">
         <v>2</v>
       </c>
@@ -6070,7 +6159,7 @@
         <v>148</v>
       </c>
       <c r="AN43" s="17"/>
-      <c r="AO43" s="36"/>
+      <c r="AO43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
@@ -6278,8 +6367,8 @@
       <c r="M46" s="23" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="15" t="s">
         <v>53</v>
       </c>
@@ -6686,44 +6775,44 @@
       <c r="F51" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
       <c r="Y51" s="16"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="33" t="s">
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AC51" s="33" t="s">
+      <c r="AC51" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41"/>
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
       <c r="AK51" s="16" t="n">
         <v>2</v>
       </c>
@@ -6734,7 +6823,7 @@
         <v>165</v>
       </c>
       <c r="AN51" s="17"/>
-      <c r="AO51" s="36"/>
+      <c r="AO51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
@@ -6766,10 +6855,10 @@
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="M52" s="40" t="n">
+      <c r="M52" s="47" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N52" s="24"/>
@@ -6851,7 +6940,7 @@
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="46" t="s">
         <v>168</v>
       </c>
       <c r="M53" s="23" t="n">
@@ -6936,14 +7025,14 @@
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="46" t="s">
         <v>170</v>
       </c>
       <c r="M54" s="23" t="n">
         <v>4607042438738</v>
       </c>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
       <c r="P54" s="15" t="s">
         <v>53</v>
       </c>
@@ -7021,14 +7110,14 @@
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
-      <c r="L55" s="39" t="s">
+      <c r="L55" s="46" t="s">
         <v>172</v>
       </c>
       <c r="M55" s="23" t="n">
         <v>4607042438950</v>
       </c>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
       <c r="P55" s="15" t="s">
         <v>53</v>
       </c>
@@ -7106,7 +7195,7 @@
       </c>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="46" t="s">
         <v>174</v>
       </c>
       <c r="M56" s="23" t="n">
@@ -7191,14 +7280,14 @@
       </c>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="M57" s="40" t="n">
+      <c r="M57" s="47" t="n">
         <v>4607042431388</v>
       </c>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
       <c r="P57" s="15" t="s">
         <v>53</v>
       </c>
@@ -7276,7 +7365,7 @@
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="46" t="s">
         <v>178</v>
       </c>
       <c r="M58" s="23" t="n">
@@ -7361,10 +7450,10 @@
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="39" t="s">
+      <c r="L59" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="M59" s="40" t="n">
+      <c r="M59" s="47" t="n">
         <v>4607042438776</v>
       </c>
       <c r="N59" s="24"/>
@@ -7446,7 +7535,7 @@
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="46" t="s">
         <v>182</v>
       </c>
       <c r="M60" s="23" t="n">
@@ -7531,14 +7620,14 @@
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="M61" s="40" t="n">
+      <c r="M61" s="47" t="n">
         <v>4607042430619</v>
       </c>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
       <c r="P61" s="15" t="s">
         <v>53</v>
       </c>
@@ -7616,14 +7705,14 @@
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="46" t="s">
         <v>186</v>
       </c>
       <c r="M62" s="23" t="n">
         <v>4607042430565</v>
       </c>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
       <c r="P62" s="15" t="s">
         <v>53</v>
       </c>
@@ -7701,7 +7790,7 @@
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="39" t="s">
+      <c r="L63" s="46" t="s">
         <v>188</v>
       </c>
       <c r="M63" s="23" t="n">
@@ -7786,14 +7875,14 @@
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="39" t="s">
+      <c r="L64" s="46" t="s">
         <v>190</v>
       </c>
       <c r="M64" s="23" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
       <c r="P64" s="15" t="s">
         <v>53</v>
       </c>
@@ -7871,14 +7960,14 @@
       </c>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="M65" s="40" t="n">
+      <c r="M65" s="47" t="n">
         <v>4607174577794</v>
       </c>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
       <c r="P65" s="15" t="s">
         <v>53</v>
       </c>
@@ -7956,10 +8045,10 @@
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
-      <c r="L66" s="39" t="s">
+      <c r="L66" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="M66" s="40" t="n">
+      <c r="M66" s="47" t="n">
         <v>4607042439155</v>
       </c>
       <c r="N66" s="24"/>
@@ -8041,7 +8130,7 @@
       </c>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
-      <c r="L67" s="39" t="s">
+      <c r="L67" s="46" t="s">
         <v>196</v>
       </c>
       <c r="M67" s="23" t="n">
@@ -8126,10 +8215,10 @@
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="M68" s="40" t="n">
+      <c r="M68" s="47" t="n">
         <v>4607042439223</v>
       </c>
       <c r="N68" s="24"/>
@@ -8211,7 +8300,7 @@
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
-      <c r="L69" s="39" t="s">
+      <c r="L69" s="46" t="s">
         <v>200</v>
       </c>
       <c r="M69" s="23" t="n">
@@ -8296,14 +8385,14 @@
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
-      <c r="L70" s="39" t="s">
+      <c r="L70" s="46" t="s">
         <v>202</v>
       </c>
       <c r="M70" s="23" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
       <c r="P70" s="15" t="s">
         <v>53</v>
       </c>
@@ -8381,14 +8470,14 @@
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
-      <c r="L71" s="39" t="s">
+      <c r="L71" s="46" t="s">
         <v>204</v>
       </c>
       <c r="M71" s="23" t="n">
         <v>4607174578548</v>
       </c>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
       <c r="P71" s="15" t="s">
         <v>53</v>
       </c>
@@ -8466,14 +8555,14 @@
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="39" t="s">
+      <c r="L72" s="46" t="s">
         <v>206</v>
       </c>
       <c r="M72" s="23" t="n">
         <v>4607174577145</v>
       </c>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
       <c r="P72" s="15" t="s">
         <v>53</v>
       </c>
@@ -8551,7 +8640,7 @@
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
-      <c r="L73" s="39" t="s">
+      <c r="L73" s="46" t="s">
         <v>208</v>
       </c>
       <c r="M73" s="23" t="n">
@@ -8636,10 +8725,10 @@
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="M74" s="40" t="n">
+      <c r="M74" s="47" t="n">
         <v>4607042431371</v>
       </c>
       <c r="N74" s="14"/>
@@ -8721,7 +8810,7 @@
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="46" t="s">
         <v>212</v>
       </c>
       <c r="M75" s="23" t="n">
@@ -8806,7 +8895,7 @@
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="39" t="s">
+      <c r="L76" s="46" t="s">
         <v>214</v>
       </c>
       <c r="M76" s="23" t="n">
@@ -8891,7 +8980,7 @@
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="39" t="s">
+      <c r="L77" s="46" t="s">
         <v>216</v>
       </c>
       <c r="M77" s="23" t="n">
@@ -8982,8 +9071,8 @@
       <c r="M78" s="23" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
       <c r="P78" s="15" t="s">
         <v>53</v>
       </c>
@@ -9061,7 +9150,7 @@
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="42" t="s">
+      <c r="L79" s="49" t="s">
         <v>220</v>
       </c>
       <c r="M79" s="23" t="n">
@@ -9231,7 +9320,7 @@
       </c>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="42" t="s">
+      <c r="L81" s="49" t="s">
         <v>224</v>
       </c>
       <c r="M81" s="23" t="n">
@@ -9316,14 +9405,14 @@
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="39" t="s">
+      <c r="L82" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="M82" s="40" t="n">
+      <c r="M82" s="47" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
       <c r="P82" s="15" t="s">
         <v>53</v>
       </c>
@@ -9366,7 +9455,7 @@
         <v>81</v>
       </c>
       <c r="AM82" s="16"/>
-      <c r="AN82" s="43" t="s">
+      <c r="AN82" s="50" t="s">
         <v>163</v>
       </c>
       <c r="AO82" s="12"/>
@@ -9401,14 +9490,14 @@
       </c>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="39" t="s">
+      <c r="L83" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="M83" s="40" t="n">
+      <c r="M83" s="47" t="n">
         <v>4607174579477</v>
       </c>
-      <c r="N83" s="41"/>
-      <c r="O83" s="41"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
       <c r="P83" s="15" t="s">
         <v>53</v>
       </c>
@@ -9451,7 +9540,7 @@
         <v>82</v>
       </c>
       <c r="AM83" s="16"/>
-      <c r="AN83" s="43" t="s">
+      <c r="AN83" s="50" t="s">
         <v>163</v>
       </c>
       <c r="AO83" s="12"/>
@@ -9486,14 +9575,14 @@
       </c>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
-      <c r="L84" s="39" t="s">
+      <c r="L84" s="46" t="s">
         <v>230</v>
       </c>
       <c r="M84" s="23" t="n">
         <v>4607174579668</v>
       </c>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="48"/>
       <c r="P84" s="15" t="s">
         <v>53</v>
       </c>
@@ -9536,7 +9625,7 @@
         <v>83</v>
       </c>
       <c r="AM84" s="16"/>
-      <c r="AN84" s="43" t="s">
+      <c r="AN84" s="50" t="s">
         <v>163</v>
       </c>
       <c r="AO84" s="12"/>
@@ -9571,14 +9660,14 @@
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="42" t="s">
+      <c r="L85" s="49" t="s">
         <v>232</v>
       </c>
       <c r="M85" s="23" t="n">
         <v>4607042438967</v>
       </c>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
       <c r="P85" s="15" t="s">
         <v>53</v>
       </c>
@@ -9621,7 +9710,7 @@
         <v>84</v>
       </c>
       <c r="AM85" s="16"/>
-      <c r="AN85" s="43" t="s">
+      <c r="AN85" s="50" t="s">
         <v>163</v>
       </c>
       <c r="AO85" s="12"/>
@@ -9656,14 +9745,14 @@
       </c>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="42" t="s">
+      <c r="L86" s="49" t="s">
         <v>234</v>
       </c>
       <c r="M86" s="23" t="n">
         <v>4607174579248</v>
       </c>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
       <c r="P86" s="15" t="s">
         <v>53</v>
       </c>
@@ -9706,7 +9795,7 @@
         <v>85</v>
       </c>
       <c r="AM86" s="16"/>
-      <c r="AN86" s="43" t="s">
+      <c r="AN86" s="50" t="s">
         <v>163</v>
       </c>
       <c r="AO86" s="12"/>
@@ -9744,15 +9833,15 @@
       <c r="L87" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M87" s="37" t="s">
+      <c r="M87" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="N87" s="37" t="s">
+      <c r="N87" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="O87" s="37"/>
+      <c r="O87" s="44"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="44" t="s">
+      <c r="Q87" s="51" t="s">
         <v>242</v>
       </c>
       <c r="R87" s="11"/>
@@ -9789,7 +9878,7 @@
         <v>86</v>
       </c>
       <c r="AM87" s="11"/>
-      <c r="AN87" s="45"/>
+      <c r="AN87" s="52"/>
       <c r="AO87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9823,9 +9912,9 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
       <c r="P88" s="15" t="s">
         <v>250</v>
       </c>
@@ -9865,10 +9954,10 @@
       <c r="AL88" s="18" t="n">
         <v>87</v>
       </c>
-      <c r="AM88" s="46" t="s">
+      <c r="AM88" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="AN88" s="47" t="s">
+      <c r="AN88" s="54" t="s">
         <v>253</v>
       </c>
       <c r="AO88" s="11"/>
@@ -9903,7 +9992,7 @@
       </c>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="39" t="s">
+      <c r="L89" s="46" t="s">
         <v>63</v>
       </c>
       <c r="M89" s="24" t="n">
@@ -9911,10 +10000,10 @@
       </c>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
-      <c r="P89" s="39" t="s">
+      <c r="P89" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q89" s="39" t="s">
+      <c r="Q89" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R89" s="11"/>
@@ -9988,7 +10077,7 @@
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="39" t="s">
+      <c r="L90" s="46" t="s">
         <v>88</v>
       </c>
       <c r="M90" s="24" t="n">
@@ -9996,10 +10085,10 @@
       </c>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
-      <c r="P90" s="39" t="s">
+      <c r="P90" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q90" s="39" t="s">
+      <c r="Q90" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R90" s="11"/>
@@ -10081,10 +10170,10 @@
       </c>
       <c r="N91" s="24"/>
       <c r="O91" s="24"/>
-      <c r="P91" s="39" t="s">
+      <c r="P91" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q91" s="39" t="s">
+      <c r="Q91" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R91" s="11"/>
@@ -10161,15 +10250,15 @@
       <c r="L92" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M92" s="38" t="n">
+      <c r="M92" s="45" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="39" t="s">
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q92" s="39" t="s">
+      <c r="Q92" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R92" s="11"/>
@@ -10251,10 +10340,10 @@
       </c>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
-      <c r="P93" s="39" t="s">
+      <c r="P93" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q93" s="39" t="s">
+      <c r="Q93" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R93" s="11"/>
@@ -10336,10 +10425,10 @@
       </c>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
-      <c r="P94" s="39" t="s">
+      <c r="P94" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q94" s="39" t="s">
+      <c r="Q94" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R94" s="11"/>
@@ -10421,10 +10510,10 @@
       </c>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
-      <c r="P95" s="39" t="s">
+      <c r="P95" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q95" s="39" t="s">
+      <c r="Q95" s="46" t="s">
         <v>54</v>
       </c>
       <c r="R95" s="11"/>
@@ -10501,15 +10590,15 @@
       <c r="L96" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M96" s="37" t="s">
+      <c r="M96" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="N96" s="37" t="s">
+      <c r="N96" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="O96" s="37"/>
+      <c r="O96" s="44"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="44" t="s">
+      <c r="Q96" s="51" t="s">
         <v>242</v>
       </c>
       <c r="R96" s="11"/>
@@ -10546,7 +10635,7 @@
         <v>95</v>
       </c>
       <c r="AM96" s="11"/>
-      <c r="AN96" s="45"/>
+      <c r="AN96" s="52"/>
       <c r="AO96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="81.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10580,9 +10669,9 @@
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
       <c r="P97" s="15" t="s">
         <v>250</v>
       </c>
@@ -10622,10 +10711,10 @@
       <c r="AL97" s="13" t="n">
         <v>96</v>
       </c>
-      <c r="AM97" s="46" t="s">
+      <c r="AM97" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="AN97" s="47" t="s">
+      <c r="AN97" s="54" t="s">
         <v>253</v>
       </c>
       <c r="AO97" s="11"/>
@@ -10660,18 +10749,18 @@
       </c>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="39" t="s">
+      <c r="L98" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="M98" s="48" t="n">
+      <c r="M98" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
-      <c r="P98" s="49" t="s">
+      <c r="P98" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q98" s="49" t="s">
+      <c r="Q98" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R98" s="11"/>
@@ -10745,7 +10834,7 @@
       </c>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="39" t="s">
+      <c r="L99" s="46" t="s">
         <v>168</v>
       </c>
       <c r="M99" s="24" t="n">
@@ -10753,10 +10842,10 @@
       </c>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
-      <c r="P99" s="49" t="s">
+      <c r="P99" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q99" s="49" t="s">
+      <c r="Q99" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R99" s="11"/>
@@ -10830,7 +10919,7 @@
       </c>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
-      <c r="L100" s="39" t="s">
+      <c r="L100" s="46" t="s">
         <v>170</v>
       </c>
       <c r="M100" s="24" t="n">
@@ -10838,10 +10927,10 @@
       </c>
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
-      <c r="P100" s="49" t="s">
+      <c r="P100" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q100" s="49" t="s">
+      <c r="Q100" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R100" s="11"/>
@@ -10915,18 +11004,18 @@
       </c>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
-      <c r="L101" s="39" t="s">
+      <c r="L101" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="M101" s="50" t="n">
+      <c r="M101" s="57" t="n">
         <v>4607174578449</v>
       </c>
-      <c r="N101" s="50"/>
-      <c r="O101" s="50"/>
-      <c r="P101" s="49" t="s">
+      <c r="N101" s="57"/>
+      <c r="O101" s="57"/>
+      <c r="P101" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q101" s="49" t="s">
+      <c r="Q101" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R101" s="11"/>
@@ -11000,18 +11089,18 @@
       </c>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
-      <c r="L102" s="39" t="s">
+      <c r="L102" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="M102" s="50" t="n">
+      <c r="M102" s="57" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="N102" s="50"/>
-      <c r="O102" s="50"/>
-      <c r="P102" s="49" t="s">
+      <c r="N102" s="57"/>
+      <c r="O102" s="57"/>
+      <c r="P102" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q102" s="49" t="s">
+      <c r="Q102" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R102" s="11"/>
@@ -11088,15 +11177,15 @@
       <c r="L103" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M103" s="37" t="s">
+      <c r="M103" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="N103" s="37" t="s">
+      <c r="N103" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="O103" s="37"/>
+      <c r="O103" s="44"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="44" t="s">
+      <c r="Q103" s="51" t="s">
         <v>242</v>
       </c>
       <c r="R103" s="11"/>
@@ -11133,7 +11222,7 @@
         <v>102</v>
       </c>
       <c r="AM103" s="11"/>
-      <c r="AN103" s="45"/>
+      <c r="AN103" s="52"/>
       <c r="AO103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,10 +11256,10 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="39" t="s">
+      <c r="M104" s="44"/>
+      <c r="N104" s="44"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="46" t="s">
         <v>250</v>
       </c>
       <c r="Q104" s="11"/>
@@ -11209,10 +11298,10 @@
       <c r="AL104" s="18" t="n">
         <v>103</v>
       </c>
-      <c r="AM104" s="51" t="s">
+      <c r="AM104" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="AN104" s="47" t="s">
+      <c r="AN104" s="54" t="s">
         <v>253</v>
       </c>
       <c r="AO104" s="11"/>
@@ -11247,7 +11336,7 @@
       </c>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
-      <c r="L105" s="39" t="s">
+      <c r="L105" s="46" t="s">
         <v>297</v>
       </c>
       <c r="M105" s="24" t="n">
@@ -11255,10 +11344,10 @@
       </c>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
-      <c r="P105" s="39" t="s">
+      <c r="P105" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q105" s="49" t="s">
+      <c r="Q105" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R105" s="11"/>
@@ -11335,15 +11424,15 @@
       <c r="L106" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M106" s="38" t="s">
+      <c r="M106" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="N106" s="38" t="s">
+      <c r="N106" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="O106" s="38"/>
-      <c r="P106" s="49"/>
-      <c r="Q106" s="44" t="s">
+      <c r="O106" s="45"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="51" t="s">
         <v>242</v>
       </c>
       <c r="R106" s="11"/>
@@ -11380,7 +11469,7 @@
         <v>105</v>
       </c>
       <c r="AM106" s="11"/>
-      <c r="AN106" s="45"/>
+      <c r="AN106" s="52"/>
       <c r="AO106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,10 +11503,10 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="38"/>
-      <c r="O107" s="38"/>
-      <c r="P107" s="39" t="s">
+      <c r="M107" s="45"/>
+      <c r="N107" s="45"/>
+      <c r="O107" s="45"/>
+      <c r="P107" s="46" t="s">
         <v>250</v>
       </c>
       <c r="Q107" s="11"/>
@@ -11456,10 +11545,10 @@
       <c r="AL107" s="13" t="n">
         <v>106</v>
       </c>
-      <c r="AM107" s="46" t="s">
+      <c r="AM107" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="AN107" s="47" t="s">
+      <c r="AN107" s="54" t="s">
         <v>253</v>
       </c>
       <c r="AO107" s="11"/>
@@ -11497,15 +11586,15 @@
       <c r="L108" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="M108" s="41" t="n">
+      <c r="M108" s="48" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="39" t="s">
+      <c r="N108" s="48"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q108" s="49" t="s">
+      <c r="Q108" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R108" s="11"/>
@@ -11582,15 +11671,15 @@
       <c r="L109" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="M109" s="41" t="n">
+      <c r="M109" s="48" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="39" t="s">
+      <c r="N109" s="48"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q109" s="49" t="s">
+      <c r="Q109" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R109" s="11"/>
@@ -11667,15 +11756,15 @@
       <c r="L110" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M110" s="38" t="s">
+      <c r="M110" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="N110" s="38" t="s">
+      <c r="N110" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="O110" s="38"/>
+      <c r="O110" s="45"/>
       <c r="P110" s="11"/>
-      <c r="Q110" s="44" t="s">
+      <c r="Q110" s="51" t="s">
         <v>242</v>
       </c>
       <c r="R110" s="11"/>
@@ -11737,7 +11826,7 @@
       <c r="G111" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H111" s="52" t="s">
+      <c r="H111" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I111" s="15" t="n">
@@ -11746,16 +11835,16 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="37"/>
-      <c r="O111" s="37"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="44"/>
       <c r="P111" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
       <c r="S111" s="11"/>
-      <c r="T111" s="33"/>
+      <c r="T111" s="40"/>
       <c r="U111" s="11"/>
       <c r="V111" s="11" t="s">
         <v>317</v>
@@ -11788,7 +11877,7 @@
       <c r="AL111" s="13" t="n">
         <v>110</v>
       </c>
-      <c r="AM111" s="46" t="s">
+      <c r="AM111" s="53" t="s">
         <v>318</v>
       </c>
       <c r="AN111" s="11"/>
@@ -11827,13 +11916,13 @@
       <c r="L112" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M112" s="37" t="s">
+      <c r="M112" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="N112" s="37" t="s">
+      <c r="N112" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="O112" s="37"/>
+      <c r="O112" s="44"/>
       <c r="P112" s="11" t="s">
         <v>53</v>
       </c>
@@ -11842,7 +11931,7 @@
       </c>
       <c r="R112" s="11"/>
       <c r="S112" s="11"/>
-      <c r="T112" s="33"/>
+      <c r="T112" s="40"/>
       <c r="U112" s="11"/>
       <c r="V112" s="11" t="s">
         <v>317</v>
@@ -11888,81 +11977,81 @@
       <c r="B113" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C113" s="53" t="s">
+      <c r="C113" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="D113" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="54" t="s">
+      <c r="E113" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="F113" s="53" t="s">
+      <c r="F113" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="G113" s="53" t="s">
+      <c r="G113" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="H113" s="55" t="s">
+      <c r="H113" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="I113" s="55" t="n">
+      <c r="I113" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="J113" s="55"/>
-      <c r="K113" s="55"/>
-      <c r="L113" s="55"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="53" t="s">
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
+      <c r="O113" s="63"/>
+      <c r="P113" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="Q113" s="53" t="s">
+      <c r="Q113" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="R113" s="53"/>
-      <c r="S113" s="53"/>
-      <c r="T113" s="55" t="s">
+      <c r="R113" s="60"/>
+      <c r="S113" s="60"/>
+      <c r="T113" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="U113" s="53"/>
-      <c r="V113" s="53" t="s">
+      <c r="U113" s="60"/>
+      <c r="V113" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="W113" s="53"/>
-      <c r="X113" s="53"/>
+      <c r="W113" s="60"/>
+      <c r="X113" s="60"/>
       <c r="Y113" s="16" t="n">
         <v>101</v>
       </c>
-      <c r="Z113" s="53"/>
-      <c r="AA113" s="53"/>
-      <c r="AB113" s="53" t="s">
+      <c r="Z113" s="60"/>
+      <c r="AA113" s="60"/>
+      <c r="AB113" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AC113" s="55" t="s">
+      <c r="AC113" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="AD113" s="57" t="n">
+      <c r="AD113" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AE113" s="55"/>
-      <c r="AF113" s="55"/>
-      <c r="AG113" s="55"/>
-      <c r="AH113" s="55"/>
-      <c r="AI113" s="55"/>
-      <c r="AJ113" s="55"/>
-      <c r="AK113" s="53" t="n">
+      <c r="AE113" s="62"/>
+      <c r="AF113" s="62"/>
+      <c r="AG113" s="62"/>
+      <c r="AH113" s="62"/>
+      <c r="AI113" s="62"/>
+      <c r="AJ113" s="62"/>
+      <c r="AK113" s="60" t="n">
         <v>3</v>
       </c>
       <c r="AL113" s="13" t="n">
         <v>112</v>
       </c>
-      <c r="AM113" s="53"/>
+      <c r="AM113" s="60"/>
       <c r="AN113" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="AO113" s="53"/>
+      <c r="AO113" s="60"/>
     </row>
     <row r="114" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="n">
@@ -11986,22 +12075,22 @@
       <c r="G114" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="H114" s="58" t="s">
+      <c r="H114" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="I114" s="59"/>
+      <c r="I114" s="66"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M114" s="37" t="n">
+      <c r="M114" s="44" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="N114" s="37" t="s">
+      <c r="N114" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="O114" s="37"/>
+      <c r="O114" s="44"/>
       <c r="P114" s="11" t="s">
         <v>53</v>
       </c>
@@ -12010,7 +12099,7 @@
       </c>
       <c r="R114" s="11"/>
       <c r="S114" s="11"/>
-      <c r="T114" s="33"/>
+      <c r="T114" s="40"/>
       <c r="U114" s="11"/>
       <c r="V114" s="11" t="s">
         <v>317</v>
@@ -12073,7 +12162,7 @@
       <c r="G115" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="H115" s="52" t="s">
+      <c r="H115" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I115" s="15" t="n">
@@ -12082,16 +12171,16 @@
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="45"/>
+      <c r="O115" s="45"/>
       <c r="P115" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
       <c r="S115" s="11"/>
-      <c r="T115" s="33"/>
+      <c r="T115" s="40"/>
       <c r="U115" s="11"/>
       <c r="V115" s="11" t="s">
         <v>317</v>
@@ -12117,7 +12206,7 @@
       <c r="AG115" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="AH115" s="55" t="s">
+      <c r="AH115" s="62" t="s">
         <v>332</v>
       </c>
       <c r="AI115" s="15"/>
@@ -12128,7 +12217,7 @@
       <c r="AL115" s="13" t="n">
         <v>114</v>
       </c>
-      <c r="AM115" s="46" t="s">
+      <c r="AM115" s="53" t="s">
         <v>333</v>
       </c>
       <c r="AN115" s="11"/>
@@ -12167,20 +12256,20 @@
       <c r="L116" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M116" s="37" t="n">
+      <c r="M116" s="44" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="N116" s="37"/>
-      <c r="O116" s="37"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="44"/>
       <c r="P116" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q116" s="49" t="s">
+      <c r="Q116" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R116" s="11"/>
       <c r="S116" s="11"/>
-      <c r="T116" s="33"/>
+      <c r="T116" s="40"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11" t="s">
         <v>317</v>
@@ -12252,20 +12341,20 @@
       <c r="L117" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="M117" s="37" t="n">
+      <c r="M117" s="44" t="n">
         <v>5449000012203</v>
       </c>
-      <c r="N117" s="37"/>
-      <c r="O117" s="37"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="44"/>
       <c r="P117" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q117" s="49" t="s">
+      <c r="Q117" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R117" s="11"/>
       <c r="S117" s="11"/>
-      <c r="T117" s="33"/>
+      <c r="T117" s="40"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11" t="s">
         <v>317</v>
@@ -12337,20 +12426,20 @@
       <c r="L118" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M118" s="60" t="n">
+      <c r="M118" s="67" t="n">
         <v>5449000052926</v>
       </c>
-      <c r="N118" s="37"/>
-      <c r="O118" s="37"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="44"/>
       <c r="P118" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q118" s="49" t="s">
+      <c r="Q118" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R118" s="11"/>
       <c r="S118" s="11"/>
-      <c r="T118" s="33"/>
+      <c r="T118" s="40"/>
       <c r="U118" s="11"/>
       <c r="V118" s="11" t="s">
         <v>317</v>
@@ -12388,7 +12477,7 @@
         <v>330</v>
       </c>
       <c r="AO118" s="11"/>
-      <c r="AP118" s="61"/>
+      <c r="AP118" s="68"/>
     </row>
     <row r="119" customFormat="false" ht="48.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="18" t="n">
@@ -12412,7 +12501,7 @@
       <c r="G119" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="H119" s="52" t="s">
+      <c r="H119" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I119" s="15" t="n">
@@ -12421,16 +12510,16 @@
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="37"/>
-      <c r="O119" s="37"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="44"/>
       <c r="P119" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
       <c r="S119" s="11"/>
-      <c r="T119" s="33"/>
+      <c r="T119" s="40"/>
       <c r="U119" s="11"/>
       <c r="V119" s="11" t="s">
         <v>317</v>
@@ -12463,7 +12552,7 @@
       <c r="AL119" s="13" t="n">
         <v>118</v>
       </c>
-      <c r="AM119" s="46" t="s">
+      <c r="AM119" s="53" t="s">
         <v>342</v>
       </c>
       <c r="AN119" s="11"/>
@@ -12502,13 +12591,13 @@
       <c r="L120" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M120" s="37" t="s">
+      <c r="M120" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="N120" s="37" t="s">
+      <c r="N120" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="O120" s="37"/>
+      <c r="O120" s="44"/>
       <c r="P120" s="11" t="s">
         <v>53</v>
       </c>
@@ -12517,7 +12606,7 @@
       </c>
       <c r="R120" s="11"/>
       <c r="S120" s="11"/>
-      <c r="T120" s="33"/>
+      <c r="T120" s="40"/>
       <c r="U120" s="11"/>
       <c r="V120" s="11" t="s">
         <v>317</v>
@@ -12563,81 +12652,81 @@
       <c r="B121" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="54" t="s">
+      <c r="D121" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E121" s="54" t="s">
+      <c r="E121" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="F121" s="53" t="s">
+      <c r="F121" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="G121" s="53" t="s">
+      <c r="G121" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="H121" s="55" t="s">
+      <c r="H121" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="I121" s="55" t="n">
+      <c r="I121" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="56"/>
-      <c r="O121" s="56"/>
-      <c r="P121" s="53" t="s">
+      <c r="J121" s="62"/>
+      <c r="K121" s="62"/>
+      <c r="L121" s="62"/>
+      <c r="M121" s="63"/>
+      <c r="N121" s="63"/>
+      <c r="O121" s="63"/>
+      <c r="P121" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="Q121" s="53" t="s">
+      <c r="Q121" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="R121" s="53"/>
-      <c r="S121" s="53"/>
-      <c r="T121" s="55" t="s">
+      <c r="R121" s="60"/>
+      <c r="S121" s="60"/>
+      <c r="T121" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="U121" s="53"/>
-      <c r="V121" s="53" t="s">
+      <c r="U121" s="60"/>
+      <c r="V121" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="W121" s="53"/>
-      <c r="X121" s="53"/>
+      <c r="W121" s="60"/>
+      <c r="X121" s="60"/>
       <c r="Y121" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="Z121" s="53"/>
-      <c r="AA121" s="53"/>
-      <c r="AB121" s="53" t="s">
+      <c r="Z121" s="60"/>
+      <c r="AA121" s="60"/>
+      <c r="AB121" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AC121" s="55" t="s">
+      <c r="AC121" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="AD121" s="57" t="n">
+      <c r="AD121" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AE121" s="55"/>
-      <c r="AF121" s="55"/>
-      <c r="AG121" s="55"/>
-      <c r="AH121" s="55"/>
-      <c r="AI121" s="55"/>
-      <c r="AJ121" s="55"/>
-      <c r="AK121" s="53" t="n">
+      <c r="AE121" s="62"/>
+      <c r="AF121" s="62"/>
+      <c r="AG121" s="62"/>
+      <c r="AH121" s="62"/>
+      <c r="AI121" s="62"/>
+      <c r="AJ121" s="62"/>
+      <c r="AK121" s="60" t="n">
         <v>3</v>
       </c>
       <c r="AL121" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="AM121" s="53"/>
-      <c r="AN121" s="53" t="s">
+      <c r="AM121" s="60"/>
+      <c r="AN121" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="AO121" s="53"/>
+      <c r="AO121" s="60"/>
     </row>
     <row r="122" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="n">
@@ -12649,10 +12738,10 @@
       <c r="C122" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="62" t="s">
+      <c r="D122" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E122" s="62" t="s">
+      <c r="E122" s="69" t="s">
         <v>313</v>
       </c>
       <c r="F122" s="15" t="s">
@@ -12661,10 +12750,10 @@
       <c r="G122" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="H122" s="58" t="s">
+      <c r="H122" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="I122" s="59"/>
+      <c r="I122" s="66"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
       <c r="L122" s="15" t="s">
@@ -12685,7 +12774,7 @@
       </c>
       <c r="R122" s="11"/>
       <c r="S122" s="11"/>
-      <c r="T122" s="33"/>
+      <c r="T122" s="40"/>
       <c r="U122" s="11"/>
       <c r="V122" s="11" t="s">
         <v>317</v>
@@ -12748,7 +12837,7 @@
       <c r="G123" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="H123" s="52" t="s">
+      <c r="H123" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I123" s="15" t="n">
@@ -12757,16 +12846,16 @@
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
-      <c r="M123" s="38"/>
-      <c r="N123" s="38"/>
-      <c r="O123" s="38"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="45"/>
+      <c r="O123" s="45"/>
       <c r="P123" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q123" s="11"/>
       <c r="R123" s="11"/>
       <c r="S123" s="11"/>
-      <c r="T123" s="33"/>
+      <c r="T123" s="40"/>
       <c r="U123" s="11"/>
       <c r="V123" s="11" t="s">
         <v>317</v>
@@ -12792,7 +12881,7 @@
       <c r="AG123" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="AH123" s="55" t="s">
+      <c r="AH123" s="62" t="s">
         <v>353</v>
       </c>
       <c r="AI123" s="15"/>
@@ -12803,7 +12892,7 @@
       <c r="AL123" s="13" t="n">
         <v>122</v>
       </c>
-      <c r="AM123" s="46" t="s">
+      <c r="AM123" s="53" t="s">
         <v>354</v>
       </c>
       <c r="AN123" s="11"/>
@@ -12850,12 +12939,12 @@
       <c r="P124" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q124" s="49" t="s">
+      <c r="Q124" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R124" s="11"/>
       <c r="S124" s="11"/>
-      <c r="T124" s="33"/>
+      <c r="T124" s="40"/>
       <c r="U124" s="11"/>
       <c r="V124" s="11" t="s">
         <v>317</v>
@@ -12935,12 +13024,12 @@
       <c r="P125" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q125" s="49" t="s">
+      <c r="Q125" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R125" s="11"/>
       <c r="S125" s="11"/>
-      <c r="T125" s="33"/>
+      <c r="T125" s="40"/>
       <c r="U125" s="11"/>
       <c r="V125" s="11" t="s">
         <v>317</v>
@@ -13001,7 +13090,7 @@
       <c r="G126" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="H126" s="52" t="s">
+      <c r="H126" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I126" s="15" t="n">
@@ -13010,16 +13099,16 @@
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="37"/>
+      <c r="M126" s="44"/>
+      <c r="N126" s="44"/>
+      <c r="O126" s="44"/>
       <c r="P126" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
       <c r="S126" s="11"/>
-      <c r="T126" s="33"/>
+      <c r="T126" s="40"/>
       <c r="U126" s="11"/>
       <c r="V126" s="11" t="s">
         <v>362</v>
@@ -13052,7 +13141,7 @@
       <c r="AL126" s="18" t="n">
         <v>125</v>
       </c>
-      <c r="AM126" s="46" t="s">
+      <c r="AM126" s="53" t="s">
         <v>363</v>
       </c>
       <c r="AN126" s="11"/>
@@ -13091,13 +13180,13 @@
       <c r="L127" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M127" s="37" t="s">
+      <c r="M127" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="N127" s="37" t="s">
+      <c r="N127" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="O127" s="37"/>
+      <c r="O127" s="44"/>
       <c r="P127" s="11" t="s">
         <v>53</v>
       </c>
@@ -13106,7 +13195,7 @@
       </c>
       <c r="R127" s="11"/>
       <c r="S127" s="11"/>
-      <c r="T127" s="33"/>
+      <c r="T127" s="40"/>
       <c r="U127" s="11"/>
       <c r="V127" s="11" t="s">
         <v>362</v>
@@ -13152,81 +13241,81 @@
       <c r="B128" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="53" t="s">
+      <c r="C128" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D128" s="54" t="s">
+      <c r="D128" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E128" s="54" t="s">
+      <c r="E128" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="F128" s="53" t="s">
+      <c r="F128" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="G128" s="53" t="s">
+      <c r="G128" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="H128" s="55" t="s">
+      <c r="H128" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="I128" s="55" t="n">
+      <c r="I128" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="J128" s="55"/>
-      <c r="K128" s="55"/>
-      <c r="L128" s="55"/>
-      <c r="M128" s="56"/>
-      <c r="N128" s="56"/>
-      <c r="O128" s="56"/>
-      <c r="P128" s="53" t="s">
+      <c r="J128" s="62"/>
+      <c r="K128" s="62"/>
+      <c r="L128" s="62"/>
+      <c r="M128" s="63"/>
+      <c r="N128" s="63"/>
+      <c r="O128" s="63"/>
+      <c r="P128" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="Q128" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="R128" s="53"/>
-      <c r="S128" s="53"/>
-      <c r="T128" s="55" t="s">
+      <c r="R128" s="60"/>
+      <c r="S128" s="60"/>
+      <c r="T128" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="U128" s="53"/>
-      <c r="V128" s="53" t="s">
+      <c r="U128" s="60"/>
+      <c r="V128" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="W128" s="53"/>
-      <c r="X128" s="53"/>
+      <c r="W128" s="60"/>
+      <c r="X128" s="60"/>
       <c r="Y128" s="16" t="n">
         <v>1101</v>
       </c>
-      <c r="Z128" s="53"/>
-      <c r="AA128" s="53"/>
-      <c r="AB128" s="53" t="s">
+      <c r="Z128" s="60"/>
+      <c r="AA128" s="60"/>
+      <c r="AB128" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AC128" s="55" t="s">
+      <c r="AC128" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="AD128" s="57" t="n">
+      <c r="AD128" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AE128" s="55"/>
-      <c r="AF128" s="55"/>
-      <c r="AG128" s="55"/>
-      <c r="AH128" s="55"/>
-      <c r="AI128" s="55"/>
-      <c r="AJ128" s="55"/>
-      <c r="AK128" s="53" t="n">
+      <c r="AE128" s="62"/>
+      <c r="AF128" s="62"/>
+      <c r="AG128" s="62"/>
+      <c r="AH128" s="62"/>
+      <c r="AI128" s="62"/>
+      <c r="AJ128" s="62"/>
+      <c r="AK128" s="60" t="n">
         <v>3</v>
       </c>
       <c r="AL128" s="18" t="n">
         <v>127</v>
       </c>
-      <c r="AM128" s="53"/>
-      <c r="AN128" s="53" t="s">
+      <c r="AM128" s="60"/>
+      <c r="AN128" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="AO128" s="53"/>
+      <c r="AO128" s="60"/>
     </row>
     <row r="129" customFormat="false" ht="122.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="n">
@@ -13238,16 +13327,16 @@
       <c r="C129" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D129" s="62" t="s">
+      <c r="D129" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E129" s="62" t="s">
+      <c r="E129" s="69" t="s">
         <v>313</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="40" t="s">
         <v>370</v>
       </c>
       <c r="H129" s="15" t="s">
@@ -13259,16 +13348,16 @@
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
-      <c r="M129" s="37"/>
-      <c r="N129" s="37"/>
-      <c r="O129" s="37"/>
+      <c r="M129" s="44"/>
+      <c r="N129" s="44"/>
+      <c r="O129" s="44"/>
       <c r="P129" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q129" s="11"/>
       <c r="R129" s="11"/>
       <c r="S129" s="11"/>
-      <c r="T129" s="33"/>
+      <c r="T129" s="40"/>
       <c r="U129" s="11"/>
       <c r="V129" s="11" t="s">
         <v>362</v>
@@ -13301,7 +13390,7 @@
       <c r="AL129" s="13" t="n">
         <v>128</v>
       </c>
-      <c r="AM129" s="46" t="s">
+      <c r="AM129" s="53" t="s">
         <v>372</v>
       </c>
       <c r="AN129" s="11" t="s">
@@ -13331,16 +13420,16 @@
       <c r="G130" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="H130" s="58" t="s">
+      <c r="H130" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="I130" s="59"/>
+      <c r="I130" s="66"/>
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
-      <c r="L130" s="39" t="s">
+      <c r="L130" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="M130" s="48" t="n">
+      <c r="M130" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N130" s="24"/>
@@ -13353,7 +13442,7 @@
       </c>
       <c r="R130" s="11"/>
       <c r="S130" s="11"/>
-      <c r="T130" s="33"/>
+      <c r="T130" s="40"/>
       <c r="U130" s="11"/>
       <c r="V130" s="11" t="s">
         <v>362</v>
@@ -13416,13 +13505,13 @@
       <c r="G131" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="H131" s="58" t="s">
+      <c r="H131" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="I131" s="59"/>
+      <c r="I131" s="66"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
-      <c r="L131" s="39" t="s">
+      <c r="L131" s="46" t="s">
         <v>168</v>
       </c>
       <c r="M131" s="24" t="n">
@@ -13438,7 +13527,7 @@
       </c>
       <c r="R131" s="11"/>
       <c r="S131" s="11"/>
-      <c r="T131" s="33"/>
+      <c r="T131" s="40"/>
       <c r="U131" s="11"/>
       <c r="V131" s="11" t="s">
         <v>362</v>
@@ -13501,7 +13590,7 @@
       <c r="G132" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="H132" s="52" t="s">
+      <c r="H132" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I132" s="15" t="n">
@@ -13510,16 +13599,16 @@
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
+      <c r="M132" s="45"/>
+      <c r="N132" s="45"/>
+      <c r="O132" s="45"/>
       <c r="P132" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q132" s="11"/>
       <c r="R132" s="11"/>
       <c r="S132" s="11"/>
-      <c r="T132" s="33"/>
+      <c r="T132" s="40"/>
       <c r="U132" s="11"/>
       <c r="V132" s="11" t="s">
         <v>362</v>
@@ -13545,7 +13634,7 @@
       <c r="AG132" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="AH132" s="55" t="s">
+      <c r="AH132" s="62" t="s">
         <v>381</v>
       </c>
       <c r="AI132" s="15"/>
@@ -13556,7 +13645,7 @@
       <c r="AL132" s="18" t="n">
         <v>131</v>
       </c>
-      <c r="AM132" s="46" t="s">
+      <c r="AM132" s="53" t="s">
         <v>382</v>
       </c>
       <c r="AN132" s="11"/>
@@ -13592,10 +13681,10 @@
       </c>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
-      <c r="L133" s="39" t="s">
+      <c r="L133" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="M133" s="48" t="n">
+      <c r="M133" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N133" s="24"/>
@@ -13603,12 +13692,12 @@
       <c r="P133" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q133" s="49" t="s">
+      <c r="Q133" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R133" s="11"/>
       <c r="S133" s="11"/>
-      <c r="T133" s="33"/>
+      <c r="T133" s="40"/>
       <c r="U133" s="11"/>
       <c r="V133" s="11" t="s">
         <v>362</v>
@@ -13677,7 +13766,7 @@
       </c>
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
-      <c r="L134" s="39" t="s">
+      <c r="L134" s="46" t="s">
         <v>168</v>
       </c>
       <c r="M134" s="24" t="n">
@@ -13688,12 +13777,12 @@
       <c r="P134" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q134" s="49" t="s">
+      <c r="Q134" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R134" s="11"/>
       <c r="S134" s="11"/>
-      <c r="T134" s="33"/>
+      <c r="T134" s="40"/>
       <c r="U134" s="11"/>
       <c r="V134" s="11" t="s">
         <v>362</v>
@@ -13762,7 +13851,7 @@
       </c>
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
-      <c r="L135" s="39" t="s">
+      <c r="L135" s="46" t="s">
         <v>170</v>
       </c>
       <c r="M135" s="24" t="n">
@@ -13773,12 +13862,12 @@
       <c r="P135" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q135" s="49" t="s">
+      <c r="Q135" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R135" s="11"/>
       <c r="S135" s="11"/>
-      <c r="T135" s="33"/>
+      <c r="T135" s="40"/>
       <c r="U135" s="11"/>
       <c r="V135" s="11" t="s">
         <v>362</v>
@@ -13847,7 +13936,7 @@
       </c>
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
-      <c r="L136" s="39" t="s">
+      <c r="L136" s="46" t="s">
         <v>172</v>
       </c>
       <c r="M136" s="24" t="n">
@@ -13858,12 +13947,12 @@
       <c r="P136" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q136" s="49" t="s">
+      <c r="Q136" s="56" t="s">
         <v>54</v>
       </c>
       <c r="R136" s="11"/>
       <c r="S136" s="11"/>
-      <c r="T136" s="33"/>
+      <c r="T136" s="40"/>
       <c r="U136" s="11"/>
       <c r="V136" s="11" t="s">
         <v>362</v>
@@ -13924,7 +14013,7 @@
       <c r="G137" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="H137" s="52" t="s">
+      <c r="H137" s="59" t="s">
         <v>316</v>
       </c>
       <c r="I137" s="15" t="n">
@@ -13933,16 +14022,16 @@
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
-      <c r="M137" s="37"/>
-      <c r="N137" s="37"/>
-      <c r="O137" s="37"/>
+      <c r="M137" s="44"/>
+      <c r="N137" s="44"/>
+      <c r="O137" s="44"/>
       <c r="P137" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q137" s="11"/>
       <c r="R137" s="11"/>
       <c r="S137" s="11"/>
-      <c r="T137" s="33"/>
+      <c r="T137" s="40"/>
       <c r="U137" s="11"/>
       <c r="V137" s="11" t="s">
         <v>393</v>
@@ -13973,7 +14062,7 @@
       <c r="AL137" s="13" t="n">
         <v>136</v>
       </c>
-      <c r="AM137" s="46" t="s">
+      <c r="AM137" s="53" t="s">
         <v>394</v>
       </c>
       <c r="AN137" s="11"/>
@@ -14012,13 +14101,13 @@
       <c r="L138" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M138" s="37" t="s">
+      <c r="M138" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="N138" s="38" t="s">
+      <c r="N138" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="O138" s="37"/>
+      <c r="O138" s="44"/>
       <c r="P138" s="11" t="s">
         <v>53</v>
       </c>
@@ -14027,7 +14116,7 @@
       </c>
       <c r="R138" s="11"/>
       <c r="S138" s="11"/>
-      <c r="T138" s="33"/>
+      <c r="T138" s="40"/>
       <c r="U138" s="11"/>
       <c r="V138" s="11" t="s">
         <v>393</v>
@@ -14071,79 +14160,79 @@
       <c r="B139" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="53" t="s">
+      <c r="C139" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D139" s="54" t="s">
+      <c r="D139" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E139" s="54" t="s">
+      <c r="E139" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="F139" s="53" t="s">
+      <c r="F139" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="G139" s="53" t="s">
+      <c r="G139" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="H139" s="55" t="s">
+      <c r="H139" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="I139" s="55" t="n">
+      <c r="I139" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="J139" s="55"/>
-      <c r="K139" s="55"/>
-      <c r="L139" s="55"/>
-      <c r="M139" s="56"/>
-      <c r="N139" s="56"/>
-      <c r="O139" s="56"/>
-      <c r="P139" s="53" t="s">
+      <c r="J139" s="62"/>
+      <c r="K139" s="62"/>
+      <c r="L139" s="62"/>
+      <c r="M139" s="63"/>
+      <c r="N139" s="63"/>
+      <c r="O139" s="63"/>
+      <c r="P139" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="Q139" s="53" t="s">
+      <c r="Q139" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="R139" s="53"/>
-      <c r="S139" s="53"/>
-      <c r="T139" s="55" t="s">
+      <c r="R139" s="60"/>
+      <c r="S139" s="60"/>
+      <c r="T139" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="U139" s="53"/>
-      <c r="V139" s="53" t="s">
+      <c r="U139" s="60"/>
+      <c r="V139" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="W139" s="53"/>
-      <c r="X139" s="53"/>
+      <c r="W139" s="60"/>
+      <c r="X139" s="60"/>
       <c r="Y139" s="16"/>
-      <c r="Z139" s="53"/>
-      <c r="AA139" s="53"/>
-      <c r="AB139" s="53" t="s">
+      <c r="Z139" s="60"/>
+      <c r="AA139" s="60"/>
+      <c r="AB139" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AC139" s="55" t="s">
+      <c r="AC139" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="AD139" s="57" t="n">
+      <c r="AD139" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AE139" s="55"/>
-      <c r="AF139" s="55"/>
-      <c r="AG139" s="55"/>
-      <c r="AH139" s="55"/>
-      <c r="AI139" s="55"/>
-      <c r="AJ139" s="55"/>
-      <c r="AK139" s="53" t="n">
+      <c r="AE139" s="62"/>
+      <c r="AF139" s="62"/>
+      <c r="AG139" s="62"/>
+      <c r="AH139" s="62"/>
+      <c r="AI139" s="62"/>
+      <c r="AJ139" s="62"/>
+      <c r="AK139" s="60" t="n">
         <v>3</v>
       </c>
       <c r="AL139" s="13" t="n">
         <v>138</v>
       </c>
-      <c r="AM139" s="53"/>
-      <c r="AN139" s="53" t="s">
+      <c r="AM139" s="60"/>
+      <c r="AN139" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="AO139" s="53"/>
+      <c r="AO139" s="60"/>
     </row>
     <row r="140" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="n">
@@ -14164,7 +14253,7 @@
       <c r="F140" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="G140" s="33" t="s">
+      <c r="G140" s="40" t="s">
         <v>401</v>
       </c>
       <c r="H140" s="15" t="s">
@@ -14176,16 +14265,16 @@
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
       <c r="L140" s="15"/>
-      <c r="M140" s="37"/>
-      <c r="N140" s="37"/>
-      <c r="O140" s="37"/>
+      <c r="M140" s="44"/>
+      <c r="N140" s="44"/>
+      <c r="O140" s="44"/>
       <c r="P140" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q140" s="11"/>
       <c r="R140" s="11"/>
       <c r="S140" s="11"/>
-      <c r="T140" s="33"/>
+      <c r="T140" s="40"/>
       <c r="U140" s="11"/>
       <c r="V140" s="11" t="s">
         <v>393</v>
@@ -14216,7 +14305,7 @@
       <c r="AL140" s="18" t="n">
         <v>139</v>
       </c>
-      <c r="AM140" s="46" t="s">
+      <c r="AM140" s="53" t="s">
         <v>402</v>
       </c>
       <c r="AN140" s="11" t="s">
@@ -14246,20 +14335,20 @@
       <c r="G141" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="H141" s="58" t="s">
+      <c r="H141" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="I141" s="59"/>
+      <c r="I141" s="66"/>
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
-      <c r="L141" s="39" t="s">
+      <c r="L141" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="M141" s="41" t="n">
+      <c r="M141" s="48" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="N141" s="41"/>
-      <c r="O141" s="41"/>
+      <c r="N141" s="48"/>
+      <c r="O141" s="48"/>
       <c r="P141" s="11" t="s">
         <v>53</v>
       </c>
@@ -14268,7 +14357,7 @@
       </c>
       <c r="R141" s="11"/>
       <c r="S141" s="11"/>
-      <c r="T141" s="33"/>
+      <c r="T141" s="40"/>
       <c r="U141" s="11"/>
       <c r="V141" s="11" t="s">
         <v>393</v>
@@ -14329,20 +14418,20 @@
       <c r="G142" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="H142" s="58" t="s">
+      <c r="H142" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="I142" s="59"/>
+      <c r="I142" s="66"/>
       <c r="J142" s="15"/>
       <c r="K142" s="15"/>
-      <c r="L142" s="39" t="s">
+      <c r="L142" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="M142" s="41" t="n">
+      <c r="M142" s="48" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N142" s="41"/>
-      <c r="O142" s="41"/>
+      <c r="N142" s="48"/>
+      <c r="O142" s="48"/>
       <c r="P142" s="11" t="s">
         <v>53</v>
       </c>
@@ -14351,7 +14440,7 @@
       </c>
       <c r="R142" s="11"/>
       <c r="S142" s="11"/>
-      <c r="T142" s="33"/>
+      <c r="T142" s="40"/>
       <c r="U142" s="11"/>
       <c r="V142" s="11" t="s">
         <v>393</v>
@@ -14418,9 +14507,9 @@
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
-      <c r="M143" s="37"/>
-      <c r="N143" s="37"/>
-      <c r="O143" s="37"/>
+      <c r="M143" s="44"/>
+      <c r="N143" s="44"/>
+      <c r="O143" s="44"/>
       <c r="P143" s="4" t="s">
         <v>414</v>
       </c>
@@ -14447,7 +14536,7 @@
       <c r="AE143" s="15"/>
       <c r="AF143" s="15"/>
       <c r="AG143" s="15"/>
-      <c r="AH143" s="63" t="s">
+      <c r="AH143" s="70" t="s">
         <v>415</v>
       </c>
       <c r="AI143" s="15"/>
@@ -14458,7 +14547,7 @@
       <c r="AL143" s="13" t="n">
         <v>142</v>
       </c>
-      <c r="AM143" s="46" t="s">
+      <c r="AM143" s="53" t="s">
         <v>416</v>
       </c>
       <c r="AN143" s="11"/>
@@ -14486,7 +14575,7 @@
       <c r="G144" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="H144" s="64" t="s">
+      <c r="H144" s="71" t="s">
         <v>419</v>
       </c>
       <c r="I144" s="15" t="n">
@@ -14499,11 +14588,11 @@
       <c r="L144" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M144" s="38" t="s">
+      <c r="M144" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="N144" s="38"/>
-      <c r="O144" s="38"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
       <c r="P144" s="11"/>
       <c r="Q144" s="15" t="s">
         <v>421</v>
@@ -14512,7 +14601,7 @@
       <c r="S144" s="11"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
-      <c r="V144" s="65" t="s">
+      <c r="V144" s="72" t="s">
         <v>422</v>
       </c>
       <c r="W144" s="11"/>
@@ -14580,11 +14669,11 @@
       <c r="L145" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M145" s="37" t="s">
+      <c r="M145" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="N145" s="37"/>
-      <c r="O145" s="37"/>
+      <c r="N145" s="44"/>
+      <c r="O145" s="44"/>
       <c r="P145" s="11"/>
       <c r="Q145" s="4" t="s">
         <v>421</v>
@@ -14647,28 +14736,28 @@
       <c r="F146" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="G146" s="39" t="s">
+      <c r="G146" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="H146" s="39" t="s">
+      <c r="H146" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="I146" s="39" t="n">
+      <c r="I146" s="46" t="n">
         <v>1</v>
       </c>
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
-      <c r="M146" s="37"/>
-      <c r="N146" s="37"/>
-      <c r="O146" s="37"/>
+      <c r="M146" s="44"/>
+      <c r="N146" s="44"/>
+      <c r="O146" s="44"/>
       <c r="P146" s="11"/>
-      <c r="Q146" s="66" t="s">
+      <c r="Q146" s="73" t="s">
         <v>429</v>
       </c>
       <c r="R146" s="11"/>
       <c r="S146" s="11"/>
-      <c r="T146" s="55" t="s">
+      <c r="T146" s="62" t="s">
         <v>430</v>
       </c>
       <c r="U146" s="11"/>
@@ -14694,7 +14783,7 @@
       <c r="AG146" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH146" s="67" t="s">
+      <c r="AH146" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI146" s="15"/>
@@ -14706,7 +14795,7 @@
         <v>145</v>
       </c>
       <c r="AM146" s="11"/>
-      <c r="AN146" s="68" t="s">
+      <c r="AN146" s="75" t="s">
         <v>432</v>
       </c>
       <c r="AO146" s="11"/>
@@ -14733,22 +14822,22 @@
       <c r="G147" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="H147" s="52" t="s">
+      <c r="H147" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="I147" s="64"/>
-      <c r="J147" s="39" t="n">
+      <c r="I147" s="71"/>
+      <c r="J147" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="K147" s="39" t="n">
+      <c r="K147" s="46" t="n">
         <v>23</v>
       </c>
       <c r="L147" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M147" s="37"/>
-      <c r="N147" s="37"/>
-      <c r="O147" s="37"/>
+      <c r="M147" s="44"/>
+      <c r="N147" s="44"/>
+      <c r="O147" s="44"/>
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="11"/>
@@ -14774,10 +14863,10 @@
       </c>
       <c r="AE147" s="15"/>
       <c r="AF147" s="15"/>
-      <c r="AG147" s="69" t="s">
+      <c r="AG147" s="76" t="s">
         <v>417</v>
       </c>
-      <c r="AH147" s="67" t="s">
+      <c r="AH147" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI147" s="15"/>
@@ -14789,7 +14878,7 @@
         <v>146</v>
       </c>
       <c r="AM147" s="11"/>
-      <c r="AN147" s="68" t="s">
+      <c r="AN147" s="75" t="s">
         <v>432</v>
       </c>
       <c r="AO147" s="11"/>
@@ -14816,7 +14905,7 @@
       <c r="G148" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="H148" s="39" t="s">
+      <c r="H148" s="46" t="s">
         <v>249</v>
       </c>
       <c r="I148" s="15" t="n">
@@ -14825,9 +14914,9 @@
       <c r="J148" s="15"/>
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="37"/>
-      <c r="O148" s="37"/>
+      <c r="M148" s="57"/>
+      <c r="N148" s="44"/>
+      <c r="O148" s="44"/>
       <c r="P148" s="15" t="s">
         <v>250</v>
       </c>
@@ -14847,22 +14936,22 @@
       <c r="AB148" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC148" s="70" t="s">
+      <c r="AC148" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="AD148" s="71" t="n">
+      <c r="AD148" s="25" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE148" s="72" t="n">
+      <c r="AE148" s="78" t="n">
         <v>0.8</v>
       </c>
-      <c r="AF148" s="55" t="n">
+      <c r="AF148" s="62" t="n">
         <v>1</v>
       </c>
       <c r="AG148" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH148" s="67" t="s">
+      <c r="AH148" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI148" s="15"/>
@@ -14873,10 +14962,10 @@
       <c r="AL148" s="18" t="n">
         <v>147</v>
       </c>
-      <c r="AM148" s="46" t="s">
+      <c r="AM148" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="AN148" s="68" t="s">
+      <c r="AN148" s="75" t="s">
         <v>432</v>
       </c>
       <c r="AO148" s="11"/>
@@ -14917,8 +15006,8 @@
       <c r="M149" s="24" t="n">
         <v>40822426</v>
       </c>
-      <c r="N149" s="37"/>
-      <c r="O149" s="37"/>
+      <c r="N149" s="44"/>
+      <c r="O149" s="44"/>
       <c r="P149" s="15" t="s">
         <v>53</v>
       </c>
@@ -14951,7 +15040,7 @@
       <c r="AG149" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH149" s="67" t="s">
+      <c r="AH149" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI149" s="15"/>
@@ -15004,8 +15093,8 @@
       <c r="M150" s="24" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="N150" s="37"/>
-      <c r="O150" s="37"/>
+      <c r="N150" s="44"/>
+      <c r="O150" s="44"/>
       <c r="P150" s="15" t="s">
         <v>53</v>
       </c>
@@ -15038,7 +15127,7 @@
       <c r="AG150" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH150" s="67" t="s">
+      <c r="AH150" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI150" s="15"/>
@@ -15091,8 +15180,8 @@
       <c r="M151" s="24" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="N151" s="37"/>
-      <c r="O151" s="37"/>
+      <c r="N151" s="44"/>
+      <c r="O151" s="44"/>
       <c r="P151" s="15" t="s">
         <v>53</v>
       </c>
@@ -15125,7 +15214,7 @@
       <c r="AG151" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH151" s="67" t="s">
+      <c r="AH151" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI151" s="15"/>
@@ -15178,8 +15267,8 @@
       <c r="M152" s="24" t="n">
         <v>54491472</v>
       </c>
-      <c r="N152" s="37"/>
-      <c r="O152" s="37"/>
+      <c r="N152" s="44"/>
+      <c r="O152" s="44"/>
       <c r="P152" s="15" t="s">
         <v>53</v>
       </c>
@@ -15212,7 +15301,7 @@
       <c r="AG152" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH152" s="67" t="s">
+      <c r="AH152" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI152" s="15"/>
@@ -15245,7 +15334,7 @@
       <c r="E153" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F153" s="63" t="s">
+      <c r="F153" s="70" t="s">
         <v>448</v>
       </c>
       <c r="G153" s="26" t="s">
@@ -15259,14 +15348,14 @@
       </c>
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
-      <c r="L153" s="63" t="s">
+      <c r="L153" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="M153" s="73" t="s">
+      <c r="M153" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="N153" s="37"/>
-      <c r="O153" s="37"/>
+      <c r="N153" s="44"/>
+      <c r="O153" s="44"/>
       <c r="P153" s="15" t="s">
         <v>53</v>
       </c>
@@ -15299,7 +15388,7 @@
       <c r="AG153" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH153" s="67" t="s">
+      <c r="AH153" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI153" s="15"/>
@@ -15352,8 +15441,8 @@
       <c r="M154" s="24" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="N154" s="37"/>
-      <c r="O154" s="37"/>
+      <c r="N154" s="44"/>
+      <c r="O154" s="44"/>
       <c r="P154" s="15" t="s">
         <v>53</v>
       </c>
@@ -15386,7 +15475,7 @@
       <c r="AG154" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH154" s="67" t="s">
+      <c r="AH154" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI154" s="15"/>
@@ -15419,7 +15508,7 @@
       <c r="E155" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F155" s="63" t="s">
+      <c r="F155" s="70" t="s">
         <v>452</v>
       </c>
       <c r="G155" s="26" t="s">
@@ -15433,14 +15522,14 @@
       </c>
       <c r="J155" s="15"/>
       <c r="K155" s="15"/>
-      <c r="L155" s="63" t="s">
+      <c r="L155" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="M155" s="73" t="s">
+      <c r="M155" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="N155" s="37"/>
-      <c r="O155" s="37"/>
+      <c r="N155" s="44"/>
+      <c r="O155" s="44"/>
       <c r="P155" s="15" t="s">
         <v>53</v>
       </c>
@@ -15473,7 +15562,7 @@
       <c r="AG155" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH155" s="67" t="s">
+      <c r="AH155" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI155" s="15"/>
@@ -15526,8 +15615,8 @@
       <c r="M156" s="24" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="N156" s="37"/>
-      <c r="O156" s="37"/>
+      <c r="N156" s="44"/>
+      <c r="O156" s="44"/>
       <c r="P156" s="15" t="s">
         <v>53</v>
       </c>
@@ -15560,7 +15649,7 @@
       <c r="AG156" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH156" s="67" t="s">
+      <c r="AH156" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI156" s="15"/>
@@ -15613,8 +15702,8 @@
       <c r="M157" s="24" t="n">
         <v>40822938</v>
       </c>
-      <c r="N157" s="37"/>
-      <c r="O157" s="37"/>
+      <c r="N157" s="44"/>
+      <c r="O157" s="44"/>
       <c r="P157" s="15" t="s">
         <v>53</v>
       </c>
@@ -15647,7 +15736,7 @@
       <c r="AG157" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH157" s="67" t="s">
+      <c r="AH157" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI157" s="15"/>
@@ -15680,7 +15769,7 @@
       <c r="E158" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F158" s="63" t="s">
+      <c r="F158" s="70" t="s">
         <v>458</v>
       </c>
       <c r="G158" s="26" t="s">
@@ -15694,14 +15783,14 @@
       </c>
       <c r="J158" s="15"/>
       <c r="K158" s="15"/>
-      <c r="L158" s="63" t="s">
+      <c r="L158" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="M158" s="73" t="s">
+      <c r="M158" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="N158" s="37"/>
-      <c r="O158" s="37"/>
+      <c r="N158" s="44"/>
+      <c r="O158" s="44"/>
       <c r="P158" s="15" t="s">
         <v>53</v>
       </c>
@@ -15734,7 +15823,7 @@
       <c r="AG158" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH158" s="67" t="s">
+      <c r="AH158" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI158" s="15"/>
@@ -15787,8 +15876,8 @@
       <c r="M159" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="N159" s="37"/>
-      <c r="O159" s="37"/>
+      <c r="N159" s="44"/>
+      <c r="O159" s="44"/>
       <c r="P159" s="15" t="s">
         <v>53</v>
       </c>
@@ -15821,7 +15910,7 @@
       <c r="AG159" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH159" s="67" t="s">
+      <c r="AH159" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI159" s="15"/>
@@ -15874,8 +15963,8 @@
       <c r="M160" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="N160" s="37"/>
-      <c r="O160" s="37"/>
+      <c r="N160" s="44"/>
+      <c r="O160" s="44"/>
       <c r="P160" s="15" t="s">
         <v>53</v>
       </c>
@@ -15908,7 +15997,7 @@
       <c r="AG160" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH160" s="67" t="s">
+      <c r="AH160" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI160" s="15"/>
@@ -15961,8 +16050,8 @@
       <c r="M161" s="24" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="N161" s="37"/>
-      <c r="O161" s="37"/>
+      <c r="N161" s="44"/>
+      <c r="O161" s="44"/>
       <c r="P161" s="15" t="s">
         <v>53</v>
       </c>
@@ -15995,7 +16084,7 @@
       <c r="AG161" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH161" s="67" t="s">
+      <c r="AH161" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI161" s="15"/>
@@ -16048,8 +16137,8 @@
       <c r="M162" s="24" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="N162" s="37"/>
-      <c r="O162" s="37"/>
+      <c r="N162" s="44"/>
+      <c r="O162" s="44"/>
       <c r="P162" s="15" t="s">
         <v>53</v>
       </c>
@@ -16082,7 +16171,7 @@
       <c r="AG162" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH162" s="67" t="s">
+      <c r="AH162" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI162" s="15"/>
@@ -16135,8 +16224,8 @@
       <c r="M163" s="24" t="n">
         <v>54491069</v>
       </c>
-      <c r="N163" s="37"/>
-      <c r="O163" s="37"/>
+      <c r="N163" s="44"/>
+      <c r="O163" s="44"/>
       <c r="P163" s="15" t="s">
         <v>53</v>
       </c>
@@ -16169,7 +16258,7 @@
       <c r="AG163" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH163" s="67" t="s">
+      <c r="AH163" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI163" s="15"/>
@@ -16202,7 +16291,7 @@
       <c r="E164" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F164" s="63" t="s">
+      <c r="F164" s="70" t="s">
         <v>474</v>
       </c>
       <c r="G164" s="26" t="s">
@@ -16216,14 +16305,14 @@
       </c>
       <c r="J164" s="15"/>
       <c r="K164" s="15"/>
-      <c r="L164" s="63" t="s">
+      <c r="L164" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="M164" s="73" t="s">
+      <c r="M164" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="N164" s="37"/>
-      <c r="O164" s="37"/>
+      <c r="N164" s="44"/>
+      <c r="O164" s="44"/>
       <c r="P164" s="15" t="s">
         <v>53</v>
       </c>
@@ -16256,7 +16345,7 @@
       <c r="AG164" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH164" s="67" t="s">
+      <c r="AH164" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI164" s="15"/>
@@ -16295,7 +16384,7 @@
       <c r="G165" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="H165" s="39" t="s">
+      <c r="H165" s="46" t="s">
         <v>478</v>
       </c>
       <c r="I165" s="15"/>
@@ -16304,11 +16393,11 @@
       <c r="L165" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M165" s="38" t="s">
+      <c r="M165" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="N165" s="38"/>
-      <c r="O165" s="38"/>
+      <c r="N165" s="45"/>
+      <c r="O165" s="45"/>
       <c r="P165" s="11"/>
       <c r="Q165" s="11" t="s">
         <v>421</v>
@@ -16339,7 +16428,7 @@
       <c r="AG165" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="AH165" s="67" t="s">
+      <c r="AH165" s="74" t="s">
         <v>431</v>
       </c>
       <c r="AI165" s="15"/>
@@ -16351,7 +16440,7 @@
         <v>164</v>
       </c>
       <c r="AM165" s="11"/>
-      <c r="AN165" s="68" t="s">
+      <c r="AN165" s="75" t="s">
         <v>432</v>
       </c>
       <c r="AO165" s="11"/>
@@ -16369,7 +16458,7 @@
       <c r="D166" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E166" s="74" t="s">
+      <c r="E166" s="80" t="s">
         <v>246</v>
       </c>
       <c r="F166" s="15" t="s">
@@ -16387,9 +16476,9 @@
       <c r="J166" s="15"/>
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
-      <c r="M166" s="38"/>
-      <c r="N166" s="38"/>
-      <c r="O166" s="38"/>
+      <c r="M166" s="45"/>
+      <c r="N166" s="45"/>
+      <c r="O166" s="45"/>
       <c r="P166" s="11" t="s">
         <v>53</v>
       </c>
@@ -16427,10 +16516,10 @@
       <c r="AL166" s="18" t="n">
         <v>165</v>
       </c>
-      <c r="AM166" s="75" t="s">
+      <c r="AM166" s="81" t="s">
         <v>481</v>
       </c>
-      <c r="AN166" s="68" t="s">
+      <c r="AN166" s="75" t="s">
         <v>482</v>
       </c>
       <c r="AO166" s="11"/>
@@ -16448,7 +16537,7 @@
       <c r="D167" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E167" s="74" t="s">
+      <c r="E167" s="80" t="s">
         <v>246</v>
       </c>
       <c r="F167" s="15" t="s">
@@ -16457,10 +16546,10 @@
       <c r="G167" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="H167" s="66" t="s">
+      <c r="H167" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="I167" s="66" t="n">
+      <c r="I167" s="73" t="n">
         <v>1</v>
       </c>
       <c r="J167" s="15" t="n">
@@ -16470,15 +16559,15 @@
       <c r="L167" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="M167" s="38" t="s">
+      <c r="M167" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="N167" s="38"/>
-      <c r="O167" s="38"/>
+      <c r="N167" s="45"/>
+      <c r="O167" s="45"/>
       <c r="P167" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q167" s="66" t="s">
+      <c r="Q167" s="73" t="s">
         <v>421</v>
       </c>
       <c r="R167" s="15"/>
@@ -16505,7 +16594,7 @@
       <c r="AE167" s="15"/>
       <c r="AF167" s="15"/>
       <c r="AG167" s="15"/>
-      <c r="AH167" s="76" t="s">
+      <c r="AH167" s="82" t="s">
         <v>487</v>
       </c>
       <c r="AI167" s="15"/>
@@ -16517,7 +16606,7 @@
         <v>166</v>
       </c>
       <c r="AM167" s="11"/>
-      <c r="AN167" s="77" t="s">
+      <c r="AN167" s="83" t="s">
         <v>479</v>
       </c>
       <c r="AO167" s="11"/>
@@ -16553,9 +16642,9 @@
       <c r="J168" s="15"/>
       <c r="K168" s="15"/>
       <c r="L168" s="15"/>
-      <c r="M168" s="38"/>
-      <c r="N168" s="38"/>
-      <c r="O168" s="38"/>
+      <c r="M168" s="45"/>
+      <c r="N168" s="45"/>
+      <c r="O168" s="45"/>
       <c r="P168" s="15" t="s">
         <v>53</v>
       </c>
@@ -16591,10 +16680,10 @@
       <c r="AL168" s="18" t="n">
         <v>167</v>
       </c>
-      <c r="AM168" s="46" t="s">
+      <c r="AM168" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="AN168" s="78" t="s">
+      <c r="AN168" s="84" t="s">
         <v>491</v>
       </c>
       <c r="AO168" s="11"/>
@@ -16630,9 +16719,9 @@
       <c r="J169" s="15"/>
       <c r="K169" s="15"/>
       <c r="L169" s="15"/>
-      <c r="M169" s="38"/>
-      <c r="N169" s="38"/>
-      <c r="O169" s="38"/>
+      <c r="M169" s="45"/>
+      <c r="N169" s="45"/>
+      <c r="O169" s="45"/>
       <c r="P169" s="15" t="s">
         <v>53</v>
       </c>
@@ -16644,7 +16733,7 @@
       <c r="T169" s="15"/>
       <c r="U169" s="15"/>
       <c r="V169" s="15"/>
-      <c r="W169" s="79" t="s">
+      <c r="W169" s="85" t="s">
         <v>494</v>
       </c>
       <c r="X169" s="15"/>
@@ -16709,9 +16798,9 @@
       <c r="J170" s="15"/>
       <c r="K170" s="15"/>
       <c r="L170" s="15"/>
-      <c r="M170" s="38"/>
-      <c r="N170" s="38"/>
-      <c r="O170" s="38"/>
+      <c r="M170" s="45"/>
+      <c r="N170" s="45"/>
+      <c r="O170" s="45"/>
       <c r="P170" s="15" t="s">
         <v>53</v>
       </c>
@@ -16788,9 +16877,9 @@
       <c r="J171" s="15"/>
       <c r="K171" s="15"/>
       <c r="L171" s="15"/>
-      <c r="M171" s="38"/>
-      <c r="N171" s="38"/>
-      <c r="O171" s="38"/>
+      <c r="M171" s="45"/>
+      <c r="N171" s="45"/>
+      <c r="O171" s="45"/>
       <c r="P171" s="15" t="s">
         <v>53</v>
       </c>
@@ -16867,9 +16956,9 @@
       <c r="J172" s="15"/>
       <c r="K172" s="15"/>
       <c r="L172" s="15"/>
-      <c r="M172" s="38"/>
-      <c r="N172" s="38"/>
-      <c r="O172" s="38"/>
+      <c r="M172" s="45"/>
+      <c r="N172" s="45"/>
+      <c r="O172" s="45"/>
       <c r="P172" s="15" t="s">
         <v>53</v>
       </c>
@@ -16941,18 +17030,21 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F29:M29 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="87" t="s">
         <v>431</v>
       </c>
     </row>
@@ -16975,13 +17067,16 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F29:M29 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="88" t="s">
         <v>417</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -16996,7 +17091,7 @@
       <c r="F1" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="88" t="s">
         <v>476</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -17010,7 +17105,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="82"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -17018,19 +17113,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="83" t="n">
+      <c r="E2" s="89" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="82"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="84" t="n">
+      <c r="J2" s="90" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="82"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -17038,19 +17133,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="85" t="n">
+      <c r="E3" s="91" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="82"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="86" t="n">
+      <c r="J3" s="92" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="82"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -17058,21 +17153,21 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="85" t="n">
+      <c r="E4" s="91" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="87" t="n">
+      <c r="F4" s="93" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="84" t="n">
+      <c r="J4" s="90" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="88" t="n">
+      <c r="K4" s="94" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
@@ -17104,54 +17199,57 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F29:M29 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="96" t="s">
         <v>512</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="96" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="97" t="s">
         <v>513</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="564">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1383,9 +1384,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display: Lead SKU Fuze Lemon/Berry - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
@@ -1968,9 +1966,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="164" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
@@ -2223,7 +2221,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2245,51 +2243,55 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+  <cellXfs count="114">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2297,63 +2299,59 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2361,59 +2359,51 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2421,63 +2411,67 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2485,23 +2479,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2509,67 +2503,67 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2577,47 +2571,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2625,63 +2619,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2689,27 +2687,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2724,7 +2718,27 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf/>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -2801,27 +2815,27 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="X175" activeCellId="0" sqref="X175"/>
+      <selection pane="bottomLeft" activeCell="A142" activeCellId="0" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="38" min="20" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.24696356275304"/>
     <col collapsed="false" hidden="false" max="43" min="40" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="24.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -3320,7 +3334,7 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="23" t="s">
         <v>65</v>
       </c>
       <c r="O6" s="24" t="n">
@@ -3407,7 +3421,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="23" t="s">
         <v>67</v>
       </c>
       <c r="O7" s="24" t="n">
@@ -3755,7 +3769,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="23" t="s">
         <v>78</v>
       </c>
       <c r="O11" s="24" t="n">
@@ -3842,7 +3856,7 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="23" t="s">
         <v>80</v>
       </c>
       <c r="O12" s="24" t="n">
@@ -3929,7 +3943,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="23" t="s">
         <v>82</v>
       </c>
       <c r="O13" s="24" t="n">
@@ -4016,7 +4030,7 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="O14" s="24" t="n">
@@ -4364,7 +4378,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="23" t="s">
         <v>92</v>
       </c>
       <c r="O18" s="24" t="n">
@@ -4538,7 +4552,7 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="30" t="s">
+      <c r="N20" s="23" t="s">
         <v>96</v>
       </c>
       <c r="O20" s="24" t="n">
@@ -4784,25 +4798,25 @@
         <v>46</v>
       </c>
       <c r="F23" s="20"/>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33" t="n">
+      <c r="J23" s="31"/>
+      <c r="K23" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35" t="s">
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="O23" s="36" t="n">
+      <c r="O23" s="35" t="n">
         <v>5449000214744</v>
       </c>
       <c r="P23" s="25"/>
@@ -5306,25 +5320,25 @@
         <v>46</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="33" t="n">
+      <c r="J29" s="36"/>
+      <c r="K29" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35" t="s">
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="O29" s="36" t="n">
+      <c r="O29" s="35" t="n">
         <v>5449000251626</v>
       </c>
       <c r="P29" s="25"/>
@@ -5408,7 +5422,7 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="37" t="s">
         <v>117</v>
       </c>
       <c r="O30" s="29" t="s">
@@ -5570,45 +5584,45 @@
       <c r="G32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="39" t="s">
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE32" s="39" t="s">
+      <c r="AE32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
       <c r="AM32" s="17" t="n">
         <v>2</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>126</v>
       </c>
       <c r="AP32" s="18"/>
-      <c r="AQ32" s="42"/>
+      <c r="AQ32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="n">
@@ -5653,7 +5667,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="30" t="s">
+      <c r="N33" s="23" t="s">
         <v>127</v>
       </c>
       <c r="O33" s="24" t="n">
@@ -5740,7 +5754,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="23" t="s">
         <v>129</v>
       </c>
       <c r="O34" s="24" t="n">
@@ -5827,14 +5841,14 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="23" t="s">
         <v>131</v>
       </c>
       <c r="O35" s="24" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
       <c r="R35" s="16" t="s">
         <v>55</v>
       </c>
@@ -5914,7 +5928,7 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="23" t="s">
         <v>133</v>
       </c>
       <c r="O36" s="24" t="n">
@@ -6001,7 +6015,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="23" t="s">
         <v>135</v>
       </c>
       <c r="O37" s="24" t="n">
@@ -6076,45 +6090,45 @@
       <c r="G38" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
       <c r="AA38" s="17"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="39" t="s">
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE38" s="39" t="s">
+      <c r="AE38" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="40"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
       <c r="AM38" s="17" t="n">
         <v>2</v>
       </c>
@@ -6125,7 +6139,7 @@
         <v>139</v>
       </c>
       <c r="AP38" s="18"/>
-      <c r="AQ38" s="42"/>
+      <c r="AQ38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="n">
@@ -6246,7 +6260,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="30" t="s">
+      <c r="N40" s="23" t="s">
         <v>142</v>
       </c>
       <c r="O40" s="24" t="n">
@@ -6333,7 +6347,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="30" t="s">
+      <c r="N41" s="23" t="s">
         <v>144</v>
       </c>
       <c r="O41" s="24" t="n">
@@ -6495,45 +6509,45 @@
       <c r="G43" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
       <c r="AA43" s="17"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="39" t="s">
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE43" s="39" t="s">
+      <c r="AE43" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="40"/>
-      <c r="AH43" s="40"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="40"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
       <c r="AM43" s="17" t="n">
         <v>2</v>
       </c>
@@ -6544,7 +6558,7 @@
         <v>150</v>
       </c>
       <c r="AP43" s="18"/>
-      <c r="AQ43" s="42"/>
+      <c r="AQ43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
@@ -6578,7 +6592,7 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="30" t="s">
+      <c r="N44" s="23" t="s">
         <v>151</v>
       </c>
       <c r="O44" s="24" t="n">
@@ -6665,7 +6679,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="30" t="s">
+      <c r="N45" s="23" t="s">
         <v>153</v>
       </c>
       <c r="O45" s="24" t="n">
@@ -6758,8 +6772,8 @@
       <c r="O46" s="24" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
       <c r="R46" s="16" t="s">
         <v>55</v>
       </c>
@@ -6926,7 +6940,7 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="30" t="s">
+      <c r="N48" s="23" t="s">
         <v>159</v>
       </c>
       <c r="O48" s="24" t="n">
@@ -7013,7 +7027,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="30" t="s">
+      <c r="N49" s="23" t="s">
         <v>161</v>
       </c>
       <c r="O49" s="24" t="n">
@@ -7175,45 +7189,45 @@
       <c r="G51" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
       <c r="AA51" s="17"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="39" t="s">
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AE51" s="39" t="s">
+      <c r="AE51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AF51" s="40"/>
-      <c r="AG51" s="40"/>
-      <c r="AH51" s="40"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
-      <c r="AK51" s="40"/>
-      <c r="AL51" s="40"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39"/>
+      <c r="AL51" s="39"/>
       <c r="AM51" s="17" t="n">
         <v>2</v>
       </c>
@@ -7224,7 +7238,7 @@
         <v>167</v>
       </c>
       <c r="AP51" s="18"/>
-      <c r="AQ51" s="42"/>
+      <c r="AQ51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
@@ -7258,10 +7272,10 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="45" t="s">
+      <c r="N52" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O52" s="46" t="n">
+      <c r="O52" s="45" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P52" s="25"/>
@@ -7345,7 +7359,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="45" t="s">
+      <c r="N53" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O53" s="24" t="n">
@@ -7432,14 +7446,14 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="45" t="s">
+      <c r="N54" s="44" t="s">
         <v>172</v>
       </c>
       <c r="O54" s="24" t="n">
         <v>4607042438738</v>
       </c>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
       <c r="R54" s="16" t="s">
         <v>55</v>
       </c>
@@ -7519,14 +7533,14 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="45" t="s">
+      <c r="N55" s="44" t="s">
         <v>174</v>
       </c>
       <c r="O55" s="24" t="n">
         <v>4607042438950</v>
       </c>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
       <c r="R55" s="16" t="s">
         <v>55</v>
       </c>
@@ -7606,7 +7620,7 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="44" t="s">
         <v>176</v>
       </c>
       <c r="O56" s="24" t="n">
@@ -7693,14 +7707,14 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="45" t="s">
+      <c r="N57" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="O57" s="46" t="n">
+      <c r="O57" s="45" t="n">
         <v>4607042431388</v>
       </c>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
       <c r="R57" s="16" t="s">
         <v>55</v>
       </c>
@@ -7780,7 +7794,7 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="45" t="s">
+      <c r="N58" s="44" t="s">
         <v>180</v>
       </c>
       <c r="O58" s="24" t="n">
@@ -7867,10 +7881,10 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="45" t="s">
+      <c r="N59" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O59" s="46" t="n">
+      <c r="O59" s="45" t="n">
         <v>4607042438776</v>
       </c>
       <c r="P59" s="25"/>
@@ -7954,7 +7968,7 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="45" t="s">
+      <c r="N60" s="44" t="s">
         <v>184</v>
       </c>
       <c r="O60" s="24" t="n">
@@ -8041,14 +8055,14 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="45" t="s">
+      <c r="N61" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="O61" s="46" t="n">
+      <c r="O61" s="45" t="n">
         <v>4607042430619</v>
       </c>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
       <c r="R61" s="16" t="s">
         <v>55</v>
       </c>
@@ -8128,14 +8142,14 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="45" t="s">
+      <c r="N62" s="44" t="s">
         <v>188</v>
       </c>
       <c r="O62" s="24" t="n">
         <v>4607042430565</v>
       </c>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
       <c r="R62" s="16" t="s">
         <v>55</v>
       </c>
@@ -8215,7 +8229,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="45" t="s">
+      <c r="N63" s="44" t="s">
         <v>190</v>
       </c>
       <c r="O63" s="24" t="n">
@@ -8302,14 +8316,14 @@
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="45" t="s">
+      <c r="N64" s="44" t="s">
         <v>192</v>
       </c>
       <c r="O64" s="24" t="n">
         <v>4607174579286</v>
       </c>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
       <c r="R64" s="16" t="s">
         <v>55</v>
       </c>
@@ -8389,14 +8403,14 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="45" t="s">
+      <c r="N65" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="O65" s="46" t="n">
+      <c r="O65" s="45" t="n">
         <v>4607174577794</v>
       </c>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
       <c r="R65" s="16" t="s">
         <v>55</v>
       </c>
@@ -8476,10 +8490,10 @@
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="45" t="s">
+      <c r="N66" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="O66" s="46" t="n">
+      <c r="O66" s="45" t="n">
         <v>4607042439155</v>
       </c>
       <c r="P66" s="25"/>
@@ -8563,7 +8577,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="45" t="s">
+      <c r="N67" s="44" t="s">
         <v>198</v>
       </c>
       <c r="O67" s="24" t="n">
@@ -8650,10 +8664,10 @@
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
-      <c r="N68" s="45" t="s">
+      <c r="N68" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O68" s="46" t="n">
+      <c r="O68" s="45" t="n">
         <v>4607042439223</v>
       </c>
       <c r="P68" s="25"/>
@@ -8737,7 +8751,7 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="45" t="s">
+      <c r="N69" s="44" t="s">
         <v>202</v>
       </c>
       <c r="O69" s="24" t="n">
@@ -8824,14 +8838,14 @@
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="45" t="s">
+      <c r="N70" s="44" t="s">
         <v>204</v>
       </c>
       <c r="O70" s="24" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
       <c r="R70" s="16" t="s">
         <v>55</v>
       </c>
@@ -8911,14 +8925,14 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="45" t="s">
+      <c r="N71" s="44" t="s">
         <v>206</v>
       </c>
       <c r="O71" s="24" t="n">
         <v>4607174578548</v>
       </c>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
       <c r="R71" s="16" t="s">
         <v>55</v>
       </c>
@@ -8998,14 +9012,14 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-      <c r="N72" s="45" t="s">
+      <c r="N72" s="44" t="s">
         <v>208</v>
       </c>
       <c r="O72" s="24" t="n">
         <v>4607174577145</v>
       </c>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
       <c r="R72" s="16" t="s">
         <v>55</v>
       </c>
@@ -9085,7 +9099,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="45" t="s">
+      <c r="N73" s="44" t="s">
         <v>210</v>
       </c>
       <c r="O73" s="24" t="n">
@@ -9172,10 +9186,10 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="45" t="s">
+      <c r="N74" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="O74" s="46" t="n">
+      <c r="O74" s="45" t="n">
         <v>4607042431371</v>
       </c>
       <c r="P74" s="15"/>
@@ -9259,7 +9273,7 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="45" t="s">
+      <c r="N75" s="44" t="s">
         <v>214</v>
       </c>
       <c r="O75" s="24" t="n">
@@ -9346,7 +9360,7 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
-      <c r="N76" s="45" t="s">
+      <c r="N76" s="44" t="s">
         <v>216</v>
       </c>
       <c r="O76" s="24" t="n">
@@ -9433,7 +9447,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="45" t="s">
+      <c r="N77" s="44" t="s">
         <v>218</v>
       </c>
       <c r="O77" s="24" t="n">
@@ -9526,8 +9540,8 @@
       <c r="O78" s="24" t="n">
         <v>4650075420980</v>
       </c>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
       <c r="R78" s="16" t="s">
         <v>55</v>
       </c>
@@ -9607,7 +9621,7 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="48" t="s">
+      <c r="N79" s="47" t="s">
         <v>222</v>
       </c>
       <c r="O79" s="24" t="n">
@@ -9781,7 +9795,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="48" t="s">
+      <c r="N81" s="47" t="s">
         <v>226</v>
       </c>
       <c r="O81" s="24" t="n">
@@ -9868,14 +9882,14 @@
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="45" t="s">
+      <c r="N82" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="O82" s="46" t="n">
+      <c r="O82" s="45" t="n">
         <v>4607174579729</v>
       </c>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
       <c r="R82" s="16" t="s">
         <v>55</v>
       </c>
@@ -9918,7 +9932,7 @@
         <v>81</v>
       </c>
       <c r="AO82" s="17"/>
-      <c r="AP82" s="49" t="s">
+      <c r="AP82" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ82" s="13"/>
@@ -9955,14 +9969,14 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="45" t="s">
+      <c r="N83" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="O83" s="46" t="n">
+      <c r="O83" s="45" t="n">
         <v>4607174579477</v>
       </c>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
       <c r="R83" s="16" t="s">
         <v>55</v>
       </c>
@@ -10005,7 +10019,7 @@
         <v>82</v>
       </c>
       <c r="AO83" s="17"/>
-      <c r="AP83" s="49" t="s">
+      <c r="AP83" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ83" s="13"/>
@@ -10042,14 +10056,14 @@
       </c>
       <c r="L84" s="16"/>
       <c r="M84" s="16"/>
-      <c r="N84" s="45" t="s">
+      <c r="N84" s="44" t="s">
         <v>232</v>
       </c>
       <c r="O84" s="24" t="n">
         <v>4607174579668</v>
       </c>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
       <c r="R84" s="16" t="s">
         <v>55</v>
       </c>
@@ -10092,7 +10106,7 @@
         <v>83</v>
       </c>
       <c r="AO84" s="17"/>
-      <c r="AP84" s="49" t="s">
+      <c r="AP84" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ84" s="13"/>
@@ -10129,14 +10143,14 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="48" t="s">
+      <c r="N85" s="47" t="s">
         <v>234</v>
       </c>
       <c r="O85" s="24" t="n">
         <v>4607042438967</v>
       </c>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
       <c r="R85" s="16" t="s">
         <v>55</v>
       </c>
@@ -10179,7 +10193,7 @@
         <v>84</v>
       </c>
       <c r="AO85" s="17"/>
-      <c r="AP85" s="49" t="s">
+      <c r="AP85" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ85" s="13"/>
@@ -10216,14 +10230,14 @@
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="48" t="s">
+      <c r="N86" s="47" t="s">
         <v>236</v>
       </c>
       <c r="O86" s="24" t="n">
         <v>4607174579248</v>
       </c>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
       <c r="R86" s="16" t="s">
         <v>55</v>
       </c>
@@ -10266,7 +10280,7 @@
         <v>85</v>
       </c>
       <c r="AO86" s="17"/>
-      <c r="AP86" s="49" t="s">
+      <c r="AP86" s="48" t="s">
         <v>165</v>
       </c>
       <c r="AQ86" s="13"/>
@@ -10306,15 +10320,15 @@
       <c r="N87" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O87" s="43" t="s">
+      <c r="O87" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="P87" s="43" t="s">
+      <c r="P87" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q87" s="43"/>
+      <c r="Q87" s="42"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="50" t="s">
+      <c r="S87" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T87" s="12"/>
@@ -10351,7 +10365,7 @@
         <v>86</v>
       </c>
       <c r="AO87" s="12"/>
-      <c r="AP87" s="51"/>
+      <c r="AP87" s="50"/>
       <c r="AQ87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,9 +10401,9 @@
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
       <c r="R88" s="16" t="s">
         <v>252</v>
       </c>
@@ -10429,10 +10443,10 @@
       <c r="AN88" s="19" t="n">
         <v>87</v>
       </c>
-      <c r="AO88" s="52" t="s">
+      <c r="AO88" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="AP88" s="53" t="s">
+      <c r="AP88" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ88" s="12"/>
@@ -10469,7 +10483,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="45" t="s">
+      <c r="N89" s="44" t="s">
         <v>65</v>
       </c>
       <c r="O89" s="25" t="n">
@@ -10477,10 +10491,10 @@
       </c>
       <c r="P89" s="25"/>
       <c r="Q89" s="25"/>
-      <c r="R89" s="45" t="s">
+      <c r="R89" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S89" s="45" t="s">
+      <c r="S89" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T89" s="12"/>
@@ -10556,7 +10570,7 @@
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="45" t="s">
+      <c r="N90" s="44" t="s">
         <v>90</v>
       </c>
       <c r="O90" s="25" t="n">
@@ -10564,10 +10578,10 @@
       </c>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
-      <c r="R90" s="45" t="s">
+      <c r="R90" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S90" s="45" t="s">
+      <c r="S90" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T90" s="12"/>
@@ -10651,10 +10665,10 @@
       </c>
       <c r="P91" s="25"/>
       <c r="Q91" s="25"/>
-      <c r="R91" s="45" t="s">
+      <c r="R91" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S91" s="45" t="s">
+      <c r="S91" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T91" s="12"/>
@@ -10733,15 +10747,15 @@
       <c r="N92" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="O92" s="44" t="n">
+      <c r="O92" s="43" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="45" t="s">
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S92" s="45" t="s">
+      <c r="S92" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T92" s="12"/>
@@ -10825,10 +10839,10 @@
       </c>
       <c r="P93" s="25"/>
       <c r="Q93" s="25"/>
-      <c r="R93" s="45" t="s">
+      <c r="R93" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S93" s="45" t="s">
+      <c r="S93" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T93" s="12"/>
@@ -10912,10 +10926,10 @@
       </c>
       <c r="P94" s="25"/>
       <c r="Q94" s="25"/>
-      <c r="R94" s="45" t="s">
+      <c r="R94" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S94" s="45" t="s">
+      <c r="S94" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T94" s="12"/>
@@ -10999,10 +11013,10 @@
       </c>
       <c r="P95" s="25"/>
       <c r="Q95" s="25"/>
-      <c r="R95" s="45" t="s">
+      <c r="R95" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S95" s="45" t="s">
+      <c r="S95" s="44" t="s">
         <v>56</v>
       </c>
       <c r="T95" s="12"/>
@@ -11081,15 +11095,15 @@
       <c r="N96" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O96" s="43" t="s">
+      <c r="O96" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="P96" s="43" t="s">
+      <c r="P96" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="Q96" s="43"/>
+      <c r="Q96" s="42"/>
       <c r="R96" s="12"/>
-      <c r="S96" s="50" t="s">
+      <c r="S96" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T96" s="12"/>
@@ -11126,7 +11140,7 @@
         <v>95</v>
       </c>
       <c r="AO96" s="12"/>
-      <c r="AP96" s="51"/>
+      <c r="AP96" s="50"/>
       <c r="AQ96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11162,9 +11176,9 @@
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
       <c r="R97" s="16" t="s">
         <v>252</v>
       </c>
@@ -11204,10 +11218,10 @@
       <c r="AN97" s="14" t="n">
         <v>96</v>
       </c>
-      <c r="AO97" s="52" t="s">
+      <c r="AO97" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="AP97" s="53" t="s">
+      <c r="AP97" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ97" s="12"/>
@@ -11244,18 +11258,18 @@
       </c>
       <c r="L98" s="16"/>
       <c r="M98" s="16"/>
-      <c r="N98" s="45" t="s">
+      <c r="N98" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O98" s="54" t="n">
+      <c r="O98" s="53" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P98" s="25"/>
       <c r="Q98" s="25"/>
-      <c r="R98" s="55" t="s">
+      <c r="R98" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S98" s="55" t="s">
+      <c r="S98" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T98" s="12"/>
@@ -11331,7 +11345,7 @@
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
-      <c r="N99" s="45" t="s">
+      <c r="N99" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O99" s="25" t="n">
@@ -11339,10 +11353,10 @@
       </c>
       <c r="P99" s="25"/>
       <c r="Q99" s="25"/>
-      <c r="R99" s="55" t="s">
+      <c r="R99" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S99" s="55" t="s">
+      <c r="S99" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T99" s="12"/>
@@ -11418,7 +11432,7 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
-      <c r="N100" s="45" t="s">
+      <c r="N100" s="44" t="s">
         <v>172</v>
       </c>
       <c r="O100" s="25" t="n">
@@ -11426,10 +11440,10 @@
       </c>
       <c r="P100" s="25"/>
       <c r="Q100" s="25"/>
-      <c r="R100" s="55" t="s">
+      <c r="R100" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S100" s="55" t="s">
+      <c r="S100" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T100" s="12"/>
@@ -11505,18 +11519,18 @@
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
-      <c r="N101" s="45" t="s">
+      <c r="N101" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="O101" s="56" t="n">
+      <c r="O101" s="55" t="n">
         <v>4607174578449</v>
       </c>
-      <c r="P101" s="56"/>
-      <c r="Q101" s="56"/>
-      <c r="R101" s="55" t="s">
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S101" s="55" t="s">
+      <c r="S101" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T101" s="12"/>
@@ -11592,18 +11606,18 @@
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
-      <c r="N102" s="45" t="s">
+      <c r="N102" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="O102" s="56" t="n">
+      <c r="O102" s="55" t="n">
         <v>4607174578029</v>
       </c>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="56"/>
-      <c r="R102" s="55" t="s">
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S102" s="55" t="s">
+      <c r="S102" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T102" s="12"/>
@@ -11682,15 +11696,15 @@
       <c r="N103" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O103" s="43" t="s">
+      <c r="O103" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="P103" s="43" t="s">
+      <c r="P103" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="Q103" s="43"/>
+      <c r="Q103" s="42"/>
       <c r="R103" s="12"/>
-      <c r="S103" s="50" t="s">
+      <c r="S103" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T103" s="12"/>
@@ -11727,7 +11741,7 @@
         <v>102</v>
       </c>
       <c r="AO103" s="12"/>
-      <c r="AP103" s="51"/>
+      <c r="AP103" s="50"/>
       <c r="AQ103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11763,10 +11777,10 @@
       <c r="L104" s="16"/>
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
-      <c r="Q104" s="43"/>
-      <c r="R104" s="45" t="s">
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="44" t="s">
         <v>252</v>
       </c>
       <c r="S104" s="12"/>
@@ -11805,10 +11819,10 @@
       <c r="AN104" s="19" t="n">
         <v>103</v>
       </c>
-      <c r="AO104" s="57" t="s">
+      <c r="AO104" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="AP104" s="53" t="s">
+      <c r="AP104" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ104" s="12"/>
@@ -11845,7 +11859,7 @@
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="16"/>
-      <c r="N105" s="45" t="s">
+      <c r="N105" s="44" t="s">
         <v>299</v>
       </c>
       <c r="O105" s="25" t="n">
@@ -11853,10 +11867,10 @@
       </c>
       <c r="P105" s="25"/>
       <c r="Q105" s="25"/>
-      <c r="R105" s="45" t="s">
+      <c r="R105" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S105" s="55" t="s">
+      <c r="S105" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T105" s="12"/>
@@ -11935,15 +11949,15 @@
       <c r="N106" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O106" s="44" t="s">
+      <c r="O106" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="P106" s="44" t="s">
+      <c r="P106" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="55"/>
-      <c r="S106" s="50" t="s">
+      <c r="Q106" s="43"/>
+      <c r="R106" s="54"/>
+      <c r="S106" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T106" s="12"/>
@@ -11980,7 +11994,7 @@
         <v>105</v>
       </c>
       <c r="AO106" s="12"/>
-      <c r="AP106" s="51"/>
+      <c r="AP106" s="50"/>
       <c r="AQ106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12016,10 +12030,10 @@
       <c r="L107" s="16"/>
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="45" t="s">
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="44" t="s">
         <v>252</v>
       </c>
       <c r="S107" s="12"/>
@@ -12058,10 +12072,10 @@
       <c r="AN107" s="14" t="n">
         <v>106</v>
       </c>
-      <c r="AO107" s="52" t="s">
+      <c r="AO107" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="AP107" s="53" t="s">
+      <c r="AP107" s="52" t="s">
         <v>255</v>
       </c>
       <c r="AQ107" s="12"/>
@@ -12101,15 +12115,15 @@
       <c r="N108" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O108" s="47" t="n">
+      <c r="O108" s="46" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P108" s="47"/>
-      <c r="Q108" s="47"/>
-      <c r="R108" s="45" t="s">
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S108" s="55" t="s">
+      <c r="S108" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T108" s="12"/>
@@ -12188,15 +12202,15 @@
       <c r="N109" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="O109" s="47" t="n">
+      <c r="O109" s="46" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="47"/>
-      <c r="R109" s="45" t="s">
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="S109" s="55" t="s">
+      <c r="S109" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T109" s="12"/>
@@ -12275,15 +12289,15 @@
       <c r="N110" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O110" s="44" t="s">
+      <c r="O110" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="P110" s="44" t="s">
+      <c r="P110" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="Q110" s="44"/>
+      <c r="Q110" s="43"/>
       <c r="R110" s="12"/>
-      <c r="S110" s="50" t="s">
+      <c r="S110" s="49" t="s">
         <v>244</v>
       </c>
       <c r="T110" s="12"/>
@@ -12346,26 +12360,26 @@
       <c r="H111" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I111" s="58" t="s">
+      <c r="I111" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J111" s="58"/>
+      <c r="J111" s="57"/>
       <c r="K111" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L111" s="16"/>
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="43"/>
-      <c r="Q111" s="43"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
       <c r="R111" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
-      <c r="V111" s="39"/>
+      <c r="V111" s="38"/>
       <c r="W111" s="12"/>
       <c r="X111" s="12" t="s">
         <v>319</v>
@@ -12398,7 +12412,7 @@
       <c r="AN111" s="14" t="n">
         <v>110</v>
       </c>
-      <c r="AO111" s="52" t="s">
+      <c r="AO111" s="51" t="s">
         <v>320</v>
       </c>
       <c r="AP111" s="12"/>
@@ -12439,13 +12453,13 @@
       <c r="N112" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O112" s="43" t="s">
+      <c r="O112" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="P112" s="43" t="s">
+      <c r="P112" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q112" s="43"/>
+      <c r="Q112" s="42"/>
       <c r="R112" s="12" t="s">
         <v>55</v>
       </c>
@@ -12454,7 +12468,7 @@
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
-      <c r="V112" s="39"/>
+      <c r="V112" s="38"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12" t="s">
         <v>319</v>
@@ -12500,83 +12514,83 @@
       <c r="B113" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="59" t="s">
+      <c r="C113" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="60" t="s">
+      <c r="D113" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="60" t="s">
+      <c r="E113" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F113" s="60"/>
-      <c r="G113" s="59" t="s">
+      <c r="F113" s="59"/>
+      <c r="G113" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="H113" s="59" t="s">
+      <c r="H113" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="I113" s="61" t="s">
+      <c r="I113" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61" t="n">
+      <c r="J113" s="60"/>
+      <c r="K113" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L113" s="61"/>
-      <c r="M113" s="61"/>
-      <c r="N113" s="61"/>
-      <c r="O113" s="62"/>
-      <c r="P113" s="62"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="59" t="s">
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="61"/>
+      <c r="P113" s="61"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S113" s="59" t="s">
+      <c r="S113" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T113" s="59"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="61" t="s">
+      <c r="T113" s="58"/>
+      <c r="U113" s="58"/>
+      <c r="V113" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="W113" s="59"/>
-      <c r="X113" s="59" t="s">
+      <c r="W113" s="58"/>
+      <c r="X113" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="Y113" s="59"/>
-      <c r="Z113" s="59"/>
+      <c r="Y113" s="58"/>
+      <c r="Z113" s="58"/>
       <c r="AA113" s="17" t="n">
         <v>101</v>
       </c>
-      <c r="AB113" s="59"/>
-      <c r="AC113" s="59"/>
-      <c r="AD113" s="59" t="s">
+      <c r="AB113" s="58"/>
+      <c r="AC113" s="58"/>
+      <c r="AD113" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE113" s="61" t="s">
+      <c r="AE113" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF113" s="63" t="n">
+      <c r="AF113" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG113" s="61"/>
-      <c r="AH113" s="61"/>
-      <c r="AI113" s="61"/>
-      <c r="AJ113" s="61"/>
-      <c r="AK113" s="61"/>
-      <c r="AL113" s="61"/>
-      <c r="AM113" s="59" t="n">
+      <c r="AG113" s="60"/>
+      <c r="AH113" s="60"/>
+      <c r="AI113" s="60"/>
+      <c r="AJ113" s="60"/>
+      <c r="AK113" s="60"/>
+      <c r="AL113" s="60"/>
+      <c r="AM113" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN113" s="14" t="n">
         <v>112</v>
       </c>
-      <c r="AO113" s="59"/>
+      <c r="AO113" s="58"/>
       <c r="AP113" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="AQ113" s="59"/>
+      <c r="AQ113" s="58"/>
     </row>
     <row r="114" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="n">
@@ -12601,23 +12615,23 @@
       <c r="H114" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="I114" s="64" t="s">
+      <c r="I114" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="64"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O114" s="43" t="n">
+      <c r="O114" s="42" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P114" s="43" t="s">
+      <c r="P114" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q114" s="43"/>
+      <c r="Q114" s="42"/>
       <c r="R114" s="12" t="s">
         <v>55</v>
       </c>
@@ -12626,7 +12640,7 @@
       </c>
       <c r="T114" s="12"/>
       <c r="U114" s="12"/>
-      <c r="V114" s="39"/>
+      <c r="V114" s="38"/>
       <c r="W114" s="12"/>
       <c r="X114" s="12" t="s">
         <v>319</v>
@@ -12690,26 +12704,26 @@
       <c r="H115" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I115" s="58" t="s">
+      <c r="I115" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J115" s="58"/>
+      <c r="J115" s="57"/>
       <c r="K115" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
-      <c r="O115" s="44"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
+      <c r="Q115" s="43"/>
       <c r="R115" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="39"/>
+      <c r="V115" s="38"/>
       <c r="W115" s="12"/>
       <c r="X115" s="12" t="s">
         <v>319</v>
@@ -12735,7 +12749,7 @@
       <c r="AI115" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="AJ115" s="61" t="s">
+      <c r="AJ115" s="60" t="s">
         <v>334</v>
       </c>
       <c r="AK115" s="16"/>
@@ -12746,7 +12760,7 @@
       <c r="AN115" s="14" t="n">
         <v>114</v>
       </c>
-      <c r="AO115" s="52" t="s">
+      <c r="AO115" s="51" t="s">
         <v>335</v>
       </c>
       <c r="AP115" s="12"/>
@@ -12787,20 +12801,20 @@
       <c r="N116" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O116" s="43" t="n">
+      <c r="O116" s="42" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P116" s="43"/>
-      <c r="Q116" s="43"/>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="42"/>
       <c r="R116" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S116" s="55" t="s">
+      <c r="S116" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T116" s="12"/>
       <c r="U116" s="12"/>
-      <c r="V116" s="39"/>
+      <c r="V116" s="38"/>
       <c r="W116" s="12"/>
       <c r="X116" s="12" t="s">
         <v>319</v>
@@ -12874,20 +12888,20 @@
       <c r="N117" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="O117" s="43" t="n">
+      <c r="O117" s="42" t="n">
         <v>5449000012203</v>
       </c>
-      <c r="P117" s="43"/>
-      <c r="Q117" s="43"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
       <c r="R117" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S117" s="55" t="s">
+      <c r="S117" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T117" s="12"/>
       <c r="U117" s="12"/>
-      <c r="V117" s="39"/>
+      <c r="V117" s="38"/>
       <c r="W117" s="12"/>
       <c r="X117" s="12" t="s">
         <v>319</v>
@@ -12961,20 +12975,20 @@
       <c r="N118" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O118" s="66" t="n">
+      <c r="O118" s="65" t="n">
         <v>5449000052926</v>
       </c>
-      <c r="P118" s="43"/>
-      <c r="Q118" s="43"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="42"/>
       <c r="R118" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S118" s="55" t="s">
+      <c r="S118" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
-      <c r="V118" s="39"/>
+      <c r="V118" s="38"/>
       <c r="W118" s="12"/>
       <c r="X118" s="12" t="s">
         <v>319</v>
@@ -13012,7 +13026,7 @@
         <v>332</v>
       </c>
       <c r="AQ118" s="12"/>
-      <c r="AR118" s="67"/>
+      <c r="AR118" s="66"/>
     </row>
     <row r="119" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="19" t="n">
@@ -13037,26 +13051,26 @@
       <c r="H119" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="I119" s="58" t="s">
+      <c r="I119" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J119" s="58"/>
+      <c r="J119" s="57"/>
       <c r="K119" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
-      <c r="O119" s="43"/>
-      <c r="P119" s="43"/>
-      <c r="Q119" s="43"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
       <c r="R119" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
       <c r="U119" s="12"/>
-      <c r="V119" s="39"/>
+      <c r="V119" s="38"/>
       <c r="W119" s="12"/>
       <c r="X119" s="12" t="s">
         <v>319</v>
@@ -13089,7 +13103,7 @@
       <c r="AN119" s="14" t="n">
         <v>118</v>
       </c>
-      <c r="AO119" s="52" t="s">
+      <c r="AO119" s="51" t="s">
         <v>344</v>
       </c>
       <c r="AP119" s="12"/>
@@ -13130,13 +13144,13 @@
       <c r="N120" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O120" s="43" t="s">
+      <c r="O120" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="P120" s="43" t="s">
+      <c r="P120" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="Q120" s="43"/>
+      <c r="Q120" s="42"/>
       <c r="R120" s="12" t="s">
         <v>55</v>
       </c>
@@ -13145,7 +13159,7 @@
       </c>
       <c r="T120" s="12"/>
       <c r="U120" s="12"/>
-      <c r="V120" s="39"/>
+      <c r="V120" s="38"/>
       <c r="W120" s="12"/>
       <c r="X120" s="12" t="s">
         <v>319</v>
@@ -13191,83 +13205,83 @@
       <c r="B121" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D121" s="60" t="s">
+      <c r="D121" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="60" t="s">
+      <c r="E121" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="59" t="s">
+      <c r="F121" s="59"/>
+      <c r="G121" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="H121" s="59" t="s">
+      <c r="H121" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="I121" s="61" t="s">
+      <c r="I121" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61" t="n">
+      <c r="J121" s="60"/>
+      <c r="K121" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L121" s="61"/>
-      <c r="M121" s="61"/>
-      <c r="N121" s="61"/>
-      <c r="O121" s="62"/>
-      <c r="P121" s="62"/>
-      <c r="Q121" s="62"/>
-      <c r="R121" s="59" t="s">
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="60"/>
+      <c r="O121" s="61"/>
+      <c r="P121" s="61"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S121" s="59" t="s">
+      <c r="S121" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T121" s="59"/>
-      <c r="U121" s="59"/>
-      <c r="V121" s="61" t="s">
+      <c r="T121" s="58"/>
+      <c r="U121" s="58"/>
+      <c r="V121" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="W121" s="59"/>
-      <c r="X121" s="59" t="s">
+      <c r="W121" s="58"/>
+      <c r="X121" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="Y121" s="59"/>
-      <c r="Z121" s="59"/>
+      <c r="Y121" s="58"/>
+      <c r="Z121" s="58"/>
       <c r="AA121" s="17" t="n">
         <v>102</v>
       </c>
-      <c r="AB121" s="59"/>
-      <c r="AC121" s="59"/>
-      <c r="AD121" s="59" t="s">
+      <c r="AB121" s="58"/>
+      <c r="AC121" s="58"/>
+      <c r="AD121" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE121" s="61" t="s">
+      <c r="AE121" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF121" s="63" t="n">
+      <c r="AF121" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG121" s="61"/>
-      <c r="AH121" s="61"/>
-      <c r="AI121" s="61"/>
-      <c r="AJ121" s="61"/>
-      <c r="AK121" s="61"/>
-      <c r="AL121" s="61"/>
-      <c r="AM121" s="59" t="n">
+      <c r="AG121" s="60"/>
+      <c r="AH121" s="60"/>
+      <c r="AI121" s="60"/>
+      <c r="AJ121" s="60"/>
+      <c r="AK121" s="60"/>
+      <c r="AL121" s="60"/>
+      <c r="AM121" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN121" s="14" t="n">
         <v>120</v>
       </c>
-      <c r="AO121" s="59"/>
-      <c r="AP121" s="59" t="s">
+      <c r="AO121" s="58"/>
+      <c r="AP121" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="AQ121" s="59"/>
+      <c r="AQ121" s="58"/>
     </row>
     <row r="122" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="n">
@@ -13279,24 +13293,24 @@
       <c r="C122" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="68" t="s">
+      <c r="D122" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="68" t="s">
+      <c r="E122" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="F122" s="68"/>
+      <c r="F122" s="67"/>
       <c r="G122" s="16" t="s">
         <v>350</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="I122" s="64" t="s">
+      <c r="I122" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J122" s="64"/>
-      <c r="K122" s="65"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="64"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16" t="s">
@@ -13317,7 +13331,7 @@
       </c>
       <c r="T122" s="12"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="39"/>
+      <c r="V122" s="38"/>
       <c r="W122" s="12"/>
       <c r="X122" s="12" t="s">
         <v>319</v>
@@ -13381,26 +13395,26 @@
       <c r="H123" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="I123" s="58" t="s">
+      <c r="I123" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J123" s="58"/>
+      <c r="J123" s="57"/>
       <c r="K123" s="16" t="n">
         <v>2</v>
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="44"/>
-      <c r="Q123" s="44"/>
+      <c r="O123" s="43"/>
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
       <c r="R123" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
       <c r="U123" s="12"/>
-      <c r="V123" s="39"/>
+      <c r="V123" s="38"/>
       <c r="W123" s="12"/>
       <c r="X123" s="12" t="s">
         <v>319</v>
@@ -13426,7 +13440,7 @@
       <c r="AI123" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="AJ123" s="61" t="s">
+      <c r="AJ123" s="60" t="s">
         <v>355</v>
       </c>
       <c r="AK123" s="16"/>
@@ -13437,7 +13451,7 @@
       <c r="AN123" s="14" t="n">
         <v>122</v>
       </c>
-      <c r="AO123" s="52" t="s">
+      <c r="AO123" s="51" t="s">
         <v>356</v>
       </c>
       <c r="AP123" s="12"/>
@@ -13486,12 +13500,12 @@
       <c r="R124" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S124" s="55" t="s">
+      <c r="S124" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T124" s="12"/>
       <c r="U124" s="12"/>
-      <c r="V124" s="39"/>
+      <c r="V124" s="38"/>
       <c r="W124" s="12"/>
       <c r="X124" s="12" t="s">
         <v>319</v>
@@ -13573,12 +13587,12 @@
       <c r="R125" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S125" s="55" t="s">
+      <c r="S125" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
-      <c r="V125" s="39"/>
+      <c r="V125" s="38"/>
       <c r="W125" s="12"/>
       <c r="X125" s="12" t="s">
         <v>319</v>
@@ -13640,26 +13654,26 @@
       <c r="H126" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I126" s="58" t="s">
+      <c r="I126" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J126" s="58"/>
+      <c r="J126" s="57"/>
       <c r="K126" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
+      <c r="O126" s="42"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="42"/>
       <c r="R126" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
       <c r="U126" s="12"/>
-      <c r="V126" s="39"/>
+      <c r="V126" s="38"/>
       <c r="W126" s="12"/>
       <c r="X126" s="12" t="s">
         <v>364</v>
@@ -13692,7 +13706,7 @@
       <c r="AN126" s="19" t="n">
         <v>125</v>
       </c>
-      <c r="AO126" s="52" t="s">
+      <c r="AO126" s="51" t="s">
         <v>365</v>
       </c>
       <c r="AP126" s="12"/>
@@ -13733,13 +13747,13 @@
       <c r="N127" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O127" s="43" t="s">
+      <c r="O127" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="P127" s="43" t="s">
+      <c r="P127" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="Q127" s="43"/>
+      <c r="Q127" s="42"/>
       <c r="R127" s="12" t="s">
         <v>55</v>
       </c>
@@ -13748,7 +13762,7 @@
       </c>
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
-      <c r="V127" s="39"/>
+      <c r="V127" s="38"/>
       <c r="W127" s="12"/>
       <c r="X127" s="12" t="s">
         <v>364</v>
@@ -13794,83 +13808,83 @@
       <c r="B128" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="59" t="s">
+      <c r="C128" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="60" t="s">
+      <c r="D128" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E128" s="60" t="s">
+      <c r="E128" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F128" s="60"/>
-      <c r="G128" s="59" t="s">
+      <c r="F128" s="59"/>
+      <c r="G128" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="H128" s="59" t="s">
+      <c r="H128" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="I128" s="61" t="s">
+      <c r="I128" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J128" s="61"/>
-      <c r="K128" s="61" t="n">
+      <c r="J128" s="60"/>
+      <c r="K128" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L128" s="61"/>
-      <c r="M128" s="61"/>
-      <c r="N128" s="61"/>
-      <c r="O128" s="62"/>
-      <c r="P128" s="62"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="59" t="s">
+      <c r="L128" s="60"/>
+      <c r="M128" s="60"/>
+      <c r="N128" s="60"/>
+      <c r="O128" s="61"/>
+      <c r="P128" s="61"/>
+      <c r="Q128" s="61"/>
+      <c r="R128" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S128" s="59" t="s">
+      <c r="S128" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T128" s="59"/>
-      <c r="U128" s="59"/>
-      <c r="V128" s="61" t="s">
+      <c r="T128" s="58"/>
+      <c r="U128" s="58"/>
+      <c r="V128" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="W128" s="59"/>
-      <c r="X128" s="59" t="s">
+      <c r="W128" s="58"/>
+      <c r="X128" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="Y128" s="59"/>
-      <c r="Z128" s="59"/>
+      <c r="Y128" s="58"/>
+      <c r="Z128" s="58"/>
       <c r="AA128" s="17" t="n">
         <v>1101</v>
       </c>
-      <c r="AB128" s="59"/>
-      <c r="AC128" s="59"/>
-      <c r="AD128" s="59" t="s">
+      <c r="AB128" s="58"/>
+      <c r="AC128" s="58"/>
+      <c r="AD128" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE128" s="61" t="s">
+      <c r="AE128" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF128" s="63" t="n">
+      <c r="AF128" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG128" s="61"/>
-      <c r="AH128" s="61"/>
-      <c r="AI128" s="61"/>
-      <c r="AJ128" s="61"/>
-      <c r="AK128" s="61"/>
-      <c r="AL128" s="61"/>
-      <c r="AM128" s="59" t="n">
+      <c r="AG128" s="60"/>
+      <c r="AH128" s="60"/>
+      <c r="AI128" s="60"/>
+      <c r="AJ128" s="60"/>
+      <c r="AK128" s="60"/>
+      <c r="AL128" s="60"/>
+      <c r="AM128" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN128" s="19" t="n">
         <v>127</v>
       </c>
-      <c r="AO128" s="59"/>
-      <c r="AP128" s="59" t="s">
+      <c r="AO128" s="58"/>
+      <c r="AP128" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="AQ128" s="59"/>
+      <c r="AQ128" s="58"/>
     </row>
     <row r="129" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="19" t="n">
@@ -13882,17 +13896,17 @@
       <c r="C129" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="68" t="s">
+      <c r="D129" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="68" t="s">
+      <c r="E129" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="F129" s="68"/>
+      <c r="F129" s="67"/>
       <c r="G129" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="H129" s="39" t="s">
+      <c r="H129" s="38" t="s">
         <v>372</v>
       </c>
       <c r="I129" s="16" t="s">
@@ -13905,16 +13919,16 @@
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
-      <c r="O129" s="43"/>
-      <c r="P129" s="43"/>
-      <c r="Q129" s="43"/>
+      <c r="O129" s="42"/>
+      <c r="P129" s="42"/>
+      <c r="Q129" s="42"/>
       <c r="R129" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
       <c r="U129" s="12"/>
-      <c r="V129" s="39"/>
+      <c r="V129" s="38"/>
       <c r="W129" s="12"/>
       <c r="X129" s="12" t="s">
         <v>364</v>
@@ -13947,7 +13961,7 @@
       <c r="AN129" s="14" t="n">
         <v>128</v>
       </c>
-      <c r="AO129" s="52" t="s">
+      <c r="AO129" s="51" t="s">
         <v>374</v>
       </c>
       <c r="AP129" s="12" t="s">
@@ -13978,17 +13992,17 @@
       <c r="H130" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="I130" s="64" t="s">
+      <c r="I130" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J130" s="64"/>
-      <c r="K130" s="65"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="64"/>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
-      <c r="N130" s="45" t="s">
+      <c r="N130" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O130" s="54" t="n">
+      <c r="O130" s="53" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P130" s="25"/>
@@ -14001,7 +14015,7 @@
       </c>
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
-      <c r="V130" s="39"/>
+      <c r="V130" s="38"/>
       <c r="W130" s="12"/>
       <c r="X130" s="12" t="s">
         <v>364</v>
@@ -14065,14 +14079,14 @@
       <c r="H131" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="I131" s="64" t="s">
+      <c r="I131" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J131" s="64"/>
-      <c r="K131" s="65"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="64"/>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
-      <c r="N131" s="45" t="s">
+      <c r="N131" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O131" s="25" t="n">
@@ -14088,7 +14102,7 @@
       </c>
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
-      <c r="V131" s="39"/>
+      <c r="V131" s="38"/>
       <c r="W131" s="12"/>
       <c r="X131" s="12" t="s">
         <v>364</v>
@@ -14152,26 +14166,26 @@
       <c r="H132" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="I132" s="58" t="s">
+      <c r="I132" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J132" s="58"/>
+      <c r="J132" s="57"/>
       <c r="K132" s="16" t="n">
         <v>4</v>
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
-      <c r="O132" s="44"/>
-      <c r="P132" s="44"/>
-      <c r="Q132" s="44"/>
+      <c r="O132" s="43"/>
+      <c r="P132" s="43"/>
+      <c r="Q132" s="43"/>
       <c r="R132" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
       <c r="U132" s="12"/>
-      <c r="V132" s="39"/>
+      <c r="V132" s="38"/>
       <c r="W132" s="12"/>
       <c r="X132" s="12" t="s">
         <v>364</v>
@@ -14197,7 +14211,7 @@
       <c r="AI132" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="AJ132" s="61" t="s">
+      <c r="AJ132" s="60" t="s">
         <v>383</v>
       </c>
       <c r="AK132" s="16"/>
@@ -14208,7 +14222,7 @@
       <c r="AN132" s="19" t="n">
         <v>131</v>
       </c>
-      <c r="AO132" s="52" t="s">
+      <c r="AO132" s="51" t="s">
         <v>384</v>
       </c>
       <c r="AP132" s="12"/>
@@ -14246,10 +14260,10 @@
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
-      <c r="N133" s="45" t="s">
+      <c r="N133" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O133" s="54" t="n">
+      <c r="O133" s="53" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P133" s="25"/>
@@ -14257,12 +14271,12 @@
       <c r="R133" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S133" s="55" t="s">
+      <c r="S133" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T133" s="12"/>
       <c r="U133" s="12"/>
-      <c r="V133" s="39"/>
+      <c r="V133" s="38"/>
       <c r="W133" s="12"/>
       <c r="X133" s="12" t="s">
         <v>364</v>
@@ -14333,7 +14347,7 @@
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
-      <c r="N134" s="45" t="s">
+      <c r="N134" s="44" t="s">
         <v>170</v>
       </c>
       <c r="O134" s="25" t="n">
@@ -14344,12 +14358,12 @@
       <c r="R134" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S134" s="55" t="s">
+      <c r="S134" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T134" s="12"/>
       <c r="U134" s="12"/>
-      <c r="V134" s="39"/>
+      <c r="V134" s="38"/>
       <c r="W134" s="12"/>
       <c r="X134" s="12" t="s">
         <v>364</v>
@@ -14420,7 +14434,7 @@
       </c>
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
-      <c r="N135" s="45" t="s">
+      <c r="N135" s="44" t="s">
         <v>172</v>
       </c>
       <c r="O135" s="25" t="n">
@@ -14431,12 +14445,12 @@
       <c r="R135" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S135" s="55" t="s">
+      <c r="S135" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T135" s="12"/>
       <c r="U135" s="12"/>
-      <c r="V135" s="39"/>
+      <c r="V135" s="38"/>
       <c r="W135" s="12"/>
       <c r="X135" s="12" t="s">
         <v>364</v>
@@ -14507,7 +14521,7 @@
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
-      <c r="N136" s="45" t="s">
+      <c r="N136" s="44" t="s">
         <v>174</v>
       </c>
       <c r="O136" s="25" t="n">
@@ -14518,12 +14532,12 @@
       <c r="R136" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S136" s="55" t="s">
+      <c r="S136" s="54" t="s">
         <v>56</v>
       </c>
       <c r="T136" s="12"/>
       <c r="U136" s="12"/>
-      <c r="V136" s="39"/>
+      <c r="V136" s="38"/>
       <c r="W136" s="12"/>
       <c r="X136" s="12" t="s">
         <v>364</v>
@@ -14585,26 +14599,26 @@
       <c r="H137" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="I137" s="58" t="s">
+      <c r="I137" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J137" s="58"/>
+      <c r="J137" s="57"/>
       <c r="K137" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
-      <c r="O137" s="43"/>
-      <c r="P137" s="43"/>
-      <c r="Q137" s="43"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
+      <c r="Q137" s="42"/>
       <c r="R137" s="12" t="s">
         <v>252</v>
       </c>
       <c r="S137" s="12"/>
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
-      <c r="V137" s="39"/>
+      <c r="V137" s="38"/>
       <c r="W137" s="12"/>
       <c r="X137" s="12" t="s">
         <v>395</v>
@@ -14635,7 +14649,7 @@
       <c r="AN137" s="14" t="n">
         <v>136</v>
       </c>
-      <c r="AO137" s="52" t="s">
+      <c r="AO137" s="51" t="s">
         <v>396</v>
       </c>
       <c r="AP137" s="12"/>
@@ -14676,13 +14690,13 @@
       <c r="N138" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O138" s="43" t="s">
+      <c r="O138" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="P138" s="44" t="s">
+      <c r="P138" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="Q138" s="43"/>
+      <c r="Q138" s="42"/>
       <c r="R138" s="12" t="s">
         <v>55</v>
       </c>
@@ -14691,7 +14705,7 @@
       </c>
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
-      <c r="V138" s="39"/>
+      <c r="V138" s="38"/>
       <c r="W138" s="12"/>
       <c r="X138" s="12" t="s">
         <v>395</v>
@@ -14735,81 +14749,81 @@
       <c r="B139" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="C139" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="60" t="s">
+      <c r="D139" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E139" s="60" t="s">
+      <c r="E139" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="F139" s="60"/>
-      <c r="G139" s="59" t="s">
+      <c r="F139" s="59"/>
+      <c r="G139" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="H139" s="59" t="s">
+      <c r="H139" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="I139" s="61" t="s">
+      <c r="I139" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="J139" s="61"/>
-      <c r="K139" s="61" t="n">
+      <c r="J139" s="60"/>
+      <c r="K139" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="L139" s="61"/>
-      <c r="M139" s="61"/>
-      <c r="N139" s="61"/>
-      <c r="O139" s="62"/>
-      <c r="P139" s="62"/>
-      <c r="Q139" s="62"/>
-      <c r="R139" s="59" t="s">
+      <c r="L139" s="60"/>
+      <c r="M139" s="60"/>
+      <c r="N139" s="60"/>
+      <c r="O139" s="61"/>
+      <c r="P139" s="61"/>
+      <c r="Q139" s="61"/>
+      <c r="R139" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S139" s="59" t="s">
+      <c r="S139" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="T139" s="59"/>
-      <c r="U139" s="59"/>
-      <c r="V139" s="61" t="s">
+      <c r="T139" s="58"/>
+      <c r="U139" s="58"/>
+      <c r="V139" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="W139" s="59"/>
-      <c r="X139" s="59" t="s">
+      <c r="W139" s="58"/>
+      <c r="X139" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="Y139" s="59"/>
-      <c r="Z139" s="59"/>
+      <c r="Y139" s="58"/>
+      <c r="Z139" s="58"/>
       <c r="AA139" s="17"/>
-      <c r="AB139" s="59"/>
-      <c r="AC139" s="59"/>
-      <c r="AD139" s="59" t="s">
+      <c r="AB139" s="58"/>
+      <c r="AC139" s="58"/>
+      <c r="AD139" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AE139" s="61" t="s">
+      <c r="AE139" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AF139" s="63" t="n">
+      <c r="AF139" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AG139" s="61"/>
-      <c r="AH139" s="61"/>
-      <c r="AI139" s="61"/>
-      <c r="AJ139" s="61"/>
-      <c r="AK139" s="61"/>
-      <c r="AL139" s="61"/>
-      <c r="AM139" s="59" t="n">
+      <c r="AG139" s="60"/>
+      <c r="AH139" s="60"/>
+      <c r="AI139" s="60"/>
+      <c r="AJ139" s="60"/>
+      <c r="AK139" s="60"/>
+      <c r="AL139" s="60"/>
+      <c r="AM139" s="58" t="n">
         <v>3</v>
       </c>
       <c r="AN139" s="14" t="n">
         <v>138</v>
       </c>
-      <c r="AO139" s="59"/>
-      <c r="AP139" s="59" t="s">
+      <c r="AO139" s="58"/>
+      <c r="AP139" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="AQ139" s="59"/>
+      <c r="AQ139" s="58"/>
     </row>
     <row r="140" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="n">
@@ -14831,7 +14845,7 @@
       <c r="G140" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="H140" s="39" t="s">
+      <c r="H140" s="38" t="s">
         <v>403</v>
       </c>
       <c r="I140" s="16" t="s">
@@ -14844,16 +14858,16 @@
       <c r="L140" s="16"/>
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
-      <c r="O140" s="43"/>
-      <c r="P140" s="43"/>
-      <c r="Q140" s="43"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42"/>
       <c r="R140" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S140" s="12"/>
       <c r="T140" s="12"/>
       <c r="U140" s="12"/>
-      <c r="V140" s="39"/>
+      <c r="V140" s="38"/>
       <c r="W140" s="12"/>
       <c r="X140" s="12" t="s">
         <v>395</v>
@@ -14884,7 +14898,7 @@
       <c r="AN140" s="19" t="n">
         <v>139</v>
       </c>
-      <c r="AO140" s="52" t="s">
+      <c r="AO140" s="51" t="s">
         <v>404</v>
       </c>
       <c r="AP140" s="12" t="s">
@@ -14915,21 +14929,21 @@
       <c r="H141" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="I141" s="64" t="s">
+      <c r="I141" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J141" s="64"/>
-      <c r="K141" s="65"/>
+      <c r="J141" s="63"/>
+      <c r="K141" s="64"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
-      <c r="N141" s="45" t="s">
+      <c r="N141" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="O141" s="47" t="n">
+      <c r="O141" s="46" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="46"/>
       <c r="R141" s="12" t="s">
         <v>55</v>
       </c>
@@ -14938,7 +14952,7 @@
       </c>
       <c r="T141" s="12"/>
       <c r="U141" s="12"/>
-      <c r="V141" s="39"/>
+      <c r="V141" s="38"/>
       <c r="W141" s="12"/>
       <c r="X141" s="12" t="s">
         <v>395</v>
@@ -14973,7 +14987,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14995,26 +15009,26 @@
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H142" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="H142" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="I142" s="64" t="s">
+      <c r="I142" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="J142" s="64"/>
-      <c r="K142" s="65"/>
+      <c r="J142" s="63"/>
+      <c r="K142" s="64"/>
       <c r="L142" s="16"/>
       <c r="M142" s="16"/>
-      <c r="N142" s="45" t="s">
+      <c r="N142" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="O142" s="47" t="n">
+      <c r="O142" s="46" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P142" s="47"/>
-      <c r="Q142" s="47"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="46"/>
       <c r="R142" s="12" t="s">
         <v>55</v>
       </c>
@@ -15023,7 +15037,7 @@
       </c>
       <c r="T142" s="12"/>
       <c r="U142" s="12"/>
-      <c r="V142" s="39"/>
+      <c r="V142" s="38"/>
       <c r="W142" s="12"/>
       <c r="X142" s="12" t="s">
         <v>395</v>
@@ -15046,7 +15060,7 @@
       <c r="AH142" s="16"/>
       <c r="AI142" s="16"/>
       <c r="AJ142" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AK142" s="16"/>
       <c r="AL142" s="16"/>
@@ -15058,7 +15072,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -15076,27 +15090,27 @@
         <v>45</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="H143" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="H143" s="12" t="s">
+      <c r="I143" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="I143" s="16" t="s">
-        <v>415</v>
       </c>
       <c r="J143" s="16"/>
       <c r="L143" s="16"/>
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
-      <c r="O143" s="43"/>
-      <c r="P143" s="43"/>
-      <c r="Q143" s="43"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
       <c r="R143" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S143" s="12"/>
       <c r="T143" s="12"/>
@@ -15121,8 +15135,8 @@
       <c r="AG143" s="16"/>
       <c r="AH143" s="16"/>
       <c r="AI143" s="16"/>
-      <c r="AJ143" s="69" t="s">
-        <v>417</v>
+      <c r="AJ143" s="68" t="s">
+        <v>416</v>
       </c>
       <c r="AK143" s="16"/>
       <c r="AL143" s="16"/>
@@ -15132,8 +15146,8 @@
       <c r="AN143" s="14" t="n">
         <v>142</v>
       </c>
-      <c r="AO143" s="52" t="s">
-        <v>418</v>
+      <c r="AO143" s="51" t="s">
+        <v>417</v>
       </c>
       <c r="AP143" s="12"/>
       <c r="AQ143" s="12"/>
@@ -15152,19 +15166,19 @@
         <v>45</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="H144" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="H144" s="16" t="s">
+      <c r="I144" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="I144" s="70" t="s">
-        <v>421</v>
-      </c>
-      <c r="J144" s="70"/>
+      <c r="J144" s="69"/>
       <c r="K144" s="16" t="n">
         <v>0.5</v>
       </c>
@@ -15175,21 +15189,21 @@
       <c r="N144" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O144" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P144" s="44"/>
-      <c r="Q144" s="44"/>
+      <c r="O144" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="43"/>
       <c r="R144" s="12"/>
       <c r="S144" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T144" s="12"/>
       <c r="U144" s="12"/>
       <c r="V144" s="12"/>
       <c r="W144" s="12"/>
-      <c r="X144" s="71" t="s">
-        <v>424</v>
+      <c r="X144" s="70" t="s">
+        <v>423</v>
       </c>
       <c r="Y144" s="12"/>
       <c r="Z144" s="12"/>
@@ -15219,7 +15233,7 @@
       </c>
       <c r="AO144" s="12"/>
       <c r="AP144" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ144" s="12"/>
     </row>
@@ -15237,17 +15251,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="H145" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="H145" s="16" t="s">
+      <c r="I145" s="16" t="s">
         <v>426</v>
-      </c>
-      <c r="I145" s="16" t="s">
-        <v>427</v>
       </c>
       <c r="J145" s="16"/>
       <c r="K145" s="16" t="n">
@@ -15258,21 +15272,21 @@
       <c r="N145" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O145" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="P145" s="43"/>
-      <c r="Q145" s="43"/>
+      <c r="O145" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
       <c r="R145" s="12"/>
       <c r="S145" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T145" s="12"/>
       <c r="U145" s="12"/>
       <c r="V145" s="12"/>
       <c r="W145" s="12"/>
       <c r="X145" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y145" s="12"/>
       <c r="Z145" s="12"/>
@@ -15302,7 +15316,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -15324,36 +15338,36 @@
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="H146" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="H146" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="I146" s="45" t="s">
+      <c r="I146" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="J146" s="45"/>
-      <c r="K146" s="45" t="n">
+      <c r="J146" s="44"/>
+      <c r="K146" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
-      <c r="O146" s="43"/>
-      <c r="P146" s="43"/>
-      <c r="Q146" s="43"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="42"/>
       <c r="R146" s="12"/>
-      <c r="S146" s="72" t="s">
-        <v>431</v>
+      <c r="S146" s="71" t="s">
+        <v>430</v>
       </c>
       <c r="T146" s="12"/>
       <c r="U146" s="12"/>
-      <c r="V146" s="61" t="s">
-        <v>432</v>
+      <c r="V146" s="60" t="s">
+        <v>431</v>
       </c>
       <c r="W146" s="12"/>
       <c r="X146" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y146" s="12"/>
       <c r="Z146" s="12"/>
@@ -15372,10 +15386,10 @@
       <c r="AG146" s="16"/>
       <c r="AH146" s="16"/>
       <c r="AI146" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ146" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ146" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK146" s="16"/>
       <c r="AL146" s="16"/>
@@ -15386,8 +15400,8 @@
         <v>145</v>
       </c>
       <c r="AO146" s="12"/>
-      <c r="AP146" s="74" t="s">
-        <v>434</v>
+      <c r="AP146" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -15409,28 +15423,28 @@
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="H147" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H147" s="16" t="s">
+      <c r="I147" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="I147" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="J147" s="58"/>
-      <c r="K147" s="70"/>
-      <c r="L147" s="45" t="n">
+      <c r="J147" s="57"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="M147" s="45" t="n">
+      <c r="M147" s="44" t="n">
         <v>23</v>
       </c>
       <c r="N147" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O147" s="43"/>
-      <c r="P147" s="43"/>
-      <c r="Q147" s="43"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="42"/>
+      <c r="Q147" s="42"/>
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
       <c r="T147" s="12"/>
@@ -15438,7 +15452,7 @@
       <c r="V147" s="12"/>
       <c r="W147" s="12"/>
       <c r="X147" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y147" s="12"/>
       <c r="Z147" s="12"/>
@@ -15456,11 +15470,11 @@
       </c>
       <c r="AG147" s="16"/>
       <c r="AH147" s="16"/>
-      <c r="AI147" s="75" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ147" s="73" t="s">
-        <v>433</v>
+      <c r="AI147" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="AJ147" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK147" s="16"/>
       <c r="AL147" s="16"/>
@@ -15471,8 +15485,8 @@
         <v>146</v>
       </c>
       <c r="AO147" s="12"/>
-      <c r="AP147" s="74" t="s">
-        <v>434</v>
+      <c r="AP147" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -15494,24 +15508,24 @@
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="H148" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="H148" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="I148" s="45" t="s">
+      <c r="I148" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="J148" s="45"/>
+      <c r="J148" s="44"/>
       <c r="K148" s="16" t="n">
         <v>16</v>
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
-      <c r="O148" s="56"/>
-      <c r="P148" s="43"/>
-      <c r="Q148" s="43"/>
+      <c r="O148" s="55"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
       <c r="R148" s="16" t="s">
         <v>252</v>
       </c>
@@ -15521,7 +15535,7 @@
       <c r="V148" s="12"/>
       <c r="W148" s="12"/>
       <c r="X148" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y148" s="12"/>
       <c r="Z148" s="12"/>
@@ -15531,23 +15545,23 @@
       <c r="AD148" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE148" s="76" t="s">
-        <v>440</v>
+      <c r="AE148" s="75" t="s">
+        <v>439</v>
       </c>
       <c r="AF148" s="26" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AG148" s="77" t="n">
+      <c r="AG148" s="76" t="n">
         <v>0.8</v>
       </c>
-      <c r="AH148" s="61" t="n">
+      <c r="AH148" s="60" t="n">
         <v>1</v>
       </c>
       <c r="AI148" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ148" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ148" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK148" s="16"/>
       <c r="AL148" s="16"/>
@@ -15557,11 +15571,11 @@
       <c r="AN148" s="19" t="n">
         <v>147</v>
       </c>
-      <c r="AO148" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="AP148" s="74" t="s">
-        <v>434</v>
+      <c r="AO148" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP148" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15583,10 +15597,10 @@
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="H149" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="H149" s="22" t="s">
-        <v>443</v>
       </c>
       <c r="I149" s="16" t="s">
         <v>54</v>
@@ -15603,8 +15617,8 @@
       <c r="O149" s="25" t="n">
         <v>40822426</v>
       </c>
-      <c r="P149" s="43"/>
-      <c r="Q149" s="43"/>
+      <c r="P149" s="42"/>
+      <c r="Q149" s="42"/>
       <c r="R149" s="16" t="s">
         <v>55</v>
       </c>
@@ -15616,7 +15630,7 @@
       <c r="V149" s="12"/>
       <c r="W149" s="12"/>
       <c r="X149" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y149" s="12"/>
       <c r="Z149" s="12"/>
@@ -15635,10 +15649,10 @@
       <c r="AG149" s="16"/>
       <c r="AH149" s="16"/>
       <c r="AI149" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ149" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ149" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK149" s="16"/>
       <c r="AL149" s="16"/>
@@ -15650,7 +15664,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15672,10 +15686,10 @@
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="H150" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="H150" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="I150" s="16" t="s">
         <v>54</v>
@@ -15692,8 +15706,8 @@
       <c r="O150" s="25" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P150" s="43"/>
-      <c r="Q150" s="43"/>
+      <c r="P150" s="42"/>
+      <c r="Q150" s="42"/>
       <c r="R150" s="16" t="s">
         <v>55</v>
       </c>
@@ -15705,7 +15719,7 @@
       <c r="V150" s="12"/>
       <c r="W150" s="12"/>
       <c r="X150" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y150" s="12"/>
       <c r="Z150" s="12"/>
@@ -15724,10 +15738,10 @@
       <c r="AG150" s="16"/>
       <c r="AH150" s="16"/>
       <c r="AI150" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ150" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ150" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK150" s="16"/>
       <c r="AL150" s="16"/>
@@ -15739,7 +15753,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15761,10 +15775,10 @@
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="H151" s="22" t="s">
         <v>446</v>
-      </c>
-      <c r="H151" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="I151" s="16" t="s">
         <v>54</v>
@@ -15781,8 +15795,8 @@
       <c r="O151" s="25" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P151" s="43"/>
-      <c r="Q151" s="43"/>
+      <c r="P151" s="42"/>
+      <c r="Q151" s="42"/>
       <c r="R151" s="16" t="s">
         <v>55</v>
       </c>
@@ -15794,7 +15808,7 @@
       <c r="V151" s="12"/>
       <c r="W151" s="12"/>
       <c r="X151" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y151" s="12"/>
       <c r="Z151" s="12"/>
@@ -15813,10 +15827,10 @@
       <c r="AG151" s="16"/>
       <c r="AH151" s="16"/>
       <c r="AI151" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ151" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ151" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK151" s="16"/>
       <c r="AL151" s="16"/>
@@ -15828,7 +15842,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15850,10 +15864,10 @@
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="H152" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="I152" s="16" t="s">
         <v>54</v>
@@ -15870,8 +15884,8 @@
       <c r="O152" s="25" t="n">
         <v>54491472</v>
       </c>
-      <c r="P152" s="43"/>
-      <c r="Q152" s="43"/>
+      <c r="P152" s="42"/>
+      <c r="Q152" s="42"/>
       <c r="R152" s="16" t="s">
         <v>55</v>
       </c>
@@ -15883,7 +15897,7 @@
       <c r="V152" s="12"/>
       <c r="W152" s="12"/>
       <c r="X152" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y152" s="12"/>
       <c r="Z152" s="12"/>
@@ -15902,10 +15916,10 @@
       <c r="AG152" s="16"/>
       <c r="AH152" s="16"/>
       <c r="AI152" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ152" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ152" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK152" s="16"/>
       <c r="AL152" s="16"/>
@@ -15917,7 +15931,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15938,11 +15952,11 @@
         <v>248</v>
       </c>
       <c r="F153" s="15"/>
-      <c r="G153" s="69" t="s">
+      <c r="G153" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="H153" s="27" t="s">
         <v>450</v>
-      </c>
-      <c r="H153" s="27" t="s">
-        <v>451</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>54</v>
@@ -15953,14 +15967,14 @@
       </c>
       <c r="L153" s="16"/>
       <c r="M153" s="16"/>
-      <c r="N153" s="69" t="s">
+      <c r="N153" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O153" s="78" t="s">
+      <c r="O153" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="P153" s="43"/>
-      <c r="Q153" s="43"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
       <c r="R153" s="16" t="s">
         <v>55</v>
       </c>
@@ -15972,7 +15986,7 @@
       <c r="V153" s="12"/>
       <c r="W153" s="12"/>
       <c r="X153" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y153" s="12"/>
       <c r="Z153" s="12"/>
@@ -15991,10 +16005,10 @@
       <c r="AG153" s="16"/>
       <c r="AH153" s="16"/>
       <c r="AI153" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ153" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ153" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK153" s="16"/>
       <c r="AL153" s="16"/>
@@ -16006,7 +16020,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -16028,10 +16042,10 @@
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="H154" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="H154" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="I154" s="16" t="s">
         <v>54</v>
@@ -16048,8 +16062,8 @@
       <c r="O154" s="25" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P154" s="43"/>
-      <c r="Q154" s="43"/>
+      <c r="P154" s="42"/>
+      <c r="Q154" s="42"/>
       <c r="R154" s="16" t="s">
         <v>55</v>
       </c>
@@ -16061,7 +16075,7 @@
       <c r="V154" s="12"/>
       <c r="W154" s="12"/>
       <c r="X154" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y154" s="12"/>
       <c r="Z154" s="12"/>
@@ -16080,10 +16094,10 @@
       <c r="AG154" s="16"/>
       <c r="AH154" s="16"/>
       <c r="AI154" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ154" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ154" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK154" s="16"/>
       <c r="AL154" s="16"/>
@@ -16095,7 +16109,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -16116,11 +16130,11 @@
         <v>248</v>
       </c>
       <c r="F155" s="15"/>
-      <c r="G155" s="69" t="s">
+      <c r="G155" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="H155" s="27" t="s">
         <v>454</v>
-      </c>
-      <c r="H155" s="27" t="s">
-        <v>455</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>54</v>
@@ -16131,14 +16145,14 @@
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="16"/>
-      <c r="N155" s="69" t="s">
+      <c r="N155" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="O155" s="78" t="s">
+      <c r="O155" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="P155" s="43"/>
-      <c r="Q155" s="43"/>
+      <c r="P155" s="42"/>
+      <c r="Q155" s="42"/>
       <c r="R155" s="16" t="s">
         <v>55</v>
       </c>
@@ -16150,7 +16164,7 @@
       <c r="V155" s="12"/>
       <c r="W155" s="12"/>
       <c r="X155" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y155" s="12"/>
       <c r="Z155" s="12"/>
@@ -16169,10 +16183,10 @@
       <c r="AG155" s="16"/>
       <c r="AH155" s="16"/>
       <c r="AI155" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ155" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ155" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK155" s="16"/>
       <c r="AL155" s="16"/>
@@ -16184,7 +16198,7 @@
       </c>
       <c r="AO155" s="12"/>
       <c r="AP155" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ155" s="12"/>
     </row>
@@ -16206,10 +16220,10 @@
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="H156" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="H156" s="22" t="s">
-        <v>457</v>
       </c>
       <c r="I156" s="16" t="s">
         <v>54</v>
@@ -16226,8 +16240,8 @@
       <c r="O156" s="25" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="P156" s="43"/>
-      <c r="Q156" s="43"/>
+      <c r="P156" s="42"/>
+      <c r="Q156" s="42"/>
       <c r="R156" s="16" t="s">
         <v>55</v>
       </c>
@@ -16239,7 +16253,7 @@
       <c r="V156" s="12"/>
       <c r="W156" s="12"/>
       <c r="X156" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y156" s="12"/>
       <c r="Z156" s="12"/>
@@ -16258,10 +16272,10 @@
       <c r="AG156" s="16"/>
       <c r="AH156" s="16"/>
       <c r="AI156" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ156" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ156" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK156" s="16"/>
       <c r="AL156" s="16"/>
@@ -16273,7 +16287,7 @@
       </c>
       <c r="AO156" s="12"/>
       <c r="AP156" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ156" s="12"/>
     </row>
@@ -16295,10 +16309,10 @@
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="H157" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="I157" s="16" t="s">
         <v>54</v>
@@ -16315,8 +16329,8 @@
       <c r="O157" s="25" t="n">
         <v>40822938</v>
       </c>
-      <c r="P157" s="43"/>
-      <c r="Q157" s="43"/>
+      <c r="P157" s="42"/>
+      <c r="Q157" s="42"/>
       <c r="R157" s="16" t="s">
         <v>55</v>
       </c>
@@ -16328,7 +16342,7 @@
       <c r="V157" s="12"/>
       <c r="W157" s="12"/>
       <c r="X157" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y157" s="12"/>
       <c r="Z157" s="12"/>
@@ -16347,10 +16361,10 @@
       <c r="AG157" s="16"/>
       <c r="AH157" s="16"/>
       <c r="AI157" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ157" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ157" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK157" s="16"/>
       <c r="AL157" s="16"/>
@@ -16362,7 +16376,7 @@
       </c>
       <c r="AO157" s="12"/>
       <c r="AP157" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ157" s="12"/>
     </row>
@@ -16383,11 +16397,11 @@
         <v>248</v>
       </c>
       <c r="F158" s="15"/>
-      <c r="G158" s="69" t="s">
+      <c r="G158" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="H158" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="H158" s="27" t="s">
-        <v>461</v>
       </c>
       <c r="I158" s="16" t="s">
         <v>54</v>
@@ -16398,14 +16412,14 @@
       </c>
       <c r="L158" s="16"/>
       <c r="M158" s="16"/>
-      <c r="N158" s="69" t="s">
+      <c r="N158" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="O158" s="78" t="s">
+      <c r="O158" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="P158" s="43"/>
-      <c r="Q158" s="43"/>
+      <c r="P158" s="42"/>
+      <c r="Q158" s="42"/>
       <c r="R158" s="16" t="s">
         <v>55</v>
       </c>
@@ -16417,7 +16431,7 @@
       <c r="V158" s="12"/>
       <c r="W158" s="12"/>
       <c r="X158" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y158" s="12"/>
       <c r="Z158" s="12"/>
@@ -16436,10 +16450,10 @@
       <c r="AG158" s="16"/>
       <c r="AH158" s="16"/>
       <c r="AI158" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ158" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ158" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK158" s="16"/>
       <c r="AL158" s="16"/>
@@ -16451,7 +16465,7 @@
       </c>
       <c r="AO158" s="12"/>
       <c r="AP158" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ158" s="12"/>
     </row>
@@ -16473,10 +16487,10 @@
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="H159" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="H159" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="I159" s="16" t="s">
         <v>54</v>
@@ -16488,13 +16502,13 @@
       <c r="L159" s="16"/>
       <c r="M159" s="16"/>
       <c r="N159" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="O159" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="O159" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="P159" s="43"/>
-      <c r="Q159" s="43"/>
+      <c r="P159" s="42"/>
+      <c r="Q159" s="42"/>
       <c r="R159" s="16" t="s">
         <v>55</v>
       </c>
@@ -16506,7 +16520,7 @@
       <c r="V159" s="12"/>
       <c r="W159" s="12"/>
       <c r="X159" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y159" s="12"/>
       <c r="Z159" s="12"/>
@@ -16525,10 +16539,10 @@
       <c r="AG159" s="16"/>
       <c r="AH159" s="16"/>
       <c r="AI159" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ159" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ159" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK159" s="16"/>
       <c r="AL159" s="16"/>
@@ -16540,7 +16554,7 @@
       </c>
       <c r="AO159" s="12"/>
       <c r="AP159" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ159" s="12"/>
     </row>
@@ -16562,10 +16576,10 @@
       </c>
       <c r="F160" s="15"/>
       <c r="G160" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="H160" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="H160" s="22" t="s">
-        <v>467</v>
       </c>
       <c r="I160" s="16" t="s">
         <v>54</v>
@@ -16577,13 +16591,13 @@
       <c r="L160" s="16"/>
       <c r="M160" s="16"/>
       <c r="N160" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="O160" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="O160" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="P160" s="43"/>
-      <c r="Q160" s="43"/>
+      <c r="P160" s="42"/>
+      <c r="Q160" s="42"/>
       <c r="R160" s="16" t="s">
         <v>55</v>
       </c>
@@ -16595,7 +16609,7 @@
       <c r="V160" s="12"/>
       <c r="W160" s="12"/>
       <c r="X160" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y160" s="12"/>
       <c r="Z160" s="12"/>
@@ -16614,10 +16628,10 @@
       <c r="AG160" s="16"/>
       <c r="AH160" s="16"/>
       <c r="AI160" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ160" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ160" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK160" s="16"/>
       <c r="AL160" s="16"/>
@@ -16629,7 +16643,7 @@
       </c>
       <c r="AO160" s="12"/>
       <c r="AP160" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ160" s="12"/>
     </row>
@@ -16651,10 +16665,10 @@
       </c>
       <c r="F161" s="15"/>
       <c r="G161" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="H161" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="H161" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="I161" s="16" t="s">
         <v>54</v>
@@ -16671,8 +16685,8 @@
       <c r="O161" s="25" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P161" s="43"/>
-      <c r="Q161" s="43"/>
+      <c r="P161" s="42"/>
+      <c r="Q161" s="42"/>
       <c r="R161" s="16" t="s">
         <v>55</v>
       </c>
@@ -16684,7 +16698,7 @@
       <c r="V161" s="12"/>
       <c r="W161" s="12"/>
       <c r="X161" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y161" s="12"/>
       <c r="Z161" s="12"/>
@@ -16703,10 +16717,10 @@
       <c r="AG161" s="16"/>
       <c r="AH161" s="16"/>
       <c r="AI161" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ161" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ161" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK161" s="16"/>
       <c r="AL161" s="16"/>
@@ -16718,7 +16732,7 @@
       </c>
       <c r="AO161" s="12"/>
       <c r="AP161" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ161" s="12"/>
     </row>
@@ -16740,10 +16754,10 @@
       </c>
       <c r="F162" s="15"/>
       <c r="G162" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H162" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="H162" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="I162" s="16" t="s">
         <v>54</v>
@@ -16760,8 +16774,8 @@
       <c r="O162" s="25" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="P162" s="43"/>
-      <c r="Q162" s="43"/>
+      <c r="P162" s="42"/>
+      <c r="Q162" s="42"/>
       <c r="R162" s="16" t="s">
         <v>55</v>
       </c>
@@ -16773,7 +16787,7 @@
       <c r="V162" s="12"/>
       <c r="W162" s="12"/>
       <c r="X162" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y162" s="12"/>
       <c r="Z162" s="12"/>
@@ -16792,10 +16806,10 @@
       <c r="AG162" s="16"/>
       <c r="AH162" s="16"/>
       <c r="AI162" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ162" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ162" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK162" s="16"/>
       <c r="AL162" s="16"/>
@@ -16807,7 +16821,7 @@
       </c>
       <c r="AO162" s="12"/>
       <c r="AP162" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ162" s="12"/>
     </row>
@@ -16829,10 +16843,10 @@
       </c>
       <c r="F163" s="15"/>
       <c r="G163" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="H163" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="H163" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="I163" s="16" t="s">
         <v>54</v>
@@ -16849,8 +16863,8 @@
       <c r="O163" s="25" t="n">
         <v>54491069</v>
       </c>
-      <c r="P163" s="43"/>
-      <c r="Q163" s="43"/>
+      <c r="P163" s="42"/>
+      <c r="Q163" s="42"/>
       <c r="R163" s="16" t="s">
         <v>55</v>
       </c>
@@ -16862,7 +16876,7 @@
       <c r="V163" s="12"/>
       <c r="W163" s="12"/>
       <c r="X163" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y163" s="12"/>
       <c r="Z163" s="12"/>
@@ -16881,10 +16895,10 @@
       <c r="AG163" s="16"/>
       <c r="AH163" s="16"/>
       <c r="AI163" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ163" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ163" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK163" s="16"/>
       <c r="AL163" s="16"/>
@@ -16896,7 +16910,7 @@
       </c>
       <c r="AO163" s="12"/>
       <c r="AP163" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ163" s="12"/>
     </row>
@@ -16917,11 +16931,11 @@
         <v>248</v>
       </c>
       <c r="F164" s="15"/>
-      <c r="G164" s="69" t="s">
+      <c r="G164" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="H164" s="27" t="s">
         <v>476</v>
-      </c>
-      <c r="H164" s="27" t="s">
-        <v>477</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>54</v>
@@ -16932,14 +16946,14 @@
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="16"/>
-      <c r="N164" s="69" t="s">
+      <c r="N164" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="O164" s="78" t="s">
+      <c r="O164" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="P164" s="43"/>
-      <c r="Q164" s="43"/>
+      <c r="P164" s="42"/>
+      <c r="Q164" s="42"/>
       <c r="R164" s="16" t="s">
         <v>55</v>
       </c>
@@ -16951,7 +16965,7 @@
       <c r="V164" s="12"/>
       <c r="W164" s="12"/>
       <c r="X164" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y164" s="12"/>
       <c r="Z164" s="12"/>
@@ -16970,10 +16984,10 @@
       <c r="AG164" s="16"/>
       <c r="AH164" s="16"/>
       <c r="AI164" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ164" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ164" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK164" s="16"/>
       <c r="AL164" s="16"/>
@@ -16985,7 +16999,7 @@
       </c>
       <c r="AO164" s="12"/>
       <c r="AP164" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ164" s="12"/>
     </row>
@@ -17007,36 +17021,36 @@
       </c>
       <c r="F165" s="15"/>
       <c r="G165" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="H165" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="H165" s="12" t="s">
+      <c r="I165" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="I165" s="45" t="s">
-        <v>480</v>
-      </c>
-      <c r="J165" s="45"/>
+      <c r="J165" s="44"/>
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
       <c r="M165" s="16"/>
       <c r="N165" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O165" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P165" s="44"/>
-      <c r="Q165" s="44"/>
+      <c r="O165" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P165" s="43"/>
+      <c r="Q165" s="43"/>
       <c r="R165" s="12"/>
       <c r="S165" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T165" s="16"/>
       <c r="U165" s="16"/>
       <c r="V165" s="12"/>
       <c r="W165" s="12"/>
       <c r="X165" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y165" s="16"/>
       <c r="Z165" s="12"/>
@@ -17055,10 +17069,10 @@
       <c r="AG165" s="16"/>
       <c r="AH165" s="16"/>
       <c r="AI165" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ165" s="73" t="s">
-        <v>433</v>
+        <v>418</v>
+      </c>
+      <c r="AJ165" s="72" t="s">
+        <v>432</v>
       </c>
       <c r="AK165" s="16"/>
       <c r="AL165" s="16"/>
@@ -17069,8 +17083,8 @@
         <v>164</v>
       </c>
       <c r="AO165" s="12"/>
-      <c r="AP165" s="74" t="s">
-        <v>434</v>
+      <c r="AP165" s="73" t="s">
+        <v>433</v>
       </c>
       <c r="AQ165" s="12"/>
     </row>
@@ -17087,18 +17101,18 @@
       <c r="D166" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E166" s="79" t="s">
+      <c r="E166" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="F166" s="79"/>
+      <c r="F166" s="78"/>
       <c r="G166" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="H166" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="H166" s="12" t="s">
-        <v>482</v>
-      </c>
       <c r="I166" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J166" s="16"/>
       <c r="K166" s="16" t="n">
@@ -17107,9 +17121,9 @@
       <c r="L166" s="16"/>
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
-      <c r="O166" s="44"/>
-      <c r="P166" s="44"/>
-      <c r="Q166" s="44"/>
+      <c r="O166" s="43"/>
+      <c r="P166" s="43"/>
+      <c r="Q166" s="43"/>
       <c r="R166" s="12" t="s">
         <v>55</v>
       </c>
@@ -17119,7 +17133,7 @@
       <c r="V166" s="16"/>
       <c r="W166" s="16"/>
       <c r="X166" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y166" s="16"/>
       <c r="Z166" s="16"/>
@@ -17147,11 +17161,11 @@
       <c r="AN166" s="19" t="n">
         <v>165</v>
       </c>
-      <c r="AO166" s="80" t="s">
+      <c r="AO166" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP166" s="73" t="s">
         <v>483</v>
-      </c>
-      <c r="AP166" s="74" t="s">
-        <v>484</v>
       </c>
       <c r="AQ166" s="12"/>
     </row>
@@ -17168,21 +17182,21 @@
       <c r="D167" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E167" s="79" t="s">
+      <c r="E167" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="F167" s="79"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H167" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="I167" s="71" t="s">
         <v>486</v>
       </c>
-      <c r="I167" s="72" t="s">
-        <v>487</v>
-      </c>
-      <c r="J167" s="72"/>
-      <c r="K167" s="72" t="n">
+      <c r="J167" s="71"/>
+      <c r="K167" s="71" t="n">
         <v>1</v>
       </c>
       <c r="L167" s="16" t="n">
@@ -17192,23 +17206,23 @@
       <c r="N167" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O167" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P167" s="44"/>
-      <c r="Q167" s="44"/>
+      <c r="O167" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P167" s="43"/>
+      <c r="Q167" s="43"/>
       <c r="R167" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="S167" s="72" t="s">
-        <v>423</v>
+      <c r="S167" s="71" t="s">
+        <v>422</v>
       </c>
       <c r="T167" s="16"/>
       <c r="U167" s="16"/>
       <c r="V167" s="16"/>
       <c r="W167" s="16"/>
       <c r="X167" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y167" s="16"/>
       <c r="Z167" s="16"/>
@@ -17219,7 +17233,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF167" s="26" t="n">
         <v>1</v>
@@ -17227,8 +17241,8 @@
       <c r="AG167" s="16"/>
       <c r="AH167" s="16"/>
       <c r="AI167" s="16"/>
-      <c r="AJ167" s="81" t="s">
-        <v>489</v>
+      <c r="AJ167" s="80" t="s">
+        <v>488</v>
       </c>
       <c r="AK167" s="16"/>
       <c r="AL167" s="16"/>
@@ -17239,8 +17253,8 @@
         <v>166</v>
       </c>
       <c r="AO167" s="12"/>
-      <c r="AP167" s="82" t="s">
-        <v>481</v>
+      <c r="AP167" s="81" t="s">
+        <v>480</v>
       </c>
       <c r="AQ167" s="12"/>
     </row>
@@ -17262,10 +17276,10 @@
       </c>
       <c r="F168" s="15"/>
       <c r="G168" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="H168" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="H168" s="12" t="s">
-        <v>491</v>
       </c>
       <c r="I168" s="16" t="s">
         <v>251</v>
@@ -17277,9 +17291,9 @@
       <c r="L168" s="16"/>
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
-      <c r="O168" s="44"/>
-      <c r="P168" s="44"/>
-      <c r="Q168" s="44"/>
+      <c r="O168" s="43"/>
+      <c r="P168" s="43"/>
+      <c r="Q168" s="43"/>
       <c r="R168" s="16" t="s">
         <v>55</v>
       </c>
@@ -17315,11 +17329,11 @@
       <c r="AN168" s="19" t="n">
         <v>167</v>
       </c>
-      <c r="AO168" s="52" t="s">
+      <c r="AO168" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP168" s="82" t="s">
         <v>492</v>
-      </c>
-      <c r="AP168" s="83" t="s">
-        <v>493</v>
       </c>
       <c r="AQ168" s="12"/>
     </row>
@@ -17341,10 +17355,10 @@
       </c>
       <c r="F169" s="15"/>
       <c r="G169" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="H169" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="H169" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="I169" s="12" t="s">
         <v>325</v>
@@ -17356,9 +17370,9 @@
       <c r="L169" s="16"/>
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
-      <c r="O169" s="44"/>
-      <c r="P169" s="44"/>
-      <c r="Q169" s="44"/>
+      <c r="O169" s="43"/>
+      <c r="P169" s="43"/>
+      <c r="Q169" s="43"/>
       <c r="R169" s="16" t="s">
         <v>55</v>
       </c>
@@ -17370,8 +17384,8 @@
       <c r="V169" s="16"/>
       <c r="W169" s="16"/>
       <c r="X169" s="16"/>
-      <c r="Y169" s="84" t="s">
-        <v>496</v>
+      <c r="Y169" s="83" t="s">
+        <v>495</v>
       </c>
       <c r="Z169" s="16"/>
       <c r="AA169" s="17"/>
@@ -17400,7 +17414,7 @@
       </c>
       <c r="AO169" s="16"/>
       <c r="AP169" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ169" s="12"/>
     </row>
@@ -17422,10 +17436,10 @@
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="H170" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="H170" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="I170" s="12" t="s">
         <v>325</v>
@@ -17437,9 +17451,9 @@
       <c r="L170" s="16"/>
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="44"/>
-      <c r="Q170" s="44"/>
+      <c r="O170" s="43"/>
+      <c r="P170" s="43"/>
+      <c r="Q170" s="43"/>
       <c r="R170" s="16" t="s">
         <v>55</v>
       </c>
@@ -17452,7 +17466,7 @@
       <c r="W170" s="16"/>
       <c r="X170" s="16"/>
       <c r="Y170" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z170" s="16"/>
       <c r="AA170" s="17"/>
@@ -17481,7 +17495,7 @@
       </c>
       <c r="AO170" s="16"/>
       <c r="AP170" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ170" s="12"/>
     </row>
@@ -17503,10 +17517,10 @@
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="H171" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="H171" s="12" t="s">
-        <v>501</v>
       </c>
       <c r="I171" s="12" t="s">
         <v>325</v>
@@ -17518,9 +17532,9 @@
       <c r="L171" s="16"/>
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
-      <c r="O171" s="44"/>
-      <c r="P171" s="44"/>
-      <c r="Q171" s="44"/>
+      <c r="O171" s="43"/>
+      <c r="P171" s="43"/>
+      <c r="Q171" s="43"/>
       <c r="R171" s="16" t="s">
         <v>55</v>
       </c>
@@ -17533,7 +17547,7 @@
       <c r="W171" s="16"/>
       <c r="X171" s="16"/>
       <c r="Y171" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Z171" s="16"/>
       <c r="AA171" s="17"/>
@@ -17562,7 +17576,7 @@
       </c>
       <c r="AO171" s="16"/>
       <c r="AP171" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ171" s="12"/>
     </row>
@@ -17584,10 +17598,10 @@
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="H172" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="H172" s="12" t="s">
-        <v>504</v>
       </c>
       <c r="I172" s="12" t="s">
         <v>325</v>
@@ -17599,9 +17613,9 @@
       <c r="L172" s="16"/>
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
-      <c r="O172" s="44"/>
-      <c r="P172" s="44"/>
-      <c r="Q172" s="44"/>
+      <c r="O172" s="43"/>
+      <c r="P172" s="43"/>
+      <c r="Q172" s="43"/>
       <c r="R172" s="16" t="s">
         <v>55</v>
       </c>
@@ -17614,7 +17628,7 @@
       <c r="W172" s="16"/>
       <c r="X172" s="16"/>
       <c r="Y172" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z172" s="16"/>
       <c r="AA172" s="17"/>
@@ -17643,7 +17657,7 @@
       </c>
       <c r="AO172" s="16"/>
       <c r="AP172" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AQ172" s="12"/>
     </row>
@@ -17657,66 +17671,66 @@
       <c r="C173" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="85" t="s">
+      <c r="D173" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E173" s="85" t="s">
         <v>506</v>
       </c>
-      <c r="E173" s="86" t="s">
+      <c r="F173" s="85" t="s">
         <v>507</v>
       </c>
-      <c r="F173" s="86" t="s">
+      <c r="G173" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="H173" s="87"/>
+      <c r="I173" s="88" t="s">
         <v>508</v>
       </c>
-      <c r="G173" s="87" t="s">
-        <v>255</v>
-      </c>
-      <c r="H173" s="88"/>
-      <c r="I173" s="89" t="s">
+      <c r="J173" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="J173" s="90" t="s">
+      <c r="K173" s="89"/>
+      <c r="L173" s="89"/>
+      <c r="M173" s="90"/>
+      <c r="N173" s="90"/>
+      <c r="O173" s="89"/>
+      <c r="P173" s="89"/>
+      <c r="Q173" s="89"/>
+      <c r="R173" s="89"/>
+      <c r="S173" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="K173" s="90"/>
-      <c r="L173" s="90"/>
-      <c r="M173" s="91"/>
-      <c r="N173" s="91"/>
-      <c r="O173" s="90"/>
-      <c r="P173" s="90"/>
-      <c r="Q173" s="90"/>
-      <c r="R173" s="90"/>
-      <c r="S173" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T173" s="90"/>
-      <c r="U173" s="90"/>
-      <c r="V173" s="90"/>
-      <c r="W173" s="90"/>
-      <c r="X173" s="90"/>
-      <c r="Y173" s="90"/>
-      <c r="Z173" s="90"/>
-      <c r="AA173" s="90"/>
-      <c r="AB173" s="90"/>
-      <c r="AC173" s="90"/>
-      <c r="AD173" s="90"/>
-      <c r="AE173" s="90"/>
-      <c r="AF173" s="92" t="n">
+      <c r="T173" s="89"/>
+      <c r="U173" s="89"/>
+      <c r="V173" s="89"/>
+      <c r="W173" s="89"/>
+      <c r="X173" s="89"/>
+      <c r="Y173" s="89"/>
+      <c r="Z173" s="89"/>
+      <c r="AA173" s="89"/>
+      <c r="AB173" s="89"/>
+      <c r="AC173" s="89"/>
+      <c r="AD173" s="89"/>
+      <c r="AE173" s="89"/>
+      <c r="AF173" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG173" s="90"/>
-      <c r="AH173" s="90"/>
-      <c r="AI173" s="90"/>
-      <c r="AJ173" s="90"/>
-      <c r="AK173" s="90"/>
-      <c r="AL173" s="93"/>
-      <c r="AM173" s="94"/>
+      <c r="AG173" s="89"/>
+      <c r="AH173" s="89"/>
+      <c r="AI173" s="89"/>
+      <c r="AJ173" s="89"/>
+      <c r="AK173" s="89"/>
+      <c r="AL173" s="92"/>
+      <c r="AM173" s="93"/>
       <c r="AN173" s="14" t="n">
         <v>172</v>
       </c>
-      <c r="AO173" s="95" t="s">
-        <v>512</v>
-      </c>
-      <c r="AP173" s="90"/>
-      <c r="AQ173" s="90"/>
+      <c r="AO173" s="94" t="s">
+        <v>511</v>
+      </c>
+      <c r="AP173" s="89"/>
+      <c r="AQ173" s="89"/>
     </row>
     <row r="174" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="n">
@@ -17728,66 +17742,66 @@
       <c r="C174" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E174" s="96" t="s">
+      <c r="D174" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E174" s="95" t="s">
+        <v>512</v>
+      </c>
+      <c r="F174" s="95" t="s">
         <v>513</v>
       </c>
-      <c r="F174" s="96" t="s">
+      <c r="G174" s="96" t="s">
+        <v>492</v>
+      </c>
+      <c r="H174" s="97"/>
+      <c r="I174" s="88" t="s">
         <v>514</v>
       </c>
-      <c r="G174" s="97" t="s">
-        <v>493</v>
-      </c>
-      <c r="H174" s="98"/>
-      <c r="I174" s="89" t="s">
-        <v>515</v>
-      </c>
-      <c r="J174" s="90" t="s">
+      <c r="J174" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="K174" s="89"/>
+      <c r="L174" s="89"/>
+      <c r="M174" s="90"/>
+      <c r="N174" s="90"/>
+      <c r="O174" s="89"/>
+      <c r="P174" s="89"/>
+      <c r="Q174" s="89"/>
+      <c r="R174" s="89"/>
+      <c r="S174" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="K174" s="90"/>
-      <c r="L174" s="90"/>
-      <c r="M174" s="91"/>
-      <c r="N174" s="91"/>
-      <c r="O174" s="90"/>
-      <c r="P174" s="90"/>
-      <c r="Q174" s="90"/>
-      <c r="R174" s="90"/>
-      <c r="S174" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T174" s="90"/>
-      <c r="U174" s="90"/>
-      <c r="V174" s="90"/>
-      <c r="W174" s="90"/>
-      <c r="X174" s="90"/>
-      <c r="Y174" s="90"/>
-      <c r="Z174" s="90"/>
-      <c r="AA174" s="90"/>
-      <c r="AB174" s="90"/>
-      <c r="AC174" s="90"/>
-      <c r="AD174" s="90"/>
-      <c r="AE174" s="90"/>
-      <c r="AF174" s="99" t="n">
+      <c r="T174" s="89"/>
+      <c r="U174" s="89"/>
+      <c r="V174" s="89"/>
+      <c r="W174" s="89"/>
+      <c r="X174" s="89"/>
+      <c r="Y174" s="89"/>
+      <c r="Z174" s="89"/>
+      <c r="AA174" s="89"/>
+      <c r="AB174" s="89"/>
+      <c r="AC174" s="89"/>
+      <c r="AD174" s="89"/>
+      <c r="AE174" s="89"/>
+      <c r="AF174" s="98" t="n">
         <v>0</v>
       </c>
-      <c r="AG174" s="90"/>
-      <c r="AH174" s="90"/>
-      <c r="AI174" s="90"/>
-      <c r="AJ174" s="90"/>
-      <c r="AK174" s="90"/>
-      <c r="AL174" s="100"/>
-      <c r="AM174" s="94"/>
+      <c r="AG174" s="89"/>
+      <c r="AH174" s="89"/>
+      <c r="AI174" s="89"/>
+      <c r="AJ174" s="89"/>
+      <c r="AK174" s="89"/>
+      <c r="AL174" s="99"/>
+      <c r="AM174" s="93"/>
       <c r="AN174" s="14" t="n">
         <v>173</v>
       </c>
-      <c r="AO174" s="95" t="n">
+      <c r="AO174" s="94" t="n">
         <v>167</v>
       </c>
-      <c r="AP174" s="90"/>
-      <c r="AQ174" s="90"/>
+      <c r="AP174" s="89"/>
+      <c r="AQ174" s="89"/>
     </row>
     <row r="175" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="n">
@@ -17799,66 +17813,66 @@
       <c r="C175" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E175" s="96" t="s">
+      <c r="D175" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E175" s="95" t="s">
+        <v>515</v>
+      </c>
+      <c r="F175" s="95" t="s">
         <v>516</v>
       </c>
-      <c r="F175" s="96" t="s">
+      <c r="G175" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="H175" s="97"/>
+      <c r="I175" s="88" t="s">
         <v>517</v>
       </c>
-      <c r="G175" s="101" t="s">
-        <v>434</v>
-      </c>
-      <c r="H175" s="98"/>
-      <c r="I175" s="89" t="s">
+      <c r="J175" s="89" t="s">
         <v>518</v>
       </c>
-      <c r="J175" s="90" t="s">
-        <v>519</v>
-      </c>
-      <c r="K175" s="90"/>
-      <c r="L175" s="90"/>
-      <c r="M175" s="91"/>
-      <c r="N175" s="91"/>
-      <c r="O175" s="90"/>
-      <c r="P175" s="90"/>
-      <c r="Q175" s="90"/>
-      <c r="R175" s="90"/>
-      <c r="S175" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T175" s="90"/>
-      <c r="U175" s="90"/>
-      <c r="V175" s="90"/>
-      <c r="W175" s="90"/>
-      <c r="X175" s="90"/>
-      <c r="Y175" s="90"/>
-      <c r="Z175" s="90"/>
-      <c r="AA175" s="90"/>
-      <c r="AB175" s="90"/>
-      <c r="AC175" s="90"/>
-      <c r="AD175" s="90"/>
-      <c r="AE175" s="90"/>
-      <c r="AF175" s="92" t="n">
+      <c r="K175" s="89"/>
+      <c r="L175" s="89"/>
+      <c r="M175" s="90"/>
+      <c r="N175" s="90"/>
+      <c r="O175" s="89"/>
+      <c r="P175" s="89"/>
+      <c r="Q175" s="89"/>
+      <c r="R175" s="89"/>
+      <c r="S175" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="T175" s="89"/>
+      <c r="U175" s="89"/>
+      <c r="V175" s="89"/>
+      <c r="W175" s="89"/>
+      <c r="X175" s="89"/>
+      <c r="Y175" s="89"/>
+      <c r="Z175" s="89"/>
+      <c r="AA175" s="89"/>
+      <c r="AB175" s="89"/>
+      <c r="AC175" s="89"/>
+      <c r="AD175" s="89"/>
+      <c r="AE175" s="89"/>
+      <c r="AF175" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG175" s="90"/>
-      <c r="AH175" s="90"/>
-      <c r="AI175" s="90"/>
-      <c r="AJ175" s="90"/>
-      <c r="AK175" s="90"/>
-      <c r="AL175" s="93"/>
-      <c r="AM175" s="94"/>
+      <c r="AG175" s="89"/>
+      <c r="AH175" s="89"/>
+      <c r="AI175" s="89"/>
+      <c r="AJ175" s="89"/>
+      <c r="AK175" s="89"/>
+      <c r="AL175" s="92"/>
+      <c r="AM175" s="93"/>
       <c r="AN175" s="14" t="n">
         <v>174</v>
       </c>
-      <c r="AO175" s="95" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP175" s="90"/>
-      <c r="AQ175" s="90"/>
+      <c r="AO175" s="94" t="s">
+        <v>519</v>
+      </c>
+      <c r="AP175" s="89"/>
+      <c r="AQ175" s="89"/>
     </row>
     <row r="176" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="n">
@@ -17870,66 +17884,66 @@
       <c r="C176" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E176" s="96" t="s">
+      <c r="D176" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E176" s="95" t="s">
+        <v>520</v>
+      </c>
+      <c r="F176" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="F176" s="96" t="s">
-        <v>522</v>
-      </c>
-      <c r="G176" s="101" t="s">
-        <v>484</v>
-      </c>
-      <c r="H176" s="98"/>
-      <c r="I176" s="89" t="s">
-        <v>515</v>
-      </c>
-      <c r="J176" s="90" t="s">
-        <v>519</v>
-      </c>
-      <c r="K176" s="90"/>
-      <c r="L176" s="90"/>
-      <c r="M176" s="91"/>
-      <c r="N176" s="91"/>
-      <c r="O176" s="90"/>
-      <c r="P176" s="90"/>
-      <c r="Q176" s="90"/>
-      <c r="R176" s="90"/>
-      <c r="S176" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T176" s="90"/>
-      <c r="U176" s="90"/>
-      <c r="V176" s="90"/>
-      <c r="W176" s="90"/>
-      <c r="X176" s="90"/>
-      <c r="Y176" s="90"/>
-      <c r="Z176" s="90"/>
-      <c r="AA176" s="90"/>
-      <c r="AB176" s="90"/>
-      <c r="AC176" s="90"/>
-      <c r="AD176" s="90"/>
-      <c r="AE176" s="90"/>
-      <c r="AF176" s="92" t="n">
+      <c r="G176" s="100" t="s">
+        <v>483</v>
+      </c>
+      <c r="H176" s="97"/>
+      <c r="I176" s="88" t="s">
+        <v>514</v>
+      </c>
+      <c r="J176" s="89" t="s">
+        <v>518</v>
+      </c>
+      <c r="K176" s="89"/>
+      <c r="L176" s="89"/>
+      <c r="M176" s="90"/>
+      <c r="N176" s="90"/>
+      <c r="O176" s="89"/>
+      <c r="P176" s="89"/>
+      <c r="Q176" s="89"/>
+      <c r="R176" s="89"/>
+      <c r="S176" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="T176" s="89"/>
+      <c r="U176" s="89"/>
+      <c r="V176" s="89"/>
+      <c r="W176" s="89"/>
+      <c r="X176" s="89"/>
+      <c r="Y176" s="89"/>
+      <c r="Z176" s="89"/>
+      <c r="AA176" s="89"/>
+      <c r="AB176" s="89"/>
+      <c r="AC176" s="89"/>
+      <c r="AD176" s="89"/>
+      <c r="AE176" s="89"/>
+      <c r="AF176" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG176" s="90"/>
-      <c r="AH176" s="90"/>
-      <c r="AI176" s="90"/>
-      <c r="AJ176" s="90"/>
-      <c r="AK176" s="90"/>
-      <c r="AL176" s="100"/>
-      <c r="AM176" s="94"/>
+      <c r="AG176" s="89"/>
+      <c r="AH176" s="89"/>
+      <c r="AI176" s="89"/>
+      <c r="AJ176" s="89"/>
+      <c r="AK176" s="89"/>
+      <c r="AL176" s="99"/>
+      <c r="AM176" s="93"/>
       <c r="AN176" s="14" t="n">
         <v>175</v>
       </c>
-      <c r="AO176" s="95" t="n">
+      <c r="AO176" s="94" t="n">
         <v>165</v>
       </c>
-      <c r="AP176" s="90"/>
-      <c r="AQ176" s="90"/>
+      <c r="AP176" s="89"/>
+      <c r="AQ176" s="89"/>
     </row>
     <row r="177" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="n">
@@ -17941,66 +17955,66 @@
       <c r="C177" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E177" s="96" t="s">
+      <c r="D177" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E177" s="95" t="s">
+        <v>522</v>
+      </c>
+      <c r="F177" s="95" t="s">
         <v>523</v>
       </c>
-      <c r="F177" s="96" t="s">
+      <c r="G177" s="100" t="s">
         <v>524</v>
       </c>
-      <c r="G177" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="H177" s="98"/>
-      <c r="I177" s="102" t="s">
+      <c r="H177" s="97"/>
+      <c r="I177" s="101" t="s">
+        <v>508</v>
+      </c>
+      <c r="J177" s="90" t="s">
         <v>509</v>
       </c>
-      <c r="J177" s="91" t="s">
+      <c r="K177" s="89"/>
+      <c r="L177" s="89"/>
+      <c r="M177" s="90"/>
+      <c r="N177" s="90"/>
+      <c r="O177" s="89"/>
+      <c r="P177" s="89"/>
+      <c r="Q177" s="89"/>
+      <c r="R177" s="89"/>
+      <c r="S177" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="K177" s="90"/>
-      <c r="L177" s="90"/>
-      <c r="M177" s="91"/>
-      <c r="N177" s="91"/>
-      <c r="O177" s="90"/>
-      <c r="P177" s="90"/>
-      <c r="Q177" s="90"/>
-      <c r="R177" s="90"/>
-      <c r="S177" s="90" t="s">
-        <v>511</v>
-      </c>
-      <c r="T177" s="90"/>
-      <c r="U177" s="90"/>
-      <c r="V177" s="90"/>
-      <c r="W177" s="90"/>
-      <c r="X177" s="90"/>
-      <c r="Y177" s="90"/>
-      <c r="Z177" s="90"/>
-      <c r="AA177" s="90"/>
-      <c r="AB177" s="90"/>
-      <c r="AC177" s="90"/>
-      <c r="AD177" s="90"/>
-      <c r="AE177" s="90"/>
-      <c r="AF177" s="92" t="n">
+      <c r="T177" s="89"/>
+      <c r="U177" s="89"/>
+      <c r="V177" s="89"/>
+      <c r="W177" s="89"/>
+      <c r="X177" s="89"/>
+      <c r="Y177" s="89"/>
+      <c r="Z177" s="89"/>
+      <c r="AA177" s="89"/>
+      <c r="AB177" s="89"/>
+      <c r="AC177" s="89"/>
+      <c r="AD177" s="89"/>
+      <c r="AE177" s="89"/>
+      <c r="AF177" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AG177" s="90"/>
-      <c r="AH177" s="90"/>
-      <c r="AI177" s="90"/>
-      <c r="AJ177" s="90"/>
-      <c r="AK177" s="90"/>
-      <c r="AL177" s="93"/>
-      <c r="AM177" s="94"/>
+      <c r="AG177" s="89"/>
+      <c r="AH177" s="89"/>
+      <c r="AI177" s="89"/>
+      <c r="AJ177" s="89"/>
+      <c r="AK177" s="89"/>
+      <c r="AL177" s="92"/>
+      <c r="AM177" s="93"/>
       <c r="AN177" s="14" t="n">
         <v>176</v>
       </c>
-      <c r="AO177" s="95" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP177" s="90"/>
-      <c r="AQ177" s="90"/>
+      <c r="AO177" s="94" t="s">
+        <v>525</v>
+      </c>
+      <c r="AP177" s="89"/>
+      <c r="AQ177" s="89"/>
     </row>
     <row r="178" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="n">
@@ -18012,68 +18026,68 @@
       <c r="C178" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E178" s="96" t="s">
+      <c r="D178" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E178" s="95" t="s">
+        <v>526</v>
+      </c>
+      <c r="F178" s="95" t="s">
         <v>527</v>
       </c>
-      <c r="F178" s="96" t="s">
+      <c r="G178" s="100" t="s">
         <v>528</v>
       </c>
-      <c r="G178" s="101" t="s">
+      <c r="H178" s="97"/>
+      <c r="I178" s="101" t="s">
         <v>529</v>
       </c>
-      <c r="H178" s="98"/>
-      <c r="I178" s="102" t="s">
+      <c r="J178" s="90" t="s">
+        <v>518</v>
+      </c>
+      <c r="K178" s="89"/>
+      <c r="L178" s="89"/>
+      <c r="M178" s="90"/>
+      <c r="N178" s="90"/>
+      <c r="O178" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="J178" s="91" t="s">
-        <v>519</v>
-      </c>
-      <c r="K178" s="90"/>
-      <c r="L178" s="90"/>
-      <c r="M178" s="91"/>
-      <c r="N178" s="91"/>
-      <c r="O178" s="90" t="s">
+      <c r="P178" s="89"/>
+      <c r="Q178" s="89"/>
+      <c r="R178" s="89"/>
+      <c r="S178" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="P178" s="90"/>
-      <c r="Q178" s="90"/>
-      <c r="R178" s="90"/>
-      <c r="S178" s="90" t="s">
+      <c r="T178" s="89"/>
+      <c r="U178" s="89"/>
+      <c r="V178" s="89"/>
+      <c r="W178" s="89"/>
+      <c r="X178" s="89"/>
+      <c r="Y178" s="90" t="s">
         <v>532</v>
       </c>
-      <c r="T178" s="90"/>
-      <c r="U178" s="90"/>
-      <c r="V178" s="90"/>
-      <c r="W178" s="90"/>
-      <c r="X178" s="90"/>
-      <c r="Y178" s="91" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z178" s="90"/>
-      <c r="AA178" s="90"/>
-      <c r="AB178" s="90"/>
-      <c r="AC178" s="90"/>
-      <c r="AD178" s="90"/>
-      <c r="AE178" s="90"/>
-      <c r="AF178" s="90" t="n">
+      <c r="Z178" s="89"/>
+      <c r="AA178" s="89"/>
+      <c r="AB178" s="89"/>
+      <c r="AC178" s="89"/>
+      <c r="AD178" s="89"/>
+      <c r="AE178" s="89"/>
+      <c r="AF178" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG178" s="90"/>
-      <c r="AH178" s="90"/>
-      <c r="AI178" s="90"/>
-      <c r="AJ178" s="90"/>
-      <c r="AK178" s="90"/>
-      <c r="AL178" s="100"/>
-      <c r="AM178" s="94"/>
+      <c r="AG178" s="89"/>
+      <c r="AH178" s="89"/>
+      <c r="AI178" s="89"/>
+      <c r="AJ178" s="89"/>
+      <c r="AK178" s="89"/>
+      <c r="AL178" s="99"/>
+      <c r="AM178" s="93"/>
       <c r="AN178" s="14" t="n">
         <v>177</v>
       </c>
-      <c r="AO178" s="90"/>
-      <c r="AP178" s="90"/>
-      <c r="AQ178" s="90"/>
+      <c r="AO178" s="89"/>
+      <c r="AP178" s="89"/>
+      <c r="AQ178" s="89"/>
     </row>
     <row r="179" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="n">
@@ -18085,68 +18099,68 @@
       <c r="C179" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E179" s="96" t="s">
+      <c r="D179" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E179" s="95" t="s">
+        <v>533</v>
+      </c>
+      <c r="F179" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="F179" s="96" t="s">
+      <c r="G179" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="G179" s="101" t="s">
+      <c r="H179" s="97"/>
+      <c r="I179" s="101" t="s">
         <v>536</v>
       </c>
-      <c r="H179" s="98"/>
-      <c r="I179" s="102" t="s">
+      <c r="J179" s="90" t="s">
         <v>537</v>
       </c>
-      <c r="J179" s="91" t="s">
+      <c r="K179" s="89"/>
+      <c r="L179" s="89"/>
+      <c r="M179" s="90"/>
+      <c r="N179" s="90"/>
+      <c r="O179" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="P179" s="89"/>
+      <c r="Q179" s="89"/>
+      <c r="R179" s="89"/>
+      <c r="S179" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T179" s="89"/>
+      <c r="U179" s="89"/>
+      <c r="V179" s="89"/>
+      <c r="W179" s="89"/>
+      <c r="X179" s="89"/>
+      <c r="Y179" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="K179" s="90"/>
-      <c r="L179" s="90"/>
-      <c r="M179" s="91"/>
-      <c r="N179" s="91"/>
-      <c r="O179" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="P179" s="90"/>
-      <c r="Q179" s="90"/>
-      <c r="R179" s="90"/>
-      <c r="S179" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T179" s="90"/>
-      <c r="U179" s="90"/>
-      <c r="V179" s="90"/>
-      <c r="W179" s="90"/>
-      <c r="X179" s="90"/>
-      <c r="Y179" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z179" s="90"/>
-      <c r="AA179" s="90"/>
-      <c r="AB179" s="90"/>
-      <c r="AC179" s="90"/>
-      <c r="AD179" s="90"/>
-      <c r="AE179" s="90"/>
-      <c r="AF179" s="90" t="n">
+      <c r="Z179" s="89"/>
+      <c r="AA179" s="89"/>
+      <c r="AB179" s="89"/>
+      <c r="AC179" s="89"/>
+      <c r="AD179" s="89"/>
+      <c r="AE179" s="89"/>
+      <c r="AF179" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG179" s="90"/>
-      <c r="AH179" s="90"/>
-      <c r="AI179" s="90"/>
-      <c r="AJ179" s="90"/>
-      <c r="AK179" s="90"/>
-      <c r="AL179" s="93"/>
-      <c r="AM179" s="94"/>
+      <c r="AG179" s="89"/>
+      <c r="AH179" s="89"/>
+      <c r="AI179" s="89"/>
+      <c r="AJ179" s="89"/>
+      <c r="AK179" s="89"/>
+      <c r="AL179" s="92"/>
+      <c r="AM179" s="93"/>
       <c r="AN179" s="14" t="n">
         <v>178</v>
       </c>
-      <c r="AO179" s="90"/>
-      <c r="AP179" s="90"/>
-      <c r="AQ179" s="90"/>
+      <c r="AO179" s="89"/>
+      <c r="AP179" s="89"/>
+      <c r="AQ179" s="89"/>
     </row>
     <row r="180" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="n">
@@ -18158,68 +18172,68 @@
       <c r="C180" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E180" s="96" t="s">
+      <c r="D180" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E180" s="95" t="s">
+        <v>539</v>
+      </c>
+      <c r="F180" s="95" t="s">
         <v>540</v>
       </c>
-      <c r="F180" s="96" t="s">
+      <c r="G180" s="100" t="s">
         <v>541</v>
       </c>
-      <c r="G180" s="101" t="s">
+      <c r="H180" s="97"/>
+      <c r="I180" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="J180" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K180" s="89"/>
+      <c r="L180" s="89"/>
+      <c r="M180" s="90"/>
+      <c r="N180" s="90"/>
+      <c r="O180" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="H180" s="98"/>
-      <c r="I180" s="102" t="s">
-        <v>537</v>
-      </c>
-      <c r="J180" s="91" t="s">
+      <c r="P180" s="89"/>
+      <c r="Q180" s="89"/>
+      <c r="R180" s="89"/>
+      <c r="S180" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T180" s="89"/>
+      <c r="U180" s="89"/>
+      <c r="V180" s="89"/>
+      <c r="W180" s="89"/>
+      <c r="X180" s="89"/>
+      <c r="Y180" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="K180" s="90"/>
-      <c r="L180" s="90"/>
-      <c r="M180" s="91"/>
-      <c r="N180" s="91"/>
-      <c r="O180" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="P180" s="90"/>
-      <c r="Q180" s="90"/>
-      <c r="R180" s="90"/>
-      <c r="S180" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T180" s="90"/>
-      <c r="U180" s="90"/>
-      <c r="V180" s="90"/>
-      <c r="W180" s="90"/>
-      <c r="X180" s="90"/>
-      <c r="Y180" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z180" s="90"/>
-      <c r="AA180" s="90"/>
-      <c r="AB180" s="90"/>
-      <c r="AC180" s="90"/>
-      <c r="AD180" s="90"/>
-      <c r="AE180" s="90"/>
-      <c r="AF180" s="90" t="n">
+      <c r="Z180" s="89"/>
+      <c r="AA180" s="89"/>
+      <c r="AB180" s="89"/>
+      <c r="AC180" s="89"/>
+      <c r="AD180" s="89"/>
+      <c r="AE180" s="89"/>
+      <c r="AF180" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG180" s="90"/>
-      <c r="AH180" s="90"/>
-      <c r="AI180" s="90"/>
-      <c r="AJ180" s="90"/>
-      <c r="AK180" s="90"/>
-      <c r="AL180" s="100"/>
-      <c r="AM180" s="94"/>
+      <c r="AG180" s="89"/>
+      <c r="AH180" s="89"/>
+      <c r="AI180" s="89"/>
+      <c r="AJ180" s="89"/>
+      <c r="AK180" s="89"/>
+      <c r="AL180" s="99"/>
+      <c r="AM180" s="93"/>
       <c r="AN180" s="14" t="n">
         <v>179</v>
       </c>
-      <c r="AO180" s="90"/>
-      <c r="AP180" s="90"/>
-      <c r="AQ180" s="90"/>
+      <c r="AO180" s="89"/>
+      <c r="AP180" s="89"/>
+      <c r="AQ180" s="89"/>
     </row>
     <row r="181" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="n">
@@ -18231,72 +18245,72 @@
       <c r="C181" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E181" s="96" t="s">
+      <c r="D181" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E181" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F181" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F181" s="96" t="s">
+      <c r="G181" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G181" s="101" t="s">
+      <c r="H181" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="I181" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H181" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="I181" s="102" t="s">
+      <c r="J181" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K181" s="89"/>
+      <c r="L181" s="89"/>
+      <c r="M181" s="90"/>
+      <c r="N181" s="90"/>
+      <c r="O181" s="90" t="s">
         <v>547</v>
       </c>
-      <c r="J181" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K181" s="90"/>
-      <c r="L181" s="90"/>
-      <c r="M181" s="91"/>
-      <c r="N181" s="91"/>
-      <c r="O181" s="91" t="s">
+      <c r="P181" s="89"/>
+      <c r="Q181" s="89"/>
+      <c r="R181" s="89"/>
+      <c r="S181" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T181" s="89"/>
+      <c r="U181" s="89"/>
+      <c r="V181" s="89"/>
+      <c r="W181" s="89"/>
+      <c r="X181" s="89"/>
+      <c r="Y181" s="90" t="s">
         <v>548</v>
       </c>
-      <c r="P181" s="90"/>
-      <c r="Q181" s="90"/>
-      <c r="R181" s="90"/>
-      <c r="S181" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T181" s="90"/>
-      <c r="U181" s="90"/>
-      <c r="V181" s="90"/>
-      <c r="W181" s="90"/>
-      <c r="X181" s="90"/>
-      <c r="Y181" s="91" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z181" s="90"/>
-      <c r="AA181" s="90"/>
-      <c r="AB181" s="90"/>
-      <c r="AC181" s="90"/>
-      <c r="AD181" s="90"/>
-      <c r="AE181" s="90"/>
-      <c r="AF181" s="90" t="n">
+      <c r="Z181" s="89"/>
+      <c r="AA181" s="89"/>
+      <c r="AB181" s="89"/>
+      <c r="AC181" s="89"/>
+      <c r="AD181" s="89"/>
+      <c r="AE181" s="89"/>
+      <c r="AF181" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG181" s="90"/>
-      <c r="AH181" s="90"/>
-      <c r="AI181" s="90"/>
-      <c r="AJ181" s="90"/>
-      <c r="AK181" s="90"/>
-      <c r="AL181" s="100"/>
-      <c r="AM181" s="94"/>
+      <c r="AG181" s="89"/>
+      <c r="AH181" s="89"/>
+      <c r="AI181" s="89"/>
+      <c r="AJ181" s="89"/>
+      <c r="AK181" s="89"/>
+      <c r="AL181" s="99"/>
+      <c r="AM181" s="93"/>
       <c r="AN181" s="14" t="n">
         <v>181</v>
       </c>
-      <c r="AO181" s="95" t="n">
+      <c r="AO181" s="94" t="n">
         <v>110</v>
       </c>
-      <c r="AP181" s="90"/>
-      <c r="AQ181" s="90"/>
+      <c r="AP181" s="89"/>
+      <c r="AQ181" s="89"/>
     </row>
     <row r="182" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="n">
@@ -18308,72 +18322,72 @@
       <c r="C182" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E182" s="96" t="s">
+      <c r="D182" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E182" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F182" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F182" s="96" t="s">
+      <c r="G182" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G182" s="101" t="s">
+      <c r="H182" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="I182" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H182" s="98" t="s">
-        <v>342</v>
-      </c>
-      <c r="I182" s="102" t="s">
-        <v>547</v>
-      </c>
-      <c r="J182" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K182" s="90"/>
-      <c r="L182" s="90"/>
-      <c r="M182" s="91"/>
-      <c r="N182" s="91"/>
-      <c r="O182" s="91" t="s">
+      <c r="J182" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K182" s="89"/>
+      <c r="L182" s="89"/>
+      <c r="M182" s="90"/>
+      <c r="N182" s="90"/>
+      <c r="O182" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="P182" s="89"/>
+      <c r="Q182" s="89"/>
+      <c r="R182" s="89"/>
+      <c r="S182" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T182" s="89"/>
+      <c r="U182" s="89"/>
+      <c r="V182" s="89"/>
+      <c r="W182" s="89"/>
+      <c r="X182" s="89"/>
+      <c r="Y182" s="90" t="s">
         <v>550</v>
       </c>
-      <c r="P182" s="90"/>
-      <c r="Q182" s="90"/>
-      <c r="R182" s="90"/>
-      <c r="S182" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T182" s="90"/>
-      <c r="U182" s="90"/>
-      <c r="V182" s="90"/>
-      <c r="W182" s="90"/>
-      <c r="X182" s="90"/>
-      <c r="Y182" s="91" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z182" s="90"/>
-      <c r="AA182" s="90"/>
-      <c r="AB182" s="90"/>
-      <c r="AC182" s="90"/>
-      <c r="AD182" s="90"/>
-      <c r="AE182" s="90"/>
-      <c r="AF182" s="90" t="n">
+      <c r="Z182" s="89"/>
+      <c r="AA182" s="89"/>
+      <c r="AB182" s="89"/>
+      <c r="AC182" s="89"/>
+      <c r="AD182" s="89"/>
+      <c r="AE182" s="89"/>
+      <c r="AF182" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG182" s="90"/>
-      <c r="AH182" s="90"/>
-      <c r="AI182" s="90"/>
-      <c r="AJ182" s="90"/>
-      <c r="AK182" s="90"/>
-      <c r="AL182" s="93"/>
-      <c r="AM182" s="94"/>
+      <c r="AG182" s="89"/>
+      <c r="AH182" s="89"/>
+      <c r="AI182" s="89"/>
+      <c r="AJ182" s="89"/>
+      <c r="AK182" s="89"/>
+      <c r="AL182" s="92"/>
+      <c r="AM182" s="93"/>
       <c r="AN182" s="14" t="n">
         <v>182</v>
       </c>
-      <c r="AO182" s="95" t="n">
+      <c r="AO182" s="94" t="n">
         <v>118</v>
       </c>
-      <c r="AP182" s="90"/>
-      <c r="AQ182" s="90"/>
+      <c r="AP182" s="89"/>
+      <c r="AQ182" s="89"/>
     </row>
     <row r="183" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="n">
@@ -18385,72 +18399,72 @@
       <c r="C183" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E183" s="96" t="s">
+      <c r="D183" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E183" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F183" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F183" s="96" t="s">
+      <c r="G183" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G183" s="101" t="s">
+      <c r="H183" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="I183" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H183" s="98" t="s">
-        <v>362</v>
-      </c>
-      <c r="I183" s="102" t="s">
-        <v>547</v>
-      </c>
-      <c r="J183" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K183" s="90"/>
-      <c r="L183" s="90"/>
-      <c r="M183" s="91"/>
-      <c r="N183" s="91"/>
-      <c r="O183" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="P183" s="90"/>
-      <c r="Q183" s="90"/>
-      <c r="R183" s="90"/>
-      <c r="S183" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T183" s="90"/>
-      <c r="U183" s="90"/>
-      <c r="V183" s="90"/>
-      <c r="W183" s="90"/>
-      <c r="X183" s="90"/>
-      <c r="Y183" s="91" t="s">
-        <v>552</v>
-      </c>
-      <c r="Z183" s="90"/>
-      <c r="AA183" s="90"/>
-      <c r="AB183" s="90"/>
-      <c r="AC183" s="90"/>
-      <c r="AD183" s="90"/>
-      <c r="AE183" s="90"/>
-      <c r="AF183" s="90" t="n">
+      <c r="J183" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K183" s="89"/>
+      <c r="L183" s="89"/>
+      <c r="M183" s="90"/>
+      <c r="N183" s="90"/>
+      <c r="O183" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="P183" s="89"/>
+      <c r="Q183" s="89"/>
+      <c r="R183" s="89"/>
+      <c r="S183" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T183" s="89"/>
+      <c r="U183" s="89"/>
+      <c r="V183" s="89"/>
+      <c r="W183" s="89"/>
+      <c r="X183" s="89"/>
+      <c r="Y183" s="90" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z183" s="89"/>
+      <c r="AA183" s="89"/>
+      <c r="AB183" s="89"/>
+      <c r="AC183" s="89"/>
+      <c r="AD183" s="89"/>
+      <c r="AE183" s="89"/>
+      <c r="AF183" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG183" s="90"/>
-      <c r="AH183" s="90"/>
-      <c r="AI183" s="90"/>
-      <c r="AJ183" s="90"/>
-      <c r="AK183" s="90"/>
-      <c r="AL183" s="100"/>
-      <c r="AM183" s="94"/>
+      <c r="AG183" s="89"/>
+      <c r="AH183" s="89"/>
+      <c r="AI183" s="89"/>
+      <c r="AJ183" s="89"/>
+      <c r="AK183" s="89"/>
+      <c r="AL183" s="99"/>
+      <c r="AM183" s="93"/>
       <c r="AN183" s="14" t="n">
         <v>183</v>
       </c>
-      <c r="AO183" s="95" t="n">
+      <c r="AO183" s="94" t="n">
         <v>125</v>
       </c>
-      <c r="AP183" s="90"/>
-      <c r="AQ183" s="90"/>
+      <c r="AP183" s="89"/>
+      <c r="AQ183" s="89"/>
     </row>
     <row r="184" customFormat="false" ht="55.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="n">
@@ -18462,72 +18476,72 @@
       <c r="C184" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="85" t="s">
-        <v>506</v>
-      </c>
-      <c r="E184" s="96" t="s">
+      <c r="D184" s="84" t="s">
+        <v>505</v>
+      </c>
+      <c r="E184" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="F184" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="F184" s="96" t="s">
+      <c r="G184" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="G184" s="101" t="s">
+      <c r="H184" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="I184" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="H184" s="98" t="s">
-        <v>393</v>
-      </c>
-      <c r="I184" s="102" t="s">
-        <v>547</v>
-      </c>
-      <c r="J184" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="K184" s="90"/>
-      <c r="L184" s="90"/>
-      <c r="M184" s="91"/>
-      <c r="N184" s="91"/>
-      <c r="O184" s="91" t="s">
+      <c r="J184" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="K184" s="89"/>
+      <c r="L184" s="89"/>
+      <c r="M184" s="90"/>
+      <c r="N184" s="90"/>
+      <c r="O184" s="90" t="s">
+        <v>552</v>
+      </c>
+      <c r="P184" s="89"/>
+      <c r="Q184" s="89"/>
+      <c r="R184" s="89"/>
+      <c r="S184" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="T184" s="89"/>
+      <c r="U184" s="89"/>
+      <c r="V184" s="89"/>
+      <c r="W184" s="89"/>
+      <c r="X184" s="89"/>
+      <c r="Y184" s="90" t="s">
         <v>553</v>
       </c>
-      <c r="P184" s="90"/>
-      <c r="Q184" s="90"/>
-      <c r="R184" s="90"/>
-      <c r="S184" s="90" t="s">
-        <v>532</v>
-      </c>
-      <c r="T184" s="90"/>
-      <c r="U184" s="90"/>
-      <c r="V184" s="90"/>
-      <c r="W184" s="90"/>
-      <c r="X184" s="90"/>
-      <c r="Y184" s="91" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z184" s="90"/>
-      <c r="AA184" s="90"/>
-      <c r="AB184" s="90"/>
-      <c r="AC184" s="90"/>
-      <c r="AD184" s="90"/>
-      <c r="AE184" s="90"/>
-      <c r="AF184" s="90" t="n">
+      <c r="Z184" s="89"/>
+      <c r="AA184" s="89"/>
+      <c r="AB184" s="89"/>
+      <c r="AC184" s="89"/>
+      <c r="AD184" s="89"/>
+      <c r="AE184" s="89"/>
+      <c r="AF184" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AG184" s="90"/>
-      <c r="AH184" s="90"/>
-      <c r="AI184" s="90"/>
-      <c r="AJ184" s="90"/>
-      <c r="AK184" s="90"/>
-      <c r="AL184" s="100"/>
-      <c r="AM184" s="94"/>
+      <c r="AG184" s="89"/>
+      <c r="AH184" s="89"/>
+      <c r="AI184" s="89"/>
+      <c r="AJ184" s="89"/>
+      <c r="AK184" s="89"/>
+      <c r="AL184" s="99"/>
+      <c r="AM184" s="93"/>
       <c r="AN184" s="14" t="n">
         <v>184</v>
       </c>
-      <c r="AO184" s="95" t="n">
+      <c r="AO184" s="94" t="n">
         <v>136</v>
       </c>
-      <c r="AP184" s="90"/>
-      <c r="AQ184" s="90"/>
+      <c r="AP184" s="89"/>
+      <c r="AQ184" s="89"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ172"/>
@@ -18564,13 +18578,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="103" t="s">
-        <v>496</v>
+      <c r="A1" s="102" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="104" t="s">
-        <v>433</v>
+      <c r="A2" s="103" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -18601,36 +18615,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="105" t="s">
-        <v>419</v>
+      <c r="B1" s="104" t="s">
+        <v>418</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="104" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="K1" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="105"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18638,19 +18652,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="106" t="n">
+      <c r="E2" s="105" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="107" t="n">
+      <c r="J2" s="106" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="105"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18658,19 +18672,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="108" t="n">
+      <c r="E3" s="107" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="109" t="n">
+      <c r="J3" s="108" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="105"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18678,28 +18692,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="108" t="n">
+      <c r="E4" s="107" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="110" t="n">
+      <c r="F4" s="109" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="105"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="107" t="n">
+      <c r="J4" s="106" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="111" t="n">
+      <c r="K4" s="110" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18733,49 +18747,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="112" t="s">
         <v>561</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="I1" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="112" t="s">
         <v>562</v>
       </c>
-      <c r="I1" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="113" t="s">
+      <c r="L1" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="113" t="s">
         <v>563</v>
-      </c>
-      <c r="L1" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="113" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="114" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,6 +49,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1572,7 +1574,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
@@ -2484,18 +2486,18 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="O160" activeCellId="0" sqref="O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.4534412955466"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="13.9028340080972"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="13.9271255060729"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -51,6 +51,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2485,16 +2486,16 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O160" activeCellId="0" sqref="O160"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="AG149" activeCellId="0" sqref="AG149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="13" min="9" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="13.9271255060729"/>
@@ -15330,7 +15331,7 @@
         <v>0.0225</v>
       </c>
       <c r="AG148" s="30" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AH148" s="9" t="n">
         <v>1</v>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1470,10 +1471,10 @@
     <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+    <t xml:space="preserve">Cooler: Max 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 26 СКЮ на дверь</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKU per Door RANGE</t>
@@ -1971,9 +1972,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
@@ -2154,7 +2155,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2176,43 +2177,99 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2220,75 +2277,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,31 +2297,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2328,31 +2329,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2360,23 +2357,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2396,20 +2397,9 @@
         <name val="Calibri"/>
         <charset val="1"/>
         <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <color rgb="FF000000"/>
-        <u val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2486,19 +2476,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AG149" activeCellId="0" sqref="AG149"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M148" activeCellId="0" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.7044534412956"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15216,7 +15206,7 @@
         <v>1</v>
       </c>
       <c r="M147" s="12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N147" s="9" t="s">
         <v>242</v>
@@ -18352,9 +18342,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
@@ -18389,9 +18376,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="39" t="s">
@@ -18521,9 +18505,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="573">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -747,22 +748,40 @@
     <t xml:space="preserve">Рич - Вишня - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+    <t xml:space="preserve">Moya Semya - Berry Mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Ягода-Вкуснягода - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Mix - 0.95L, Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421239, 4607174578449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple mix - 0.95L, Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421178, 4607174578029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Pineapple Mango - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Ананас-Маракас - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Pineapple Mango - 0.95L, Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421536, 4607174578548</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
@@ -807,10 +826,14 @@
     <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+    <t xml:space="preserve">Dobriy - Berry Smoothie – 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L
+</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
@@ -819,10 +842,10 @@
     <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+    <t xml:space="preserve">Dobriy - Strawberry Smoothie - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Смуззи - Клубника Банана Гоу - 110 гр</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
@@ -831,10 +854,16 @@
     <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
+    <t xml:space="preserve">Moya Semya - Strawberry - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Клубничина-Земляничина - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Strawberry - 0.95L, Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075421574, 4607174579477</t>
   </si>
   <si>
     <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
@@ -1009,16 +1038,16 @@
     <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Моя Семья - Яблоко - 1л</t>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Ягода-Вкуснягода - 0.95л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple mix - 0.95L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Яблочный Микс - 0.95л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 21</t>
@@ -1978,7 +2007,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2054,6 +2083,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2083,7 +2119,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2094,6 +2130,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2184,7 +2226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2277,15 +2319,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2309,7 +2383,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2333,11 +2407,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2345,19 +2419,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2369,15 +2443,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2391,7 +2465,15 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -2477,18 +2559,18 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M148" activeCellId="0" sqref="M148"/>
+      <selection pane="bottomLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.6882591093117"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8455,10 +8537,10 @@
         <v>123</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="24" t="s">
         <v>203</v>
       </c>
       <c r="I69" s="9" t="s">
@@ -8470,11 +8552,11 @@
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
-      <c r="N69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O69" s="15" t="n">
-        <v>4607174578449</v>
+      <c r="N69" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O69" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
@@ -8543,11 +8625,11 @@
         <v>123</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>205</v>
+      <c r="G70" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>54</v>
@@ -8558,11 +8640,11 @@
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="O70" s="15" t="n">
-        <v>4607174578029</v>
+      <c r="N70" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O70" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -8631,11 +8713,11 @@
         <v>123</v>
       </c>
       <c r="F71" s="13"/>
-      <c r="G71" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>207</v>
+      <c r="G71" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>54</v>
@@ -8646,11 +8728,11 @@
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-      <c r="N71" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O71" s="15" t="n">
-        <v>4607174578548</v>
+      <c r="N71" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O71" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -8720,10 +8802,10 @@
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>54</v>
@@ -8735,7 +8817,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="12" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O72" s="15" t="n">
         <v>4607174577145</v>
@@ -8808,10 +8890,10 @@
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>54</v>
@@ -8823,7 +8905,7 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O73" s="15" t="n">
         <v>4607042438998</v>
@@ -8896,10 +8978,10 @@
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>54</v>
@@ -8911,7 +8993,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O74" s="15" t="n">
         <v>4607042431371</v>
@@ -8984,10 +9066,10 @@
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>54</v>
@@ -8999,7 +9081,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O75" s="15" t="n">
         <v>4607174579385</v>
@@ -9072,10 +9154,10 @@
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>54</v>
@@ -9087,7 +9169,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O76" s="15" t="n">
         <v>4650075420287</v>
@@ -9160,10 +9242,10 @@
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>54</v>
@@ -9175,7 +9257,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O77" s="15" t="n">
         <v>4650075420249</v>
@@ -9248,10 +9330,10 @@
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>54</v>
@@ -9263,7 +9345,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="14" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O78" s="15" t="n">
         <v>4650075420980</v>
@@ -9335,11 +9417,11 @@
         <v>123</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>223</v>
+      <c r="G79" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>54</v>
@@ -9350,11 +9432,11 @@
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="O79" s="15" t="n">
-        <v>4607042430824</v>
+      <c r="N79" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O79" s="25" t="n">
+        <v>4650075421970</v>
       </c>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
@@ -9424,10 +9506,10 @@
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>54</v>
@@ -9439,7 +9521,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O80" s="15" t="n">
         <v>4650075421147</v>
@@ -9511,11 +9593,11 @@
         <v>123</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>227</v>
+      <c r="G81" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>234</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>54</v>
@@ -9526,11 +9608,11 @@
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="O81" s="15" t="n">
-        <v>4607042430886</v>
+      <c r="N81" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O81" s="28" t="n">
+        <v>4650075421932</v>
       </c>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
@@ -9600,10 +9682,10 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>54</v>
@@ -9615,7 +9697,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O82" s="15" t="n">
         <v>4607174579729</v>
@@ -9664,7 +9746,7 @@
         <v>81</v>
       </c>
       <c r="AO82" s="8"/>
-      <c r="AP82" s="24" t="s">
+      <c r="AP82" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ82" s="12"/>
@@ -9687,11 +9769,11 @@
         <v>123</v>
       </c>
       <c r="F83" s="13"/>
-      <c r="G83" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>231</v>
+      <c r="G83" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>238</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>54</v>
@@ -9702,11 +9784,11 @@
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="O83" s="15" t="n">
-        <v>4607174579477</v>
+      <c r="N83" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="O83" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
@@ -9752,7 +9834,7 @@
         <v>82</v>
       </c>
       <c r="AO83" s="8"/>
-      <c r="AP83" s="24" t="s">
+      <c r="AP83" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ83" s="12"/>
@@ -9776,10 +9858,10 @@
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>54</v>
@@ -9791,7 +9873,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="12" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O84" s="15" t="n">
         <v>4607174579668</v>
@@ -9840,7 +9922,7 @@
         <v>83</v>
       </c>
       <c r="AO84" s="8"/>
-      <c r="AP84" s="24" t="s">
+      <c r="AP84" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ84" s="12"/>
@@ -9864,10 +9946,10 @@
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="9" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>54</v>
@@ -9878,8 +9960,8 @@
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
-      <c r="N85" s="23" t="s">
-        <v>234</v>
+      <c r="N85" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="O85" s="15" t="n">
         <v>4607042438967</v>
@@ -9928,7 +10010,7 @@
         <v>84</v>
       </c>
       <c r="AO85" s="8"/>
-      <c r="AP85" s="24" t="s">
+      <c r="AP85" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ85" s="12"/>
@@ -9952,10 +10034,10 @@
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="9" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>54</v>
@@ -9966,8 +10048,8 @@
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
-      <c r="N86" s="23" t="s">
-        <v>236</v>
+      <c r="N86" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="O86" s="15" t="n">
         <v>4607174579248</v>
@@ -10016,7 +10098,7 @@
         <v>85</v>
       </c>
       <c r="AO86" s="8"/>
-      <c r="AP86" s="24" t="s">
+      <c r="AP86" s="29" t="s">
         <v>165</v>
       </c>
       <c r="AQ86" s="12"/>
@@ -10036,17 +10118,17 @@
         <v>45</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="9" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="n">
@@ -10055,25 +10137,25 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O87" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q87" s="22"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="X87" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
@@ -10084,7 +10166,7 @@
         <v>50</v>
       </c>
       <c r="AE87" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF87" s="17" t="n">
         <v>0.06</v>
@@ -10102,7 +10184,7 @@
         <v>86</v>
       </c>
       <c r="AO87" s="8"/>
-      <c r="AP87" s="24"/>
+      <c r="AP87" s="29"/>
       <c r="AQ87" s="8"/>
       <c r="AR87" s="0"/>
     </row>
@@ -10117,20 +10199,20 @@
         <v>44</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="n">
@@ -10143,7 +10225,7 @@
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
       <c r="R88" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
@@ -10151,14 +10233,14 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="X88" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
       <c r="AC88" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD88" s="9" t="s">
         <v>50</v>
@@ -10182,10 +10264,10 @@
         <v>87</v>
       </c>
       <c r="AO88" s="11" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AP88" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ88" s="8"/>
       <c r="AR88" s="0"/>
@@ -10201,17 +10283,17 @@
         <v>44</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="9" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>54</v>
@@ -10241,14 +10323,14 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
       <c r="X89" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
       <c r="AC89" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD89" s="9" t="s">
         <v>50</v>
@@ -10273,7 +10355,7 @@
       </c>
       <c r="AO89" s="8"/>
       <c r="AP89" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ89" s="8"/>
       <c r="AR89" s="0"/>
@@ -10289,17 +10371,17 @@
         <v>44</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>54</v>
@@ -10329,14 +10411,14 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="X90" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
       <c r="AB90" s="8"/>
       <c r="AC90" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD90" s="9" t="s">
         <v>50</v>
@@ -10361,7 +10443,7 @@
       </c>
       <c r="AO90" s="8"/>
       <c r="AP90" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ90" s="8"/>
       <c r="AR90" s="0"/>
@@ -10377,17 +10459,17 @@
         <v>44</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="9" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>54</v>
@@ -10417,14 +10499,14 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
       <c r="X91" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
       <c r="AC91" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD91" s="9" t="s">
         <v>50</v>
@@ -10449,7 +10531,7 @@
       </c>
       <c r="AO91" s="8"/>
       <c r="AP91" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="0"/>
@@ -10465,17 +10547,17 @@
         <v>44</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>54</v>
@@ -10505,14 +10587,14 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
       <c r="X92" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
       <c r="AC92" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD92" s="9" t="s">
         <v>50</v>
@@ -10537,7 +10619,7 @@
       </c>
       <c r="AO92" s="8"/>
       <c r="AP92" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ92" s="8"/>
       <c r="AR92" s="0"/>
@@ -10553,17 +10635,17 @@
         <v>44</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="9" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>54</v>
@@ -10575,7 +10657,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O93" s="16" t="s">
         <v>62</v>
@@ -10593,14 +10675,14 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
       <c r="X93" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
       <c r="AC93" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD93" s="9" t="s">
         <v>50</v>
@@ -10625,7 +10707,7 @@
       </c>
       <c r="AO93" s="8"/>
       <c r="AP93" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="0"/>
@@ -10641,17 +10723,17 @@
         <v>44</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="9" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>54</v>
@@ -10663,7 +10745,7 @@
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O94" s="16" t="s">
         <v>77</v>
@@ -10681,14 +10763,14 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
       <c r="X94" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
       <c r="AC94" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD94" s="9" t="s">
         <v>50</v>
@@ -10713,7 +10795,7 @@
       </c>
       <c r="AO94" s="8"/>
       <c r="AP94" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ94" s="8"/>
       <c r="AR94" s="0"/>
@@ -10729,17 +10811,17 @@
         <v>44</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="9" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>54</v>
@@ -10751,7 +10833,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O95" s="16" t="s">
         <v>74</v>
@@ -10769,14 +10851,14 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
       <c r="X95" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
       <c r="AC95" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD95" s="9" t="s">
         <v>50</v>
@@ -10801,7 +10883,7 @@
       </c>
       <c r="AO95" s="8"/>
       <c r="AP95" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AQ95" s="8"/>
       <c r="AR95" s="0"/>
@@ -10820,17 +10902,17 @@
         <v>45</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="9" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="n">
@@ -10839,25 +10921,25 @@
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q96" s="22"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
@@ -10868,7 +10950,7 @@
         <v>50</v>
       </c>
       <c r="AE96" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF96" s="17" t="n">
         <v>0.05</v>
@@ -10886,7 +10968,7 @@
         <v>95</v>
       </c>
       <c r="AO96" s="8"/>
-      <c r="AP96" s="24"/>
+      <c r="AP96" s="29"/>
       <c r="AQ96" s="8"/>
       <c r="AR96" s="0"/>
     </row>
@@ -10901,20 +10983,20 @@
         <v>44</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="n">
@@ -10927,7 +11009,7 @@
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
       <c r="R97" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -10935,14 +11017,14 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
       <c r="X97" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
       <c r="AC97" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD97" s="9" t="s">
         <v>50</v>
@@ -10966,10 +11048,10 @@
         <v>96</v>
       </c>
       <c r="AO97" s="11" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AP97" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="0"/>
@@ -10985,17 +11067,17 @@
         <v>44</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="9" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>54</v>
@@ -11014,10 +11096,10 @@
       </c>
       <c r="P98" s="16"/>
       <c r="Q98" s="16"/>
-      <c r="R98" s="25" t="s">
+      <c r="R98" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S98" s="25" t="s">
+      <c r="S98" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T98" s="8"/>
@@ -11025,14 +11107,14 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
       <c r="AC98" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD98" s="9" t="s">
         <v>50</v>
@@ -11057,7 +11139,7 @@
       </c>
       <c r="AO98" s="8"/>
       <c r="AP98" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ98" s="8"/>
       <c r="AR98" s="0"/>
@@ -11073,17 +11155,17 @@
         <v>44</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>54</v>
@@ -11102,10 +11184,10 @@
       </c>
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
-      <c r="R99" s="25" t="s">
+      <c r="R99" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S99" s="25" t="s">
+      <c r="S99" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T99" s="8"/>
@@ -11113,14 +11195,14 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
       <c r="X99" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
       <c r="AC99" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD99" s="9" t="s">
         <v>50</v>
@@ -11145,7 +11227,7 @@
       </c>
       <c r="AO99" s="8"/>
       <c r="AP99" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ99" s="8"/>
       <c r="AR99" s="0"/>
@@ -11161,17 +11243,17 @@
         <v>44</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="9" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>54</v>
@@ -11190,10 +11272,10 @@
       </c>
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
-      <c r="R100" s="25" t="s">
+      <c r="R100" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S100" s="25" t="s">
+      <c r="S100" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T100" s="8"/>
@@ -11201,14 +11283,14 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
       <c r="X100" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
       <c r="AC100" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD100" s="9" t="s">
         <v>50</v>
@@ -11233,7 +11315,7 @@
       </c>
       <c r="AO100" s="8"/>
       <c r="AP100" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ100" s="8"/>
       <c r="AR100" s="0"/>
@@ -11249,17 +11331,17 @@
         <v>44</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F101" s="8"/>
-      <c r="G101" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>287</v>
+      <c r="G101" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>54</v>
@@ -11270,18 +11352,18 @@
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
-      <c r="N101" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O101" s="26" t="n">
-        <v>4607174578449</v>
-      </c>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="25" t="s">
+      <c r="N101" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O101" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S101" s="25" t="s">
+      <c r="S101" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T101" s="8"/>
@@ -11289,14 +11371,14 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
       <c r="X101" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
       <c r="AC101" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD101" s="9" t="s">
         <v>50</v>
@@ -11321,7 +11403,7 @@
       </c>
       <c r="AO101" s="8"/>
       <c r="AP101" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ101" s="8"/>
       <c r="AR101" s="0"/>
@@ -11337,17 +11419,17 @@
         <v>44</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F102" s="8"/>
-      <c r="G102" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>289</v>
+      <c r="G102" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>54</v>
@@ -11358,18 +11440,18 @@
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
-      <c r="N102" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="O102" s="26" t="n">
-        <v>4607174578029</v>
-      </c>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="25" t="s">
+      <c r="N102" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O102" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S102" s="25" t="s">
+      <c r="S102" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T102" s="8"/>
@@ -11377,14 +11459,14 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
       <c r="X102" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
       <c r="AC102" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD102" s="9" t="s">
         <v>50</v>
@@ -11409,7 +11491,7 @@
       </c>
       <c r="AO102" s="8"/>
       <c r="AP102" s="9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AQ102" s="8"/>
       <c r="AR102" s="0"/>
@@ -11428,17 +11510,17 @@
         <v>45</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="9" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="n">
@@ -11447,25 +11529,25 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O103" s="22" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q103" s="22"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
       <c r="X103" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
@@ -11476,7 +11558,7 @@
         <v>50</v>
       </c>
       <c r="AE103" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF103" s="17" t="n">
         <v>0.015</v>
@@ -11494,7 +11576,7 @@
         <v>102</v>
       </c>
       <c r="AO103" s="8"/>
-      <c r="AP103" s="24"/>
+      <c r="AP103" s="29"/>
       <c r="AQ103" s="8"/>
       <c r="AR103" s="0"/>
     </row>
@@ -11509,20 +11591,20 @@
         <v>44</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="n">
@@ -11535,7 +11617,7 @@
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
       <c r="R104" s="12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -11543,14 +11625,14 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
       <c r="X104" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
       <c r="AC104" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD104" s="9" t="s">
         <v>50</v>
@@ -11573,11 +11655,11 @@
       <c r="AN104" s="13" t="n">
         <v>103</v>
       </c>
-      <c r="AO104" s="27" t="s">
-        <v>296</v>
+      <c r="AO104" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="AP104" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ104" s="8"/>
       <c r="AR104" s="0"/>
@@ -11593,17 +11675,17 @@
         <v>44</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>54</v>
@@ -11615,7 +11697,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="12" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="O105" s="16" t="n">
         <v>5449000005489</v>
@@ -11625,7 +11707,7 @@
       <c r="R105" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S105" s="25" t="s">
+      <c r="S105" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T105" s="8"/>
@@ -11633,14 +11715,14 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
       <c r="AC105" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD105" s="9" t="s">
         <v>50</v>
@@ -11665,7 +11747,7 @@
       </c>
       <c r="AO105" s="8"/>
       <c r="AP105" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AQ105" s="8"/>
       <c r="AR105" s="0"/>
@@ -11684,17 +11766,17 @@
         <v>45</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="9" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9" t="n">
@@ -11703,25 +11785,25 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q106" s="10"/>
-      <c r="R106" s="25"/>
+      <c r="R106" s="32"/>
       <c r="S106" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
       <c r="X106" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
@@ -11732,7 +11814,7 @@
         <v>50</v>
       </c>
       <c r="AE106" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF106" s="17" t="n">
         <v>0.03</v>
@@ -11750,7 +11832,7 @@
         <v>105</v>
       </c>
       <c r="AO106" s="8"/>
-      <c r="AP106" s="24"/>
+      <c r="AP106" s="29"/>
       <c r="AQ106" s="8"/>
       <c r="AR106" s="0"/>
     </row>
@@ -11765,20 +11847,20 @@
         <v>44</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9" t="n">
@@ -11791,7 +11873,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
       <c r="R107" s="12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -11799,14 +11881,14 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
       <c r="X107" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
       <c r="AC107" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD107" s="9" t="s">
         <v>50</v>
@@ -11830,10 +11912,10 @@
         <v>106</v>
       </c>
       <c r="AO107" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AP107" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AQ107" s="8"/>
       <c r="AR107" s="0"/>
@@ -11849,17 +11931,17 @@
         <v>44</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>54</v>
@@ -11881,7 +11963,7 @@
       <c r="R108" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S108" s="25" t="s">
+      <c r="S108" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T108" s="8"/>
@@ -11889,14 +11971,14 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
       <c r="X108" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
       <c r="AC108" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD108" s="9" t="s">
         <v>50</v>
@@ -11921,7 +12003,7 @@
       </c>
       <c r="AO108" s="8"/>
       <c r="AP108" s="9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AQ108" s="8"/>
       <c r="AR108" s="0"/>
@@ -11937,17 +12019,17 @@
         <v>44</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="9" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>54</v>
@@ -11969,7 +12051,7 @@
       <c r="R109" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S109" s="25" t="s">
+      <c r="S109" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T109" s="8"/>
@@ -11977,14 +12059,14 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
       <c r="X109" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
       <c r="AC109" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AD109" s="9" t="s">
         <v>50</v>
@@ -12009,7 +12091,7 @@
       </c>
       <c r="AO109" s="8"/>
       <c r="AP109" s="9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AQ109" s="8"/>
       <c r="AR109" s="0"/>
@@ -12028,17 +12110,17 @@
         <v>45</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="9" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9" t="n">
@@ -12047,25 +12129,25 @@
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O110" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P110" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q110" s="10"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
       <c r="X110" s="9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
@@ -12076,7 +12158,7 @@
         <v>50</v>
       </c>
       <c r="AE110" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF110" s="17" t="n">
         <v>0.025</v>
@@ -12112,17 +12194,17 @@
         <v>45</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J111" s="0"/>
       <c r="K111" s="9" t="n">
@@ -12135,7 +12217,7 @@
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
       <c r="R111" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -12143,7 +12225,7 @@
       <c r="V111" s="9"/>
       <c r="W111" s="8"/>
       <c r="X111" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
@@ -12174,7 +12256,7 @@
         <v>110</v>
       </c>
       <c r="AO111" s="11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AP111" s="8"/>
       <c r="AQ111" s="8"/>
@@ -12194,14 +12276,14 @@
         <v>45</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="9" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>54</v>
@@ -12213,27 +12295,27 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P112" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q112" s="22"/>
       <c r="R112" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S112" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
       <c r="V112" s="9"/>
       <c r="W112" s="8"/>
       <c r="X112" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
@@ -12265,7 +12347,7 @@
       </c>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AQ112" s="8"/>
       <c r="AR112" s="0"/>
@@ -12284,17 +12366,17 @@
         <v>45</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="n">
@@ -12310,16 +12392,16 @@
         <v>55</v>
       </c>
       <c r="S113" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
       <c r="V113" s="9" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
@@ -12351,7 +12433,7 @@
       </c>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AQ113" s="8"/>
       <c r="AR113" s="0"/>
@@ -12370,17 +12452,17 @@
         <v>45</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="9" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -12393,7 +12475,7 @@
         <v>5449000000439</v>
       </c>
       <c r="P114" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q114" s="22"/>
       <c r="R114" s="8" t="s">
@@ -12407,7 +12489,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
       <c r="X114" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
@@ -12429,7 +12511,7 @@
       <c r="AH114" s="9"/>
       <c r="AI114" s="9"/>
       <c r="AJ114" s="9" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12441,7 +12523,7 @@
       </c>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AQ114" s="8"/>
       <c r="AR114" s="0"/>
@@ -12457,20 +12539,20 @@
         <v>44</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J115" s="0"/>
       <c r="K115" s="9" t="n">
@@ -12483,7 +12565,7 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
       <c r="R115" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -12491,7 +12573,7 @@
       <c r="V115" s="9"/>
       <c r="W115" s="8"/>
       <c r="X115" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
@@ -12512,10 +12594,10 @@
       <c r="AG115" s="9"/>
       <c r="AH115" s="9"/>
       <c r="AI115" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AJ115" s="9" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
@@ -12526,7 +12608,7 @@
         <v>114</v>
       </c>
       <c r="AO115" s="11" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AP115" s="8"/>
       <c r="AQ115" s="8"/>
@@ -12543,17 +12625,17 @@
         <v>44</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="9" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>54</v>
@@ -12575,7 +12657,7 @@
       <c r="R116" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S116" s="25" t="s">
+      <c r="S116" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T116" s="8"/>
@@ -12583,7 +12665,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="8"/>
       <c r="X116" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
@@ -12615,7 +12697,7 @@
       </c>
       <c r="AO116" s="8"/>
       <c r="AP116" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ116" s="8"/>
       <c r="AR116" s="0"/>
@@ -12631,17 +12713,17 @@
         <v>44</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="9" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>54</v>
@@ -12663,7 +12745,7 @@
       <c r="R117" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S117" s="25" t="s">
+      <c r="S117" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T117" s="8"/>
@@ -12671,7 +12753,7 @@
       <c r="V117" s="9"/>
       <c r="W117" s="8"/>
       <c r="X117" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
@@ -12703,7 +12785,7 @@
       </c>
       <c r="AO117" s="8"/>
       <c r="AP117" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ117" s="8"/>
       <c r="AR117" s="0"/>
@@ -12719,17 +12801,17 @@
         <v>44</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>54</v>
@@ -12751,7 +12833,7 @@
       <c r="R118" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S118" s="25" t="s">
+      <c r="S118" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T118" s="8"/>
@@ -12759,7 +12841,7 @@
       <c r="V118" s="9"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12791,10 +12873,10 @@
       </c>
       <c r="AO118" s="8"/>
       <c r="AP118" s="8" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AQ118" s="8"/>
-      <c r="AR118" s="28"/>
+      <c r="AR118" s="36"/>
     </row>
     <row r="119" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="n">
@@ -12810,17 +12892,17 @@
         <v>45</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J119" s="0"/>
       <c r="K119" s="9" t="n">
@@ -12833,7 +12915,7 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
       <c r="R119" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -12841,7 +12923,7 @@
       <c r="V119" s="9"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
@@ -12872,7 +12954,7 @@
         <v>118</v>
       </c>
       <c r="AO119" s="11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AP119" s="8"/>
       <c r="AQ119" s="8"/>
@@ -12891,14 +12973,14 @@
         <v>45</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="9" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>54</v>
@@ -12910,27 +12992,27 @@
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O120" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P120" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q120" s="22"/>
       <c r="R120" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="9"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
@@ -12962,7 +13044,7 @@
       </c>
       <c r="AO120" s="8"/>
       <c r="AP120" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ120" s="8"/>
     </row>
@@ -12980,17 +13062,17 @@
         <v>45</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="n">
@@ -13006,16 +13088,16 @@
         <v>55</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
       <c r="V121" s="9" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
@@ -13047,7 +13129,7 @@
       </c>
       <c r="AO121" s="8"/>
       <c r="AP121" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ121" s="8"/>
     </row>
@@ -13065,30 +13147,30 @@
         <v>45</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O122" s="16" t="s">
         <v>62</v>
       </c>
       <c r="P122" s="16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q122" s="16"/>
       <c r="R122" s="8" t="s">
@@ -13102,7 +13184,7 @@
       <c r="V122" s="9"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
@@ -13124,7 +13206,7 @@
       <c r="AH122" s="9"/>
       <c r="AI122" s="9"/>
       <c r="AJ122" s="9" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9"/>
@@ -13136,7 +13218,7 @@
       </c>
       <c r="AO122" s="8"/>
       <c r="AP122" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AQ122" s="8"/>
     </row>
@@ -13151,20 +13233,20 @@
         <v>44</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J123" s="0"/>
       <c r="K123" s="9" t="n">
@@ -13177,7 +13259,7 @@
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -13185,7 +13267,7 @@
       <c r="V123" s="9"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
@@ -13206,10 +13288,10 @@
       <c r="AG123" s="9"/>
       <c r="AH123" s="9"/>
       <c r="AI123" s="9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AJ123" s="9" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9"/>
@@ -13220,7 +13302,7 @@
         <v>122</v>
       </c>
       <c r="AO123" s="11" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AP123" s="8"/>
       <c r="AQ123" s="8"/>
@@ -13236,17 +13318,17 @@
         <v>44</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I124" s="9" t="s">
         <v>54</v>
@@ -13258,7 +13340,7 @@
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O124" s="16" t="s">
         <v>62</v>
@@ -13268,7 +13350,7 @@
       <c r="R124" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S124" s="25" t="s">
+      <c r="S124" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T124" s="8"/>
@@ -13276,7 +13358,7 @@
       <c r="V124" s="9"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
@@ -13308,7 +13390,7 @@
       </c>
       <c r="AO124" s="8"/>
       <c r="AP124" s="8" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AQ124" s="8"/>
     </row>
@@ -13323,17 +13405,17 @@
         <v>44</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="9" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>54</v>
@@ -13345,7 +13427,7 @@
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="O125" s="16" t="s">
         <v>71</v>
@@ -13355,7 +13437,7 @@
       <c r="R125" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S125" s="25" t="s">
+      <c r="S125" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T125" s="8"/>
@@ -13363,7 +13445,7 @@
       <c r="V125" s="9"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
@@ -13395,7 +13477,7 @@
       </c>
       <c r="AO125" s="8"/>
       <c r="AP125" s="8" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AQ125" s="8"/>
     </row>
@@ -13413,17 +13495,17 @@
         <v>45</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J126" s="0"/>
       <c r="K126" s="9" t="n">
@@ -13436,7 +13518,7 @@
       <c r="P126" s="22"/>
       <c r="Q126" s="22"/>
       <c r="R126" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -13444,7 +13526,7 @@
       <c r="V126" s="9"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
@@ -13475,7 +13557,7 @@
         <v>125</v>
       </c>
       <c r="AO126" s="11" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AP126" s="8"/>
       <c r="AQ126" s="8"/>
@@ -13494,14 +13576,14 @@
         <v>45</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="9" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>54</v>
@@ -13513,27 +13595,27 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O127" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P127" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q127" s="22"/>
       <c r="R127" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S127" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
       <c r="V127" s="9"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
@@ -13565,7 +13647,7 @@
       </c>
       <c r="AO127" s="8"/>
       <c r="AP127" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AQ127" s="8"/>
     </row>
@@ -13583,17 +13665,17 @@
         <v>45</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="n">
@@ -13609,16 +13691,16 @@
         <v>55</v>
       </c>
       <c r="S128" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="9" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
@@ -13650,7 +13732,7 @@
       </c>
       <c r="AO128" s="8"/>
       <c r="AP128" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AQ128" s="8"/>
     </row>
@@ -13668,17 +13750,17 @@
         <v>45</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="n">
@@ -13699,7 +13781,7 @@
       <c r="V129" s="9"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13730,10 +13812,10 @@
         <v>128</v>
       </c>
       <c r="AO129" s="11" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AP129" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AQ129" s="8"/>
     </row>
@@ -13751,17 +13833,17 @@
         <v>45</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="9" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -13786,7 +13868,7 @@
       <c r="V130" s="9"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
@@ -13808,7 +13890,7 @@
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
       <c r="AJ130" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
@@ -13820,7 +13902,7 @@
       </c>
       <c r="AO130" s="8"/>
       <c r="AP130" s="9" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AQ130" s="8"/>
     </row>
@@ -13838,17 +13920,17 @@
         <v>45</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="9" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -13873,7 +13955,7 @@
       <c r="V131" s="9"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
@@ -13895,7 +13977,7 @@
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
       <c r="AJ131" s="9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
@@ -13907,7 +13989,7 @@
       </c>
       <c r="AO131" s="8"/>
       <c r="AP131" s="9" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AQ131" s="8"/>
     </row>
@@ -13922,20 +14004,20 @@
         <v>44</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J132" s="0"/>
       <c r="K132" s="9" t="n">
@@ -13948,7 +14030,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
       <c r="R132" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S132" s="8"/>
       <c r="T132" s="8"/>
@@ -13956,7 +14038,7 @@
       <c r="V132" s="9"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
@@ -13977,10 +14059,10 @@
       <c r="AG132" s="9"/>
       <c r="AH132" s="9"/>
       <c r="AI132" s="9" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AJ132" s="9" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
@@ -13991,7 +14073,7 @@
         <v>131</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
@@ -14007,17 +14089,17 @@
         <v>44</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="9" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>54</v>
@@ -14039,7 +14121,7 @@
       <c r="R133" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S133" s="25" t="s">
+      <c r="S133" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T133" s="8"/>
@@ -14047,7 +14129,7 @@
       <c r="V133" s="9"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
@@ -14079,7 +14161,7 @@
       </c>
       <c r="AO133" s="8"/>
       <c r="AP133" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ133" s="8"/>
     </row>
@@ -14094,17 +14176,17 @@
         <v>44</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="9" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>54</v>
@@ -14126,7 +14208,7 @@
       <c r="R134" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S134" s="25" t="s">
+      <c r="S134" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T134" s="8"/>
@@ -14134,7 +14216,7 @@
       <c r="V134" s="9"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
@@ -14166,7 +14248,7 @@
       </c>
       <c r="AO134" s="8"/>
       <c r="AP134" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ134" s="8"/>
     </row>
@@ -14181,17 +14263,17 @@
         <v>44</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="9" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>54</v>
@@ -14213,7 +14295,7 @@
       <c r="R135" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S135" s="25" t="s">
+      <c r="S135" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T135" s="8"/>
@@ -14221,7 +14303,7 @@
       <c r="V135" s="9"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
@@ -14253,7 +14335,7 @@
       </c>
       <c r="AO135" s="8"/>
       <c r="AP135" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ135" s="8"/>
     </row>
@@ -14268,17 +14350,17 @@
         <v>44</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="9" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>54</v>
@@ -14300,7 +14382,7 @@
       <c r="R136" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S136" s="25" t="s">
+      <c r="S136" s="32" t="s">
         <v>56</v>
       </c>
       <c r="T136" s="8"/>
@@ -14308,7 +14390,7 @@
       <c r="V136" s="9"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -14340,7 +14422,7 @@
       </c>
       <c r="AO136" s="8"/>
       <c r="AP136" s="8" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AQ136" s="8"/>
     </row>
@@ -14358,17 +14440,17 @@
         <v>45</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J137" s="0"/>
       <c r="K137" s="9" t="n">
@@ -14381,7 +14463,7 @@
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
@@ -14389,7 +14471,7 @@
       <c r="V137" s="9"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
@@ -14418,7 +14500,7 @@
         <v>136</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AP137" s="8"/>
       <c r="AQ137" s="8"/>
@@ -14437,14 +14519,14 @@
         <v>45</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="9" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>54</v>
@@ -14456,27 +14538,27 @@
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O138" s="22" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P138" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S138" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
       <c r="V138" s="9"/>
       <c r="W138" s="8"/>
       <c r="X138" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
@@ -14506,7 +14588,7 @@
       </c>
       <c r="AO138" s="8"/>
       <c r="AP138" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ138" s="8"/>
     </row>
@@ -14524,17 +14606,17 @@
         <v>45</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="n">
@@ -14550,16 +14632,16 @@
         <v>55</v>
       </c>
       <c r="S139" s="8" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="9" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -14589,7 +14671,7 @@
       </c>
       <c r="AO139" s="8"/>
       <c r="AP139" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ139" s="8"/>
     </row>
@@ -14607,17 +14689,17 @@
         <v>45</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="n">
@@ -14638,7 +14720,7 @@
       <c r="V140" s="9"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
@@ -14667,10 +14749,10 @@
         <v>139</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AP140" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ140" s="8"/>
     </row>
@@ -14688,17 +14770,17 @@
         <v>45</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="9" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -14723,7 +14805,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="8"/>
       <c r="X141" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
@@ -14743,7 +14825,7 @@
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
       <c r="AJ141" s="9" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
@@ -14755,7 +14837,7 @@
       </c>
       <c r="AO141" s="8"/>
       <c r="AP141" s="8" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AQ141" s="8"/>
     </row>
@@ -14773,17 +14855,17 @@
         <v>45</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="9" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -14808,7 +14890,7 @@
       <c r="V142" s="9"/>
       <c r="W142" s="8"/>
       <c r="X142" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
@@ -14828,7 +14910,7 @@
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
       <c r="AJ142" s="9" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
@@ -14840,7 +14922,7 @@
       </c>
       <c r="AO142" s="8"/>
       <c r="AP142" s="8" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AQ142" s="8"/>
     </row>
@@ -14858,17 +14940,17 @@
         <v>45</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="0"/>
@@ -14879,7 +14961,7 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
@@ -14896,7 +14978,7 @@
         <v>50</v>
       </c>
       <c r="AE143" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF143" s="17" t="n">
         <v>0.09</v>
@@ -14905,7 +14987,7 @@
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
       <c r="AJ143" s="9" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
@@ -14916,7 +14998,7 @@
         <v>142</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AP143" s="8"/>
       <c r="AQ143" s="8"/>
@@ -14935,17 +15017,17 @@
         <v>45</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="9" t="n">
@@ -14956,23 +15038,23 @@
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="8"/>
       <c r="S144" s="9" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="8"/>
       <c r="W144" s="8"/>
       <c r="X144" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
@@ -15002,7 +15084,7 @@
       </c>
       <c r="AO144" s="8"/>
       <c r="AP144" s="8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AQ144" s="8"/>
     </row>
@@ -15020,17 +15102,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="9" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="n">
@@ -15039,23 +15121,23 @@
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
       <c r="N145" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="8"/>
       <c r="W145" s="8"/>
       <c r="X145" s="9" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
@@ -15085,7 +15167,7 @@
       </c>
       <c r="AO145" s="8"/>
       <c r="AP145" s="8" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AQ145" s="8"/>
     </row>
@@ -15103,17 +15185,17 @@
         <v>45</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="9" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="n">
@@ -15127,16 +15209,16 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="8"/>
       <c r="S146" s="1" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
       <c r="V146" s="9" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="W146" s="8"/>
       <c r="X146" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
@@ -15155,10 +15237,10 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ146" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
@@ -15169,8 +15251,8 @@
         <v>145</v>
       </c>
       <c r="AO146" s="8"/>
-      <c r="AP146" s="29" t="s">
-        <v>433</v>
+      <c r="AP146" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ146" s="8"/>
     </row>
@@ -15188,17 +15270,17 @@
         <v>45</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="9" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J147" s="0"/>
       <c r="K147" s="2"/>
@@ -15209,7 +15291,7 @@
         <v>26</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
@@ -15221,7 +15303,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -15232,7 +15314,7 @@
         <v>50</v>
       </c>
       <c r="AE147" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF147" s="17" t="n">
         <v>0.0225</v>
@@ -15240,10 +15322,10 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="12" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ147" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
@@ -15254,8 +15336,8 @@
         <v>146</v>
       </c>
       <c r="AO147" s="8"/>
-      <c r="AP147" s="29" t="s">
-        <v>433</v>
+      <c r="AP147" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ147" s="8"/>
     </row>
@@ -15273,17 +15355,17 @@
         <v>45</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="9" t="n">
@@ -15292,11 +15374,11 @@
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
-      <c r="O148" s="26"/>
+      <c r="O148" s="34"/>
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
       <c r="R148" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="S148" s="8"/>
       <c r="T148" s="8"/>
@@ -15304,7 +15386,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -15315,22 +15397,22 @@
         <v>50</v>
       </c>
       <c r="AE148" s="9" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="AF148" s="17" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AG148" s="30" t="n">
+      <c r="AG148" s="38" t="n">
         <v>0.6</v>
       </c>
       <c r="AH148" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AI148" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ148" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
@@ -15341,10 +15423,10 @@
         <v>147</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="AP148" s="29" t="s">
-        <v>433</v>
+        <v>449</v>
+      </c>
+      <c r="AP148" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ148" s="8"/>
     </row>
@@ -15362,14 +15444,14 @@
         <v>45</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="9" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>54</v>
@@ -15399,7 +15481,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -15418,10 +15500,10 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ149" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
@@ -15433,7 +15515,7 @@
       </c>
       <c r="AO149" s="8"/>
       <c r="AP149" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ149" s="8"/>
     </row>
@@ -15451,14 +15533,14 @@
         <v>45</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="9" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>54</v>
@@ -15488,7 +15570,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="8"/>
       <c r="X150" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -15507,10 +15589,10 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
@@ -15522,7 +15604,7 @@
       </c>
       <c r="AO150" s="8"/>
       <c r="AP150" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ150" s="8"/>
     </row>
@@ -15540,14 +15622,14 @@
         <v>45</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="9" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>54</v>
@@ -15577,7 +15659,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -15596,10 +15678,10 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ151" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
@@ -15611,7 +15693,7 @@
       </c>
       <c r="AO151" s="8"/>
       <c r="AP151" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ151" s="8"/>
     </row>
@@ -15629,14 +15711,14 @@
         <v>45</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="9" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>54</v>
@@ -15666,7 +15748,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -15685,10 +15767,10 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ152" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
@@ -15700,7 +15782,7 @@
       </c>
       <c r="AO152" s="8"/>
       <c r="AP152" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ152" s="8"/>
     </row>
@@ -15718,14 +15800,14 @@
         <v>45</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="9" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>54</v>
@@ -15755,7 +15837,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -15774,10 +15856,10 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ153" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
@@ -15789,7 +15871,7 @@
       </c>
       <c r="AO153" s="8"/>
       <c r="AP153" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ153" s="8"/>
     </row>
@@ -15807,14 +15889,14 @@
         <v>45</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="9" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>54</v>
@@ -15844,7 +15926,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
@@ -15863,10 +15945,10 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ154" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
@@ -15878,7 +15960,7 @@
       </c>
       <c r="AO154" s="8"/>
       <c r="AP154" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ154" s="8"/>
     </row>
@@ -15896,14 +15978,14 @@
         <v>45</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="9" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>54</v>
@@ -15933,7 +16015,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -15952,10 +16034,10 @@
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -15967,7 +16049,7 @@
       </c>
       <c r="AO155" s="8"/>
       <c r="AP155" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ155" s="8"/>
     </row>
@@ -15985,14 +16067,14 @@
         <v>45</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="9" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>54</v>
@@ -16022,7 +16104,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
@@ -16041,10 +16123,10 @@
       <c r="AG156" s="9"/>
       <c r="AH156" s="9"/>
       <c r="AI156" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ156" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9"/>
@@ -16056,7 +16138,7 @@
       </c>
       <c r="AO156" s="8"/>
       <c r="AP156" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ156" s="8"/>
     </row>
@@ -16074,14 +16156,14 @@
         <v>45</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="9" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>54</v>
@@ -16111,7 +16193,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
@@ -16130,10 +16212,10 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ157" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9"/>
@@ -16145,7 +16227,7 @@
       </c>
       <c r="AO157" s="8"/>
       <c r="AP157" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ157" s="8"/>
     </row>
@@ -16163,14 +16245,14 @@
         <v>45</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="9" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>54</v>
@@ -16200,7 +16282,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -16219,10 +16301,10 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ158" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9"/>
@@ -16234,7 +16316,7 @@
       </c>
       <c r="AO158" s="8"/>
       <c r="AP158" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ158" s="8"/>
     </row>
@@ -16252,14 +16334,14 @@
         <v>45</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="9" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>54</v>
@@ -16271,10 +16353,10 @@
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
@@ -16289,7 +16371,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -16308,10 +16390,10 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ159" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9"/>
@@ -16323,7 +16405,7 @@
       </c>
       <c r="AO159" s="8"/>
       <c r="AP159" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ159" s="8"/>
     </row>
@@ -16341,14 +16423,14 @@
         <v>45</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="9" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>54</v>
@@ -16360,10 +16442,10 @@
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
@@ -16378,7 +16460,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -16397,10 +16479,10 @@
       <c r="AG160" s="9"/>
       <c r="AH160" s="9"/>
       <c r="AI160" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ160" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9"/>
@@ -16412,7 +16494,7 @@
       </c>
       <c r="AO160" s="8"/>
       <c r="AP160" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ160" s="8"/>
     </row>
@@ -16430,14 +16512,14 @@
         <v>45</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="9" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>54</v>
@@ -16467,7 +16549,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -16486,10 +16568,10 @@
       <c r="AG161" s="9"/>
       <c r="AH161" s="9"/>
       <c r="AI161" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ161" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK161" s="9"/>
       <c r="AL161" s="9"/>
@@ -16501,7 +16583,7 @@
       </c>
       <c r="AO161" s="8"/>
       <c r="AP161" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ161" s="8"/>
     </row>
@@ -16519,14 +16601,14 @@
         <v>45</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="9" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>54</v>
@@ -16556,7 +16638,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="8"/>
       <c r="X162" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
@@ -16575,10 +16657,10 @@
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ162" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK162" s="9"/>
       <c r="AL162" s="9"/>
@@ -16590,7 +16672,7 @@
       </c>
       <c r="AO162" s="8"/>
       <c r="AP162" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ162" s="8"/>
     </row>
@@ -16608,14 +16690,14 @@
         <v>45</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="9" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>54</v>
@@ -16645,7 +16727,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="8"/>
       <c r="X163" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
@@ -16664,10 +16746,10 @@
       <c r="AG163" s="9"/>
       <c r="AH163" s="9"/>
       <c r="AI163" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ163" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK163" s="9"/>
       <c r="AL163" s="9"/>
@@ -16679,7 +16761,7 @@
       </c>
       <c r="AO163" s="8"/>
       <c r="AP163" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ163" s="8"/>
     </row>
@@ -16697,14 +16779,14 @@
         <v>45</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="9" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>54</v>
@@ -16734,7 +16816,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="8"/>
       <c r="X164" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
@@ -16753,10 +16835,10 @@
       <c r="AG164" s="9"/>
       <c r="AH164" s="9"/>
       <c r="AI164" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ164" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK164" s="9"/>
       <c r="AL164" s="9"/>
@@ -16768,7 +16850,7 @@
       </c>
       <c r="AO164" s="8"/>
       <c r="AP164" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AQ164" s="8"/>
     </row>
@@ -16786,40 +16868,40 @@
         <v>45</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="9" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="8"/>
       <c r="S165" s="8" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
       <c r="W165" s="8"/>
       <c r="X165" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="8"/>
@@ -16830,7 +16912,7 @@
         <v>50</v>
       </c>
       <c r="AE165" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF165" s="17" t="n">
         <v>0.0225</v>
@@ -16838,10 +16920,10 @@
       <c r="AG165" s="9"/>
       <c r="AH165" s="9"/>
       <c r="AI165" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AJ165" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AK165" s="9"/>
       <c r="AL165" s="9"/>
@@ -16852,8 +16934,8 @@
         <v>164</v>
       </c>
       <c r="AO165" s="8"/>
-      <c r="AP165" s="29" t="s">
-        <v>433</v>
+      <c r="AP165" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="AQ165" s="8"/>
     </row>
@@ -16868,20 +16950,20 @@
         <v>44</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E166" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F166" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F166" s="39"/>
       <c r="G166" s="9" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
@@ -16902,7 +16984,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="9" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -16913,7 +16995,7 @@
         <v>50</v>
       </c>
       <c r="AE166" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF166" s="17" t="n">
         <v>0.02</v>
@@ -16930,11 +17012,11 @@
       <c r="AN166" s="13" t="n">
         <v>165</v>
       </c>
-      <c r="AO166" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="AP166" s="29" t="s">
-        <v>483</v>
+      <c r="AO166" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP166" s="37" t="s">
+        <v>492</v>
       </c>
       <c r="AQ166" s="8"/>
     </row>
@@ -16949,20 +17031,20 @@
         <v>44</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F167" s="31"/>
+        <v>256</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F167" s="39"/>
       <c r="G167" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="J167" s="0"/>
       <c r="K167" s="1" t="n">
@@ -16973,10 +17055,10 @@
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="9" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
@@ -16984,14 +17066,14 @@
         <v>55</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
       <c r="X167" s="9" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17002,7 +17084,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="9" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="AF167" s="17" t="n">
         <v>1</v>
@@ -17011,7 +17093,7 @@
       <c r="AH167" s="9"/>
       <c r="AI167" s="9"/>
       <c r="AJ167" s="9" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AK167" s="9"/>
       <c r="AL167" s="9"/>
@@ -17023,7 +17105,7 @@
       </c>
       <c r="AO167" s="8"/>
       <c r="AP167" s="12" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AQ167" s="8"/>
     </row>
@@ -17038,20 +17120,20 @@
         <v>44</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9" t="n">
@@ -17081,7 +17163,7 @@
         <v>50</v>
       </c>
       <c r="AE168" s="9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF168" s="17" t="n">
         <v>0.03</v>
@@ -17099,10 +17181,10 @@
         <v>167</v>
       </c>
       <c r="AO168" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AP168" s="32" t="s">
-        <v>492</v>
+        <v>500</v>
+      </c>
+      <c r="AP168" s="40" t="s">
+        <v>501</v>
       </c>
       <c r="AQ168" s="8"/>
     </row>
@@ -17117,20 +17199,20 @@
         <v>44</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="9" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="9" t="n">
@@ -17146,15 +17228,15 @@
         <v>55</v>
       </c>
       <c r="S169" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
       <c r="V169" s="9"/>
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
-      <c r="Y169" s="33" t="s">
-        <v>495</v>
+      <c r="Y169" s="41" t="s">
+        <v>504</v>
       </c>
       <c r="Z169" s="9"/>
       <c r="AA169" s="8"/>
@@ -17183,7 +17265,7 @@
       </c>
       <c r="AO169" s="9"/>
       <c r="AP169" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ169" s="8"/>
     </row>
@@ -17198,20 +17280,20 @@
         <v>44</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="9" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="9" t="n">
@@ -17227,7 +17309,7 @@
         <v>55</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
@@ -17235,7 +17317,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="8"/>
@@ -17264,7 +17346,7 @@
       </c>
       <c r="AO170" s="9"/>
       <c r="AP170" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ170" s="8"/>
     </row>
@@ -17279,20 +17361,20 @@
         <v>44</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="9" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="9" t="n">
@@ -17308,7 +17390,7 @@
         <v>55</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
@@ -17316,7 +17398,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="9" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="Z171" s="9"/>
       <c r="AA171" s="8"/>
@@ -17345,7 +17427,7 @@
       </c>
       <c r="AO171" s="9"/>
       <c r="AP171" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ171" s="8"/>
     </row>
@@ -17360,20 +17442,20 @@
         <v>44</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="9" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="9" t="n">
@@ -17389,7 +17471,7 @@
         <v>55</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
@@ -17397,7 +17479,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="9" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="Z172" s="9"/>
       <c r="AA172" s="8"/>
@@ -17426,7 +17508,7 @@
       </c>
       <c r="AO172" s="9"/>
       <c r="AP172" s="9" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AQ172" s="8"/>
     </row>
@@ -17440,24 +17522,24 @@
       <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="F173" s="25" t="s">
-        <v>507</v>
+      <c r="D173" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>516</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="8" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -17468,7 +17550,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -17482,7 +17564,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="35" t="n">
+      <c r="AF173" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG173" s="8"/>
@@ -17496,7 +17578,7 @@
         <v>172</v>
       </c>
       <c r="AO173" s="9" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
@@ -17511,24 +17593,24 @@
       <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E174" s="29" t="s">
-        <v>512</v>
-      </c>
-      <c r="F174" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="G174" s="32" t="s">
-        <v>492</v>
+      <c r="D174" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E174" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F174" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G174" s="40" t="s">
+        <v>501</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -17539,7 +17621,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -17553,7 +17635,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="36" t="n">
+      <c r="AF174" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG174" s="8"/>
@@ -17582,24 +17664,24 @@
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E175" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="F175" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="G175" s="29" t="s">
-        <v>433</v>
+      <c r="D175" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="F175" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -17610,7 +17692,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -17624,7 +17706,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="35" t="n">
+      <c r="AF175" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG175" s="8"/>
@@ -17638,7 +17720,7 @@
         <v>174</v>
       </c>
       <c r="AO175" s="9" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
@@ -17653,24 +17735,24 @@
       <c r="C176" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="F176" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="G176" s="29" t="s">
-        <v>483</v>
+      <c r="D176" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="G176" s="37" t="s">
+        <v>492</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -17681,7 +17763,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -17695,7 +17777,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
-      <c r="AF176" s="35" t="n">
+      <c r="AF176" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG176" s="8"/>
@@ -17724,24 +17806,24 @@
       <c r="C177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="F177" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="G177" s="29" t="s">
-        <v>524</v>
+      <c r="D177" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="F177" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="G177" s="37" t="s">
+        <v>533</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="9" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -17752,7 +17834,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17766,7 +17848,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AE177" s="8"/>
-      <c r="AF177" s="35" t="n">
+      <c r="AF177" s="43" t="n">
         <v>0</v>
       </c>
       <c r="AG177" s="8"/>
@@ -17780,7 +17862,7 @@
         <v>176</v>
       </c>
       <c r="AO177" s="9" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
@@ -17795,37 +17877,37 @@
       <c r="C178" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E178" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="F178" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="G178" s="29" t="s">
-        <v>528</v>
+      <c r="D178" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="F178" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="G178" s="37" t="s">
+        <v>537</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="9" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="8" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17833,7 +17915,7 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="9" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
@@ -17868,24 +17950,24 @@
       <c r="C179" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E179" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F179" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="G179" s="29" t="s">
-        <v>535</v>
+      <c r="D179" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E179" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="F179" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="G179" s="37" t="s">
+        <v>544</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="9" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -17898,7 +17980,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
@@ -17906,7 +17988,7 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
@@ -17941,37 +18023,37 @@
       <c r="C180" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E180" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="G180" s="29" t="s">
-        <v>541</v>
+      <c r="D180" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E180" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="F180" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="G180" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="9" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="8" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
@@ -17979,7 +18061,7 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -18014,39 +18096,39 @@
       <c r="C181" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E181" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F181" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>545</v>
+      <c r="D181" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E181" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F181" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G181" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I181" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J181" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J181" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
       <c r="O181" s="9" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
@@ -18054,7 +18136,7 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="9" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
@@ -18091,39 +18173,39 @@
       <c r="C182" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E182" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F182" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G182" s="29" t="s">
-        <v>545</v>
+      <c r="D182" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F182" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G182" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="I182" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J182" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J182" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -18131,7 +18213,7 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="9" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -18168,39 +18250,39 @@
       <c r="C183" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E183" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F183" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G183" s="29" t="s">
-        <v>545</v>
+      <c r="D183" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E183" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F183" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G183" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="I183" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J183" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J183" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
       <c r="O183" s="9" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
@@ -18208,7 +18290,7 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="9" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
@@ -18245,39 +18327,39 @@
       <c r="C184" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="F184" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="G184" s="29" t="s">
-        <v>545</v>
+      <c r="D184" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E184" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="F184" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="G184" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="I184" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J184" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="J184" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
       <c r="O184" s="9" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
@@ -18285,7 +18367,7 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="9" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
@@ -18314,8 +18396,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ172"/>
-  <conditionalFormatting sqref="H98:H102">
+  <conditionalFormatting sqref="H98:H100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H102">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18342,15 +18429,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>495</v>
+      <c r="A1" s="45" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>432</v>
+      <c r="A2" s="46" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -18376,38 +18466,41 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="39" t="s">
-        <v>418</v>
+      <c r="B1" s="47" t="s">
+        <v>427</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>477</v>
+        <v>566</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>486</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="39"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18415,19 +18508,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="40" t="n">
+      <c r="E2" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="41" t="n">
+      <c r="J2" s="49" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="39"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18435,19 +18528,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="50" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="43" t="n">
+      <c r="J3" s="51" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="39"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18455,28 +18548,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="50" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="44" t="n">
+      <c r="F4" s="52" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="41" t="n">
+      <c r="J4" s="49" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="45" t="n">
+      <c r="K4" s="53" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18505,51 +18598,54 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="G1" s="55" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="L1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="48" t="s">
-        <v>563</v>
+      <c r="B4" s="56" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -54,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -826,7 +827,7 @@
     <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Berry Smoothie – 0.11L</t>
+    <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
@@ -2481,7 +2482,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2559,18 +2559,18 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
+      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="15.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18430,7 +18430,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,7 +18467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18599,7 +18599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,6 +55,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2558,19 +2559,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="AG149" activeCellId="0" sqref="AG149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="54.7004048582996"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="15.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15403,7 +15404,7 @@
         <v>0.0225</v>
       </c>
       <c r="AG148" s="38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AH148" s="9" t="n">
         <v>1</v>
@@ -18430,7 +18431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,7 +18468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18599,7 +18600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Big" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,6 +56,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="577">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1324,6 +1325,12 @@
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L, Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434877, 4607042430619</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
   </si>
   <si>
@@ -1331,6 +1338,12 @@
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L, Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434891, 4607042430565</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
@@ -2009,7 +2022,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2092,6 +2105,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2121,7 +2141,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2132,6 +2152,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2198,7 +2224,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2227,8 +2253,11 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2321,27 +2350,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2349,7 +2378,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2361,7 +2390,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2377,6 +2406,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2385,7 +2422,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2409,11 +2446,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2421,19 +2458,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2445,20 +2482,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -2466,6 +2503,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2496,7 +2534,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2521,7 +2559,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -2559,19 +2597,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="AG149" activeCellId="0" sqref="AG149"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L147" activeCellId="0" sqref="L147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="54.7004048582996"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="57.2712550607288"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="16.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13850,11 +13888,11 @@
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
-      <c r="N130" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O130" s="16" t="n">
-        <v>4607042434877</v>
+      <c r="N130" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="O130" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
@@ -13891,7 +13929,7 @@
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
       <c r="AJ130" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
@@ -13925,10 +13963,10 @@
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>339</v>
@@ -13937,11 +13975,11 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O131" s="16" t="n">
-        <v>4607042434891</v>
+      <c r="N131" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="O131" s="38" t="s">
+        <v>392</v>
       </c>
       <c r="P131" s="16"/>
       <c r="Q131" s="16"/>
@@ -13978,7 +14016,7 @@
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
       <c r="AJ131" s="9" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
@@ -14012,10 +14050,10 @@
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>327</v>
@@ -14063,7 +14101,7 @@
         <v>371</v>
       </c>
       <c r="AJ132" s="9" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
@@ -14074,7 +14112,7 @@
         <v>131</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
@@ -14097,10 +14135,10 @@
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>54</v>
@@ -14111,11 +14149,11 @@
       </c>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
-      <c r="N133" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O133" s="16" t="n">
-        <v>4607042434877</v>
+      <c r="N133" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="O133" s="38" t="s">
+        <v>387</v>
       </c>
       <c r="P133" s="16"/>
       <c r="Q133" s="16"/>
@@ -14162,7 +14200,7 @@
       </c>
       <c r="AO133" s="8"/>
       <c r="AP133" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ133" s="8"/>
     </row>
@@ -14184,10 +14222,10 @@
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>54</v>
@@ -14198,11 +14236,11 @@
       </c>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
-      <c r="N134" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O134" s="16" t="n">
-        <v>4607042434891</v>
+      <c r="N134" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="O134" s="38" t="s">
+        <v>392</v>
       </c>
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
@@ -14249,7 +14287,7 @@
       </c>
       <c r="AO134" s="8"/>
       <c r="AP134" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ134" s="8"/>
     </row>
@@ -14271,10 +14309,10 @@
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>54</v>
@@ -14336,7 +14374,7 @@
       </c>
       <c r="AO135" s="8"/>
       <c r="AP135" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ135" s="8"/>
     </row>
@@ -14358,10 +14396,10 @@
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="9" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>54</v>
@@ -14423,7 +14461,7 @@
       </c>
       <c r="AO136" s="8"/>
       <c r="AP136" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AQ136" s="8"/>
     </row>
@@ -14445,10 +14483,10 @@
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>327</v>
@@ -14472,7 +14510,7 @@
       <c r="V137" s="9"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
@@ -14501,7 +14539,7 @@
         <v>136</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AP137" s="8"/>
       <c r="AQ137" s="8"/>
@@ -14524,10 +14562,10 @@
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>54</v>
@@ -14559,7 +14597,7 @@
       <c r="V138" s="9"/>
       <c r="W138" s="8"/>
       <c r="X138" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
@@ -14589,7 +14627,7 @@
       </c>
       <c r="AO138" s="8"/>
       <c r="AP138" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AQ138" s="8"/>
     </row>
@@ -14611,10 +14649,10 @@
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I139" s="9" t="s">
         <v>334</v>
@@ -14638,11 +14676,11 @@
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -14672,7 +14710,7 @@
       </c>
       <c r="AO139" s="8"/>
       <c r="AP139" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AQ139" s="8"/>
     </row>
@@ -14694,10 +14732,10 @@
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I140" s="9" t="s">
         <v>382</v>
@@ -14721,7 +14759,7 @@
       <c r="V140" s="9"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
@@ -14750,10 +14788,10 @@
         <v>139</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AP140" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AQ140" s="8"/>
     </row>
@@ -14775,10 +14813,10 @@
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I141" s="9" t="s">
         <v>339</v>
@@ -14806,7 +14844,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="8"/>
       <c r="X141" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
@@ -14826,7 +14864,7 @@
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
       <c r="AJ141" s="9" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
@@ -14838,7 +14876,7 @@
       </c>
       <c r="AO141" s="8"/>
       <c r="AP141" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AQ141" s="8"/>
     </row>
@@ -14860,10 +14898,10 @@
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="9" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I142" s="9" t="s">
         <v>339</v>
@@ -14891,7 +14929,7 @@
       <c r="V142" s="9"/>
       <c r="W142" s="8"/>
       <c r="X142" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
@@ -14911,7 +14949,7 @@
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
       <c r="AJ142" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
@@ -14923,7 +14961,7 @@
       </c>
       <c r="AO142" s="8"/>
       <c r="AP142" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AQ142" s="8"/>
     </row>
@@ -14941,17 +14979,17 @@
         <v>45</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="0"/>
@@ -14962,7 +15000,7 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
@@ -14988,7 +15026,7 @@
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
       <c r="AJ143" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
@@ -14999,7 +15037,7 @@
         <v>142</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AP143" s="8"/>
       <c r="AQ143" s="8"/>
@@ -15018,44 +15056,44 @@
         <v>45</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="L144" s="9" t="n">
-        <v>28</v>
+      <c r="L144" s="38" t="n">
+        <v>24</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9" t="s">
         <v>251</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="8"/>
       <c r="S144" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="8"/>
       <c r="W144" s="8"/>
       <c r="X144" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
@@ -15085,7 +15123,7 @@
       </c>
       <c r="AO144" s="8"/>
       <c r="AP144" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AQ144" s="8"/>
     </row>
@@ -15103,17 +15141,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="n">
@@ -15125,20 +15163,20 @@
         <v>251</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="8"/>
       <c r="W145" s="8"/>
       <c r="X145" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
@@ -15168,7 +15206,7 @@
       </c>
       <c r="AO145" s="8"/>
       <c r="AP145" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AQ145" s="8"/>
     </row>
@@ -15190,10 +15228,10 @@
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="I146" s="12" t="s">
         <v>334</v>
@@ -15210,16 +15248,16 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="8"/>
       <c r="S146" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
       <c r="V146" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W146" s="8"/>
       <c r="X146" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
@@ -15238,10 +15276,10 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ146" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
@@ -15252,8 +15290,8 @@
         <v>145</v>
       </c>
       <c r="AO146" s="8"/>
-      <c r="AP146" s="37" t="s">
-        <v>442</v>
+      <c r="AP146" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ146" s="8"/>
     </row>
@@ -15275,13 +15313,13 @@
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J147" s="0"/>
       <c r="K147" s="2"/>
@@ -15304,7 +15342,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -15323,10 +15361,10 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="12" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ147" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
@@ -15337,8 +15375,8 @@
         <v>146</v>
       </c>
       <c r="AO147" s="8"/>
-      <c r="AP147" s="37" t="s">
-        <v>442</v>
+      <c r="AP147" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ147" s="8"/>
     </row>
@@ -15360,10 +15398,10 @@
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I148" s="12" t="s">
         <v>260</v>
@@ -15387,7 +15425,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -15398,22 +15436,22 @@
         <v>50</v>
       </c>
       <c r="AE148" s="9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AF148" s="17" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AG148" s="38" t="n">
+      <c r="AG148" s="40" t="n">
         <v>0.5</v>
       </c>
       <c r="AH148" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AI148" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ148" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
@@ -15424,10 +15462,10 @@
         <v>147</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP148" s="37" t="s">
-        <v>442</v>
+        <v>453</v>
+      </c>
+      <c r="AP148" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ148" s="8"/>
     </row>
@@ -15449,10 +15487,10 @@
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>54</v>
@@ -15482,7 +15520,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -15501,10 +15539,10 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ149" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
@@ -15516,7 +15554,7 @@
       </c>
       <c r="AO149" s="8"/>
       <c r="AP149" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ149" s="8"/>
     </row>
@@ -15538,10 +15576,10 @@
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="9" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>54</v>
@@ -15571,7 +15609,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="8"/>
       <c r="X150" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -15590,10 +15628,10 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
@@ -15605,7 +15643,7 @@
       </c>
       <c r="AO150" s="8"/>
       <c r="AP150" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ150" s="8"/>
     </row>
@@ -15627,10 +15665,10 @@
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>54</v>
@@ -15660,7 +15698,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -15679,10 +15717,10 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ151" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
@@ -15694,7 +15732,7 @@
       </c>
       <c r="AO151" s="8"/>
       <c r="AP151" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ151" s="8"/>
     </row>
@@ -15716,10 +15754,10 @@
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="9" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>54</v>
@@ -15749,7 +15787,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -15768,10 +15806,10 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ152" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
@@ -15783,7 +15821,7 @@
       </c>
       <c r="AO152" s="8"/>
       <c r="AP152" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ152" s="8"/>
     </row>
@@ -15805,10 +15843,10 @@
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>54</v>
@@ -15838,7 +15876,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -15857,10 +15895,10 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ153" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
@@ -15872,7 +15910,7 @@
       </c>
       <c r="AO153" s="8"/>
       <c r="AP153" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ153" s="8"/>
     </row>
@@ -15894,10 +15932,10 @@
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>54</v>
@@ -15927,7 +15965,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
@@ -15946,10 +15984,10 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ154" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
@@ -15961,7 +15999,7 @@
       </c>
       <c r="AO154" s="8"/>
       <c r="AP154" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ154" s="8"/>
     </row>
@@ -15983,10 +16021,10 @@
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="9" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>54</v>
@@ -16016,7 +16054,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -16035,10 +16073,10 @@
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -16050,7 +16088,7 @@
       </c>
       <c r="AO155" s="8"/>
       <c r="AP155" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ155" s="8"/>
     </row>
@@ -16072,10 +16110,10 @@
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>54</v>
@@ -16105,7 +16143,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
@@ -16124,10 +16162,10 @@
       <c r="AG156" s="9"/>
       <c r="AH156" s="9"/>
       <c r="AI156" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ156" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9"/>
@@ -16139,7 +16177,7 @@
       </c>
       <c r="AO156" s="8"/>
       <c r="AP156" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ156" s="8"/>
     </row>
@@ -16161,10 +16199,10 @@
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>54</v>
@@ -16194,7 +16232,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
@@ -16213,10 +16251,10 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ157" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9"/>
@@ -16228,7 +16266,7 @@
       </c>
       <c r="AO157" s="8"/>
       <c r="AP157" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ157" s="8"/>
     </row>
@@ -16250,10 +16288,10 @@
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>54</v>
@@ -16283,7 +16321,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -16302,10 +16340,10 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ158" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9"/>
@@ -16317,7 +16355,7 @@
       </c>
       <c r="AO158" s="8"/>
       <c r="AP158" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ158" s="8"/>
     </row>
@@ -16339,10 +16377,10 @@
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>54</v>
@@ -16354,10 +16392,10 @@
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
@@ -16372,7 +16410,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -16391,10 +16429,10 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ159" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9"/>
@@ -16406,7 +16444,7 @@
       </c>
       <c r="AO159" s="8"/>
       <c r="AP159" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ159" s="8"/>
     </row>
@@ -16428,10 +16466,10 @@
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>54</v>
@@ -16443,10 +16481,10 @@
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
@@ -16461,7 +16499,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -16480,10 +16518,10 @@
       <c r="AG160" s="9"/>
       <c r="AH160" s="9"/>
       <c r="AI160" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ160" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9"/>
@@ -16495,7 +16533,7 @@
       </c>
       <c r="AO160" s="8"/>
       <c r="AP160" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ160" s="8"/>
     </row>
@@ -16517,10 +16555,10 @@
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>54</v>
@@ -16550,7 +16588,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -16569,10 +16607,10 @@
       <c r="AG161" s="9"/>
       <c r="AH161" s="9"/>
       <c r="AI161" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ161" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK161" s="9"/>
       <c r="AL161" s="9"/>
@@ -16584,7 +16622,7 @@
       </c>
       <c r="AO161" s="8"/>
       <c r="AP161" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ161" s="8"/>
     </row>
@@ -16606,10 +16644,10 @@
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>54</v>
@@ -16639,7 +16677,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="8"/>
       <c r="X162" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
@@ -16658,10 +16696,10 @@
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ162" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK162" s="9"/>
       <c r="AL162" s="9"/>
@@ -16673,7 +16711,7 @@
       </c>
       <c r="AO162" s="8"/>
       <c r="AP162" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ162" s="8"/>
     </row>
@@ -16695,10 +16733,10 @@
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>54</v>
@@ -16728,7 +16766,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="8"/>
       <c r="X163" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
@@ -16747,10 +16785,10 @@
       <c r="AG163" s="9"/>
       <c r="AH163" s="9"/>
       <c r="AI163" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ163" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK163" s="9"/>
       <c r="AL163" s="9"/>
@@ -16762,7 +16800,7 @@
       </c>
       <c r="AO163" s="8"/>
       <c r="AP163" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ163" s="8"/>
     </row>
@@ -16784,10 +16822,10 @@
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>54</v>
@@ -16817,7 +16855,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="8"/>
       <c r="X164" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
@@ -16836,10 +16874,10 @@
       <c r="AG164" s="9"/>
       <c r="AH164" s="9"/>
       <c r="AI164" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ164" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK164" s="9"/>
       <c r="AL164" s="9"/>
@@ -16851,7 +16889,7 @@
       </c>
       <c r="AO164" s="8"/>
       <c r="AP164" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ164" s="8"/>
     </row>
@@ -16873,13 +16911,13 @@
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="9"/>
@@ -16889,20 +16927,20 @@
         <v>251</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="8"/>
       <c r="S165" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
       <c r="W165" s="8"/>
       <c r="X165" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="8"/>
@@ -16921,10 +16959,10 @@
       <c r="AG165" s="9"/>
       <c r="AH165" s="9"/>
       <c r="AI165" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AJ165" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK165" s="9"/>
       <c r="AL165" s="9"/>
@@ -16935,8 +16973,8 @@
         <v>164</v>
       </c>
       <c r="AO165" s="8"/>
-      <c r="AP165" s="37" t="s">
-        <v>442</v>
+      <c r="AP165" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="AQ165" s="8"/>
     </row>
@@ -16953,18 +16991,18 @@
       <c r="D166" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E166" s="39" t="s">
+      <c r="E166" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F166" s="39"/>
+      <c r="F166" s="41"/>
       <c r="G166" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
@@ -16985,7 +17023,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -17014,10 +17052,10 @@
         <v>165</v>
       </c>
       <c r="AO166" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="AP166" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
+      </c>
+      <c r="AP166" s="39" t="s">
+        <v>496</v>
       </c>
       <c r="AQ166" s="8"/>
     </row>
@@ -17034,18 +17072,18 @@
       <c r="D167" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E167" s="39" t="s">
+      <c r="E167" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F167" s="39"/>
+      <c r="F167" s="41"/>
       <c r="G167" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="J167" s="0"/>
       <c r="K167" s="1" t="n">
@@ -17059,7 +17097,7 @@
         <v>251</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
@@ -17067,14 +17105,14 @@
         <v>55</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
       <c r="X167" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17085,7 +17123,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AF167" s="17" t="n">
         <v>1</v>
@@ -17094,7 +17132,7 @@
       <c r="AH167" s="9"/>
       <c r="AI167" s="9"/>
       <c r="AJ167" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK167" s="9"/>
       <c r="AL167" s="9"/>
@@ -17106,7 +17144,7 @@
       </c>
       <c r="AO167" s="8"/>
       <c r="AP167" s="12" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AQ167" s="8"/>
     </row>
@@ -17128,10 +17166,10 @@
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>260</v>
@@ -17182,10 +17220,10 @@
         <v>167</v>
       </c>
       <c r="AO168" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="AP168" s="40" t="s">
-        <v>501</v>
+        <v>504</v>
+      </c>
+      <c r="AP168" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="AQ168" s="8"/>
     </row>
@@ -17207,10 +17245,10 @@
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>334</v>
@@ -17236,8 +17274,8 @@
       <c r="V169" s="9"/>
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
-      <c r="Y169" s="41" t="s">
-        <v>504</v>
+      <c r="Y169" s="43" t="s">
+        <v>508</v>
       </c>
       <c r="Z169" s="9"/>
       <c r="AA169" s="8"/>
@@ -17266,7 +17304,7 @@
       </c>
       <c r="AO169" s="9"/>
       <c r="AP169" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ169" s="8"/>
     </row>
@@ -17288,10 +17326,10 @@
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="9" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>334</v>
@@ -17318,7 +17356,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="8"/>
@@ -17347,7 +17385,7 @@
       </c>
       <c r="AO170" s="9"/>
       <c r="AP170" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ170" s="8"/>
     </row>
@@ -17369,10 +17407,10 @@
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>334</v>
@@ -17399,7 +17437,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Z171" s="9"/>
       <c r="AA171" s="8"/>
@@ -17428,7 +17466,7 @@
       </c>
       <c r="AO171" s="9"/>
       <c r="AP171" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ171" s="8"/>
     </row>
@@ -17450,10 +17488,10 @@
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>334</v>
@@ -17480,7 +17518,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="9" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Z172" s="9"/>
       <c r="AA172" s="8"/>
@@ -17509,7 +17547,7 @@
       </c>
       <c r="AO172" s="9"/>
       <c r="AP172" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ172" s="8"/>
     </row>
@@ -17523,24 +17561,24 @@
       <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="42" t="s">
-        <v>514</v>
+      <c r="D173" s="44" t="s">
+        <v>518</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>264</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="8" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -17551,7 +17589,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -17565,7 +17603,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="43" t="n">
+      <c r="AF173" s="45" t="n">
         <v>0</v>
       </c>
       <c r="AG173" s="8"/>
@@ -17579,7 +17617,7 @@
         <v>172</v>
       </c>
       <c r="AO173" s="9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
@@ -17594,24 +17632,24 @@
       <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E174" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="F174" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="G174" s="40" t="s">
-        <v>501</v>
+      <c r="D174" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="F174" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="G174" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -17622,7 +17660,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -17636,7 +17674,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="44" t="n">
+      <c r="AF174" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG174" s="8"/>
@@ -17665,24 +17703,24 @@
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>524</v>
-      </c>
-      <c r="F175" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="G175" s="37" t="s">
-        <v>442</v>
+      <c r="D175" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E175" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="F175" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="G175" s="39" t="s">
+        <v>446</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -17693,7 +17731,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -17707,7 +17745,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="43" t="n">
+      <c r="AF175" s="45" t="n">
         <v>0</v>
       </c>
       <c r="AG175" s="8"/>
@@ -17721,7 +17759,7 @@
         <v>174</v>
       </c>
       <c r="AO175" s="9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
@@ -17736,24 +17774,24 @@
       <c r="C176" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="F176" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="G176" s="37" t="s">
-        <v>492</v>
+      <c r="D176" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="F176" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="G176" s="39" t="s">
+        <v>496</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -17764,7 +17802,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -17778,7 +17816,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
-      <c r="AF176" s="43" t="n">
+      <c r="AF176" s="45" t="n">
         <v>0</v>
       </c>
       <c r="AG176" s="8"/>
@@ -17807,24 +17845,24 @@
       <c r="C177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E177" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="F177" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="G177" s="37" t="s">
-        <v>533</v>
+      <c r="D177" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E177" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="F177" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="G177" s="39" t="s">
+        <v>537</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -17835,7 +17873,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17849,7 +17887,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AE177" s="8"/>
-      <c r="AF177" s="43" t="n">
+      <c r="AF177" s="45" t="n">
         <v>0</v>
       </c>
       <c r="AG177" s="8"/>
@@ -17863,7 +17901,7 @@
         <v>176</v>
       </c>
       <c r="AO177" s="9" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
@@ -17878,37 +17916,37 @@
       <c r="C178" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E178" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="F178" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="G178" s="37" t="s">
-        <v>537</v>
+      <c r="D178" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E178" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="F178" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="G178" s="39" t="s">
+        <v>541</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="8" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17916,7 +17954,7 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="9" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
@@ -17951,24 +17989,24 @@
       <c r="C179" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E179" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="F179" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="G179" s="37" t="s">
-        <v>544</v>
+      <c r="D179" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E179" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="F179" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="G179" s="39" t="s">
+        <v>548</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="9" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -17981,7 +18019,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
@@ -17989,7 +18027,7 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="9" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
@@ -18024,37 +18062,37 @@
       <c r="C180" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E180" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="F180" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="G180" s="37" t="s">
-        <v>550</v>
+      <c r="D180" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="F180" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="G180" s="39" t="s">
+        <v>554</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="9" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
@@ -18062,7 +18100,7 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="9" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -18097,39 +18135,39 @@
       <c r="C181" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E181" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F181" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G181" s="37" t="s">
-        <v>554</v>
+      <c r="D181" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="F181" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="G181" s="39" t="s">
+        <v>558</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>325</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
       <c r="O181" s="9" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
@@ -18137,7 +18175,7 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="9" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
@@ -18174,39 +18212,39 @@
       <c r="C182" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E182" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F182" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G182" s="37" t="s">
-        <v>554</v>
+      <c r="D182" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E182" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="F182" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="G182" s="39" t="s">
+        <v>558</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>351</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -18214,7 +18252,7 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="9" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -18251,39 +18289,39 @@
       <c r="C183" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E183" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F183" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G183" s="37" t="s">
-        <v>554</v>
+      <c r="D183" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E183" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="F183" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="G183" s="39" t="s">
+        <v>558</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>371</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
       <c r="O183" s="9" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
@@ -18291,7 +18329,7 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
@@ -18328,39 +18366,39 @@
       <c r="C184" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="E184" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="F184" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="G184" s="37" t="s">
-        <v>554</v>
+      <c r="D184" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E184" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="F184" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="G184" s="39" t="s">
+        <v>558</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
       <c r="O184" s="9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
@@ -18368,7 +18406,7 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="9" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
@@ -18430,18 +18468,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>504</v>
+      <c r="A1" s="47" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>441</v>
+      <c r="A2" s="48" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -18467,41 +18502,38 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="47" t="s">
-        <v>427</v>
+      <c r="B1" s="49" t="s">
+        <v>431</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>486</v>
+        <v>570</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>490</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18509,19 +18541,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="48" t="n">
+      <c r="E2" s="50" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="49" t="n">
+      <c r="J2" s="51" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18529,19 +18561,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="50" t="n">
+      <c r="E3" s="52" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="51" t="n">
+      <c r="J3" s="53" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="47"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18549,28 +18581,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="50" t="n">
+      <c r="E4" s="52" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="52" t="n">
+      <c r="F4" s="54" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="49" t="n">
+      <c r="J4" s="51" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="53" t="n">
+      <c r="K4" s="55" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18599,54 +18631,51 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>569</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>570</v>
-      </c>
-      <c r="I1" s="55" t="s">
+      <c r="G1" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="L1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="57" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="56" t="s">
-        <v>572</v>
+      <c r="B4" s="58" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -57,6 +57,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -763,7 +769,7 @@
     <t xml:space="preserve">4650075421239, 4607174578449</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Apple mix - 0.95L</t>
+    <t xml:space="preserve">Moya Semya - Apple Mix - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Яблочный Микс - 0.95л</t>
@@ -775,7 +781,7 @@
     <t xml:space="preserve">4650075421178, 4607174578029</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Pineapple Mango - 0.95L</t>
+    <t xml:space="preserve">Moya Semya - Pineapple-Mango - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Ананас-Маракас - 0.95л</t>
@@ -857,7 +863,7 @@
     <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
   </si>
   <si>
-    <t xml:space="preserve">Moya Semya - Strawberry - 0.95L</t>
+    <t xml:space="preserve">Moya Semya - Apple-Strawberry - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Моя Семья - Клубничина-Земляничина - 0.95л</t>
@@ -1047,7 +1053,7 @@
     <t xml:space="preserve">Сок полка: Моя Семья - Ягода-Вкуснягода - 0.95л</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple mix - 0.95L</t>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple Mix - 0.95L</t>
   </si>
   <si>
     <t xml:space="preserve">Сок полка: Моя Семья - Яблочный Микс - 0.95л</t>
@@ -1725,25 +1731,25 @@
     <t xml:space="preserve">RGM Активации: Сок с едой</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+    <t xml:space="preserve">Juice with Meal</t>
   </si>
   <si>
     <t xml:space="preserve">RGM Activations: On-the-go</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Активации: На ходу</t>
+    <t xml:space="preserve">RGM Активации: Энергетики или SSD в Прикассовой зоне </t>
   </si>
   <si>
     <t xml:space="preserve">On-the-go</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen time</t>
+    <t xml:space="preserve">RGM Activations: SSD with Snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD со снеками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -2022,7 +2028,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2085,13 +2091,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2141,18 +2140,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2179,27 +2172,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2224,7 +2202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2250,14 +2228,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2270,19 +2245,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2290,115 +2265,115 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2406,27 +2381,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2434,28 +2409,40 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2463,14 +2450,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2482,20 +2461,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -2503,7 +2482,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Good" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2540,7 +2518,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -2579,7 +2557,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -2597,19 +2575,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L147" activeCellId="0" sqref="L147"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="57.2712550607288"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="74.8421052631579"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17355,7 +17333,7 @@
       <c r="V170" s="9"/>
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
-      <c r="Y170" s="9" t="s">
+      <c r="Y170" s="44" t="s">
         <v>511</v>
       </c>
       <c r="Z170" s="9"/>
@@ -17409,7 +17387,7 @@
       <c r="G171" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="H171" s="8" t="s">
+      <c r="H171" s="44" t="s">
         <v>513</v>
       </c>
       <c r="I171" s="8" t="s">
@@ -17436,7 +17414,7 @@
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
-      <c r="Y171" s="9" t="s">
+      <c r="Y171" s="44" t="s">
         <v>514</v>
       </c>
       <c r="Z171" s="9"/>
@@ -17487,10 +17465,10 @@
         <v>257</v>
       </c>
       <c r="F172" s="8"/>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="H172" s="8" t="s">
+      <c r="H172" s="44" t="s">
         <v>516</v>
       </c>
       <c r="I172" s="8" t="s">
@@ -17517,7 +17495,7 @@
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
-      <c r="Y172" s="9" t="s">
+      <c r="Y172" s="44" t="s">
         <v>517</v>
       </c>
       <c r="Z172" s="9"/>
@@ -17561,7 +17539,7 @@
       <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="44" t="s">
+      <c r="D173" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E173" s="32" t="s">
@@ -17603,7 +17581,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="45" t="n">
+      <c r="AF173" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG173" s="8"/>
@@ -17632,7 +17610,7 @@
       <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="44" t="s">
+      <c r="D174" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E174" s="39" t="s">
@@ -17674,7 +17652,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="46" t="n">
+      <c r="AF174" s="47" t="n">
         <v>0</v>
       </c>
       <c r="AG174" s="8"/>
@@ -17703,7 +17681,7 @@
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="44" t="s">
+      <c r="D175" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E175" s="39" t="s">
@@ -17745,7 +17723,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="45" t="n">
+      <c r="AF175" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG175" s="8"/>
@@ -17774,7 +17752,7 @@
       <c r="C176" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="44" t="s">
+      <c r="D176" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E176" s="39" t="s">
@@ -17816,7 +17794,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
-      <c r="AF176" s="45" t="n">
+      <c r="AF176" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG176" s="8"/>
@@ -17845,7 +17823,7 @@
       <c r="C177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="44" t="s">
+      <c r="D177" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E177" s="39" t="s">
@@ -17887,7 +17865,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AE177" s="8"/>
-      <c r="AF177" s="45" t="n">
+      <c r="AF177" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AG177" s="8"/>
@@ -17916,7 +17894,7 @@
       <c r="C178" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="44" t="s">
+      <c r="D178" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E178" s="39" t="s">
@@ -17989,7 +17967,7 @@
       <c r="C179" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="44" t="s">
+      <c r="D179" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E179" s="39" t="s">
@@ -18062,7 +18040,7 @@
       <c r="C180" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="44" t="s">
+      <c r="D180" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E180" s="39" t="s">
@@ -18135,7 +18113,7 @@
       <c r="C181" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="44" t="s">
+      <c r="D181" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E181" s="39" t="s">
@@ -18212,7 +18190,7 @@
       <c r="C182" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="44" t="s">
+      <c r="D182" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E182" s="39" t="s">
@@ -18289,7 +18267,7 @@
       <c r="C183" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="44" t="s">
+      <c r="D183" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E183" s="39" t="s">
@@ -18366,7 +18344,7 @@
       <c r="C184" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="44" t="s">
+      <c r="D184" s="45" t="s">
         <v>518</v>
       </c>
       <c r="E184" s="39" t="s">
@@ -18470,12 +18448,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>445</v>
       </c>
     </row>
@@ -18504,7 +18482,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>431</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -18519,7 +18497,7 @@
       <c r="F1" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>490</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -18533,7 +18511,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18541,19 +18519,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="50" t="n">
+      <c r="E2" s="51" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="49"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="51" t="n">
+      <c r="J2" s="52" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18561,19 +18539,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="52" t="n">
+      <c r="E3" s="53" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="53" t="n">
+      <c r="J3" s="54" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18581,21 +18559,21 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="52" t="n">
+      <c r="E4" s="53" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="54" t="n">
+      <c r="F4" s="55" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="51" t="n">
+      <c r="J4" s="52" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="55" t="n">
+      <c r="K4" s="56" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
@@ -18633,48 +18611,48 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>576</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -63,6 +63,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="578">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1720,6 +1721,9 @@
   </si>
   <si>
     <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
   </si>
   <si>
     <t xml:space="preserve">SSD with Meal</t>
@@ -2575,19 +2579,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I169" activeCellId="0" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="74.8421052631579"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="75.5182186234818"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.6396761133603"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17229,7 +17233,7 @@
         <v>507</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="9" t="n">
@@ -17253,7 +17257,7 @@
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
       <c r="Y169" s="43" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z169" s="9"/>
       <c r="AA169" s="8"/>
@@ -17304,13 +17308,13 @@
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="9" t="n">
@@ -17334,7 +17338,7 @@
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="44" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="8"/>
@@ -17385,13 +17389,13 @@
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H171" s="44" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="9" t="n">
@@ -17415,7 +17419,7 @@
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="44" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z171" s="9"/>
       <c r="AA171" s="8"/>
@@ -17466,13 +17470,13 @@
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="44" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H172" s="44" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="9" t="n">
@@ -17496,7 +17500,7 @@
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="44" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z172" s="9"/>
       <c r="AA172" s="8"/>
@@ -17540,23 +17544,23 @@
         <v>44</v>
       </c>
       <c r="D173" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>264</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -17567,7 +17571,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -17595,7 +17599,7 @@
         <v>172</v>
       </c>
       <c r="AO173" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
@@ -17611,23 +17615,23 @@
         <v>44</v>
       </c>
       <c r="D174" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E174" s="39" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G174" s="42" t="s">
         <v>505</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -17638,7 +17642,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -17682,23 +17686,23 @@
         <v>44</v>
       </c>
       <c r="D175" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E175" s="39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G175" s="39" t="s">
         <v>446</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -17709,7 +17713,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -17737,7 +17741,7 @@
         <v>174</v>
       </c>
       <c r="AO175" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
@@ -17753,23 +17757,23 @@
         <v>44</v>
       </c>
       <c r="D176" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E176" s="39" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G176" s="39" t="s">
         <v>496</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -17780,7 +17784,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -17824,23 +17828,23 @@
         <v>44</v>
       </c>
       <c r="D177" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E177" s="39" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -17851,7 +17855,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17879,7 +17883,7 @@
         <v>176</v>
       </c>
       <c r="AO177" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
@@ -17895,36 +17899,36 @@
         <v>44</v>
       </c>
       <c r="D178" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E178" s="39" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17932,7 +17936,7 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
@@ -17968,23 +17972,23 @@
         <v>44</v>
       </c>
       <c r="D179" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E179" s="39" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -17997,7 +18001,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
@@ -18005,7 +18009,7 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
@@ -18041,36 +18045,36 @@
         <v>44</v>
       </c>
       <c r="D180" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E180" s="39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
@@ -18078,7 +18082,7 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -18114,38 +18118,38 @@
         <v>44</v>
       </c>
       <c r="D181" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E181" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>325</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
       <c r="O181" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
@@ -18153,7 +18157,7 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
@@ -18191,38 +18195,38 @@
         <v>44</v>
       </c>
       <c r="D182" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E182" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G182" s="39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>351</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -18230,7 +18234,7 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -18268,38 +18272,38 @@
         <v>44</v>
       </c>
       <c r="D183" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E183" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F183" s="39" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G183" s="39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>371</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
       <c r="O183" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
@@ -18307,7 +18311,7 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
@@ -18345,38 +18349,38 @@
         <v>44</v>
       </c>
       <c r="D184" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E184" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F184" s="39" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G184" s="39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H184" s="8" t="s">
         <v>406</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
       <c r="O184" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
@@ -18384,7 +18388,7 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
@@ -18446,10 +18450,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18480,34 +18487,37 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="50" t="s">
         <v>431</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>490</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J1" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18580,7 +18590,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18609,6 +18619,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
@@ -18630,10 +18643,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I1" s="58" t="s">
         <v>35</v>
@@ -18642,7 +18655,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L1" s="58" t="s">
         <v>36</v>
@@ -18653,7 +18666,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="59" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -64,6 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1627,7 +1628,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 4607042430879</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
@@ -2579,19 +2580,19 @@
   </sheetPr>
   <dimension ref="A1:AR184"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I169" activeCellId="0" sqref="I169"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O160" activeCellId="0" sqref="O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="75.5182186234818"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="76.1619433198381"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -65,6 +65,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="582">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -578,6 +579,9 @@
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon - 1L</t>
   </si>
   <si>
@@ -608,10 +612,16 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000193155, 5449000193155</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193223, 5449000235954</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Availability</t>
@@ -819,6 +829,9 @@
     <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607174579385, 4650075422922</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
   </si>
   <si>
@@ -1640,7 +1653,7 @@
     <t xml:space="preserve">ANY Fuze Black 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124, 5449000259455, 5449000235947, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
@@ -2237,7 +2250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2330,6 +2343,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2348,10 +2365,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2400,6 +2413,10 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2581,18 +2598,18 @@
   <dimension ref="A1:AR184"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O160" activeCellId="0" sqref="O160"/>
+      <selection pane="bottomLeft" activeCell="O162" activeCellId="0" sqref="O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="76.1619433198381"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="76.8056680161943"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="22.0647773279352"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6393,8 +6410,8 @@
       <c r="N44" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="O44" s="15" t="n">
-        <v>5449000189301</v>
+      <c r="O44" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -6464,10 +6481,10 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>54</v>
@@ -6479,7 +6496,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O45" s="15" t="n">
         <v>5449000189318</v>
@@ -6552,10 +6569,10 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>54</v>
@@ -6567,7 +6584,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O46" s="15" t="n">
         <v>5449000233509</v>
@@ -6640,10 +6657,10 @@
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>54</v>
@@ -6655,7 +6672,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O47" s="15" t="n">
         <v>5449000233615</v>
@@ -6728,10 +6745,10 @@
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>54</v>
@@ -6743,7 +6760,7 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O48" s="15" t="n">
         <v>5449000233622</v>
@@ -6816,10 +6833,10 @@
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>54</v>
@@ -6831,10 +6848,10 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="O49" s="15" t="n">
-        <v>5449000193155</v>
+        <v>162</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
@@ -6904,10 +6921,10 @@
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>54</v>
@@ -6919,10 +6936,10 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="O50" s="15" t="n">
-        <v>5449000193223</v>
+        <v>165</v>
+      </c>
+      <c r="O50" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
@@ -6992,10 +7009,10 @@
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>49</v>
@@ -7040,7 +7057,7 @@
         <v>50</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP51" s="11"/>
       <c r="AQ51" s="12"/>
@@ -7064,10 +7081,10 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>54</v>
@@ -7079,7 +7096,7 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O52" s="15" t="n">
         <v>4607042434877</v>
@@ -7129,7 +7146,7 @@
       </c>
       <c r="AO52" s="8"/>
       <c r="AP52" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ52" s="12"/>
       <c r="AR52" s="0"/>
@@ -7152,10 +7169,10 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>54</v>
@@ -7167,7 +7184,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O53" s="15" t="n">
         <v>4607042434891</v>
@@ -7217,7 +7234,7 @@
       </c>
       <c r="AO53" s="8"/>
       <c r="AP53" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ53" s="12"/>
       <c r="AR53" s="0"/>
@@ -7240,10 +7257,10 @@
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>54</v>
@@ -7255,7 +7272,7 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O54" s="15" t="n">
         <v>4607042438738</v>
@@ -7305,7 +7322,7 @@
       </c>
       <c r="AO54" s="8"/>
       <c r="AP54" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ54" s="12"/>
       <c r="AR54" s="0"/>
@@ -7328,10 +7345,10 @@
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>54</v>
@@ -7343,7 +7360,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O55" s="15" t="n">
         <v>4607042438950</v>
@@ -7393,7 +7410,7 @@
       </c>
       <c r="AO55" s="8"/>
       <c r="AP55" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ55" s="12"/>
       <c r="AR55" s="0"/>
@@ -7416,10 +7433,10 @@
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>54</v>
@@ -7431,7 +7448,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O56" s="15" t="n">
         <v>4607042434884</v>
@@ -7481,7 +7498,7 @@
       </c>
       <c r="AO56" s="8"/>
       <c r="AP56" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ56" s="12"/>
       <c r="AR56" s="0"/>
@@ -7504,10 +7521,10 @@
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>54</v>
@@ -7519,7 +7536,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O57" s="15" t="n">
         <v>4607042431388</v>
@@ -7569,7 +7586,7 @@
       </c>
       <c r="AO57" s="8"/>
       <c r="AP57" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ57" s="12"/>
       <c r="AR57" s="0"/>
@@ -7592,10 +7609,10 @@
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>54</v>
@@ -7607,7 +7624,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O58" s="15" t="n">
         <v>4607042431333</v>
@@ -7657,7 +7674,7 @@
       </c>
       <c r="AO58" s="8"/>
       <c r="AP58" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ58" s="12"/>
       <c r="AR58" s="0"/>
@@ -7680,10 +7697,10 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>54</v>
@@ -7695,7 +7712,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O59" s="15" t="n">
         <v>4607042438776</v>
@@ -7745,7 +7762,7 @@
       </c>
       <c r="AO59" s="8"/>
       <c r="AP59" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ59" s="12"/>
       <c r="AR59" s="0"/>
@@ -7768,10 +7785,10 @@
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>54</v>
@@ -7783,7 +7800,7 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O60" s="15" t="n">
         <v>4607174577787</v>
@@ -7833,7 +7850,7 @@
       </c>
       <c r="AO60" s="8"/>
       <c r="AP60" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ60" s="12"/>
       <c r="AR60" s="0"/>
@@ -7856,10 +7873,10 @@
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>54</v>
@@ -7871,7 +7888,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O61" s="15" t="n">
         <v>4607042430619</v>
@@ -7921,7 +7938,7 @@
       </c>
       <c r="AO61" s="8"/>
       <c r="AP61" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ61" s="12"/>
       <c r="AR61" s="0"/>
@@ -7944,10 +7961,10 @@
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>54</v>
@@ -7959,7 +7976,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O62" s="15" t="n">
         <v>4607042430565</v>
@@ -8009,7 +8026,7 @@
       </c>
       <c r="AO62" s="8"/>
       <c r="AP62" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ62" s="12"/>
       <c r="AR62" s="0"/>
@@ -8032,10 +8049,10 @@
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>54</v>
@@ -8047,7 +8064,7 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O63" s="15" t="n">
         <v>4607174579309</v>
@@ -8097,7 +8114,7 @@
       </c>
       <c r="AO63" s="8"/>
       <c r="AP63" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ63" s="12"/>
       <c r="AR63" s="0"/>
@@ -8120,10 +8137,10 @@
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>54</v>
@@ -8135,7 +8152,7 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O64" s="15" t="n">
         <v>4607174579286</v>
@@ -8185,7 +8202,7 @@
       </c>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ64" s="12"/>
       <c r="AR64" s="0"/>
@@ -8208,10 +8225,10 @@
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>54</v>
@@ -8223,7 +8240,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O65" s="15" t="n">
         <v>4607174577794</v>
@@ -8273,7 +8290,7 @@
       </c>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ65" s="12"/>
       <c r="AR65" s="0"/>
@@ -8296,10 +8313,10 @@
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>54</v>
@@ -8311,7 +8328,7 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O66" s="15" t="n">
         <v>4607042439155</v>
@@ -8361,7 +8378,7 @@
       </c>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ66" s="12"/>
       <c r="AR66" s="0"/>
@@ -8384,10 +8401,10 @@
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>54</v>
@@ -8399,7 +8416,7 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O67" s="15" t="n">
         <v>4607042439216</v>
@@ -8449,7 +8466,7 @@
       </c>
       <c r="AO67" s="8"/>
       <c r="AP67" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ67" s="12"/>
       <c r="AR67" s="0"/>
@@ -8472,10 +8489,10 @@
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>54</v>
@@ -8487,7 +8504,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O68" s="15" t="n">
         <v>4607042439223</v>
@@ -8537,7 +8554,7 @@
       </c>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ68" s="12"/>
       <c r="AR68" s="0"/>
@@ -8559,11 +8576,11 @@
         <v>123</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>203</v>
+      <c r="G69" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>54</v>
@@ -8574,11 +8591,11 @@
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
-      <c r="N69" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="O69" s="25" t="s">
-        <v>205</v>
+      <c r="N69" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O69" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
@@ -8625,7 +8642,7 @@
       </c>
       <c r="AO69" s="8"/>
       <c r="AP69" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ69" s="12"/>
       <c r="AR69" s="0"/>
@@ -8647,11 +8664,11 @@
         <v>123</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>207</v>
+      <c r="G70" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>54</v>
@@ -8662,11 +8679,11 @@
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="O70" s="25" t="s">
-        <v>209</v>
+      <c r="N70" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O70" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -8713,7 +8730,7 @@
       </c>
       <c r="AO70" s="8"/>
       <c r="AP70" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ70" s="12"/>
       <c r="AR70" s="0"/>
@@ -8735,11 +8752,11 @@
         <v>123</v>
       </c>
       <c r="F71" s="13"/>
-      <c r="G71" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>211</v>
+      <c r="G71" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>54</v>
@@ -8750,11 +8767,11 @@
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-      <c r="N71" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="O71" s="25" t="s">
-        <v>213</v>
+      <c r="N71" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O71" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -8801,7 +8818,7 @@
       </c>
       <c r="AO71" s="8"/>
       <c r="AP71" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ71" s="12"/>
       <c r="AR71" s="0"/>
@@ -8824,10 +8841,10 @@
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>54</v>
@@ -8839,7 +8856,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O72" s="15" t="n">
         <v>4607174577145</v>
@@ -8889,7 +8906,7 @@
       </c>
       <c r="AO72" s="8"/>
       <c r="AP72" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ72" s="12"/>
       <c r="AR72" s="0"/>
@@ -8912,10 +8929,10 @@
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>54</v>
@@ -8927,7 +8944,7 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O73" s="15" t="n">
         <v>4607042438998</v>
@@ -8977,7 +8994,7 @@
       </c>
       <c r="AO73" s="8"/>
       <c r="AP73" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ73" s="12"/>
       <c r="AR73" s="0"/>
@@ -9000,10 +9017,10 @@
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>54</v>
@@ -9015,7 +9032,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O74" s="15" t="n">
         <v>4607042431371</v>
@@ -9065,7 +9082,7 @@
       </c>
       <c r="AO74" s="8"/>
       <c r="AP74" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ74" s="12"/>
       <c r="AR74" s="0"/>
@@ -9088,10 +9105,10 @@
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>54</v>
@@ -9103,10 +9120,10 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="O75" s="15" t="n">
-        <v>4607174579385</v>
+        <v>223</v>
+      </c>
+      <c r="O75" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
@@ -9153,7 +9170,7 @@
       </c>
       <c r="AO75" s="8"/>
       <c r="AP75" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ75" s="12"/>
       <c r="AR75" s="0"/>
@@ -9176,10 +9193,10 @@
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>54</v>
@@ -9191,7 +9208,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O76" s="15" t="n">
         <v>4650075420287</v>
@@ -9241,7 +9258,7 @@
       </c>
       <c r="AO76" s="8"/>
       <c r="AP76" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ76" s="12"/>
       <c r="AR76" s="0"/>
@@ -9264,10 +9281,10 @@
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>54</v>
@@ -9279,7 +9296,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O77" s="15" t="n">
         <v>4650075420249</v>
@@ -9329,7 +9346,7 @@
       </c>
       <c r="AO77" s="8"/>
       <c r="AP77" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ77" s="12"/>
       <c r="AR77" s="0"/>
@@ -9352,10 +9369,10 @@
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>54</v>
@@ -9367,7 +9384,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O78" s="15" t="n">
         <v>4650075420980</v>
@@ -9417,7 +9434,7 @@
       </c>
       <c r="AO78" s="8"/>
       <c r="AP78" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ78" s="12"/>
       <c r="AR78" s="0"/>
@@ -9439,11 +9456,11 @@
         <v>123</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>229</v>
+      <c r="G79" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>54</v>
@@ -9454,10 +9471,10 @@
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="O79" s="25" t="n">
+      <c r="N79" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O79" s="26" t="n">
         <v>4650075421970</v>
       </c>
       <c r="P79" s="8"/>
@@ -9505,7 +9522,7 @@
       </c>
       <c r="AO79" s="8"/>
       <c r="AP79" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ79" s="12"/>
       <c r="AR79" s="0"/>
@@ -9528,10 +9545,10 @@
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>54</v>
@@ -9543,7 +9560,7 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O80" s="15" t="n">
         <v>4650075421147</v>
@@ -9593,7 +9610,7 @@
       </c>
       <c r="AO80" s="8"/>
       <c r="AP80" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ80" s="12"/>
       <c r="AR80" s="0"/>
@@ -9615,11 +9632,11 @@
         <v>123</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>234</v>
+      <c r="G81" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>54</v>
@@ -9630,10 +9647,10 @@
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="O81" s="28" t="n">
+      <c r="N81" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="O81" s="23" t="n">
         <v>4650075421932</v>
       </c>
       <c r="P81" s="8"/>
@@ -9681,7 +9698,7 @@
       </c>
       <c r="AO81" s="8"/>
       <c r="AP81" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ81" s="12"/>
       <c r="AR81" s="0"/>
@@ -9704,10 +9721,10 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>54</v>
@@ -9719,7 +9736,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O82" s="15" t="n">
         <v>4607174579729</v>
@@ -9769,7 +9786,7 @@
       </c>
       <c r="AO82" s="8"/>
       <c r="AP82" s="29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ82" s="12"/>
       <c r="AR82" s="0"/>
@@ -9792,10 +9809,10 @@
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>54</v>
@@ -9806,11 +9823,11 @@
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="O83" s="28" t="s">
-        <v>240</v>
+      <c r="N83" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O83" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
@@ -9857,7 +9874,7 @@
       </c>
       <c r="AO83" s="8"/>
       <c r="AP83" s="29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ83" s="12"/>
       <c r="AR83" s="0"/>
@@ -9880,10 +9897,10 @@
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>54</v>
@@ -9895,7 +9912,7 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O84" s="15" t="n">
         <v>4607174579668</v>
@@ -9945,7 +9962,7 @@
       </c>
       <c r="AO84" s="8"/>
       <c r="AP84" s="29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ84" s="12"/>
       <c r="AR84" s="0"/>
@@ -9968,10 +9985,10 @@
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>54</v>
@@ -9983,7 +10000,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O85" s="15" t="n">
         <v>4607042438967</v>
@@ -10033,7 +10050,7 @@
       </c>
       <c r="AO85" s="8"/>
       <c r="AP85" s="29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ85" s="12"/>
       <c r="AR85" s="0"/>
@@ -10056,10 +10073,10 @@
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>54</v>
@@ -10071,7 +10088,7 @@
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O86" s="15" t="n">
         <v>4607174579248</v>
@@ -10121,7 +10138,7 @@
       </c>
       <c r="AO86" s="8"/>
       <c r="AP86" s="29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ86" s="12"/>
       <c r="AR86" s="0"/>
@@ -10140,17 +10157,17 @@
         <v>45</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="n">
@@ -10159,25 +10176,25 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O87" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q87" s="22"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="X87" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
@@ -10188,7 +10205,7 @@
         <v>50</v>
       </c>
       <c r="AE87" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF87" s="17" t="n">
         <v>0.06</v>
@@ -10221,20 +10238,20 @@
         <v>44</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="n">
@@ -10247,7 +10264,7 @@
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
       <c r="R88" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
@@ -10255,14 +10272,14 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="X88" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
       <c r="AC88" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD88" s="9" t="s">
         <v>50</v>
@@ -10286,10 +10303,10 @@
         <v>87</v>
       </c>
       <c r="AO88" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AP88" s="14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AQ88" s="8"/>
       <c r="AR88" s="0"/>
@@ -10305,17 +10322,17 @@
         <v>44</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>54</v>
@@ -10345,14 +10362,14 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
       <c r="X89" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
       <c r="AC89" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD89" s="9" t="s">
         <v>50</v>
@@ -10377,7 +10394,7 @@
       </c>
       <c r="AO89" s="8"/>
       <c r="AP89" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ89" s="8"/>
       <c r="AR89" s="0"/>
@@ -10393,17 +10410,17 @@
         <v>44</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>54</v>
@@ -10433,14 +10450,14 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="X90" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
       <c r="AB90" s="8"/>
       <c r="AC90" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD90" s="9" t="s">
         <v>50</v>
@@ -10465,7 +10482,7 @@
       </c>
       <c r="AO90" s="8"/>
       <c r="AP90" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ90" s="8"/>
       <c r="AR90" s="0"/>
@@ -10481,17 +10498,17 @@
         <v>44</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>54</v>
@@ -10521,14 +10538,14 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
       <c r="X91" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
       <c r="AC91" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD91" s="9" t="s">
         <v>50</v>
@@ -10553,7 +10570,7 @@
       </c>
       <c r="AO91" s="8"/>
       <c r="AP91" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="0"/>
@@ -10569,17 +10586,17 @@
         <v>44</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>54</v>
@@ -10609,14 +10626,14 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
       <c r="X92" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
       <c r="AC92" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD92" s="9" t="s">
         <v>50</v>
@@ -10641,7 +10658,7 @@
       </c>
       <c r="AO92" s="8"/>
       <c r="AP92" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ92" s="8"/>
       <c r="AR92" s="0"/>
@@ -10657,17 +10674,17 @@
         <v>44</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>54</v>
@@ -10679,7 +10696,7 @@
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O93" s="16" t="s">
         <v>62</v>
@@ -10697,14 +10714,14 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
       <c r="X93" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
       <c r="AC93" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD93" s="9" t="s">
         <v>50</v>
@@ -10729,7 +10746,7 @@
       </c>
       <c r="AO93" s="8"/>
       <c r="AP93" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ93" s="8"/>
       <c r="AR93" s="0"/>
@@ -10745,17 +10762,17 @@
         <v>44</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>54</v>
@@ -10767,7 +10784,7 @@
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O94" s="16" t="s">
         <v>77</v>
@@ -10785,14 +10802,14 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
       <c r="X94" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
       <c r="AC94" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD94" s="9" t="s">
         <v>50</v>
@@ -10817,7 +10834,7 @@
       </c>
       <c r="AO94" s="8"/>
       <c r="AP94" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ94" s="8"/>
       <c r="AR94" s="0"/>
@@ -10833,17 +10850,17 @@
         <v>44</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>54</v>
@@ -10855,7 +10872,7 @@
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O95" s="16" t="s">
         <v>74</v>
@@ -10873,14 +10890,14 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
       <c r="X95" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
       <c r="AC95" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD95" s="9" t="s">
         <v>50</v>
@@ -10905,7 +10922,7 @@
       </c>
       <c r="AO95" s="8"/>
       <c r="AP95" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ95" s="8"/>
       <c r="AR95" s="0"/>
@@ -10924,17 +10941,17 @@
         <v>45</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="n">
@@ -10943,25 +10960,25 @@
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q96" s="22"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="X96" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
@@ -10972,7 +10989,7 @@
         <v>50</v>
       </c>
       <c r="AE96" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF96" s="17" t="n">
         <v>0.05</v>
@@ -11005,20 +11022,20 @@
         <v>44</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="n">
@@ -11031,7 +11048,7 @@
       <c r="P97" s="22"/>
       <c r="Q97" s="22"/>
       <c r="R97" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -11039,14 +11056,14 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
       <c r="X97" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
       <c r="AC97" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD97" s="9" t="s">
         <v>50</v>
@@ -11070,10 +11087,10 @@
         <v>96</v>
       </c>
       <c r="AO97" s="11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AP97" s="14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AQ97" s="8"/>
       <c r="AR97" s="0"/>
@@ -11089,17 +11106,17 @@
         <v>44</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>54</v>
@@ -11111,7 +11128,7 @@
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O98" s="16" t="n">
         <v>4607042434877</v>
@@ -11129,14 +11146,14 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="X98" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
       <c r="AC98" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD98" s="9" t="s">
         <v>50</v>
@@ -11161,7 +11178,7 @@
       </c>
       <c r="AO98" s="8"/>
       <c r="AP98" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ98" s="8"/>
       <c r="AR98" s="0"/>
@@ -11177,17 +11194,17 @@
         <v>44</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>54</v>
@@ -11199,7 +11216,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O99" s="16" t="n">
         <v>4607042434891</v>
@@ -11217,14 +11234,14 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
       <c r="X99" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
       <c r="AC99" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD99" s="9" t="s">
         <v>50</v>
@@ -11249,7 +11266,7 @@
       </c>
       <c r="AO99" s="8"/>
       <c r="AP99" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ99" s="8"/>
       <c r="AR99" s="0"/>
@@ -11265,17 +11282,17 @@
         <v>44</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>54</v>
@@ -11287,7 +11304,7 @@
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
       <c r="N100" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O100" s="16" t="n">
         <v>4607042438738</v>
@@ -11305,14 +11322,14 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
       <c r="X100" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
       <c r="AC100" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD100" s="9" t="s">
         <v>50</v>
@@ -11337,7 +11354,7 @@
       </c>
       <c r="AO100" s="8"/>
       <c r="AP100" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ100" s="8"/>
       <c r="AR100" s="0"/>
@@ -11353,17 +11370,17 @@
         <v>44</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F101" s="8"/>
-      <c r="G101" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>296</v>
+      <c r="G101" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>300</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>54</v>
@@ -11374,11 +11391,11 @@
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
-      <c r="N101" s="23" t="s">
-        <v>204</v>
+      <c r="N101" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="O101" s="33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P101" s="34"/>
       <c r="Q101" s="34"/>
@@ -11393,14 +11410,14 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
       <c r="X101" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
       <c r="AC101" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD101" s="9" t="s">
         <v>50</v>
@@ -11425,7 +11442,7 @@
       </c>
       <c r="AO101" s="8"/>
       <c r="AP101" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ101" s="8"/>
       <c r="AR101" s="0"/>
@@ -11441,17 +11458,17 @@
         <v>44</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F102" s="8"/>
-      <c r="G102" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>298</v>
+      <c r="G102" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>302</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>54</v>
@@ -11462,11 +11479,11 @@
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
-      <c r="N102" s="23" t="s">
-        <v>208</v>
+      <c r="N102" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="O102" s="33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P102" s="34"/>
       <c r="Q102" s="34"/>
@@ -11481,14 +11498,14 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
       <c r="X102" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
       <c r="AC102" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD102" s="9" t="s">
         <v>50</v>
@@ -11513,7 +11530,7 @@
       </c>
       <c r="AO102" s="8"/>
       <c r="AP102" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AQ102" s="8"/>
       <c r="AR102" s="0"/>
@@ -11532,17 +11549,17 @@
         <v>45</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="n">
@@ -11551,25 +11568,25 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O103" s="22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q103" s="22"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
       <c r="X103" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
@@ -11580,7 +11597,7 @@
         <v>50</v>
       </c>
       <c r="AE103" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF103" s="17" t="n">
         <v>0.015</v>
@@ -11613,20 +11630,20 @@
         <v>44</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="n">
@@ -11639,7 +11656,7 @@
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
       <c r="R104" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
@@ -11647,14 +11664,14 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
       <c r="X104" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
       <c r="AC104" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD104" s="9" t="s">
         <v>50</v>
@@ -11678,10 +11695,10 @@
         <v>103</v>
       </c>
       <c r="AO104" s="35" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AP104" s="14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AQ104" s="8"/>
       <c r="AR104" s="0"/>
@@ -11697,17 +11714,17 @@
         <v>44</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="9" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>54</v>
@@ -11719,7 +11736,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O105" s="16" t="n">
         <v>5449000005489</v>
@@ -11737,14 +11754,14 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
       <c r="X105" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
       <c r="AC105" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD105" s="9" t="s">
         <v>50</v>
@@ -11769,7 +11786,7 @@
       </c>
       <c r="AO105" s="8"/>
       <c r="AP105" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AQ105" s="8"/>
       <c r="AR105" s="0"/>
@@ -11788,17 +11805,17 @@
         <v>45</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9" t="n">
@@ -11807,25 +11824,25 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q106" s="10"/>
       <c r="R106" s="32"/>
       <c r="S106" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
       <c r="X106" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
@@ -11836,7 +11853,7 @@
         <v>50</v>
       </c>
       <c r="AE106" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF106" s="17" t="n">
         <v>0.03</v>
@@ -11869,20 +11886,20 @@
         <v>44</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9" t="n">
@@ -11895,7 +11912,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
       <c r="R107" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
@@ -11903,14 +11920,14 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
       <c r="X107" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
       <c r="AC107" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD107" s="9" t="s">
         <v>50</v>
@@ -11934,10 +11951,10 @@
         <v>106</v>
       </c>
       <c r="AO107" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AP107" s="14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AQ107" s="8"/>
       <c r="AR107" s="0"/>
@@ -11953,17 +11970,17 @@
         <v>44</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>54</v>
@@ -11975,7 +11992,7 @@
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O108" s="16" t="n">
         <v>5449000189318</v>
@@ -11993,14 +12010,14 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
       <c r="X108" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
       <c r="AC108" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD108" s="9" t="s">
         <v>50</v>
@@ -12025,7 +12042,7 @@
       </c>
       <c r="AO108" s="8"/>
       <c r="AP108" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AQ108" s="8"/>
       <c r="AR108" s="0"/>
@@ -12041,17 +12058,17 @@
         <v>44</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>54</v>
@@ -12063,7 +12080,7 @@
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O109" s="16" t="n">
         <v>5449000233509</v>
@@ -12081,14 +12098,14 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
       <c r="X109" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
       <c r="AC109" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AD109" s="9" t="s">
         <v>50</v>
@@ -12113,7 +12130,7 @@
       </c>
       <c r="AO109" s="8"/>
       <c r="AP109" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AQ109" s="8"/>
       <c r="AR109" s="0"/>
@@ -12132,17 +12149,17 @@
         <v>45</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9" t="n">
@@ -12151,25 +12168,25 @@
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O110" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P110" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q110" s="10"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
       <c r="X110" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
@@ -12180,7 +12197,7 @@
         <v>50</v>
       </c>
       <c r="AE110" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF110" s="17" t="n">
         <v>0.025</v>
@@ -12216,17 +12233,17 @@
         <v>45</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J111" s="0"/>
       <c r="K111" s="9" t="n">
@@ -12239,7 +12256,7 @@
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
       <c r="R111" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
@@ -12247,7 +12264,7 @@
       <c r="V111" s="9"/>
       <c r="W111" s="8"/>
       <c r="X111" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
@@ -12278,7 +12295,7 @@
         <v>110</v>
       </c>
       <c r="AO111" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AP111" s="8"/>
       <c r="AQ111" s="8"/>
@@ -12298,14 +12315,14 @@
         <v>45</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="9" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>54</v>
@@ -12317,27 +12334,27 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P112" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q112" s="22"/>
       <c r="R112" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S112" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
       <c r="V112" s="9"/>
       <c r="W112" s="8"/>
       <c r="X112" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
@@ -12369,7 +12386,7 @@
       </c>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AQ112" s="8"/>
       <c r="AR112" s="0"/>
@@ -12388,17 +12405,17 @@
         <v>45</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="n">
@@ -12414,16 +12431,16 @@
         <v>55</v>
       </c>
       <c r="S113" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
       <c r="V113" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="W113" s="8"/>
       <c r="X113" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
@@ -12455,7 +12472,7 @@
       </c>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AQ113" s="8"/>
       <c r="AR113" s="0"/>
@@ -12474,17 +12491,17 @@
         <v>45</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -12497,7 +12514,7 @@
         <v>5449000000439</v>
       </c>
       <c r="P114" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q114" s="22"/>
       <c r="R114" s="8" t="s">
@@ -12511,7 +12528,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
       <c r="X114" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
@@ -12533,7 +12550,7 @@
       <c r="AH114" s="9"/>
       <c r="AI114" s="9"/>
       <c r="AJ114" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12545,7 +12562,7 @@
       </c>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AQ114" s="8"/>
       <c r="AR114" s="0"/>
@@ -12561,20 +12578,20 @@
         <v>44</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J115" s="0"/>
       <c r="K115" s="9" t="n">
@@ -12587,7 +12604,7 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
       <c r="R115" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
@@ -12595,7 +12612,7 @@
       <c r="V115" s="9"/>
       <c r="W115" s="8"/>
       <c r="X115" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
@@ -12616,10 +12633,10 @@
       <c r="AG115" s="9"/>
       <c r="AH115" s="9"/>
       <c r="AI115" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AJ115" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
@@ -12630,7 +12647,7 @@
         <v>114</v>
       </c>
       <c r="AO115" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AP115" s="8"/>
       <c r="AQ115" s="8"/>
@@ -12647,17 +12664,17 @@
         <v>44</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>54</v>
@@ -12687,7 +12704,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="8"/>
       <c r="X116" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
@@ -12719,7 +12736,7 @@
       </c>
       <c r="AO116" s="8"/>
       <c r="AP116" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AQ116" s="8"/>
       <c r="AR116" s="0"/>
@@ -12735,17 +12752,17 @@
         <v>44</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>54</v>
@@ -12775,7 +12792,7 @@
       <c r="V117" s="9"/>
       <c r="W117" s="8"/>
       <c r="X117" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
@@ -12807,7 +12824,7 @@
       </c>
       <c r="AO117" s="8"/>
       <c r="AP117" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AQ117" s="8"/>
       <c r="AR117" s="0"/>
@@ -12823,17 +12840,17 @@
         <v>44</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>54</v>
@@ -12863,7 +12880,7 @@
       <c r="V118" s="9"/>
       <c r="W118" s="8"/>
       <c r="X118" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
@@ -12895,7 +12912,7 @@
       </c>
       <c r="AO118" s="8"/>
       <c r="AP118" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AQ118" s="8"/>
       <c r="AR118" s="36"/>
@@ -12914,17 +12931,17 @@
         <v>45</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J119" s="0"/>
       <c r="K119" s="9" t="n">
@@ -12937,7 +12954,7 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
       <c r="R119" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
@@ -12945,7 +12962,7 @@
       <c r="V119" s="9"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
@@ -12976,7 +12993,7 @@
         <v>118</v>
       </c>
       <c r="AO119" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AP119" s="8"/>
       <c r="AQ119" s="8"/>
@@ -12995,14 +13012,14 @@
         <v>45</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>54</v>
@@ -13014,27 +13031,27 @@
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O120" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P120" s="22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q120" s="22"/>
       <c r="R120" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="9"/>
       <c r="W120" s="8"/>
       <c r="X120" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
@@ -13066,7 +13083,7 @@
       </c>
       <c r="AO120" s="8"/>
       <c r="AP120" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AQ120" s="8"/>
     </row>
@@ -13084,17 +13101,17 @@
         <v>45</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="n">
@@ -13110,16 +13127,16 @@
         <v>55</v>
       </c>
       <c r="S121" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
       <c r="V121" s="9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="W121" s="8"/>
       <c r="X121" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
@@ -13151,7 +13168,7 @@
       </c>
       <c r="AO121" s="8"/>
       <c r="AP121" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AQ121" s="8"/>
     </row>
@@ -13169,30 +13186,30 @@
         <v>45</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O122" s="16" t="s">
         <v>62</v>
       </c>
       <c r="P122" s="16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q122" s="16"/>
       <c r="R122" s="8" t="s">
@@ -13206,7 +13223,7 @@
       <c r="V122" s="9"/>
       <c r="W122" s="8"/>
       <c r="X122" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
@@ -13228,7 +13245,7 @@
       <c r="AH122" s="9"/>
       <c r="AI122" s="9"/>
       <c r="AJ122" s="9" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9"/>
@@ -13240,7 +13257,7 @@
       </c>
       <c r="AO122" s="8"/>
       <c r="AP122" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AQ122" s="8"/>
     </row>
@@ -13255,20 +13272,20 @@
         <v>44</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J123" s="0"/>
       <c r="K123" s="9" t="n">
@@ -13281,7 +13298,7 @@
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
@@ -13289,7 +13306,7 @@
       <c r="V123" s="9"/>
       <c r="W123" s="8"/>
       <c r="X123" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
@@ -13310,10 +13327,10 @@
       <c r="AG123" s="9"/>
       <c r="AH123" s="9"/>
       <c r="AI123" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AJ123" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9"/>
@@ -13324,7 +13341,7 @@
         <v>122</v>
       </c>
       <c r="AO123" s="11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AP123" s="8"/>
       <c r="AQ123" s="8"/>
@@ -13340,17 +13357,17 @@
         <v>44</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I124" s="9" t="s">
         <v>54</v>
@@ -13362,7 +13379,7 @@
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O124" s="16" t="s">
         <v>62</v>
@@ -13380,7 +13397,7 @@
       <c r="V124" s="9"/>
       <c r="W124" s="8"/>
       <c r="X124" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
@@ -13412,7 +13429,7 @@
       </c>
       <c r="AO124" s="8"/>
       <c r="AP124" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AQ124" s="8"/>
     </row>
@@ -13427,17 +13444,17 @@
         <v>44</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>54</v>
@@ -13449,7 +13466,7 @@
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O125" s="16" t="s">
         <v>71</v>
@@ -13467,7 +13484,7 @@
       <c r="V125" s="9"/>
       <c r="W125" s="8"/>
       <c r="X125" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
@@ -13499,7 +13516,7 @@
       </c>
       <c r="AO125" s="8"/>
       <c r="AP125" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AQ125" s="8"/>
     </row>
@@ -13517,17 +13534,17 @@
         <v>45</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J126" s="0"/>
       <c r="K126" s="9" t="n">
@@ -13540,7 +13557,7 @@
       <c r="P126" s="22"/>
       <c r="Q126" s="22"/>
       <c r="R126" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
@@ -13548,7 +13565,7 @@
       <c r="V126" s="9"/>
       <c r="W126" s="8"/>
       <c r="X126" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
@@ -13579,7 +13596,7 @@
         <v>125</v>
       </c>
       <c r="AO126" s="11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AP126" s="8"/>
       <c r="AQ126" s="8"/>
@@ -13598,14 +13615,14 @@
         <v>45</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>54</v>
@@ -13617,27 +13634,27 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O127" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P127" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q127" s="22"/>
       <c r="R127" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S127" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
       <c r="V127" s="9"/>
       <c r="W127" s="8"/>
       <c r="X127" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
@@ -13669,7 +13686,7 @@
       </c>
       <c r="AO127" s="8"/>
       <c r="AP127" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AQ127" s="8"/>
     </row>
@@ -13687,17 +13704,17 @@
         <v>45</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="n">
@@ -13713,16 +13730,16 @@
         <v>55</v>
       </c>
       <c r="S128" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="9" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="W128" s="8"/>
       <c r="X128" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
@@ -13754,7 +13771,7 @@
       </c>
       <c r="AO128" s="8"/>
       <c r="AP128" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AQ128" s="8"/>
     </row>
@@ -13772,17 +13789,17 @@
         <v>45</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="n">
@@ -13803,7 +13820,7 @@
       <c r="V129" s="9"/>
       <c r="W129" s="8"/>
       <c r="X129" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
@@ -13834,10 +13851,10 @@
         <v>128</v>
       </c>
       <c r="AO129" s="11" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AP129" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AQ129" s="8"/>
     </row>
@@ -13855,27 +13872,27 @@
         <v>45</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
       <c r="N130" s="37" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O130" s="38" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
@@ -13890,7 +13907,7 @@
       <c r="V130" s="9"/>
       <c r="W130" s="8"/>
       <c r="X130" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
@@ -13912,7 +13929,7 @@
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
       <c r="AJ130" s="9" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
@@ -13924,7 +13941,7 @@
       </c>
       <c r="AO130" s="8"/>
       <c r="AP130" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AQ130" s="8"/>
     </row>
@@ -13942,27 +13959,27 @@
         <v>45</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="9" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
       <c r="N131" s="37" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O131" s="38" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P131" s="16"/>
       <c r="Q131" s="16"/>
@@ -13977,7 +13994,7 @@
       <c r="V131" s="9"/>
       <c r="W131" s="8"/>
       <c r="X131" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
@@ -13999,7 +14016,7 @@
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
       <c r="AJ131" s="9" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
@@ -14011,7 +14028,7 @@
       </c>
       <c r="AO131" s="8"/>
       <c r="AP131" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AQ131" s="8"/>
     </row>
@@ -14026,20 +14043,20 @@
         <v>44</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J132" s="0"/>
       <c r="K132" s="9" t="n">
@@ -14052,7 +14069,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
       <c r="R132" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S132" s="8"/>
       <c r="T132" s="8"/>
@@ -14060,7 +14077,7 @@
       <c r="V132" s="9"/>
       <c r="W132" s="8"/>
       <c r="X132" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
@@ -14081,10 +14098,10 @@
       <c r="AG132" s="9"/>
       <c r="AH132" s="9"/>
       <c r="AI132" s="9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AJ132" s="9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
@@ -14095,7 +14112,7 @@
         <v>131</v>
       </c>
       <c r="AO132" s="11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AP132" s="8"/>
       <c r="AQ132" s="8"/>
@@ -14111,17 +14128,17 @@
         <v>44</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>54</v>
@@ -14133,10 +14150,10 @@
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
       <c r="N133" s="37" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O133" s="38" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P133" s="16"/>
       <c r="Q133" s="16"/>
@@ -14151,7 +14168,7 @@
       <c r="V133" s="9"/>
       <c r="W133" s="8"/>
       <c r="X133" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
@@ -14183,7 +14200,7 @@
       </c>
       <c r="AO133" s="8"/>
       <c r="AP133" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AQ133" s="8"/>
     </row>
@@ -14198,17 +14215,17 @@
         <v>44</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="9" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>54</v>
@@ -14220,10 +14237,10 @@
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
       <c r="N134" s="37" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O134" s="38" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
@@ -14238,7 +14255,7 @@
       <c r="V134" s="9"/>
       <c r="W134" s="8"/>
       <c r="X134" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
@@ -14270,7 +14287,7 @@
       </c>
       <c r="AO134" s="8"/>
       <c r="AP134" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AQ134" s="8"/>
     </row>
@@ -14285,17 +14302,17 @@
         <v>44</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>54</v>
@@ -14307,7 +14324,7 @@
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
       <c r="N135" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O135" s="16" t="n">
         <v>4607042438738</v>
@@ -14325,7 +14342,7 @@
       <c r="V135" s="9"/>
       <c r="W135" s="8"/>
       <c r="X135" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
@@ -14357,7 +14374,7 @@
       </c>
       <c r="AO135" s="8"/>
       <c r="AP135" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AQ135" s="8"/>
     </row>
@@ -14372,17 +14389,17 @@
         <v>44</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="9" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>54</v>
@@ -14394,7 +14411,7 @@
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
       <c r="N136" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O136" s="16" t="n">
         <v>4607042438950</v>
@@ -14412,7 +14429,7 @@
       <c r="V136" s="9"/>
       <c r="W136" s="8"/>
       <c r="X136" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
@@ -14444,7 +14461,7 @@
       </c>
       <c r="AO136" s="8"/>
       <c r="AP136" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AQ136" s="8"/>
     </row>
@@ -14462,17 +14479,17 @@
         <v>45</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J137" s="0"/>
       <c r="K137" s="9" t="n">
@@ -14485,7 +14502,7 @@
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S137" s="8"/>
       <c r="T137" s="8"/>
@@ -14493,7 +14510,7 @@
       <c r="V137" s="9"/>
       <c r="W137" s="8"/>
       <c r="X137" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
@@ -14522,7 +14539,7 @@
         <v>136</v>
       </c>
       <c r="AO137" s="11" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AP137" s="8"/>
       <c r="AQ137" s="8"/>
@@ -14541,14 +14558,14 @@
         <v>45</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>54</v>
@@ -14560,27 +14577,27 @@
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O138" s="22" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P138" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S138" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
       <c r="V138" s="9"/>
       <c r="W138" s="8"/>
       <c r="X138" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
@@ -14610,7 +14627,7 @@
       </c>
       <c r="AO138" s="8"/>
       <c r="AP138" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AQ138" s="8"/>
     </row>
@@ -14628,17 +14645,17 @@
         <v>45</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="n">
@@ -14654,16 +14671,16 @@
         <v>55</v>
       </c>
       <c r="S139" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
       <c r="V139" s="9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="W139" s="8"/>
       <c r="X139" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
@@ -14693,7 +14710,7 @@
       </c>
       <c r="AO139" s="8"/>
       <c r="AP139" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AQ139" s="8"/>
     </row>
@@ -14711,17 +14728,17 @@
         <v>45</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="n">
@@ -14742,7 +14759,7 @@
       <c r="V140" s="9"/>
       <c r="W140" s="8"/>
       <c r="X140" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
@@ -14771,10 +14788,10 @@
         <v>139</v>
       </c>
       <c r="AO140" s="11" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AP140" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AQ140" s="8"/>
     </row>
@@ -14792,24 +14809,24 @@
         <v>45</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
       <c r="N141" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O141" s="16" t="n">
         <v>5449000189318</v>
@@ -14827,7 +14844,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="8"/>
       <c r="X141" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
@@ -14847,7 +14864,7 @@
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
       <c r="AJ141" s="9" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
@@ -14859,7 +14876,7 @@
       </c>
       <c r="AO141" s="8"/>
       <c r="AP141" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AQ141" s="8"/>
     </row>
@@ -14877,24 +14894,24 @@
         <v>45</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F142" s="8"/>
       <c r="G142" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
       <c r="N142" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O142" s="16" t="n">
         <v>5449000233509</v>
@@ -14912,7 +14929,7 @@
       <c r="V142" s="9"/>
       <c r="W142" s="8"/>
       <c r="X142" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
@@ -14932,7 +14949,7 @@
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
       <c r="AJ142" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
@@ -14944,7 +14961,7 @@
       </c>
       <c r="AO142" s="8"/>
       <c r="AP142" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AQ142" s="8"/>
     </row>
@@ -14962,17 +14979,17 @@
         <v>45</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="0"/>
@@ -14983,7 +15000,7 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="S143" s="8"/>
       <c r="T143" s="8"/>
@@ -15000,7 +15017,7 @@
         <v>50</v>
       </c>
       <c r="AE143" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF143" s="17" t="n">
         <v>0.09</v>
@@ -15009,7 +15026,7 @@
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
       <c r="AJ143" s="9" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
@@ -15020,7 +15037,7 @@
         <v>142</v>
       </c>
       <c r="AO143" s="11" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AP143" s="8"/>
       <c r="AQ143" s="8"/>
@@ -15039,17 +15056,17 @@
         <v>45</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="9" t="n">
@@ -15060,23 +15077,23 @@
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="8"/>
       <c r="S144" s="9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="8"/>
       <c r="W144" s="8"/>
       <c r="X144" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
@@ -15106,7 +15123,7 @@
       </c>
       <c r="AO144" s="8"/>
       <c r="AP144" s="8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AQ144" s="8"/>
     </row>
@@ -15124,17 +15141,17 @@
         <v>45</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="n">
@@ -15143,23 +15160,23 @@
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
       <c r="N145" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
       <c r="V145" s="8"/>
       <c r="W145" s="8"/>
       <c r="X145" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
@@ -15189,7 +15206,7 @@
       </c>
       <c r="AO145" s="8"/>
       <c r="AP145" s="8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AQ145" s="8"/>
     </row>
@@ -15207,17 +15224,17 @@
         <v>45</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="n">
@@ -15231,16 +15248,16 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="8"/>
       <c r="S146" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
       <c r="V146" s="9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="W146" s="8"/>
       <c r="X146" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
@@ -15259,10 +15276,10 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ146" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
@@ -15274,7 +15291,7 @@
       </c>
       <c r="AO146" s="8"/>
       <c r="AP146" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ146" s="8"/>
     </row>
@@ -15292,17 +15309,17 @@
         <v>45</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J147" s="0"/>
       <c r="K147" s="2"/>
@@ -15313,7 +15330,7 @@
         <v>26</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
@@ -15325,7 +15342,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="8"/>
       <c r="X147" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
@@ -15336,7 +15353,7 @@
         <v>50</v>
       </c>
       <c r="AE147" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF147" s="17" t="n">
         <v>0.0225</v>
@@ -15344,10 +15361,10 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ147" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
@@ -15359,7 +15376,7 @@
       </c>
       <c r="AO147" s="8"/>
       <c r="AP147" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ147" s="8"/>
     </row>
@@ -15377,17 +15394,17 @@
         <v>45</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="9" t="n">
@@ -15400,7 +15417,7 @@
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
       <c r="R148" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S148" s="8"/>
       <c r="T148" s="8"/>
@@ -15408,7 +15425,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="8"/>
       <c r="X148" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
@@ -15419,7 +15436,7 @@
         <v>50</v>
       </c>
       <c r="AE148" s="9" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AF148" s="17" t="n">
         <v>0.0225</v>
@@ -15431,10 +15448,10 @@
         <v>1</v>
       </c>
       <c r="AI148" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ148" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
@@ -15445,10 +15462,10 @@
         <v>147</v>
       </c>
       <c r="AO148" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AP148" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ148" s="8"/>
     </row>
@@ -15466,14 +15483,14 @@
         <v>45</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I149" s="9" t="s">
         <v>54</v>
@@ -15503,7 +15520,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
@@ -15522,10 +15539,10 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ149" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
@@ -15537,7 +15554,7 @@
       </c>
       <c r="AO149" s="8"/>
       <c r="AP149" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ149" s="8"/>
     </row>
@@ -15555,14 +15572,14 @@
         <v>45</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="9" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I150" s="9" t="s">
         <v>54</v>
@@ -15592,7 +15609,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="8"/>
       <c r="X150" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
@@ -15611,10 +15628,10 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ150" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
@@ -15626,7 +15643,7 @@
       </c>
       <c r="AO150" s="8"/>
       <c r="AP150" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ150" s="8"/>
     </row>
@@ -15644,14 +15661,14 @@
         <v>45</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="9" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>54</v>
@@ -15681,7 +15698,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="8"/>
       <c r="X151" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -15700,10 +15717,10 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ151" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
@@ -15715,7 +15732,7 @@
       </c>
       <c r="AO151" s="8"/>
       <c r="AP151" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ151" s="8"/>
     </row>
@@ -15733,14 +15750,14 @@
         <v>45</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I152" s="9" t="s">
         <v>54</v>
@@ -15770,7 +15787,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="8"/>
       <c r="X152" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -15789,10 +15806,10 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ152" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
@@ -15804,7 +15821,7 @@
       </c>
       <c r="AO152" s="8"/>
       <c r="AP152" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ152" s="8"/>
     </row>
@@ -15822,14 +15839,14 @@
         <v>45</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="9" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>54</v>
@@ -15859,7 +15876,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="8"/>
       <c r="X153" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -15878,10 +15895,10 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ153" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
@@ -15893,7 +15910,7 @@
       </c>
       <c r="AO153" s="8"/>
       <c r="AP153" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ153" s="8"/>
     </row>
@@ -15911,14 +15928,14 @@
         <v>45</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I154" s="9" t="s">
         <v>54</v>
@@ -15948,7 +15965,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="8"/>
       <c r="X154" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
@@ -15967,10 +15984,10 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ154" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
@@ -15982,7 +15999,7 @@
       </c>
       <c r="AO154" s="8"/>
       <c r="AP154" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ154" s="8"/>
     </row>
@@ -16000,14 +16017,14 @@
         <v>45</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>54</v>
@@ -16037,7 +16054,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="8"/>
       <c r="X155" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
@@ -16056,10 +16073,10 @@
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -16071,7 +16088,7 @@
       </c>
       <c r="AO155" s="8"/>
       <c r="AP155" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ155" s="8"/>
     </row>
@@ -16089,14 +16106,14 @@
         <v>45</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>54</v>
@@ -16126,7 +16143,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="8"/>
       <c r="X156" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
@@ -16145,10 +16162,10 @@
       <c r="AG156" s="9"/>
       <c r="AH156" s="9"/>
       <c r="AI156" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ156" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK156" s="9"/>
       <c r="AL156" s="9"/>
@@ -16160,7 +16177,7 @@
       </c>
       <c r="AO156" s="8"/>
       <c r="AP156" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ156" s="8"/>
     </row>
@@ -16178,14 +16195,14 @@
         <v>45</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>54</v>
@@ -16215,7 +16232,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="8"/>
       <c r="X157" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
@@ -16234,10 +16251,10 @@
       <c r="AG157" s="9"/>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ157" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK157" s="9"/>
       <c r="AL157" s="9"/>
@@ -16249,7 +16266,7 @@
       </c>
       <c r="AO157" s="8"/>
       <c r="AP157" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ157" s="8"/>
     </row>
@@ -16267,14 +16284,14 @@
         <v>45</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>54</v>
@@ -16304,7 +16321,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="8"/>
       <c r="X158" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
@@ -16323,10 +16340,10 @@
       <c r="AG158" s="9"/>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ158" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK158" s="9"/>
       <c r="AL158" s="9"/>
@@ -16338,7 +16355,7 @@
       </c>
       <c r="AO158" s="8"/>
       <c r="AP158" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ158" s="8"/>
     </row>
@@ -16356,14 +16373,14 @@
         <v>45</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>54</v>
@@ -16375,10 +16392,10 @@
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
@@ -16393,7 +16410,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="8"/>
       <c r="X159" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
@@ -16412,10 +16429,10 @@
       <c r="AG159" s="9"/>
       <c r="AH159" s="9"/>
       <c r="AI159" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ159" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK159" s="9"/>
       <c r="AL159" s="9"/>
@@ -16427,7 +16444,7 @@
       </c>
       <c r="AO159" s="8"/>
       <c r="AP159" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ159" s="8"/>
     </row>
@@ -16445,14 +16462,14 @@
         <v>45</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>54</v>
@@ -16464,10 +16481,10 @@
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="O160" s="16" t="s">
-        <v>481</v>
+        <v>484</v>
+      </c>
+      <c r="O160" s="41" t="s">
+        <v>485</v>
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="22"/>
@@ -16482,7 +16499,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="8"/>
       <c r="X160" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
@@ -16501,10 +16518,10 @@
       <c r="AG160" s="9"/>
       <c r="AH160" s="9"/>
       <c r="AI160" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ160" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK160" s="9"/>
       <c r="AL160" s="9"/>
@@ -16516,7 +16533,7 @@
       </c>
       <c r="AO160" s="8"/>
       <c r="AP160" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ160" s="8"/>
     </row>
@@ -16534,14 +16551,14 @@
         <v>45</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>54</v>
@@ -16571,7 +16588,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -16590,10 +16607,10 @@
       <c r="AG161" s="9"/>
       <c r="AH161" s="9"/>
       <c r="AI161" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ161" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK161" s="9"/>
       <c r="AL161" s="9"/>
@@ -16605,7 +16622,7 @@
       </c>
       <c r="AO161" s="8"/>
       <c r="AP161" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ161" s="8"/>
     </row>
@@ -16623,14 +16640,14 @@
         <v>45</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F162" s="8"/>
       <c r="G162" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>54</v>
@@ -16660,7 +16677,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="8"/>
       <c r="X162" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
@@ -16679,10 +16696,10 @@
       <c r="AG162" s="9"/>
       <c r="AH162" s="9"/>
       <c r="AI162" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ162" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK162" s="9"/>
       <c r="AL162" s="9"/>
@@ -16694,7 +16711,7 @@
       </c>
       <c r="AO162" s="8"/>
       <c r="AP162" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ162" s="8"/>
     </row>
@@ -16712,14 +16729,14 @@
         <v>45</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>54</v>
@@ -16749,7 +16766,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="8"/>
       <c r="X163" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
@@ -16768,10 +16785,10 @@
       <c r="AG163" s="9"/>
       <c r="AH163" s="9"/>
       <c r="AI163" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ163" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK163" s="9"/>
       <c r="AL163" s="9"/>
@@ -16783,7 +16800,7 @@
       </c>
       <c r="AO163" s="8"/>
       <c r="AP163" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ163" s="8"/>
     </row>
@@ -16801,14 +16818,14 @@
         <v>45</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>54</v>
@@ -16838,7 +16855,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="8"/>
       <c r="X164" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
@@ -16857,10 +16874,10 @@
       <c r="AG164" s="9"/>
       <c r="AH164" s="9"/>
       <c r="AI164" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ164" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK164" s="9"/>
       <c r="AL164" s="9"/>
@@ -16872,7 +16889,7 @@
       </c>
       <c r="AO164" s="8"/>
       <c r="AP164" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AQ164" s="8"/>
     </row>
@@ -16890,40 +16907,40 @@
         <v>45</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O165" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="8"/>
       <c r="S165" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
       <c r="V165" s="8"/>
       <c r="W165" s="8"/>
       <c r="X165" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="8"/>
@@ -16934,7 +16951,7 @@
         <v>50</v>
       </c>
       <c r="AE165" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF165" s="17" t="n">
         <v>0.0225</v>
@@ -16942,10 +16959,10 @@
       <c r="AG165" s="9"/>
       <c r="AH165" s="9"/>
       <c r="AI165" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AJ165" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK165" s="9"/>
       <c r="AL165" s="9"/>
@@ -16957,7 +16974,7 @@
       </c>
       <c r="AO165" s="8"/>
       <c r="AP165" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AQ165" s="8"/>
     </row>
@@ -16972,20 +16989,20 @@
         <v>44</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E166" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="F166" s="41"/>
+        <v>260</v>
+      </c>
+      <c r="E166" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F166" s="42"/>
       <c r="G166" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
@@ -17006,7 +17023,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -17017,7 +17034,7 @@
         <v>50</v>
       </c>
       <c r="AE166" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF166" s="17" t="n">
         <v>0.02</v>
@@ -17035,10 +17052,10 @@
         <v>165</v>
       </c>
       <c r="AO166" s="35" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AP166" s="39" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AQ166" s="8"/>
     </row>
@@ -17053,20 +17070,20 @@
         <v>44</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E167" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="F167" s="41"/>
+        <v>260</v>
+      </c>
+      <c r="E167" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F167" s="42"/>
       <c r="G167" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J167" s="0"/>
       <c r="K167" s="1" t="n">
@@ -17077,10 +17094,10 @@
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O167" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
@@ -17088,14 +17105,14 @@
         <v>55</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9"/>
       <c r="W167" s="9"/>
       <c r="X167" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17106,7 +17123,7 @@
         <v>50</v>
       </c>
       <c r="AE167" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AF167" s="17" t="n">
         <v>1</v>
@@ -17115,7 +17132,7 @@
       <c r="AH167" s="9"/>
       <c r="AI167" s="9"/>
       <c r="AJ167" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AK167" s="9"/>
       <c r="AL167" s="9"/>
@@ -17127,7 +17144,7 @@
       </c>
       <c r="AO167" s="8"/>
       <c r="AP167" s="12" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AQ167" s="8"/>
     </row>
@@ -17142,20 +17159,20 @@
         <v>44</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9" t="n">
@@ -17185,7 +17202,7 @@
         <v>50</v>
       </c>
       <c r="AE168" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF168" s="17" t="n">
         <v>0.03</v>
@@ -17203,10 +17220,10 @@
         <v>167</v>
       </c>
       <c r="AO168" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="AP168" s="42" t="s">
-        <v>505</v>
+        <v>508</v>
+      </c>
+      <c r="AP168" s="43" t="s">
+        <v>509</v>
       </c>
       <c r="AQ168" s="8"/>
     </row>
@@ -17221,20 +17238,20 @@
         <v>44</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F169" s="8"/>
       <c r="G169" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="9" t="n">
@@ -17250,15 +17267,15 @@
         <v>55</v>
       </c>
       <c r="S169" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
       <c r="V169" s="9"/>
       <c r="W169" s="9"/>
       <c r="X169" s="9"/>
-      <c r="Y169" s="43" t="s">
-        <v>509</v>
+      <c r="Y169" s="44" t="s">
+        <v>513</v>
       </c>
       <c r="Z169" s="9"/>
       <c r="AA169" s="8"/>
@@ -17287,7 +17304,7 @@
       </c>
       <c r="AO169" s="9"/>
       <c r="AP169" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AQ169" s="8"/>
     </row>
@@ -17302,20 +17319,20 @@
         <v>44</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="9" t="n">
@@ -17331,15 +17348,15 @@
         <v>55</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
       <c r="V170" s="9"/>
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
-      <c r="Y170" s="44" t="s">
-        <v>512</v>
+      <c r="Y170" s="45" t="s">
+        <v>516</v>
       </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="8"/>
@@ -17368,7 +17385,7 @@
       </c>
       <c r="AO170" s="9"/>
       <c r="AP170" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AQ170" s="8"/>
     </row>
@@ -17383,20 +17400,20 @@
         <v>44</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="H171" s="44" t="s">
-        <v>514</v>
+        <v>517</v>
+      </c>
+      <c r="H171" s="45" t="s">
+        <v>518</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="9" t="n">
@@ -17412,15 +17429,15 @@
         <v>55</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
       <c r="V171" s="9"/>
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
-      <c r="Y171" s="44" t="s">
-        <v>515</v>
+      <c r="Y171" s="45" t="s">
+        <v>519</v>
       </c>
       <c r="Z171" s="9"/>
       <c r="AA171" s="8"/>
@@ -17449,7 +17466,7 @@
       </c>
       <c r="AO171" s="9"/>
       <c r="AP171" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AQ171" s="8"/>
     </row>
@@ -17464,20 +17481,20 @@
         <v>44</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F172" s="8"/>
-      <c r="G172" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="H172" s="44" t="s">
-        <v>517</v>
+      <c r="G172" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="H172" s="45" t="s">
+        <v>521</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="9" t="n">
@@ -17493,15 +17510,15 @@
         <v>55</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
       <c r="V172" s="9"/>
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
-      <c r="Y172" s="44" t="s">
-        <v>518</v>
+      <c r="Y172" s="45" t="s">
+        <v>522</v>
       </c>
       <c r="Z172" s="9"/>
       <c r="AA172" s="8"/>
@@ -17530,7 +17547,7 @@
       </c>
       <c r="AO172" s="9"/>
       <c r="AP172" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AQ172" s="8"/>
     </row>
@@ -17544,24 +17561,24 @@
       <c r="C173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D173" s="45" t="s">
-        <v>519</v>
+      <c r="D173" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -17572,7 +17589,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -17586,7 +17603,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
-      <c r="AF173" s="46" t="n">
+      <c r="AF173" s="47" t="n">
         <v>0</v>
       </c>
       <c r="AG173" s="8"/>
@@ -17600,7 +17617,7 @@
         <v>172</v>
       </c>
       <c r="AO173" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AP173" s="8"/>
       <c r="AQ173" s="8"/>
@@ -17615,24 +17632,24 @@
       <c r="C174" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="45" t="s">
-        <v>519</v>
+      <c r="D174" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E174" s="39" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="G174" s="42" t="s">
-        <v>505</v>
+        <v>531</v>
+      </c>
+      <c r="G174" s="43" t="s">
+        <v>509</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -17643,7 +17660,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -17657,7 +17674,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
-      <c r="AF174" s="47" t="n">
+      <c r="AF174" s="48" t="n">
         <v>0</v>
       </c>
       <c r="AG174" s="8"/>
@@ -17686,24 +17703,24 @@
       <c r="C175" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="45" t="s">
-        <v>519</v>
+      <c r="D175" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E175" s="39" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -17714,7 +17731,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -17728,7 +17745,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
-      <c r="AF175" s="46" t="n">
+      <c r="AF175" s="47" t="n">
         <v>0</v>
       </c>
       <c r="AG175" s="8"/>
@@ -17742,7 +17759,7 @@
         <v>174</v>
       </c>
       <c r="AO175" s="9" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AP175" s="8"/>
       <c r="AQ175" s="8"/>
@@ -17757,24 +17774,24 @@
       <c r="C176" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D176" s="45" t="s">
-        <v>519</v>
+      <c r="D176" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E176" s="39" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G176" s="39" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -17785,7 +17802,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -17799,7 +17816,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
-      <c r="AF176" s="46" t="n">
+      <c r="AF176" s="47" t="n">
         <v>0</v>
       </c>
       <c r="AG176" s="8"/>
@@ -17828,24 +17845,24 @@
       <c r="C177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="45" t="s">
-        <v>519</v>
+      <c r="D177" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E177" s="39" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -17856,7 +17873,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -17870,7 +17887,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AE177" s="8"/>
-      <c r="AF177" s="46" t="n">
+      <c r="AF177" s="47" t="n">
         <v>0</v>
       </c>
       <c r="AG177" s="8"/>
@@ -17884,7 +17901,7 @@
         <v>176</v>
       </c>
       <c r="AO177" s="9" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AP177" s="8"/>
       <c r="AQ177" s="8"/>
@@ -17899,37 +17916,37 @@
       <c r="C178" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="45" t="s">
-        <v>519</v>
+      <c r="D178" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E178" s="39" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="9" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -17937,7 +17954,7 @@
       <c r="W178" s="8"/>
       <c r="X178" s="8"/>
       <c r="Y178" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
@@ -17972,24 +17989,24 @@
       <c r="C179" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D179" s="45" t="s">
-        <v>519</v>
+      <c r="D179" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E179" s="39" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -18002,7 +18019,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T179" s="8"/>
       <c r="U179" s="8"/>
@@ -18010,7 +18027,7 @@
       <c r="W179" s="8"/>
       <c r="X179" s="8"/>
       <c r="Y179" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
@@ -18045,37 +18062,37 @@
       <c r="C180" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D180" s="45" t="s">
-        <v>519</v>
+      <c r="D180" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E180" s="39" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T180" s="8"/>
       <c r="U180" s="8"/>
@@ -18083,7 +18100,7 @@
       <c r="W180" s="8"/>
       <c r="X180" s="8"/>
       <c r="Y180" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -18118,39 +18135,39 @@
       <c r="C181" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D181" s="45" t="s">
-        <v>519</v>
+      <c r="D181" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E181" s="39" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
       <c r="O181" s="9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T181" s="8"/>
       <c r="U181" s="8"/>
@@ -18158,7 +18175,7 @@
       <c r="W181" s="8"/>
       <c r="X181" s="8"/>
       <c r="Y181" s="9" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
@@ -18195,39 +18212,39 @@
       <c r="C182" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D182" s="45" t="s">
-        <v>519</v>
+      <c r="D182" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E182" s="39" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G182" s="39" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
       <c r="O182" s="9" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -18235,7 +18252,7 @@
       <c r="W182" s="8"/>
       <c r="X182" s="8"/>
       <c r="Y182" s="9" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -18272,39 +18289,39 @@
       <c r="C183" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D183" s="45" t="s">
-        <v>519</v>
+      <c r="D183" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E183" s="39" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F183" s="39" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G183" s="39" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
       <c r="O183" s="9" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T183" s="8"/>
       <c r="U183" s="8"/>
@@ -18312,7 +18329,7 @@
       <c r="W183" s="8"/>
       <c r="X183" s="8"/>
       <c r="Y183" s="9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
@@ -18349,39 +18366,39 @@
       <c r="C184" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D184" s="45" t="s">
-        <v>519</v>
+      <c r="D184" s="46" t="s">
+        <v>523</v>
       </c>
       <c r="E184" s="39" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F184" s="39" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G184" s="39" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
       <c r="O184" s="9" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
@@ -18389,7 +18406,7 @@
       <c r="W184" s="8"/>
       <c r="X184" s="8"/>
       <c r="Y184" s="9" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
@@ -18456,13 +18473,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
-        <v>509</v>
+      <c r="A1" s="49" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>445</v>
+      <c r="A2" s="50" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -18493,36 +18510,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>431</v>
+      <c r="B1" s="51" t="s">
+        <v>435</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>490</v>
+        <v>575</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>494</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="0" t="n">
         <v>0.7</v>
       </c>
@@ -18530,19 +18547,19 @@
         <f aca="false">C2*$C$6</f>
         <v>19.6</v>
       </c>
-      <c r="E2" s="51" t="n">
+      <c r="E2" s="52" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="50"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="52" t="n">
+      <c r="J2" s="53" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -18550,19 +18567,19 @@
         <f aca="false">C3*$C$6</f>
         <v>28</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="54" t="n">
         <v>22</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="54" t="n">
+      <c r="J3" s="55" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
@@ -18570,28 +18587,28 @@
         <f aca="false">C4*$C$6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="53" t="n">
+      <c r="E4" s="54" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="55" t="n">
+      <c r="F4" s="56" t="n">
         <f aca="false">C2/SUM(C2:C4)</f>
         <v>0.189189189189189</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="52" t="n">
+      <c r="J4" s="53" t="n">
         <v>0.99</v>
       </c>
-      <c r="K4" s="56" t="n">
+      <c r="K4" s="57" t="n">
         <f aca="false">SUM(I2,I4)/SUM(I2:I4)</f>
         <v>0.72972972972973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -18625,49 +18642,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>574</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>575</v>
-      </c>
-      <c r="I1" s="58" t="s">
+      <c r="G1" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="L1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="59" t="s">
-        <v>577</v>
+      <c r="B4" s="60" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -12,11 +12,11 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
@@ -67,6 +67,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="615">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2115,12 +2116,6 @@
     <t xml:space="preserve">Company Display: Ice Tea Other
 Company Display: Ice Tea Freezer/Cooler-Side
 Company Display: Ice Tea Europallet/ 1/2 pallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -2292,7 +2287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2378,10 +2373,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2483,46 +2474,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:312"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AB33" activeCellId="0" sqref="AB33"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AB185" activeCellId="0" sqref="AB185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19244,398 +19234,268 @@
       <c r="AP184" s="5"/>
       <c r="AQ184" s="5"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH185" s="7"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH186" s="7"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH187" s="7"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH188" s="7"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH189" s="7"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH190" s="7"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH191" s="7"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH192" s="7"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH193" s="7"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH194" s="7"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH195" s="7"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH196" s="7"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH197" s="7"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH198" s="7"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH199" s="7"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH200" s="7"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH201" s="7"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH202" s="7"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH203" s="7"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH204" s="7"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH205" s="7"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH206" s="7"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH207" s="7"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH208" s="7"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH209" s="7"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH210" s="7"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH211" s="7"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH212" s="7"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH213" s="7"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH214" s="7"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH215" s="7"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH216" s="7"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH217" s="7"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH218" s="7"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH219" s="7"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH220" s="7"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH221" s="7"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH222" s="7"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH223" s="7"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH224" s="7"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH225" s="7"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH226" s="7"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH227" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH228" s="7"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH229" s="7"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH230" s="7"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH231" s="7"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH232" s="7"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH233" s="7"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH234" s="7"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH235" s="7"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH236" s="7"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH237" s="7"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH238" s="7"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH239" s="7"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH240" s="7"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH241" s="7"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH242" s="7"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH243" s="7"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH244" s="7"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH245" s="7"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH246" s="7"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH247" s="7"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH248" s="7"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH249" s="7"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH250" s="7"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH251" s="7"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH252" s="7"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH253" s="7"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH254" s="7"/>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH255" s="7"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH256" s="7"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH257" s="7"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH258" s="7"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH259" s="7"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH260" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH261" s="7"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH262" s="7"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH263" s="7"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH264" s="7"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH265" s="7"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH266" s="7"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH267" s="7"/>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH268" s="7"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH269" s="7"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH270" s="7"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH271" s="7"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH272" s="7"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH273" s="7"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH274" s="7"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH275" s="7"/>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH276" s="7"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH277" s="7"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH278" s="7"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH279" s="7"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH280" s="7"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH281" s="7"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH282" s="7"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH283" s="7"/>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH284" s="7"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH285" s="7"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH286" s="7"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH287" s="22" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH288" s="7"/>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH289" s="7"/>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH290" s="7"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH291" s="7"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH292" s="7"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH293" s="7"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH294" s="7"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH295" s="5"/>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH296" s="5"/>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH297" s="5"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH298" s="5"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH299" s="5"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH300" s="5"/>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH301" s="5"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH302" s="5"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH303" s="5"/>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH304" s="5"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH305" s="5"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH306" s="5"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH307" s="5"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH308" s="5"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH309" s="5"/>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH310" s="5"/>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH311" s="5"/>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH312" s="5"/>
-    </row>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ172"/>
+  <autoFilter ref="A1:AQ184"/>
   <conditionalFormatting sqref="O98:O100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -19674,49 +19534,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="25" t="s">
-        <v>616</v>
+      <c r="B4" s="24" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Convenience Big PoS 2018.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
@@ -68,6 +68,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="617">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -605,10 +606,16 @@
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000189318, 5449000236241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Berry - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
@@ -2188,14 +2195,14 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2257,7 +2264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2283,11 +2290,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2332,6 +2342,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2348,15 +2370,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2389,14 +2415,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf/>
@@ -2476,43 +2503,43 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AB185" activeCellId="0" sqref="AB185"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="AB159" activeCellId="0" sqref="AB159:AB160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="26" min="25" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6573,7 +6600,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="9" t="s">
+      <c r="AB44" s="11" t="s">
         <v>158</v>
       </c>
       <c r="AC44" s="9" t="s">
@@ -6666,8 +6693,8 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="9" t="n">
-        <v>5449000189318</v>
+      <c r="AB45" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="AC45" s="9" t="s">
         <v>159</v>
@@ -6730,10 +6757,10 @@
         <v>42</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P46" s="8" t="n">
         <v>0.0048805</v>
@@ -6759,11 +6786,11 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
-      <c r="AB46" s="9" t="n">
-        <v>5449000233509</v>
+      <c r="AB46" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
@@ -6823,10 +6850,10 @@
         <v>42</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P47" s="8" t="n">
         <v>0.0048805</v>
@@ -6856,7 +6883,7 @@
         <v>5449000233615</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
@@ -6916,10 +6943,10 @@
         <v>42</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P48" s="8" t="n">
         <v>0.003741</v>
@@ -6949,7 +6976,7 @@
         <v>5449000233622</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -7009,10 +7036,10 @@
         <v>42</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P49" s="8" t="n">
         <v>0.003741</v>
@@ -7038,11 +7065,11 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
-      <c r="AB49" s="9" t="s">
+      <c r="AB49" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC49" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="AC49" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
@@ -7102,10 +7129,10 @@
         <v>42</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P50" s="8" t="n">
         <v>0.003741</v>
@@ -7131,11 +7158,11 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
-      <c r="AB50" s="9" t="s">
+      <c r="AB50" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC50" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="AC50" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -7182,23 +7209,23 @@
         <v>48</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5" t="s">
@@ -7259,10 +7286,10 @@
         <v>48</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>51</v>
@@ -7272,10 +7299,10 @@
         <v>50</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P52" s="8" t="n">
         <v>0.0048804</v>
@@ -7305,7 +7332,7 @@
         <v>4607042434877</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
@@ -7352,10 +7379,10 @@
         <v>48</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>52</v>
@@ -7365,10 +7392,10 @@
         <v>50</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P53" s="8" t="n">
         <v>0.0048804</v>
@@ -7398,7 +7425,7 @@
         <v>4607042434891</v>
       </c>
       <c r="AC53" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -7445,10 +7472,10 @@
         <v>48</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>53</v>
@@ -7458,10 +7485,10 @@
         <v>50</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P54" s="8" t="n">
         <v>0.0048804</v>
@@ -7491,7 +7518,7 @@
         <v>4607042438738</v>
       </c>
       <c r="AC54" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -7538,10 +7565,10 @@
         <v>48</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>54</v>
@@ -7551,10 +7578,10 @@
         <v>50</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P55" s="8" t="n">
         <v>0.0048804</v>
@@ -7584,7 +7611,7 @@
         <v>4607042438950</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -7631,10 +7658,10 @@
         <v>48</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>55</v>
@@ -7644,10 +7671,10 @@
         <v>50</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P56" s="8" t="n">
         <v>0.0048804</v>
@@ -7677,7 +7704,7 @@
         <v>4607042434884</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
@@ -7724,10 +7751,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>56</v>
@@ -7737,10 +7764,10 @@
         <v>50</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P57" s="8" t="n">
         <v>0.004042</v>
@@ -7770,7 +7797,7 @@
         <v>4607042431388</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -7817,10 +7844,10 @@
         <v>48</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>57</v>
@@ -7830,10 +7857,10 @@
         <v>50</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P58" s="8" t="n">
         <v>0.004042</v>
@@ -7863,7 +7890,7 @@
         <v>4607042431333</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
@@ -7910,10 +7937,10 @@
         <v>48</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>58</v>
@@ -7923,10 +7950,10 @@
         <v>50</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P59" s="8" t="n">
         <v>0.004042</v>
@@ -7956,7 +7983,7 @@
         <v>4607042438776</v>
       </c>
       <c r="AC59" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -8003,10 +8030,10 @@
         <v>48</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>59</v>
@@ -8016,10 +8043,10 @@
         <v>50</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P60" s="8" t="n">
         <v>0.004042</v>
@@ -8049,7 +8076,7 @@
         <v>4607174577787</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
@@ -8096,10 +8123,10 @@
         <v>48</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>60</v>
@@ -8109,10 +8136,10 @@
         <v>50</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P61" s="8" t="n">
         <v>0.004042</v>
@@ -8142,7 +8169,7 @@
         <v>4607042430619</v>
       </c>
       <c r="AC61" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
@@ -8189,10 +8216,10 @@
         <v>48</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>61</v>
@@ -8202,10 +8229,10 @@
         <v>50</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P62" s="8" t="n">
         <v>0.004042</v>
@@ -8235,7 +8262,7 @@
         <v>4607042430565</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
@@ -8282,10 +8309,10 @@
         <v>48</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>62</v>
@@ -8295,10 +8322,10 @@
         <v>50</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P63" s="8" t="n">
         <v>0.004042</v>
@@ -8328,7 +8355,7 @@
         <v>4607174579309</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -8375,10 +8402,10 @@
         <v>48</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>63</v>
@@ -8388,10 +8415,10 @@
         <v>50</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P64" s="8" t="n">
         <v>0.004042</v>
@@ -8421,7 +8448,7 @@
         <v>4607174579286</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -8468,10 +8495,10 @@
         <v>48</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>64</v>
@@ -8481,10 +8508,10 @@
         <v>50</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P65" s="8" t="n">
         <v>0.004042</v>
@@ -8514,7 +8541,7 @@
         <v>4607174577794</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -8561,10 +8588,10 @@
         <v>48</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>65</v>
@@ -8574,10 +8601,10 @@
         <v>50</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P66" s="8" t="n">
         <v>0.004042</v>
@@ -8607,7 +8634,7 @@
         <v>4607042439155</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
@@ -8654,10 +8681,10 @@
         <v>48</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>66</v>
@@ -8667,10 +8694,10 @@
         <v>50</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P67" s="8" t="n">
         <v>0.004042</v>
@@ -8700,7 +8727,7 @@
         <v>4607042439216</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -8747,10 +8774,10 @@
         <v>48</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>67</v>
@@ -8760,10 +8787,10 @@
         <v>50</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P68" s="8" t="n">
         <v>0.004042</v>
@@ -8793,7 +8820,7 @@
         <v>4607042439223</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -8840,10 +8867,10 @@
         <v>48</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K69" s="5" t="n">
         <v>68</v>
@@ -8853,10 +8880,10 @@
         <v>50</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P69" s="8" t="n">
         <v>0.004042</v>
@@ -8883,10 +8910,10 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
@@ -8933,10 +8960,10 @@
         <v>48</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>69</v>
@@ -8946,10 +8973,10 @@
         <v>50</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P70" s="8" t="n">
         <v>0.004042</v>
@@ -8976,10 +9003,10 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
@@ -9026,10 +9053,10 @@
         <v>48</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K71" s="5" t="n">
         <v>70</v>
@@ -9039,10 +9066,10 @@
         <v>50</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P71" s="8" t="n">
         <v>0.004042</v>
@@ -9069,10 +9096,10 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
@@ -9119,10 +9146,10 @@
         <v>48</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K72" s="5" t="n">
         <v>71</v>
@@ -9132,10 +9159,10 @@
         <v>50</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P72" s="8" t="n">
         <v>0.004042</v>
@@ -9165,7 +9192,7 @@
         <v>4607174577145</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
@@ -9212,10 +9239,10 @@
         <v>48</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>72</v>
@@ -9225,10 +9252,10 @@
         <v>50</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P73" s="8" t="n">
         <v>0.004042</v>
@@ -9258,7 +9285,7 @@
         <v>4607042438998</v>
       </c>
       <c r="AC73" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
@@ -9305,10 +9332,10 @@
         <v>48</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K74" s="5" t="n">
         <v>73</v>
@@ -9318,10 +9345,10 @@
         <v>50</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P74" s="8" t="n">
         <v>0.004042</v>
@@ -9351,7 +9378,7 @@
         <v>4607042431371</v>
       </c>
       <c r="AC74" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
@@ -9398,10 +9425,10 @@
         <v>48</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K75" s="5" t="n">
         <v>74</v>
@@ -9411,10 +9438,10 @@
         <v>50</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P75" s="8" t="n">
         <v>0.004042</v>
@@ -9441,10 +9468,10 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC75" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="AC75" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -9491,10 +9518,10 @@
         <v>48</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K76" s="5" t="n">
         <v>75</v>
@@ -9504,10 +9531,10 @@
         <v>50</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P76" s="8" t="n">
         <v>0.004042</v>
@@ -9537,7 +9564,7 @@
         <v>4650075420287</v>
       </c>
       <c r="AC76" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -9584,10 +9611,10 @@
         <v>48</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K77" s="5" t="n">
         <v>76</v>
@@ -9597,10 +9624,10 @@
         <v>50</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P77" s="8" t="n">
         <v>0.003741</v>
@@ -9630,7 +9657,7 @@
         <v>4650075420249</v>
       </c>
       <c r="AC77" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -9677,10 +9704,10 @@
         <v>48</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K78" s="5" t="n">
         <v>77</v>
@@ -9690,10 +9717,10 @@
         <v>50</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P78" s="8" t="n">
         <v>0.003741</v>
@@ -9723,7 +9750,7 @@
         <v>4650075420980</v>
       </c>
       <c r="AC78" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -9770,10 +9797,10 @@
         <v>48</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K79" s="5" t="n">
         <v>78</v>
@@ -9783,10 +9810,10 @@
         <v>50</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P79" s="8" t="n">
         <v>0.003741</v>
@@ -9812,11 +9839,11 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
-      <c r="AB79" s="11" t="n">
+      <c r="AB79" s="14" t="n">
         <v>4650075421970</v>
       </c>
-      <c r="AC79" s="11" t="s">
-        <v>240</v>
+      <c r="AC79" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
@@ -9863,10 +9890,10 @@
         <v>48</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K80" s="5" t="n">
         <v>79</v>
@@ -9876,10 +9903,10 @@
         <v>50</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P80" s="8" t="n">
         <v>0.003741</v>
@@ -9909,7 +9936,7 @@
         <v>4650075421147</v>
       </c>
       <c r="AC80" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
@@ -9956,10 +9983,10 @@
         <v>48</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K81" s="5" t="n">
         <v>80</v>
@@ -9969,10 +9996,10 @@
         <v>50</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P81" s="8" t="n">
         <v>0.003741</v>
@@ -10002,7 +10029,7 @@
         <v>4650075421932</v>
       </c>
       <c r="AC81" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
@@ -10049,10 +10076,10 @@
         <v>48</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K82" s="5" t="n">
         <v>81</v>
@@ -10062,10 +10089,10 @@
         <v>50</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P82" s="8" t="n">
         <v>0.003741</v>
@@ -10095,7 +10122,7 @@
         <v>4607174579729</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
@@ -10142,10 +10169,10 @@
         <v>48</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K83" s="5" t="n">
         <v>82</v>
@@ -10154,11 +10181,11 @@
       <c r="M83" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="N83" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O83" s="12" t="s">
-        <v>248</v>
+      <c r="N83" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="O83" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="P83" s="8" t="n">
         <v>0.003741</v>
@@ -10185,10 +10212,10 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
@@ -10235,10 +10262,10 @@
         <v>48</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K84" s="5" t="n">
         <v>83</v>
@@ -10248,10 +10275,10 @@
         <v>50</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P84" s="8" t="n">
         <v>0.003741</v>
@@ -10281,7 +10308,7 @@
         <v>4607174579668</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
@@ -10328,10 +10355,10 @@
         <v>48</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K85" s="5" t="n">
         <v>84</v>
@@ -10341,10 +10368,10 @@
         <v>50</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P85" s="8" t="n">
         <v>0.0037195</v>
@@ -10374,7 +10401,7 @@
         <v>4607042438967</v>
       </c>
       <c r="AC85" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
@@ -10421,10 +10448,10 @@
         <v>48</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K86" s="5" t="n">
         <v>85</v>
@@ -10434,10 +10461,10 @@
         <v>50</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P86" s="8" t="n">
         <v>0.0037195</v>
@@ -10467,7 +10494,7 @@
         <v>4607174579248</v>
       </c>
       <c r="AC86" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
@@ -10496,7 +10523,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>45</v>
@@ -10508,41 +10535,41 @@
         <v>2</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K87" s="5" t="n">
         <v>86</v>
       </c>
       <c r="L87" s="5"/>
-      <c r="M87" s="13"/>
+      <c r="M87" s="16"/>
       <c r="N87" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P87" s="8" t="n">
         <v>0.06</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
@@ -10553,22 +10580,22 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH87" s="7"/>
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
       <c r="AK87" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
@@ -10585,51 +10612,51 @@
         <v>43</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F88" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K88" s="5" t="n">
         <v>87</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P88" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R88" s="5"/>
       <c r="S88" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T88" s="5"/>
       <c r="U88" s="5" t="s">
@@ -10653,14 +10680,14 @@
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
       <c r="AK88" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL88" s="5"/>
       <c r="AM88" s="5"/>
       <c r="AN88" s="5"/>
       <c r="AO88" s="5"/>
       <c r="AP88" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ88" s="5"/>
     </row>
@@ -10672,28 +10699,28 @@
         <v>43</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K89" s="5" t="n">
         <v>88</v>
@@ -10703,10 +10730,10 @@
         <v>87</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P89" s="8" t="n">
         <v>0</v>
@@ -10746,14 +10773,14 @@
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
       <c r="AK89" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL89" s="5"/>
       <c r="AM89" s="5"/>
       <c r="AN89" s="5"/>
       <c r="AO89" s="5"/>
       <c r="AP89" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ89" s="5"/>
     </row>
@@ -10765,28 +10792,28 @@
         <v>43</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K90" s="5" t="n">
         <v>89</v>
@@ -10796,10 +10823,10 @@
         <v>87</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P90" s="8" t="n">
         <v>0</v>
@@ -10839,14 +10866,14 @@
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL90" s="5"/>
       <c r="AM90" s="5"/>
       <c r="AN90" s="5"/>
       <c r="AO90" s="5"/>
       <c r="AP90" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ90" s="5"/>
     </row>
@@ -10858,28 +10885,28 @@
         <v>43</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F91" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K91" s="5" t="n">
         <v>90</v>
@@ -10889,10 +10916,10 @@
         <v>87</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P91" s="8" t="n">
         <v>0</v>
@@ -10932,14 +10959,14 @@
       <c r="AI91" s="5"/>
       <c r="AJ91" s="5"/>
       <c r="AK91" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL91" s="5"/>
       <c r="AM91" s="5"/>
       <c r="AN91" s="5"/>
       <c r="AO91" s="5"/>
       <c r="AP91" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ91" s="5"/>
     </row>
@@ -10951,28 +10978,28 @@
         <v>43</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F92" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K92" s="5" t="n">
         <v>91</v>
@@ -10982,10 +11009,10 @@
         <v>87</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P92" s="8" t="n">
         <v>0</v>
@@ -11025,14 +11052,14 @@
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
       <c r="AK92" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL92" s="5"/>
       <c r="AM92" s="5"/>
       <c r="AN92" s="5"/>
       <c r="AO92" s="5"/>
       <c r="AP92" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ92" s="5"/>
     </row>
@@ -11044,28 +11071,28 @@
         <v>43</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K93" s="5" t="n">
         <v>92</v>
@@ -11075,10 +11102,10 @@
         <v>87</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P93" s="8" t="n">
         <v>0</v>
@@ -11108,7 +11135,7 @@
         <v>64</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
@@ -11118,14 +11145,14 @@
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
       <c r="AK93" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL93" s="5"/>
       <c r="AM93" s="5"/>
       <c r="AN93" s="5"/>
       <c r="AO93" s="5"/>
       <c r="AP93" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ93" s="5"/>
     </row>
@@ -11137,28 +11164,28 @@
         <v>43</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K94" s="5" t="n">
         <v>93</v>
@@ -11168,10 +11195,10 @@
         <v>87</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P94" s="8" t="n">
         <v>0</v>
@@ -11201,7 +11228,7 @@
         <v>79</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -11211,14 +11238,14 @@
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL94" s="5"/>
       <c r="AM94" s="5"/>
       <c r="AN94" s="5"/>
       <c r="AO94" s="5"/>
       <c r="AP94" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ94" s="5"/>
     </row>
@@ -11230,28 +11257,28 @@
         <v>43</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F95" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K95" s="5" t="n">
         <v>94</v>
@@ -11261,10 +11288,10 @@
         <v>87</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P95" s="8" t="n">
         <v>0</v>
@@ -11294,7 +11321,7 @@
         <v>76</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
@@ -11304,14 +11331,14 @@
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
       <c r="AK95" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL95" s="5"/>
       <c r="AM95" s="5"/>
       <c r="AN95" s="5"/>
       <c r="AO95" s="5"/>
       <c r="AP95" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ95" s="5"/>
     </row>
@@ -11323,7 +11350,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>45</v>
@@ -11335,41 +11362,41 @@
         <v>2</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K96" s="5" t="n">
         <v>95</v>
       </c>
       <c r="L96" s="5"/>
-      <c r="M96" s="13"/>
+      <c r="M96" s="16"/>
       <c r="N96" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P96" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
@@ -11380,22 +11407,22 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AC96" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="7"/>
       <c r="AG96" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AH96" s="7"/>
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
       <c r="AK96" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL96" s="5"/>
       <c r="AM96" s="5"/>
@@ -11412,51 +11439,51 @@
         <v>43</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F97" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K97" s="5" t="n">
         <v>96</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P97" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R97" s="5"/>
       <c r="S97" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T97" s="5"/>
       <c r="U97" s="5" t="s">
@@ -11480,14 +11507,14 @@
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
       <c r="AK97" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL97" s="5"/>
       <c r="AM97" s="5"/>
       <c r="AN97" s="5"/>
       <c r="AO97" s="5"/>
       <c r="AP97" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ97" s="5"/>
     </row>
@@ -11499,28 +11526,28 @@
         <v>43</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F98" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K98" s="5" t="n">
         <v>97</v>
@@ -11530,10 +11557,10 @@
         <v>96</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P98" s="8" t="n">
         <v>0</v>
@@ -11563,7 +11590,7 @@
         <v>4607042434877</v>
       </c>
       <c r="AC98" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
@@ -11573,14 +11600,14 @@
       <c r="AI98" s="5"/>
       <c r="AJ98" s="5"/>
       <c r="AK98" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL98" s="5"/>
       <c r="AM98" s="5"/>
       <c r="AN98" s="5"/>
       <c r="AO98" s="5"/>
       <c r="AP98" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ98" s="5"/>
     </row>
@@ -11592,28 +11619,28 @@
         <v>43</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K99" s="5" t="n">
         <v>98</v>
@@ -11623,10 +11650,10 @@
         <v>96</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P99" s="8" t="n">
         <v>0</v>
@@ -11656,7 +11683,7 @@
         <v>4607042434891</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -11666,14 +11693,14 @@
       <c r="AI99" s="5"/>
       <c r="AJ99" s="5"/>
       <c r="AK99" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
       <c r="AN99" s="5"/>
       <c r="AO99" s="5"/>
       <c r="AP99" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ99" s="5"/>
     </row>
@@ -11685,28 +11712,28 @@
         <v>43</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F100" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K100" s="5" t="n">
         <v>99</v>
@@ -11716,10 +11743,10 @@
         <v>96</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P100" s="8" t="n">
         <v>0</v>
@@ -11749,7 +11776,7 @@
         <v>4607042438738</v>
       </c>
       <c r="AC100" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
@@ -11759,14 +11786,14 @@
       <c r="AI100" s="5"/>
       <c r="AJ100" s="5"/>
       <c r="AK100" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
       <c r="AN100" s="5"/>
       <c r="AO100" s="5"/>
       <c r="AP100" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ100" s="5"/>
     </row>
@@ -11778,28 +11805,28 @@
         <v>43</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K101" s="5" t="n">
         <v>100</v>
@@ -11809,10 +11836,10 @@
         <v>96</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P101" s="8" t="n">
         <v>0</v>
@@ -11839,10 +11866,10 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AC101" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
@@ -11852,14 +11879,14 @@
       <c r="AI101" s="5"/>
       <c r="AJ101" s="5"/>
       <c r="AK101" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL101" s="5"/>
       <c r="AM101" s="5"/>
       <c r="AN101" s="5"/>
       <c r="AO101" s="5"/>
       <c r="AP101" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ101" s="5"/>
     </row>
@@ -11871,28 +11898,28 @@
         <v>43</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F102" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K102" s="5" t="n">
         <v>101</v>
@@ -11902,10 +11929,10 @@
         <v>96</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P102" s="8" t="n">
         <v>0</v>
@@ -11932,10 +11959,10 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
@@ -11945,14 +11972,14 @@
       <c r="AI102" s="5"/>
       <c r="AJ102" s="5"/>
       <c r="AK102" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL102" s="5"/>
       <c r="AM102" s="5"/>
       <c r="AN102" s="5"/>
       <c r="AO102" s="5"/>
       <c r="AP102" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ102" s="5"/>
     </row>
@@ -11964,7 +11991,7 @@
         <v>43</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>45</v>
@@ -11976,41 +12003,41 @@
         <v>2</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K103" s="5" t="n">
         <v>102</v>
       </c>
       <c r="L103" s="5"/>
-      <c r="M103" s="13"/>
+      <c r="M103" s="16"/>
       <c r="N103" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P103" s="8" t="n">
         <v>0.015</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
@@ -12021,22 +12048,22 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AC103" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="7"/>
       <c r="AG103" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH103" s="7"/>
       <c r="AI103" s="5"/>
       <c r="AJ103" s="5"/>
       <c r="AK103" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL103" s="5"/>
       <c r="AM103" s="5"/>
@@ -12053,51 +12080,51 @@
         <v>43</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K104" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="L104" s="14" t="s">
-        <v>320</v>
+      <c r="L104" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P104" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R104" s="5"/>
       <c r="S104" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T104" s="5"/>
       <c r="U104" s="5" t="s">
@@ -12121,14 +12148,14 @@
       <c r="AI104" s="5"/>
       <c r="AJ104" s="5"/>
       <c r="AK104" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL104" s="5"/>
       <c r="AM104" s="5"/>
       <c r="AN104" s="5"/>
       <c r="AO104" s="5"/>
       <c r="AP104" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ104" s="5"/>
     </row>
@@ -12140,28 +12167,28 @@
         <v>43</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F105" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K105" s="5" t="n">
         <v>104</v>
@@ -12171,10 +12198,10 @@
         <v>103</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P105" s="8" t="n">
         <v>0</v>
@@ -12204,7 +12231,7 @@
         <v>5449000005489</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
@@ -12214,14 +12241,14 @@
       <c r="AI105" s="5"/>
       <c r="AJ105" s="5"/>
       <c r="AK105" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL105" s="5"/>
       <c r="AM105" s="5"/>
       <c r="AN105" s="5"/>
       <c r="AO105" s="5"/>
       <c r="AP105" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ105" s="5"/>
     </row>
@@ -12233,7 +12260,7 @@
         <v>43</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>45</v>
@@ -12245,41 +12272,41 @@
         <v>2</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K106" s="5" t="n">
         <v>105</v>
       </c>
       <c r="L106" s="5"/>
-      <c r="M106" s="13"/>
+      <c r="M106" s="16"/>
       <c r="N106" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P106" s="8" t="n">
         <v>0.03</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
       <c r="T106" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U106" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
@@ -12290,22 +12317,22 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
       <c r="AB106" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AC106" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="7"/>
       <c r="AG106" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AH106" s="7"/>
       <c r="AI106" s="5"/>
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL106" s="5"/>
       <c r="AM106" s="5"/>
@@ -12322,51 +12349,51 @@
         <v>43</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K107" s="5" t="n">
         <v>106</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P107" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R107" s="5"/>
       <c r="S107" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T107" s="5"/>
       <c r="U107" s="5" t="s">
@@ -12390,14 +12417,14 @@
       <c r="AI107" s="5"/>
       <c r="AJ107" s="5"/>
       <c r="AK107" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
       <c r="AN107" s="5"/>
       <c r="AO107" s="5"/>
       <c r="AP107" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ107" s="5"/>
     </row>
@@ -12409,28 +12436,28 @@
         <v>43</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K108" s="5" t="n">
         <v>107</v>
@@ -12440,10 +12467,10 @@
         <v>106</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P108" s="8" t="n">
         <v>0</v>
@@ -12469,8 +12496,8 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-      <c r="AB108" s="5" t="n">
-        <v>5449000189318</v>
+      <c r="AB108" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="AC108" s="5" t="s">
         <v>159</v>
@@ -12483,14 +12510,14 @@
       <c r="AI108" s="5"/>
       <c r="AJ108" s="5"/>
       <c r="AK108" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL108" s="5"/>
       <c r="AM108" s="5"/>
       <c r="AN108" s="5"/>
       <c r="AO108" s="5"/>
       <c r="AP108" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ108" s="5"/>
     </row>
@@ -12502,28 +12529,28 @@
         <v>43</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K109" s="5" t="n">
         <v>108</v>
@@ -12533,10 +12560,10 @@
         <v>106</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P109" s="8" t="n">
         <v>0</v>
@@ -12562,11 +12589,11 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="5" t="n">
-        <v>5449000233509</v>
+      <c r="AB109" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="AC109" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
@@ -12576,14 +12603,14 @@
       <c r="AI109" s="5"/>
       <c r="AJ109" s="5"/>
       <c r="AK109" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL109" s="5"/>
       <c r="AM109" s="5"/>
       <c r="AN109" s="5"/>
       <c r="AO109" s="5"/>
       <c r="AP109" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AQ109" s="5"/>
     </row>
@@ -12595,7 +12622,7 @@
         <v>43</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>45</v>
@@ -12607,16 +12634,16 @@
         <v>2</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K110" s="5" t="n">
         <v>109</v>
@@ -12624,24 +12651,24 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P110" s="8" t="n">
         <v>0.025</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
       <c r="T110" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U110" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
@@ -12652,22 +12679,22 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
       <c r="AB110" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AC110" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="7"/>
       <c r="AG110" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AH110" s="7"/>
       <c r="AI110" s="5"/>
       <c r="AJ110" s="5"/>
       <c r="AK110" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL110" s="5"/>
       <c r="AM110" s="5"/>
@@ -12684,7 +12711,7 @@
         <v>43</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>45</v>
@@ -12696,39 +12723,39 @@
         <v>2</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K111" s="5" t="n">
         <v>110</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P111" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R111" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R111" s="19"/>
       <c r="S111" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T111" s="5"/>
       <c r="U111" s="5" t="s">
@@ -12752,7 +12779,7 @@
       <c r="AI111" s="5"/>
       <c r="AJ111" s="5"/>
       <c r="AK111" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
@@ -12771,7 +12798,7 @@
         <v>43</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>45</v>
@@ -12783,16 +12810,16 @@
         <v>3</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K112" s="5" t="n">
         <v>111</v>
@@ -12802,10 +12829,10 @@
         <v>110</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P112" s="8" t="n">
         <v>0</v>
@@ -12818,7 +12845,7 @@
         <v>57</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U112" s="5" t="s">
         <v>59</v>
@@ -12832,22 +12859,22 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AC112" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="7"/>
       <c r="AG112" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH112" s="7"/>
       <c r="AI112" s="5"/>
       <c r="AJ112" s="5"/>
       <c r="AK112" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL112" s="5"/>
       <c r="AM112" s="5"/>
@@ -12866,7 +12893,7 @@
         <v>43</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>45</v>
@@ -12878,16 +12905,16 @@
         <v>3</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K113" s="5" t="n">
         <v>112</v>
@@ -12897,23 +12924,23 @@
         <v>110</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P113" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R113" s="5"/>
       <c r="S113" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T113" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U113" s="5" t="s">
         <v>59</v>
@@ -12934,11 +12961,11 @@
       <c r="AG113" s="7"/>
       <c r="AH113" s="7"/>
       <c r="AI113" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AJ113" s="5"/>
       <c r="AK113" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL113" s="5"/>
       <c r="AM113" s="5"/>
@@ -12957,7 +12984,7 @@
         <v>43</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>45</v>
@@ -12969,16 +12996,16 @@
         <v>3</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K114" s="5" t="n">
         <v>113</v>
@@ -12988,16 +13015,16 @@
         <v>110</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P114" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="R114" s="5"/>
       <c r="S114" s="5" t="s">
@@ -13025,13 +13052,13 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="7"/>
       <c r="AG114" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH114" s="7"/>
       <c r="AI114" s="5"/>
       <c r="AJ114" s="5"/>
       <c r="AK114" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL114" s="5"/>
       <c r="AM114" s="5"/>
@@ -13041,7 +13068,7 @@
       <c r="AO114" s="5"/>
       <c r="AP114" s="5"/>
       <c r="AQ114" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13052,51 +13079,51 @@
         <v>43</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K115" s="5" t="n">
         <v>114</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P115" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R115" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R115" s="19"/>
       <c r="S115" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T115" s="5"/>
       <c r="U115" s="5" t="s">
@@ -13110,7 +13137,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
@@ -13122,7 +13149,7 @@
       <c r="AI115" s="5"/>
       <c r="AJ115" s="5"/>
       <c r="AK115" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL115" s="5"/>
       <c r="AM115" s="5"/>
@@ -13132,7 +13159,7 @@
       <c r="AO115" s="5"/>
       <c r="AP115" s="5"/>
       <c r="AQ115" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13143,28 +13170,28 @@
         <v>43</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K116" s="5" t="n">
         <v>115</v>
@@ -13174,10 +13201,10 @@
         <v>114</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P116" s="8" t="n">
         <v>0</v>
@@ -13217,7 +13244,7 @@
       <c r="AI116" s="5"/>
       <c r="AJ116" s="5"/>
       <c r="AK116" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
@@ -13236,28 +13263,28 @@
         <v>43</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K117" s="5" t="n">
         <v>116</v>
@@ -13267,10 +13294,10 @@
         <v>114</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P117" s="8" t="n">
         <v>0</v>
@@ -13310,7 +13337,7 @@
       <c r="AI117" s="5"/>
       <c r="AJ117" s="5"/>
       <c r="AK117" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
@@ -13329,28 +13356,28 @@
         <v>43</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K118" s="5" t="n">
         <v>117</v>
@@ -13360,10 +13387,10 @@
         <v>114</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P118" s="8" t="n">
         <v>0</v>
@@ -13403,7 +13430,7 @@
       <c r="AI118" s="5"/>
       <c r="AJ118" s="5"/>
       <c r="AK118" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL118" s="5"/>
       <c r="AM118" s="5"/>
@@ -13422,7 +13449,7 @@
         <v>43</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>45</v>
@@ -13434,39 +13461,39 @@
         <v>2</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K119" s="5" t="n">
         <v>118</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P119" s="8" t="n">
         <v>0.04</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R119" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R119" s="19"/>
       <c r="S119" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T119" s="5"/>
       <c r="U119" s="5" t="s">
@@ -13490,7 +13517,7 @@
       <c r="AI119" s="5"/>
       <c r="AJ119" s="5"/>
       <c r="AK119" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL119" s="5"/>
       <c r="AM119" s="5"/>
@@ -13509,7 +13536,7 @@
         <v>43</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>45</v>
@@ -13521,16 +13548,16 @@
         <v>3</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K120" s="5" t="n">
         <v>119</v>
@@ -13540,10 +13567,10 @@
         <v>118</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P120" s="8" t="n">
         <v>0</v>
@@ -13556,7 +13583,7 @@
         <v>57</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U120" s="5" t="s">
         <v>59</v>
@@ -13570,22 +13597,22 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AC120" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="7"/>
       <c r="AG120" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH120" s="7"/>
       <c r="AI120" s="5"/>
       <c r="AJ120" s="5"/>
       <c r="AK120" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL120" s="5"/>
       <c r="AM120" s="5"/>
@@ -13604,7 +13631,7 @@
         <v>43</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>45</v>
@@ -13616,16 +13643,16 @@
         <v>3</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K121" s="5" t="n">
         <v>120</v>
@@ -13635,23 +13662,23 @@
         <v>118</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P121" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R121" s="5"/>
       <c r="S121" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T121" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U121" s="5" t="s">
         <v>59</v>
@@ -13672,11 +13699,11 @@
       <c r="AG121" s="7"/>
       <c r="AH121" s="7"/>
       <c r="AI121" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AJ121" s="5"/>
       <c r="AK121" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL121" s="5"/>
       <c r="AM121" s="5"/>
@@ -13695,7 +13722,7 @@
         <v>43</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>45</v>
@@ -13707,16 +13734,16 @@
         <v>3</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K122" s="5" t="n">
         <v>121</v>
@@ -13726,16 +13753,16 @@
         <v>118</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P122" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="R122" s="5"/>
       <c r="S122" s="5" t="s">
@@ -13757,19 +13784,19 @@
         <v>64</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="7"/>
       <c r="AG122" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH122" s="7"/>
       <c r="AI122" s="5"/>
       <c r="AJ122" s="5"/>
       <c r="AK122" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL122" s="5"/>
       <c r="AM122" s="5"/>
@@ -13779,7 +13806,7 @@
       <c r="AO122" s="5"/>
       <c r="AP122" s="5"/>
       <c r="AQ122" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13790,51 +13817,51 @@
         <v>43</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K123" s="5" t="n">
         <v>122</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P123" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R123" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R123" s="19"/>
       <c r="S123" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T123" s="5"/>
       <c r="U123" s="5" t="s">
@@ -13848,7 +13875,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
@@ -13860,7 +13887,7 @@
       <c r="AI123" s="5"/>
       <c r="AJ123" s="5"/>
       <c r="AK123" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL123" s="5"/>
       <c r="AM123" s="5"/>
@@ -13870,7 +13897,7 @@
       <c r="AO123" s="5"/>
       <c r="AP123" s="5"/>
       <c r="AQ123" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13881,28 +13908,28 @@
         <v>43</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K124" s="5" t="n">
         <v>123</v>
@@ -13912,10 +13939,10 @@
         <v>122</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P124" s="8" t="n">
         <v>0</v>
@@ -13945,7 +13972,7 @@
         <v>64</v>
       </c>
       <c r="AC124" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
@@ -13955,7 +13982,7 @@
       <c r="AI124" s="5"/>
       <c r="AJ124" s="5"/>
       <c r="AK124" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
@@ -13974,28 +14001,28 @@
         <v>43</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K125" s="5" t="n">
         <v>124</v>
@@ -14005,10 +14032,10 @@
         <v>122</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P125" s="8" t="n">
         <v>0</v>
@@ -14038,7 +14065,7 @@
         <v>73</v>
       </c>
       <c r="AC125" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
@@ -14048,7 +14075,7 @@
       <c r="AI125" s="5"/>
       <c r="AJ125" s="5"/>
       <c r="AK125" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL125" s="5"/>
       <c r="AM125" s="5"/>
@@ -14067,7 +14094,7 @@
         <v>43</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>45</v>
@@ -14079,39 +14106,39 @@
         <v>2</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K126" s="5" t="n">
         <v>125</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P126" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R126" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R126" s="19"/>
       <c r="S126" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T126" s="5"/>
       <c r="U126" s="5" t="s">
@@ -14135,7 +14162,7 @@
       <c r="AI126" s="5"/>
       <c r="AJ126" s="5"/>
       <c r="AK126" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
@@ -14154,7 +14181,7 @@
         <v>43</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>45</v>
@@ -14166,16 +14193,16 @@
         <v>3</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K127" s="5" t="n">
         <v>126</v>
@@ -14185,10 +14212,10 @@
         <v>125</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P127" s="8" t="n">
         <v>0</v>
@@ -14201,7 +14228,7 @@
         <v>57</v>
       </c>
       <c r="T127" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U127" s="5" t="s">
         <v>59</v>
@@ -14215,22 +14242,22 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AC127" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="7"/>
       <c r="AG127" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AH127" s="7"/>
       <c r="AI127" s="5"/>
       <c r="AJ127" s="5"/>
       <c r="AK127" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -14249,7 +14276,7 @@
         <v>43</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>45</v>
@@ -14261,16 +14288,16 @@
         <v>3</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K128" s="5" t="n">
         <v>127</v>
@@ -14280,23 +14307,23 @@
         <v>125</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P128" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R128" s="5"/>
       <c r="S128" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T128" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>59</v>
@@ -14317,11 +14344,11 @@
       <c r="AG128" s="7"/>
       <c r="AH128" s="7"/>
       <c r="AI128" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AJ128" s="5"/>
       <c r="AK128" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
@@ -14340,7 +14367,7 @@
         <v>43</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>45</v>
@@ -14352,37 +14379,37 @@
         <v>3</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K129" s="5" t="n">
         <v>128</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M129" s="5" t="n">
         <v>125</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P129" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R129" s="5"/>
       <c r="S129" s="5" t="s">
@@ -14410,7 +14437,7 @@
       <c r="AI129" s="5"/>
       <c r="AJ129" s="5"/>
       <c r="AK129" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL129" s="5"/>
       <c r="AM129" s="5"/>
@@ -14429,7 +14456,7 @@
         <v>43</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>45</v>
@@ -14441,16 +14468,16 @@
         <v>4</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K130" s="5" t="n">
         <v>129</v>
@@ -14460,16 +14487,16 @@
         <v>128</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P130" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="R130" s="5"/>
       <c r="S130" s="5" t="s">
@@ -14487,11 +14514,11 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
-      <c r="AB130" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="AC130" s="16" t="s">
-        <v>412</v>
+      <c r="AB130" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC130" s="20" t="s">
+        <v>414</v>
       </c>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
@@ -14501,7 +14528,7 @@
       <c r="AI130" s="5"/>
       <c r="AJ130" s="5"/>
       <c r="AK130" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
@@ -14511,7 +14538,7 @@
       <c r="AO130" s="5"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14522,7 +14549,7 @@
         <v>43</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>45</v>
@@ -14534,16 +14561,16 @@
         <v>4</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K131" s="5" t="n">
         <v>130</v>
@@ -14553,16 +14580,16 @@
         <v>128</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P131" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q131" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="R131" s="5"/>
       <c r="S131" s="5" t="s">
@@ -14580,11 +14607,11 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
-      <c r="AB131" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC131" s="16" t="s">
-        <v>417</v>
+      <c r="AB131" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC131" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
@@ -14594,7 +14621,7 @@
       <c r="AI131" s="5"/>
       <c r="AJ131" s="5"/>
       <c r="AK131" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
@@ -14604,7 +14631,7 @@
       <c r="AO131" s="5"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14615,51 +14642,51 @@
         <v>43</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K132" s="5" t="n">
         <v>131</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M132" s="5"/>
       <c r="N132" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P132" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R132" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R132" s="19"/>
       <c r="S132" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T132" s="5"/>
       <c r="U132" s="5" t="s">
@@ -14673,7 +14700,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
       <c r="AA132" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
@@ -14685,7 +14712,7 @@
       <c r="AI132" s="5"/>
       <c r="AJ132" s="5"/>
       <c r="AK132" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL132" s="5"/>
       <c r="AM132" s="5"/>
@@ -14695,7 +14722,7 @@
       <c r="AO132" s="5"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14706,28 +14733,28 @@
         <v>43</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K133" s="5" t="n">
         <v>132</v>
@@ -14737,10 +14764,10 @@
         <v>131</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P133" s="8" t="n">
         <v>0</v>
@@ -14766,11 +14793,11 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
-      <c r="AB133" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="AC133" s="16" t="s">
-        <v>412</v>
+      <c r="AB133" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC133" s="20" t="s">
+        <v>414</v>
       </c>
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
@@ -14780,7 +14807,7 @@
       <c r="AI133" s="5"/>
       <c r="AJ133" s="5"/>
       <c r="AK133" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL133" s="5"/>
       <c r="AM133" s="5"/>
@@ -14799,28 +14826,28 @@
         <v>43</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K134" s="5" t="n">
         <v>133</v>
@@ -14830,10 +14857,10 @@
         <v>131</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P134" s="8" t="n">
         <v>0</v>
@@ -14859,11 +14886,11 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
-      <c r="AB134" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC134" s="16" t="s">
-        <v>417</v>
+      <c r="AB134" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC134" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
@@ -14873,7 +14900,7 @@
       <c r="AI134" s="5"/>
       <c r="AJ134" s="5"/>
       <c r="AK134" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL134" s="5"/>
       <c r="AM134" s="5"/>
@@ -14892,28 +14919,28 @@
         <v>43</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K135" s="5" t="n">
         <v>134</v>
@@ -14923,10 +14950,10 @@
         <v>131</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P135" s="8" t="n">
         <v>0</v>
@@ -14956,7 +14983,7 @@
         <v>4607042438738</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
@@ -14966,7 +14993,7 @@
       <c r="AI135" s="5"/>
       <c r="AJ135" s="5"/>
       <c r="AK135" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL135" s="5"/>
       <c r="AM135" s="5"/>
@@ -14985,28 +15012,28 @@
         <v>43</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K136" s="5" t="n">
         <v>135</v>
@@ -15016,10 +15043,10 @@
         <v>131</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P136" s="8" t="n">
         <v>0</v>
@@ -15049,7 +15076,7 @@
         <v>4607042438950</v>
       </c>
       <c r="AC136" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
@@ -15059,7 +15086,7 @@
       <c r="AI136" s="5"/>
       <c r="AJ136" s="5"/>
       <c r="AK136" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL136" s="5"/>
       <c r="AM136" s="5"/>
@@ -15078,7 +15105,7 @@
         <v>43</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>45</v>
@@ -15090,39 +15117,39 @@
         <v>2</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K137" s="5" t="n">
         <v>136</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M137" s="5"/>
       <c r="N137" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P137" s="8" t="n">
         <v>0.03</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="R137" s="15"/>
+        <v>355</v>
+      </c>
+      <c r="R137" s="19"/>
       <c r="S137" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T137" s="5"/>
       <c r="U137" s="5" t="s">
@@ -15146,7 +15173,7 @@
       <c r="AI137" s="5"/>
       <c r="AJ137" s="5"/>
       <c r="AK137" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
@@ -15163,7 +15190,7 @@
         <v>43</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>45</v>
@@ -15175,16 +15202,16 @@
         <v>3</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K138" s="5" t="n">
         <v>137</v>
@@ -15194,10 +15221,10 @@
         <v>136</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P138" s="8" t="n">
         <v>0</v>
@@ -15210,7 +15237,7 @@
         <v>57</v>
       </c>
       <c r="T138" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>59</v>
@@ -15224,22 +15251,22 @@
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AC138" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="7"/>
       <c r="AG138" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AH138" s="7"/>
       <c r="AI138" s="5"/>
       <c r="AJ138" s="5"/>
       <c r="AK138" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
@@ -15256,7 +15283,7 @@
         <v>43</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>45</v>
@@ -15268,16 +15295,16 @@
         <v>3</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K139" s="5" t="n">
         <v>138</v>
@@ -15287,23 +15314,23 @@
         <v>136</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P139" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R139" s="5"/>
       <c r="S139" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T139" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>59</v>
@@ -15324,11 +15351,11 @@
       <c r="AG139" s="7"/>
       <c r="AH139" s="7"/>
       <c r="AI139" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AJ139" s="5"/>
       <c r="AK139" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL139" s="5"/>
       <c r="AM139" s="5"/>
@@ -15345,7 +15372,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>45</v>
@@ -15357,37 +15384,37 @@
         <v>3</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K140" s="5" t="n">
         <v>139</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M140" s="5" t="n">
         <v>136</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P140" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q140" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R140" s="5"/>
       <c r="S140" s="5" t="s">
@@ -15415,7 +15442,7 @@
       <c r="AI140" s="5"/>
       <c r="AJ140" s="5"/>
       <c r="AK140" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL140" s="5"/>
       <c r="AM140" s="5"/>
@@ -15432,7 +15459,7 @@
         <v>43</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>45</v>
@@ -15444,16 +15471,16 @@
         <v>4</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K141" s="5" t="n">
         <v>140</v>
@@ -15463,16 +15490,16 @@
         <v>139</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O141" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P141" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="R141" s="5"/>
       <c r="S141" s="5" t="s">
@@ -15490,8 +15517,8 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
-      <c r="AB141" s="5" t="n">
-        <v>5449000189318</v>
+      <c r="AB141" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="AC141" s="5" t="s">
         <v>159</v>
@@ -15504,7 +15531,7 @@
       <c r="AI141" s="5"/>
       <c r="AJ141" s="5"/>
       <c r="AK141" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL141" s="5"/>
       <c r="AM141" s="5"/>
@@ -15512,7 +15539,7 @@
       <c r="AO141" s="5"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15523,7 +15550,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>45</v>
@@ -15535,16 +15562,16 @@
         <v>4</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K142" s="5" t="n">
         <v>141</v>
@@ -15554,16 +15581,16 @@
         <v>139</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P142" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="R142" s="5"/>
       <c r="S142" s="5" t="s">
@@ -15581,11 +15608,11 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
-      <c r="AB142" s="5" t="n">
-        <v>5449000233509</v>
+      <c r="AB142" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="AC142" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
@@ -15595,7 +15622,7 @@
       <c r="AI142" s="5"/>
       <c r="AJ142" s="5"/>
       <c r="AK142" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
@@ -15603,7 +15630,7 @@
       <c r="AO142" s="5"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15614,7 +15641,7 @@
         <v>43</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>45</v>
@@ -15626,47 +15653,47 @@
         <v>2</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K143" s="5" t="n">
         <v>142</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M143" s="5"/>
       <c r="N143" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P143" s="8" t="n">
         <v>0.09</v>
       </c>
       <c r="Q143" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="R143" s="5"/>
       <c r="S143" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="T143" s="5"/>
       <c r="U143" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V143" s="5"/>
       <c r="W143" s="5"/>
-      <c r="X143" s="15"/>
+      <c r="X143" s="19"/>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
@@ -15686,7 +15713,7 @@
       <c r="AO143" s="5"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15697,7 +15724,7 @@
         <v>43</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>45</v>
@@ -15709,16 +15736,16 @@
         <v>3</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K144" s="5" t="n">
         <v>143</v>
@@ -15728,21 +15755,21 @@
         <v>142</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O144" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P144" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="R144" s="0"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U144" s="5" t="s">
         <v>59</v>
@@ -15752,16 +15779,16 @@
       <c r="X144" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y144" s="17" t="n">
+      <c r="Y144" s="21" t="n">
         <v>24</v>
       </c>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AC144" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
@@ -15771,7 +15798,7 @@
       <c r="AI144" s="5"/>
       <c r="AJ144" s="5"/>
       <c r="AK144" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL144" s="5"/>
       <c r="AM144" s="5"/>
@@ -15788,7 +15815,7 @@
         <v>43</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>45</v>
@@ -15800,16 +15827,16 @@
         <v>3</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K145" s="5" t="n">
         <v>144</v>
@@ -15819,21 +15846,21 @@
         <v>142</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P145" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="R145" s="5"/>
       <c r="S145" s="5"/>
       <c r="T145" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>59</v>
@@ -15847,10 +15874,10 @@
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AC145" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
@@ -15860,7 +15887,7 @@
       <c r="AI145" s="5"/>
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL145" s="5"/>
       <c r="AM145" s="5"/>
@@ -15877,7 +15904,7 @@
         <v>43</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>45</v>
@@ -15889,16 +15916,16 @@
         <v>2</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K146" s="5" t="n">
         <v>145</v>
@@ -15906,21 +15933,21 @@
       <c r="L146" s="5"/>
       <c r="M146" s="10"/>
       <c r="N146" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P146" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
       <c r="T146" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>59</v>
@@ -15933,7 +15960,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
@@ -15943,11 +15970,11 @@
       <c r="AG146" s="7"/>
       <c r="AH146" s="7"/>
       <c r="AI146" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AJ146" s="5"/>
       <c r="AK146" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL146" s="5"/>
       <c r="AM146" s="5"/>
@@ -15955,7 +15982,7 @@
       <c r="AO146" s="5"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15966,7 +15993,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>45</v>
@@ -15978,16 +16005,16 @@
         <v>2</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K147" s="5" t="n">
         <v>146</v>
@@ -15995,22 +16022,22 @@
       <c r="L147" s="5"/>
       <c r="M147" s="10"/>
       <c r="N147" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P147" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="R147" s="15"/>
+        <v>481</v>
+      </c>
+      <c r="R147" s="19"/>
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
@@ -16022,11 +16049,11 @@
         <v>26</v>
       </c>
       <c r="AA147" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
@@ -16036,7 +16063,7 @@
       <c r="AI147" s="5"/>
       <c r="AJ147" s="5"/>
       <c r="AK147" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL147" s="5"/>
       <c r="AM147" s="5"/>
@@ -16044,7 +16071,7 @@
       <c r="AO147" s="5"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16055,7 +16082,7 @@
         <v>43</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>45</v>
@@ -16067,45 +16094,45 @@
         <v>2</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K148" s="5" t="n">
         <v>147</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M148" s="10"/>
       <c r="N148" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O148" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P148" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R148" s="5"/>
       <c r="S148" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T148" s="5"/>
       <c r="U148" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="V148" s="18" t="n">
+        <v>485</v>
+      </c>
+      <c r="V148" s="22" t="n">
         <v>0.5</v>
       </c>
       <c r="W148" s="5" t="n">
@@ -16117,7 +16144,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
@@ -16129,7 +16156,7 @@
       <c r="AI148" s="5"/>
       <c r="AJ148" s="5"/>
       <c r="AK148" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL148" s="5"/>
       <c r="AM148" s="5"/>
@@ -16137,7 +16164,7 @@
       <c r="AO148" s="5"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16148,7 +16175,7 @@
         <v>43</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>45</v>
@@ -16160,16 +16187,16 @@
         <v>3</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K149" s="5" t="n">
         <v>148</v>
@@ -16179,10 +16206,10 @@
         <v>147</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P149" s="8" t="n">
         <v>0</v>
@@ -16208,7 +16235,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB149" s="5" t="n">
         <v>40822426</v>
@@ -16224,7 +16251,7 @@
       <c r="AI149" s="5"/>
       <c r="AJ149" s="5"/>
       <c r="AK149" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
@@ -16232,7 +16259,7 @@
       <c r="AO149" s="5"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16243,7 +16270,7 @@
         <v>43</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>45</v>
@@ -16255,16 +16282,16 @@
         <v>3</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K150" s="5" t="n">
         <v>149</v>
@@ -16274,10 +16301,10 @@
         <v>147</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O150" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P150" s="8" t="n">
         <v>0</v>
@@ -16303,7 +16330,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB150" s="5" t="n">
         <v>5449000131768</v>
@@ -16319,7 +16346,7 @@
       <c r="AI150" s="5"/>
       <c r="AJ150" s="5"/>
       <c r="AK150" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL150" s="5"/>
       <c r="AM150" s="5"/>
@@ -16327,7 +16354,7 @@
       <c r="AO150" s="5"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16338,7 +16365,7 @@
         <v>43</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>45</v>
@@ -16350,16 +16377,16 @@
         <v>3</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K151" s="5" t="n">
         <v>150</v>
@@ -16369,10 +16396,10 @@
         <v>147</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O151" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P151" s="8" t="n">
         <v>0</v>
@@ -16398,7 +16425,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB151" s="5" t="n">
         <v>5449000000996</v>
@@ -16414,7 +16441,7 @@
       <c r="AI151" s="5"/>
       <c r="AJ151" s="5"/>
       <c r="AK151" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL151" s="5"/>
       <c r="AM151" s="5"/>
@@ -16422,7 +16449,7 @@
       <c r="AO151" s="5"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16433,7 +16460,7 @@
         <v>43</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>45</v>
@@ -16445,16 +16472,16 @@
         <v>3</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K152" s="5" t="n">
         <v>151</v>
@@ -16464,10 +16491,10 @@
         <v>147</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O152" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P152" s="8" t="n">
         <v>0</v>
@@ -16493,7 +16520,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB152" s="5" t="n">
         <v>54491472</v>
@@ -16509,7 +16536,7 @@
       <c r="AI152" s="5"/>
       <c r="AJ152" s="5"/>
       <c r="AK152" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL152" s="5"/>
       <c r="AM152" s="5"/>
@@ -16517,7 +16544,7 @@
       <c r="AO152" s="5"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16528,7 +16555,7 @@
         <v>43</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>45</v>
@@ -16540,16 +16567,16 @@
         <v>3</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K153" s="5" t="n">
         <v>152</v>
@@ -16559,10 +16586,10 @@
         <v>147</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P153" s="8" t="n">
         <v>0</v>
@@ -16588,7 +16615,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB153" s="5" t="s">
         <v>64</v>
@@ -16604,7 +16631,7 @@
       <c r="AI153" s="5"/>
       <c r="AJ153" s="5"/>
       <c r="AK153" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL153" s="5"/>
       <c r="AM153" s="5"/>
@@ -16612,7 +16639,7 @@
       <c r="AO153" s="5"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16623,7 +16650,7 @@
         <v>43</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>45</v>
@@ -16635,16 +16662,16 @@
         <v>3</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K154" s="5" t="n">
         <v>153</v>
@@ -16654,10 +16681,10 @@
         <v>147</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P154" s="8" t="n">
         <v>0</v>
@@ -16683,7 +16710,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB154" s="5" t="n">
         <v>5449000131836</v>
@@ -16699,7 +16726,7 @@
       <c r="AI154" s="5"/>
       <c r="AJ154" s="5"/>
       <c r="AK154" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
@@ -16707,7 +16734,7 @@
       <c r="AO154" s="5"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16718,7 +16745,7 @@
         <v>43</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>45</v>
@@ -16730,16 +16757,16 @@
         <v>3</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K155" s="5" t="n">
         <v>154</v>
@@ -16749,10 +16776,10 @@
         <v>147</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P155" s="8" t="n">
         <v>0</v>
@@ -16778,7 +16805,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB155" s="5" t="s">
         <v>73</v>
@@ -16794,7 +16821,7 @@
       <c r="AI155" s="5"/>
       <c r="AJ155" s="5"/>
       <c r="AK155" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL155" s="5"/>
       <c r="AM155" s="5"/>
@@ -16802,7 +16829,7 @@
       <c r="AO155" s="5"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16813,7 +16840,7 @@
         <v>43</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>45</v>
@@ -16825,16 +16852,16 @@
         <v>3</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K156" s="5" t="n">
         <v>155</v>
@@ -16844,10 +16871,10 @@
         <v>147</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P156" s="8" t="n">
         <v>0</v>
@@ -16873,7 +16900,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB156" s="5" t="n">
         <v>5449000011527</v>
@@ -16889,7 +16916,7 @@
       <c r="AI156" s="5"/>
       <c r="AJ156" s="5"/>
       <c r="AK156" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL156" s="5"/>
       <c r="AM156" s="5"/>
@@ -16897,7 +16924,7 @@
       <c r="AO156" s="5"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16908,7 +16935,7 @@
         <v>43</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>45</v>
@@ -16920,16 +16947,16 @@
         <v>3</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K157" s="5" t="n">
         <v>156</v>
@@ -16939,10 +16966,10 @@
         <v>147</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P157" s="8" t="n">
         <v>0</v>
@@ -16968,7 +16995,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB157" s="5" t="n">
         <v>40822938</v>
@@ -16984,7 +17011,7 @@
       <c r="AI157" s="5"/>
       <c r="AJ157" s="5"/>
       <c r="AK157" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL157" s="5"/>
       <c r="AM157" s="5"/>
@@ -16992,7 +17019,7 @@
       <c r="AO157" s="5"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17003,7 +17030,7 @@
         <v>43</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>45</v>
@@ -17015,16 +17042,16 @@
         <v>3</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K158" s="5" t="n">
         <v>157</v>
@@ -17034,10 +17061,10 @@
         <v>147</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P158" s="8" t="n">
         <v>0</v>
@@ -17063,7 +17090,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB158" s="5" t="s">
         <v>76</v>
@@ -17079,7 +17106,7 @@
       <c r="AI158" s="5"/>
       <c r="AJ158" s="5"/>
       <c r="AK158" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL158" s="5"/>
       <c r="AM158" s="5"/>
@@ -17087,7 +17114,7 @@
       <c r="AO158" s="5"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17098,7 +17125,7 @@
         <v>43</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>45</v>
@@ -17110,16 +17137,16 @@
         <v>3</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K159" s="5" t="n">
         <v>158</v>
@@ -17129,10 +17156,10 @@
         <v>147</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P159" s="8" t="n">
         <v>0</v>
@@ -17158,13 +17185,13 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB159" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AC159" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
@@ -17174,7 +17201,7 @@
       <c r="AI159" s="5"/>
       <c r="AJ159" s="5"/>
       <c r="AK159" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
@@ -17182,7 +17209,7 @@
       <c r="AO159" s="5"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17193,7 +17220,7 @@
         <v>43</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>45</v>
@@ -17205,16 +17232,16 @@
         <v>3</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K160" s="5" t="n">
         <v>159</v>
@@ -17224,10 +17251,10 @@
         <v>147</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P160" s="8" t="n">
         <v>0</v>
@@ -17253,13 +17280,13 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB160" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AC160" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
@@ -17269,7 +17296,7 @@
       <c r="AI160" s="5"/>
       <c r="AJ160" s="5"/>
       <c r="AK160" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL160" s="5"/>
       <c r="AM160" s="5"/>
@@ -17277,7 +17304,7 @@
       <c r="AO160" s="5"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17288,7 +17315,7 @@
         <v>43</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>45</v>
@@ -17300,16 +17327,16 @@
         <v>3</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K161" s="5" t="n">
         <v>160</v>
@@ -17319,10 +17346,10 @@
         <v>147</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O161" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P161" s="8" t="n">
         <v>0</v>
@@ -17348,7 +17375,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB161" s="5" t="n">
         <v>5060335632906</v>
@@ -17364,7 +17391,7 @@
       <c r="AI161" s="5"/>
       <c r="AJ161" s="5"/>
       <c r="AK161" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL161" s="5"/>
       <c r="AM161" s="5"/>
@@ -17372,7 +17399,7 @@
       <c r="AO161" s="5"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17383,7 +17410,7 @@
         <v>43</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>45</v>
@@ -17395,16 +17422,16 @@
         <v>3</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K162" s="5" t="n">
         <v>161</v>
@@ -17414,10 +17441,10 @@
         <v>147</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P162" s="8" t="n">
         <v>0</v>
@@ -17443,7 +17470,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB162" s="5" t="n">
         <v>5449000014535</v>
@@ -17459,7 +17486,7 @@
       <c r="AI162" s="5"/>
       <c r="AJ162" s="5"/>
       <c r="AK162" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL162" s="5"/>
       <c r="AM162" s="5"/>
@@ -17467,7 +17494,7 @@
       <c r="AO162" s="5"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17478,7 +17505,7 @@
         <v>43</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>45</v>
@@ -17490,16 +17517,16 @@
         <v>3</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K163" s="5" t="n">
         <v>162</v>
@@ -17509,10 +17536,10 @@
         <v>147</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P163" s="8" t="n">
         <v>0</v>
@@ -17538,7 +17565,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
       <c r="AA163" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB163" s="5" t="n">
         <v>54491069</v>
@@ -17554,7 +17581,7 @@
       <c r="AI163" s="5"/>
       <c r="AJ163" s="5"/>
       <c r="AK163" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
@@ -17562,7 +17589,7 @@
       <c r="AO163" s="5"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17573,7 +17600,7 @@
         <v>43</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>45</v>
@@ -17585,16 +17612,16 @@
         <v>3</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K164" s="5" t="n">
         <v>163</v>
@@ -17604,10 +17631,10 @@
         <v>147</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P164" s="8" t="n">
         <v>0</v>
@@ -17633,7 +17660,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB164" s="5" t="s">
         <v>79</v>
@@ -17649,7 +17676,7 @@
       <c r="AI164" s="5"/>
       <c r="AJ164" s="5"/>
       <c r="AK164" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
@@ -17657,7 +17684,7 @@
       <c r="AO164" s="5"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17668,7 +17695,7 @@
         <v>43</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>45</v>
@@ -17680,16 +17707,16 @@
         <v>2</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K165" s="5" t="n">
         <v>164</v>
@@ -17697,24 +17724,24 @@
       <c r="L165" s="5"/>
       <c r="M165" s="10"/>
       <c r="N165" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P165" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q165" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U165" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V165" s="5"/>
       <c r="W165" s="5"/>
@@ -17722,13 +17749,13 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB165" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AC165" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
@@ -17738,7 +17765,7 @@
       <c r="AI165" s="5"/>
       <c r="AJ165" s="5"/>
       <c r="AK165" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL165" s="5"/>
       <c r="AM165" s="5"/>
@@ -17746,7 +17773,7 @@
       <c r="AO165" s="5"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17757,47 +17784,47 @@
         <v>43</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F166" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K166" s="5" t="n">
         <v>165</v>
       </c>
-      <c r="L166" s="14" t="s">
-        <v>525</v>
+      <c r="L166" s="17" t="s">
+        <v>527</v>
       </c>
       <c r="M166" s="10"/>
       <c r="N166" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P166" s="8" t="n">
         <v>0.02</v>
       </c>
       <c r="Q166" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="R166" s="5"/>
       <c r="S166" s="5" t="s">
@@ -17805,7 +17832,7 @@
       </c>
       <c r="T166" s="5"/>
       <c r="U166" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V166" s="5"/>
       <c r="W166" s="5"/>
@@ -17825,7 +17852,7 @@
       <c r="AI166" s="5"/>
       <c r="AJ166" s="5"/>
       <c r="AK166" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
@@ -17842,28 +17869,28 @@
         <v>43</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F167" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K167" s="5" t="n">
         <v>166</v>
@@ -17873,26 +17900,26 @@
         <v>165</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P167" s="8" t="n">
         <v>1</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="R167" s="15"/>
+        <v>531</v>
+      </c>
+      <c r="R167" s="19"/>
       <c r="S167" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U167" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="V167" s="5"/>
       <c r="W167" s="5"/>
@@ -17905,10 +17932,10 @@
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
       <c r="AB167" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AC167" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
@@ -17918,7 +17945,7 @@
       <c r="AI167" s="5"/>
       <c r="AJ167" s="5"/>
       <c r="AK167" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
@@ -17926,7 +17953,7 @@
       <c r="AO167" s="5"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17937,47 +17964,47 @@
         <v>43</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F168" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K168" s="5" t="n">
         <v>167</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M168" s="10"/>
       <c r="N168" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O168" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P168" s="8" t="n">
         <v>0.03</v>
       </c>
       <c r="Q168" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R168" s="5"/>
       <c r="S168" s="5" t="s">
@@ -17985,7 +18012,7 @@
       </c>
       <c r="T168" s="5"/>
       <c r="U168" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V168" s="5"/>
       <c r="W168" s="5"/>
@@ -18020,28 +18047,28 @@
         <v>43</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F169" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K169" s="5" t="n">
         <v>168</v>
@@ -18051,23 +18078,23 @@
         <v>167</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P169" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q169" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R169" s="5"/>
       <c r="S169" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T169" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U169" s="5" t="s">
         <v>59</v>
@@ -18091,7 +18118,7 @@
       <c r="AJ169" s="5"/>
       <c r="AK169" s="5"/>
       <c r="AL169" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AM169" s="5"/>
       <c r="AN169" s="5"/>
@@ -18107,28 +18134,28 @@
         <v>43</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F170" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K170" s="5" t="n">
         <v>169</v>
@@ -18138,23 +18165,23 @@
         <v>167</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P170" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q170" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R170" s="5"/>
       <c r="S170" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T170" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U170" s="5" t="s">
         <v>59</v>
@@ -18177,8 +18204,8 @@
       <c r="AI170" s="5"/>
       <c r="AJ170" s="5"/>
       <c r="AK170" s="5"/>
-      <c r="AL170" s="15" t="s">
-        <v>545</v>
+      <c r="AL170" s="19" t="s">
+        <v>547</v>
       </c>
       <c r="AM170" s="5"/>
       <c r="AN170" s="5"/>
@@ -18194,28 +18221,28 @@
         <v>43</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F171" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K171" s="5" t="n">
         <v>170</v>
@@ -18225,23 +18252,23 @@
         <v>167</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="O171" s="15" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="O171" s="19" t="s">
+        <v>549</v>
       </c>
       <c r="P171" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q171" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R171" s="5"/>
       <c r="S171" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T171" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U171" s="5" t="s">
         <v>59</v>
@@ -18264,8 +18291,8 @@
       <c r="AI171" s="5"/>
       <c r="AJ171" s="5"/>
       <c r="AK171" s="5"/>
-      <c r="AL171" s="15" t="s">
-        <v>548</v>
+      <c r="AL171" s="19" t="s">
+        <v>550</v>
       </c>
       <c r="AM171" s="5"/>
       <c r="AN171" s="5"/>
@@ -18281,28 +18308,28 @@
         <v>43</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F172" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K172" s="5" t="n">
         <v>171</v>
@@ -18311,24 +18338,24 @@
       <c r="M172" s="5" t="n">
         <v>167</v>
       </c>
-      <c r="N172" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="O172" s="15" t="s">
-        <v>550</v>
+      <c r="N172" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="O172" s="19" t="s">
+        <v>552</v>
       </c>
       <c r="P172" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q172" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R172" s="5"/>
       <c r="S172" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T172" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U172" s="5" t="s">
         <v>59</v>
@@ -18351,8 +18378,8 @@
       <c r="AI172" s="5"/>
       <c r="AJ172" s="5"/>
       <c r="AK172" s="5"/>
-      <c r="AL172" s="15" t="s">
-        <v>551</v>
+      <c r="AL172" s="19" t="s">
+        <v>553</v>
       </c>
       <c r="AM172" s="5"/>
       <c r="AN172" s="5"/>
@@ -18368,13 +18395,13 @@
         <v>43</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -18385,27 +18412,27 @@
         <v>172</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M173" s="5"/>
-      <c r="N173" s="19" t="s">
-        <v>555</v>
+      <c r="N173" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="O173" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P173" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="R173" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="S173" s="5"/>
       <c r="T173" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
@@ -18439,13 +18466,13 @@
         <v>43</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -18459,24 +18486,24 @@
         <v>167</v>
       </c>
       <c r="M174" s="5"/>
-      <c r="N174" s="20" t="s">
-        <v>561</v>
+      <c r="N174" s="24" t="s">
+        <v>563</v>
       </c>
       <c r="O174" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="P174" s="21" t="n">
+        <v>564</v>
+      </c>
+      <c r="P174" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q174" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="R174" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="S174" s="5"/>
       <c r="T174" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="U174" s="5"/>
       <c r="V174" s="5"/>
@@ -18510,13 +18537,13 @@
         <v>43</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -18527,27 +18554,27 @@
         <v>174</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M175" s="5"/>
-      <c r="N175" s="20" t="s">
-        <v>566</v>
+      <c r="N175" s="24" t="s">
+        <v>568</v>
       </c>
       <c r="O175" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P175" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q175" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="R175" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S175" s="5"/>
       <c r="T175" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="U175" s="5"/>
       <c r="V175" s="5"/>
@@ -18581,13 +18608,13 @@
         <v>43</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -18601,24 +18628,24 @@
         <v>165</v>
       </c>
       <c r="M176" s="5"/>
-      <c r="N176" s="20" t="s">
-        <v>571</v>
+      <c r="N176" s="24" t="s">
+        <v>573</v>
       </c>
       <c r="O176" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P176" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q176" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="R176" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S176" s="5"/>
       <c r="T176" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="U176" s="5"/>
       <c r="V176" s="5"/>
@@ -18652,13 +18679,13 @@
         <v>43</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -18669,27 +18696,27 @@
         <v>176</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M177" s="5"/>
-      <c r="N177" s="20" t="s">
-        <v>575</v>
+      <c r="N177" s="24" t="s">
+        <v>577</v>
       </c>
       <c r="O177" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P177" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q177" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="R177" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="S177" s="5"/>
       <c r="T177" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="U177" s="5"/>
       <c r="V177" s="5"/>
@@ -18723,13 +18750,13 @@
         <v>43</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -18741,24 +18768,24 @@
       </c>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
-      <c r="N178" s="20" t="s">
-        <v>578</v>
+      <c r="N178" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="O178" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P178" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q178" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="R178" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S178" s="5"/>
       <c r="T178" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U178" s="5"/>
       <c r="V178" s="5"/>
@@ -18768,7 +18795,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AC178" s="5"/>
       <c r="AD178" s="5"/>
@@ -18780,7 +18807,7 @@
       <c r="AJ178" s="5"/>
       <c r="AK178" s="5"/>
       <c r="AL178" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AM178" s="5"/>
       <c r="AN178" s="5"/>
@@ -18796,13 +18823,13 @@
         <v>43</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -18814,24 +18841,24 @@
       </c>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
-      <c r="N179" s="20" t="s">
-        <v>585</v>
+      <c r="N179" s="24" t="s">
+        <v>587</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P179" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q179" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="R179" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S179" s="5"/>
       <c r="T179" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U179" s="5"/>
       <c r="V179" s="5"/>
@@ -18841,7 +18868,7 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AC179" s="5"/>
       <c r="AD179" s="5"/>
@@ -18853,7 +18880,7 @@
       <c r="AJ179" s="5"/>
       <c r="AK179" s="5"/>
       <c r="AL179" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM179" s="5"/>
       <c r="AN179" s="5"/>
@@ -18869,13 +18896,13 @@
         <v>43</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -18887,24 +18914,24 @@
       </c>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
-      <c r="N180" s="20" t="s">
-        <v>592</v>
+      <c r="N180" s="24" t="s">
+        <v>594</v>
       </c>
       <c r="O180" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P180" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q180" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="R180" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S180" s="5"/>
       <c r="T180" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U180" s="5"/>
       <c r="V180" s="5"/>
@@ -18914,7 +18941,7 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AC180" s="5"/>
       <c r="AD180" s="5"/>
@@ -18926,7 +18953,7 @@
       <c r="AJ180" s="5"/>
       <c r="AK180" s="5"/>
       <c r="AL180" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM180" s="5"/>
       <c r="AN180" s="5"/>
@@ -18942,13 +18969,13 @@
         <v>43</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -18962,24 +18989,24 @@
         <v>110</v>
       </c>
       <c r="M181" s="5"/>
-      <c r="N181" s="20" t="s">
-        <v>596</v>
+      <c r="N181" s="24" t="s">
+        <v>598</v>
       </c>
       <c r="O181" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="P181" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q181" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R181" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S181" s="5"/>
       <c r="T181" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U181" s="5"/>
       <c r="V181" s="5"/>
@@ -18989,7 +19016,7 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
       <c r="AB181" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AC181" s="5"/>
       <c r="AD181" s="5"/>
@@ -19001,7 +19028,7 @@
       <c r="AJ181" s="5"/>
       <c r="AK181" s="5"/>
       <c r="AL181" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AM181" s="5"/>
       <c r="AN181" s="5"/>
@@ -19017,13 +19044,13 @@
         <v>43</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -19037,24 +19064,24 @@
         <v>118</v>
       </c>
       <c r="M182" s="5"/>
-      <c r="N182" s="20" t="s">
-        <v>596</v>
+      <c r="N182" s="24" t="s">
+        <v>598</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P182" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q182" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R182" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S182" s="5"/>
       <c r="T182" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U182" s="5"/>
       <c r="V182" s="5"/>
@@ -19064,7 +19091,7 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
       <c r="AB182" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AC182" s="5"/>
       <c r="AD182" s="5"/>
@@ -19076,7 +19103,7 @@
       <c r="AJ182" s="5"/>
       <c r="AK182" s="5"/>
       <c r="AL182" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AM182" s="5"/>
       <c r="AN182" s="5"/>
@@ -19092,13 +19119,13 @@
         <v>43</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -19112,24 +19139,24 @@
         <v>125</v>
       </c>
       <c r="M183" s="5"/>
-      <c r="N183" s="20" t="s">
-        <v>596</v>
+      <c r="N183" s="24" t="s">
+        <v>598</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P183" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q183" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R183" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S183" s="5"/>
       <c r="T183" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U183" s="5"/>
       <c r="V183" s="5"/>
@@ -19139,7 +19166,7 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
       <c r="AB183" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AC183" s="5"/>
       <c r="AD183" s="5"/>
@@ -19151,7 +19178,7 @@
       <c r="AJ183" s="5"/>
       <c r="AK183" s="5"/>
       <c r="AL183" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AM183" s="5"/>
       <c r="AN183" s="5"/>
@@ -19167,13 +19194,13 @@
         <v>43</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -19187,24 +19214,24 @@
         <v>136</v>
       </c>
       <c r="M184" s="5"/>
-      <c r="N184" s="20" t="s">
-        <v>596</v>
+      <c r="N184" s="24" t="s">
+        <v>598</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P184" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q184" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R184" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="S184" s="5"/>
       <c r="T184" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U184" s="5"/>
       <c r="V184" s="5"/>
@@ -19214,7 +19241,7 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
       <c r="AB184" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AC184" s="5"/>
       <c r="AD184" s="5"/>
@@ -19226,7 +19253,7 @@
       <c r="AJ184" s="5"/>
       <c r="AK184" s="5"/>
       <c r="AL184" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AM184" s="5"/>
       <c r="AN184" s="5"/>
@@ -19495,7 +19522,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ184"/>
+  <autoFilter ref="A1:AQ172"/>
   <conditionalFormatting sqref="O98:O100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -19525,7 +19552,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB159:AB160 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19534,49 +19561,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>613</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24" t="s">
-        <v>614</v>
+      <c r="B4" s="28" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
